--- a/output/Region & Phase.xlsx
+++ b/output/Region & Phase.xlsx
@@ -684,22 +684,22 @@
         <v>273</v>
       </c>
       <c r="J4" s="3">
-        <v>331697.061209083</v>
+        <v>322557.5754834538</v>
       </c>
       <c r="K4" s="3">
-        <v>937031.9486372616</v>
+        <v>915046.3866064235</v>
       </c>
       <c r="L4" s="3">
-        <v>940116.6640513132</v>
+        <v>919692.1767338422</v>
       </c>
       <c r="M4" s="3">
-        <v>1268352.974144286</v>
+        <v>1247867.355417162</v>
       </c>
       <c r="N4" s="3">
-        <v>1403847.79580488</v>
+        <v>1397851.399660299</v>
       </c>
       <c r="O4" s="3">
-        <v>1471984.541531571</v>
+        <v>1465635.20030174</v>
       </c>
       <c r="P4" s="4">
         <v>0</v>
@@ -717,52 +717,52 @@
         <v>1</v>
       </c>
       <c r="U4" s="5">
-        <v>6258.435117152509</v>
+        <v>6085.991990253846</v>
       </c>
       <c r="V4" s="5">
-        <v>6992.775736098967</v>
+        <v>6828.704377659878</v>
       </c>
       <c r="W4" s="5">
-        <v>5000.620553464431</v>
+        <v>4891.979663477884</v>
       </c>
       <c r="X4" s="5">
-        <v>5135.032283984962</v>
+        <v>5052.094556344787</v>
       </c>
       <c r="Y4" s="5">
-        <v>4960.592918038446</v>
+        <v>4939.404239082329</v>
       </c>
       <c r="Z4" s="5">
-        <v>5391.884767514913</v>
+        <v>5368.627107332382</v>
       </c>
       <c r="AA4" s="5">
-        <v>734.3406189464586</v>
+        <v>742.7123874060317</v>
       </c>
       <c r="AB4" s="5">
-        <v>-1257.814563688077</v>
+        <v>-1194.012326775962</v>
       </c>
       <c r="AC4" s="5">
-        <v>-1123.402833167546</v>
+        <v>-1033.897433909059</v>
       </c>
       <c r="AD4" s="5">
-        <v>-1297.842199114063</v>
+        <v>-1146.587751171517</v>
       </c>
       <c r="AE4" s="5">
-        <v>-866.5503496375959</v>
+        <v>-717.3648829214635</v>
       </c>
       <c r="AF4" s="4">
-        <v>0.1173361399775239</v>
+        <v>0.1220363728042062</v>
       </c>
       <c r="AG4" s="4">
-        <v>-0.2009790850496767</v>
+        <v>-0.1961902560318945</v>
       </c>
       <c r="AH4" s="4">
-        <v>-0.1795021937814189</v>
+        <v>-0.169881497636663</v>
       </c>
       <c r="AI4" s="4">
-        <v>-0.2073748748400481</v>
+        <v>-0.1883978409777193</v>
       </c>
       <c r="AJ4" s="4">
-        <v>-0.1384611861298425</v>
+        <v>-0.1178714799609097</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -792,22 +792,22 @@
         <v>13663</v>
       </c>
       <c r="J5" s="3">
-        <v>94678634.41447484</v>
+        <v>92069886.46657638</v>
       </c>
       <c r="K5" s="3">
-        <v>90760760.55215779</v>
+        <v>88631242.62698194</v>
       </c>
       <c r="L5" s="3">
-        <v>89289466.70073977</v>
+        <v>87349610.03193651</v>
       </c>
       <c r="M5" s="3">
-        <v>86112531.98811626</v>
+        <v>84721697.94278601</v>
       </c>
       <c r="N5" s="3">
-        <v>87778405.2755951</v>
+        <v>87403468.5534341</v>
       </c>
       <c r="O5" s="3">
-        <v>86604509.05900533</v>
+        <v>86230944.27993132</v>
       </c>
       <c r="P5" s="4">
         <v>0.8888888888888888</v>
@@ -816,61 +816,61 @@
         <v>1</v>
       </c>
       <c r="R5" s="4">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="S5" s="4">
         <v>0.8888888888888888</v>
-      </c>
-      <c r="S5" s="4">
-        <v>1</v>
       </c>
       <c r="T5" s="4">
         <v>0.7777777777777778</v>
       </c>
       <c r="U5" s="5">
-        <v>7172.623819278398</v>
+        <v>6974.991398983059</v>
       </c>
       <c r="V5" s="5">
-        <v>6774.70781161139</v>
+        <v>6615.752976560569</v>
       </c>
       <c r="W5" s="5">
-        <v>6574.345006128909</v>
+        <v>6431.514194451019</v>
       </c>
       <c r="X5" s="5">
-        <v>6288.799531740033</v>
+        <v>6187.226900079311</v>
       </c>
       <c r="Y5" s="5">
-        <v>6277.733257686044</v>
+        <v>6250.918544854933</v>
       </c>
       <c r="Z5" s="5">
-        <v>6338.615901266584</v>
+        <v>6311.274557559198</v>
       </c>
       <c r="AA5" s="5">
-        <v>-397.9160076670078</v>
+        <v>-359.2384224224907</v>
       </c>
       <c r="AB5" s="5">
-        <v>-598.278813149489</v>
+        <v>-543.4772045320406</v>
       </c>
       <c r="AC5" s="5">
-        <v>-883.8242875383648</v>
+        <v>-787.7644989037481</v>
       </c>
       <c r="AD5" s="5">
-        <v>-894.8905615923541</v>
+        <v>-724.072854128126</v>
       </c>
       <c r="AE5" s="5">
-        <v>-834.0079180118137</v>
+        <v>-663.7168414238613</v>
       </c>
       <c r="AF5" s="4">
-        <v>-0.0554770496394219</v>
+        <v>-0.0515037799867204</v>
       </c>
       <c r="AG5" s="4">
-        <v>-0.08341143049234656</v>
+        <v>-0.07791797486822405</v>
       </c>
       <c r="AH5" s="4">
-        <v>-0.1232218933834009</v>
+        <v>-0.1129412860664749</v>
       </c>
       <c r="AI5" s="4">
-        <v>-0.124764742183619</v>
+        <v>-0.1038098562004958</v>
       </c>
       <c r="AJ5" s="4">
-        <v>-0.1162765452399983</v>
+        <v>-0.09515665374449489</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -900,22 +900,22 @@
         <v>1472</v>
       </c>
       <c r="J6" s="3">
-        <v>18237462.15203172</v>
+        <v>17734952.34865083</v>
       </c>
       <c r="K6" s="3">
-        <v>16931842.08672973</v>
+        <v>16534570.61158363</v>
       </c>
       <c r="L6" s="3">
-        <v>16723980.25443329</v>
+        <v>16360643.72858944</v>
       </c>
       <c r="M6" s="3">
-        <v>17557743.28343376</v>
+        <v>17274161.94452785</v>
       </c>
       <c r="N6" s="3">
-        <v>16439021.77648967</v>
+        <v>16368804.13103281</v>
       </c>
       <c r="O6" s="3">
-        <v>15242175.22885909</v>
+        <v>15176428.76965225</v>
       </c>
       <c r="P6" s="4">
         <v>0.7857142857142857</v>
@@ -927,58 +927,58 @@
         <v>0.6785714285714286</v>
       </c>
       <c r="S6" s="4">
-        <v>0.7857142857142857</v>
+        <v>0.75</v>
       </c>
       <c r="T6" s="4">
-        <v>0.7142857142857143</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="U6" s="5">
-        <v>11434.14554986315</v>
+        <v>11119.09238159927</v>
       </c>
       <c r="V6" s="5">
-        <v>10689.29424667281</v>
+        <v>10438.49154771694</v>
       </c>
       <c r="W6" s="5">
-        <v>9951.788309689548</v>
+        <v>9735.580915554563</v>
       </c>
       <c r="X6" s="5">
-        <v>10343.29501233211</v>
+        <v>10176.23678617252</v>
       </c>
       <c r="Y6" s="5">
-        <v>9984.222153956678</v>
+        <v>9941.575542686189</v>
       </c>
       <c r="Z6" s="5">
-        <v>10354.73860656188</v>
+        <v>10310.0738924268</v>
       </c>
       <c r="AA6" s="5">
-        <v>-744.8513031903367</v>
+        <v>-680.6008338823285</v>
       </c>
       <c r="AB6" s="5">
-        <v>-1482.3572401736</v>
+        <v>-1383.511466044705</v>
       </c>
       <c r="AC6" s="5">
-        <v>-1090.850537531034</v>
+        <v>-942.8555954267504</v>
       </c>
       <c r="AD6" s="5">
-        <v>-1449.92339590647</v>
+        <v>-1177.516838913079</v>
       </c>
       <c r="AE6" s="5">
-        <v>-1079.406943301266</v>
+        <v>-809.0184891724712</v>
       </c>
       <c r="AF6" s="4">
-        <v>-0.0651427166063363</v>
+        <v>-0.06121010695159246</v>
       </c>
       <c r="AG6" s="4">
-        <v>-0.1296430269939447</v>
+        <v>-0.1244266544933331</v>
       </c>
       <c r="AH6" s="4">
-        <v>-0.09540289064661156</v>
+        <v>-0.08479609333825311</v>
       </c>
       <c r="AI6" s="4">
-        <v>-0.1268064491206187</v>
+        <v>-0.1059004456930068</v>
       </c>
       <c r="AJ6" s="4">
-        <v>-0.0944020642901634</v>
+        <v>-0.07275939990491465</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -987,106 +987,106 @@
         <v>27</v>
       </c>
       <c r="C7" s="2">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="D7" s="2">
-        <v>319191</v>
+        <v>319893.5</v>
       </c>
       <c r="E7" s="2">
-        <v>326089</v>
+        <v>326834</v>
       </c>
       <c r="F7" s="2">
-        <v>330834.5</v>
+        <v>331713</v>
       </c>
       <c r="G7" s="2">
-        <v>331979.5</v>
+        <v>332919</v>
       </c>
       <c r="H7" s="2">
-        <v>330996</v>
+        <v>331896</v>
       </c>
       <c r="I7" s="2">
-        <v>327888</v>
+        <v>328784.5</v>
       </c>
       <c r="J7" s="3">
-        <v>1821322317.619363</v>
+        <v>1775594326.011404</v>
       </c>
       <c r="K7" s="3">
-        <v>1782905288.574173</v>
+        <v>1744375652.804222</v>
       </c>
       <c r="L7" s="3">
-        <v>1791715055.66933</v>
+        <v>1758206045.230269</v>
       </c>
       <c r="M7" s="3">
-        <v>1792663608.275729</v>
+        <v>1768720053.220398</v>
       </c>
       <c r="N7" s="3">
-        <v>1750729433.931241</v>
+        <v>1748539573.604146</v>
       </c>
       <c r="O7" s="3">
-        <v>1836544586.469521</v>
+        <v>1833736366.753502</v>
       </c>
       <c r="P7" s="4">
-        <v>0.7532751091703057</v>
+        <v>0.7296511627906976</v>
       </c>
       <c r="Q7" s="4">
-        <v>0.7409024745269287</v>
+        <v>0.7114825581395349</v>
       </c>
       <c r="R7" s="4">
-        <v>0.7321688500727802</v>
+        <v>0.6722383720930233</v>
       </c>
       <c r="S7" s="4">
-        <v>0.8187772925764192</v>
+        <v>0.7361918604651163</v>
       </c>
       <c r="T7" s="4">
-        <v>0.5909752547307132</v>
+        <v>0.4876453488372093</v>
       </c>
       <c r="U7" s="5">
-        <v>5706.057870113388</v>
+        <v>5550.579571049126</v>
       </c>
       <c r="V7" s="5">
-        <v>5467.541955031212</v>
+        <v>5337.19151864317</v>
       </c>
       <c r="W7" s="5">
-        <v>5415.744294108776</v>
+        <v>5300.383298906793</v>
       </c>
       <c r="X7" s="5">
-        <v>5399.922610509772</v>
+        <v>5312.763925220244</v>
       </c>
       <c r="Y7" s="5">
-        <v>5289.276710084837</v>
+        <v>5268.335784716135</v>
       </c>
       <c r="Z7" s="5">
-        <v>5601.133882513301</v>
+        <v>5577.319997607863</v>
       </c>
       <c r="AA7" s="5">
-        <v>-238.5159150821764</v>
+        <v>-213.3880524059559</v>
       </c>
       <c r="AB7" s="5">
-        <v>-290.3135760046125</v>
+        <v>-250.1962721423324</v>
       </c>
       <c r="AC7" s="5">
-        <v>-306.1352596036159</v>
+        <v>-237.8156458288813</v>
       </c>
       <c r="AD7" s="5">
-        <v>-416.7811600285513</v>
+        <v>-282.2437863329906</v>
       </c>
       <c r="AE7" s="5">
-        <v>-104.9239876000875</v>
+        <v>26.74042655873745</v>
       </c>
       <c r="AF7" s="4">
-        <v>-0.04180047249984109</v>
+        <v>-0.03844428310134518</v>
       </c>
       <c r="AG7" s="4">
-        <v>-0.05087813383828221</v>
+        <v>-0.04507570226491542</v>
       </c>
       <c r="AH7" s="4">
-        <v>-0.05365092092862567</v>
+        <v>-0.04284519171102186</v>
       </c>
       <c r="AI7" s="4">
-        <v>-0.07304187400753948</v>
+        <v>-0.05084942621219701</v>
       </c>
       <c r="AJ7" s="4">
-        <v>-0.01838817446097907</v>
+        <v>0.004817591787749764</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -1095,106 +1095,106 @@
         <v>28</v>
       </c>
       <c r="C8" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D8" s="2">
-        <v>207772.5</v>
+        <v>207014.5</v>
       </c>
       <c r="E8" s="2">
-        <v>209559</v>
+        <v>208765</v>
       </c>
       <c r="F8" s="2">
-        <v>210429</v>
+        <v>209621</v>
       </c>
       <c r="G8" s="2">
-        <v>214294.5</v>
+        <v>213466.5</v>
       </c>
       <c r="H8" s="2">
-        <v>219773</v>
+        <v>218934</v>
       </c>
       <c r="I8" s="2">
-        <v>225220</v>
+        <v>224378</v>
       </c>
       <c r="J8" s="3">
-        <v>1430714830.342508</v>
+        <v>1384903263.03937</v>
       </c>
       <c r="K8" s="3">
-        <v>1391962988.374821</v>
+        <v>1354773081.204236</v>
       </c>
       <c r="L8" s="3">
-        <v>1347948541.599463</v>
+        <v>1312364225.849891</v>
       </c>
       <c r="M8" s="3">
-        <v>1350020742.59665</v>
+        <v>1322363932.871264</v>
       </c>
       <c r="N8" s="3">
-        <v>1342401160.13168</v>
+        <v>1331148423.161703</v>
       </c>
       <c r="O8" s="3">
-        <v>1437659478.605371</v>
+        <v>1425494149.348557</v>
       </c>
       <c r="P8" s="4">
-        <v>0.7149532710280374</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="Q8" s="4">
-        <v>0.8551401869158879</v>
+        <v>0.8215962441314554</v>
       </c>
       <c r="R8" s="4">
-        <v>0.8925233644859814</v>
+        <v>0.8685446009389671</v>
       </c>
       <c r="S8" s="4">
-        <v>0.9112149532710281</v>
+        <v>0.8779342723004695</v>
       </c>
       <c r="T8" s="4">
-        <v>0.7616822429906542</v>
+        <v>0.6948356807511737</v>
       </c>
       <c r="U8" s="5">
-        <v>6885.968212070931</v>
+        <v>6689.88531257168</v>
       </c>
       <c r="V8" s="5">
-        <v>6642.344105358497</v>
+        <v>6489.464619089579</v>
       </c>
       <c r="W8" s="5">
-        <v>6405.71661510278</v>
+        <v>6260.65244345696</v>
       </c>
       <c r="X8" s="5">
-        <v>6299.838505405643</v>
+        <v>6194.714078655262</v>
       </c>
       <c r="Y8" s="5">
-        <v>6108.125930535961</v>
+        <v>6080.135671762735</v>
       </c>
       <c r="Z8" s="5">
-        <v>6383.356178871196</v>
+        <v>6353.092323438827</v>
       </c>
       <c r="AA8" s="5">
-        <v>-243.6241067124338</v>
+        <v>-200.4206934821004</v>
       </c>
       <c r="AB8" s="5">
-        <v>-480.2515969681508</v>
+        <v>-429.2328691147195</v>
       </c>
       <c r="AC8" s="5">
-        <v>-586.1297066652878</v>
+        <v>-495.1712339164178</v>
       </c>
       <c r="AD8" s="5">
-        <v>-777.8422815349704</v>
+        <v>-609.7496408089446</v>
       </c>
       <c r="AE8" s="5">
-        <v>-502.6120331997354</v>
+        <v>-336.7929891328522</v>
       </c>
       <c r="AF8" s="4">
-        <v>-0.03537978962571553</v>
+        <v>-0.02995876373328377</v>
       </c>
       <c r="AG8" s="4">
-        <v>-0.06974351059685135</v>
+        <v>-0.06416146900277975</v>
       </c>
       <c r="AH8" s="4">
-        <v>-0.08511943253496534</v>
+        <v>-0.07401789579051354</v>
       </c>
       <c r="AI8" s="4">
-        <v>-0.1129604810215987</v>
+        <v>-0.09114500657628599</v>
       </c>
       <c r="AJ8" s="4">
-        <v>-0.07299075710495861</v>
+        <v>-0.0503436117955488</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -1203,106 +1203,106 @@
         <v>29</v>
       </c>
       <c r="C9" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2">
-        <v>5284.5</v>
+        <v>5343.5</v>
       </c>
       <c r="E9" s="2">
-        <v>5408</v>
+        <v>5474</v>
       </c>
       <c r="F9" s="2">
-        <v>5568</v>
+        <v>5638</v>
       </c>
       <c r="G9" s="2">
-        <v>5734.5</v>
+        <v>5813</v>
       </c>
       <c r="H9" s="2">
-        <v>5998.5</v>
+        <v>6082.5</v>
       </c>
       <c r="I9" s="2">
-        <v>6244.5</v>
+        <v>6330.5</v>
       </c>
       <c r="J9" s="3">
-        <v>135418870.0247927</v>
+        <v>133320665.5392022</v>
       </c>
       <c r="K9" s="3">
-        <v>135427744.4231981</v>
+        <v>133895398.7549466</v>
       </c>
       <c r="L9" s="3">
-        <v>139002579.4733076</v>
+        <v>138005771.7357634</v>
       </c>
       <c r="M9" s="3">
-        <v>140611002.5550248</v>
+        <v>140378089.8814233</v>
       </c>
       <c r="N9" s="3">
-        <v>129532729.2312586</v>
+        <v>130231007.6951155</v>
       </c>
       <c r="O9" s="3">
-        <v>148928368.8764202</v>
+        <v>150555376.88673</v>
       </c>
       <c r="P9" s="4">
-        <v>0.6666666666666666</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="Q9" s="4">
-        <v>0.6666666666666666</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="R9" s="4">
-        <v>0.6666666666666666</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="S9" s="4">
-        <v>0.9166666666666666</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="T9" s="4">
-        <v>0.7916666666666666</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="U9" s="5">
-        <v>25625.67319988508</v>
+        <v>24950.06372961582</v>
       </c>
       <c r="V9" s="5">
-        <v>25042.11250428958</v>
+        <v>24460.24821975642</v>
       </c>
       <c r="W9" s="5">
-        <v>24964.54372724634</v>
+        <v>24477.78853064267</v>
       </c>
       <c r="X9" s="5">
-        <v>24520.1852916601</v>
+        <v>24148.99189427546</v>
       </c>
       <c r="Y9" s="5">
-        <v>21594.18675189774</v>
+        <v>21410.76986356193</v>
       </c>
       <c r="Z9" s="5">
-        <v>23849.52660363843</v>
+        <v>23782.54117158677</v>
       </c>
       <c r="AA9" s="5">
-        <v>-583.5606955955009</v>
+        <v>-489.815509859407</v>
       </c>
       <c r="AB9" s="5">
-        <v>-661.1294726387423</v>
+        <v>-472.2751989731551</v>
       </c>
       <c r="AC9" s="5">
-        <v>-1105.487908224986</v>
+        <v>-801.0718353403608</v>
       </c>
       <c r="AD9" s="5">
-        <v>-4031.486447987343</v>
+        <v>-3539.293866053889</v>
       </c>
       <c r="AE9" s="5">
-        <v>-1776.14659624665</v>
+        <v>-1167.522558029053</v>
       </c>
       <c r="AF9" s="4">
-        <v>-0.02277250205462378</v>
+        <v>-0.01963183401724122</v>
       </c>
       <c r="AG9" s="4">
-        <v>-0.02579949675787274</v>
+        <v>-0.01892881734055707</v>
       </c>
       <c r="AH9" s="4">
-        <v>-0.04313985820399613</v>
+        <v>-0.03210700557808532</v>
       </c>
       <c r="AI9" s="4">
-        <v>-0.1573221673647747</v>
+        <v>-0.1418551032337738</v>
       </c>
       <c r="AJ9" s="4">
-        <v>-0.06931121701242238</v>
+        <v>-0.04679437177722312</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -1334,22 +1334,22 @@
         <v>3188</v>
       </c>
       <c r="J10" s="3">
-        <v>14956522.03270047</v>
+        <v>14544414.31270846</v>
       </c>
       <c r="K10" s="3">
-        <v>15360544.39833279</v>
+        <v>15000140.2496929</v>
       </c>
       <c r="L10" s="3">
-        <v>15659895.27881176</v>
+        <v>15319676.51156145</v>
       </c>
       <c r="M10" s="3">
-        <v>16507054.22127909</v>
+        <v>16240442.93405976</v>
       </c>
       <c r="N10" s="3">
-        <v>16038689.00354444</v>
+        <v>15970181.33968487</v>
       </c>
       <c r="O10" s="3">
-        <v>18979758.27579047</v>
+        <v>18897889.9148447</v>
       </c>
       <c r="P10" s="4">
         <v>0.6666666666666666</v>
@@ -1367,52 +1367,52 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="U10" s="5">
-        <v>6180.381005248128</v>
+        <v>6010.088558970439</v>
       </c>
       <c r="V10" s="5">
-        <v>6256.840895451237</v>
+        <v>6110.036761585701</v>
       </c>
       <c r="W10" s="5">
-        <v>5983.911073294521</v>
+        <v>5853.907723179766</v>
       </c>
       <c r="X10" s="5">
-        <v>5893.271767682646</v>
+        <v>5798.087445219478</v>
       </c>
       <c r="Y10" s="5">
-        <v>5378.500671879422</v>
+        <v>5355.526941544224</v>
       </c>
       <c r="Z10" s="5">
-        <v>5953.500086508931</v>
+        <v>5927.819923100596</v>
       </c>
       <c r="AA10" s="5">
-        <v>76.45989020310935</v>
+        <v>99.94820261526183</v>
       </c>
       <c r="AB10" s="5">
-        <v>-196.4699319536066</v>
+        <v>-156.1808357906739</v>
       </c>
       <c r="AC10" s="5">
-        <v>-287.1092375654816</v>
+        <v>-212.0011137509618</v>
       </c>
       <c r="AD10" s="5">
-        <v>-801.8803333687056</v>
+        <v>-654.5616174262159</v>
       </c>
       <c r="AE10" s="5">
-        <v>-226.8809187391971</v>
+        <v>-82.26863586984382</v>
       </c>
       <c r="AF10" s="4">
-        <v>0.01237138780573277</v>
+        <v>0.016630071526331</v>
       </c>
       <c r="AG10" s="4">
-        <v>-0.03178929127294461</v>
+        <v>-0.02598644500130765</v>
       </c>
       <c r="AH10" s="4">
-        <v>-0.04645494142216799</v>
+        <v>-0.03527420797061909</v>
       </c>
       <c r="AI10" s="4">
-        <v>-0.1297461002303549</v>
+        <v>-0.1089104779411679</v>
       </c>
       <c r="AJ10" s="4">
-        <v>-0.03670985956149619</v>
+        <v>-0.01368842323413899</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -1442,22 +1442,22 @@
         <v>10175</v>
       </c>
       <c r="J11" s="3">
-        <v>56651093.91233463</v>
+        <v>55090145.91277821</v>
       </c>
       <c r="K11" s="3">
-        <v>57315120.8583125</v>
+        <v>55970337.31409291</v>
       </c>
       <c r="L11" s="3">
-        <v>57361378.70683758</v>
+        <v>56115175.12731407</v>
       </c>
       <c r="M11" s="3">
-        <v>56703110.39641224</v>
+        <v>55787278.3497325</v>
       </c>
       <c r="N11" s="3">
-        <v>57588230.74294779</v>
+        <v>57342248.34668504</v>
       </c>
       <c r="O11" s="3">
-        <v>61976270.69316355</v>
+        <v>61708938.74796946</v>
       </c>
       <c r="P11" s="4">
         <v>0.8571428571428571</v>
@@ -1466,61 +1466,61 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="R11" s="4">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="S11" s="4">
         <v>1</v>
       </c>
       <c r="T11" s="4">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="U11" s="5">
-        <v>6877.636750313783</v>
+        <v>6688.132319142675</v>
       </c>
       <c r="V11" s="5">
-        <v>6512.341876867686</v>
+        <v>6359.542928541406</v>
       </c>
       <c r="W11" s="5">
-        <v>6187.183551595036</v>
+        <v>6052.764008986524</v>
       </c>
       <c r="X11" s="5">
-        <v>5970.633926125328</v>
+        <v>5874.200100003422</v>
       </c>
       <c r="Y11" s="5">
-        <v>5850.678730361454</v>
+        <v>5825.688138442044</v>
       </c>
       <c r="Z11" s="5">
-        <v>6091.033974758088</v>
+        <v>6064.760564911004</v>
       </c>
       <c r="AA11" s="5">
-        <v>-365.294873446097</v>
+        <v>-328.5893906012689</v>
       </c>
       <c r="AB11" s="5">
-        <v>-690.4531987187465</v>
+        <v>-635.3683101561501</v>
       </c>
       <c r="AC11" s="5">
-        <v>-907.0028241884547</v>
+        <v>-813.9322191392521</v>
       </c>
       <c r="AD11" s="5">
-        <v>-1026.958019952329</v>
+        <v>-862.4441807006306</v>
       </c>
       <c r="AE11" s="5">
-        <v>-786.6027755556943</v>
+        <v>-623.3717542316708</v>
       </c>
       <c r="AF11" s="4">
-        <v>-0.05311342932286023</v>
+        <v>-0.04913021676631379</v>
       </c>
       <c r="AG11" s="4">
-        <v>-0.1003910534657483</v>
+        <v>-0.09499936302659684</v>
       </c>
       <c r="AH11" s="4">
-        <v>-0.1318771050458682</v>
+        <v>-0.1216979838765491</v>
       </c>
       <c r="AI11" s="4">
-        <v>-0.1493184442905443</v>
+        <v>-0.1289514231397838</v>
       </c>
       <c r="AJ11" s="4">
-        <v>-0.1143710847363095</v>
+        <v>-0.09320565510455969</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -1529,106 +1529,106 @@
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
-        <v>1971.5</v>
+        <v>2070</v>
       </c>
       <c r="E12" s="2">
-        <v>2015</v>
+        <v>2112</v>
       </c>
       <c r="F12" s="2">
-        <v>2206</v>
+        <v>2306</v>
       </c>
       <c r="G12" s="2">
-        <v>2267.5</v>
+        <v>2374</v>
       </c>
       <c r="H12" s="2">
-        <v>2395</v>
+        <v>2494.5</v>
       </c>
       <c r="I12" s="2">
-        <v>2118</v>
+        <v>2225.5</v>
       </c>
       <c r="J12" s="3">
-        <v>20715370.50858124</v>
+        <v>21995221.83075159</v>
       </c>
       <c r="K12" s="3">
-        <v>19563639.35107274</v>
+        <v>20737059.99504276</v>
       </c>
       <c r="L12" s="3">
-        <v>19872045.30057588</v>
+        <v>21100221.42410459</v>
       </c>
       <c r="M12" s="3">
-        <v>20434325.12719151</v>
+        <v>21573449.90389765</v>
       </c>
       <c r="N12" s="3">
-        <v>19463252.72869655</v>
+        <v>20333107.44965221</v>
       </c>
       <c r="O12" s="3">
-        <v>18792565.53352161</v>
+        <v>19733184.93535759</v>
       </c>
       <c r="P12" s="4">
-        <v>0.6071428571428571</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="Q12" s="4">
-        <v>0.7857142857142857</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="R12" s="4">
-        <v>0.8571428571428571</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="S12" s="4">
-        <v>0.8214285714285714</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="T12" s="4">
-        <v>0.6785714285714286</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="U12" s="5">
-        <v>10507.41593131181</v>
+        <v>10625.71102934859</v>
       </c>
       <c r="V12" s="5">
-        <v>9709.002159341309</v>
+        <v>9818.683709774035</v>
       </c>
       <c r="W12" s="5">
-        <v>9008.180099989066</v>
+        <v>9150.139385995051</v>
       </c>
       <c r="X12" s="5">
-        <v>9011.830265575085</v>
+        <v>9087.384121271123</v>
       </c>
       <c r="Y12" s="5">
-        <v>8126.619093401483</v>
+        <v>8151.175566106319</v>
       </c>
       <c r="Z12" s="5">
-        <v>8872.788259453073</v>
+        <v>8866.854610360631</v>
       </c>
       <c r="AA12" s="5">
-        <v>-798.413771970505</v>
+        <v>-807.0273195745594</v>
       </c>
       <c r="AB12" s="5">
-        <v>-1499.235831322749</v>
+        <v>-1475.571643353544</v>
       </c>
       <c r="AC12" s="5">
-        <v>-1495.585665736729</v>
+        <v>-1538.326908077472</v>
       </c>
       <c r="AD12" s="5">
-        <v>-2380.796837910331</v>
+        <v>-2474.535463242276</v>
       </c>
       <c r="AE12" s="5">
-        <v>-1634.627671858741</v>
+        <v>-1758.856418987963</v>
       </c>
       <c r="AF12" s="4">
-        <v>-0.07598573970896627</v>
+        <v>-0.07595042979669986</v>
       </c>
       <c r="AG12" s="4">
-        <v>-0.142683590439688</v>
+        <v>-0.138868038033216</v>
       </c>
       <c r="AH12" s="4">
-        <v>-0.142336200975915</v>
+        <v>-0.1447740206588112</v>
       </c>
       <c r="AI12" s="4">
-        <v>-0.2265825254728541</v>
+        <v>-0.2328818708138702</v>
       </c>
       <c r="AJ12" s="4">
-        <v>-0.1555689507814757</v>
+        <v>-0.1655283504444963</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -1637,106 +1637,106 @@
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="D13" s="2">
-        <v>403836</v>
+        <v>403466</v>
       </c>
       <c r="E13" s="2">
-        <v>412181.5</v>
+        <v>411735.5</v>
       </c>
       <c r="F13" s="2">
-        <v>419622</v>
+        <v>419212.5</v>
       </c>
       <c r="G13" s="2">
-        <v>423218</v>
+        <v>423320.5</v>
       </c>
       <c r="H13" s="2">
-        <v>424201</v>
+        <v>424333.5</v>
       </c>
       <c r="I13" s="2">
-        <v>421686.5</v>
+        <v>421926.5</v>
       </c>
       <c r="J13" s="3">
-        <v>2302559226.403376</v>
+        <v>2240144652.735223</v>
       </c>
       <c r="K13" s="3">
-        <v>2254385981.979045</v>
+        <v>2198685279.096868</v>
       </c>
       <c r="L13" s="3">
-        <v>2253254885.370753</v>
+        <v>2203423643.846349</v>
       </c>
       <c r="M13" s="3">
-        <v>2255635224.56574</v>
+        <v>2220970332.52298</v>
       </c>
       <c r="N13" s="3">
-        <v>2187771055.059091</v>
+        <v>2179738016.417212</v>
       </c>
       <c r="O13" s="3">
-        <v>2273149451.130363</v>
+        <v>2264808235.743494</v>
       </c>
       <c r="P13" s="4">
-        <v>0.7406704617330804</v>
+        <v>0.720532319391635</v>
       </c>
       <c r="Q13" s="4">
-        <v>0.7729285262492094</v>
+        <v>0.7484157160963245</v>
       </c>
       <c r="R13" s="4">
-        <v>0.7716635041113219</v>
+        <v>0.7338403041825095</v>
       </c>
       <c r="S13" s="4">
-        <v>0.8475648323845667</v>
+        <v>0.7858048162230672</v>
       </c>
       <c r="T13" s="4">
-        <v>0.7103099304237824</v>
+        <v>0.6108998732572877</v>
       </c>
       <c r="U13" s="5">
-        <v>5701.718584780397</v>
+        <v>5552.251373685077</v>
       </c>
       <c r="V13" s="5">
-        <v>5469.40117879877</v>
+        <v>5340.043010857378</v>
       </c>
       <c r="W13" s="5">
-        <v>5369.725337019396</v>
+        <v>5256.10196224194</v>
       </c>
       <c r="X13" s="5">
-        <v>5329.724219115775</v>
+        <v>5246.545661084167</v>
       </c>
       <c r="Y13" s="5">
-        <v>5157.392498035343</v>
+        <v>5136.851123979634</v>
       </c>
       <c r="Z13" s="5">
-        <v>5390.614712897765</v>
+        <v>5367.779069917376</v>
       </c>
       <c r="AA13" s="5">
-        <v>-232.3174059816265</v>
+        <v>-212.2083628276987</v>
       </c>
       <c r="AB13" s="5">
-        <v>-331.9932477610009</v>
+        <v>-296.1494114431371</v>
       </c>
       <c r="AC13" s="5">
-        <v>-371.9943656646219</v>
+        <v>-305.7057126009095</v>
       </c>
       <c r="AD13" s="5">
-        <v>-544.3260867450535</v>
+        <v>-415.4002497054425</v>
       </c>
       <c r="AE13" s="5">
-        <v>-311.1038718826312</v>
+        <v>-184.4723037677013</v>
       </c>
       <c r="AF13" s="4">
-        <v>-0.04074515473312756</v>
+        <v>-0.03822023689947851</v>
       </c>
       <c r="AG13" s="4">
-        <v>-0.05822687367405166</v>
+        <v>-0.05333861734840373</v>
       </c>
       <c r="AH13" s="4">
-        <v>-0.06524249840347907</v>
+        <v>-0.05505977522015726</v>
       </c>
       <c r="AI13" s="4">
-        <v>-0.09546702080281966</v>
+        <v>-0.07481654229025614</v>
       </c>
       <c r="AJ13" s="4">
-        <v>-0.05456317551572276</v>
+        <v>-0.03322477520416467</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -1745,106 +1745,106 @@
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D14" s="2">
-        <v>292489</v>
+        <v>292766</v>
       </c>
       <c r="E14" s="2">
-        <v>295678.5</v>
+        <v>295917.5</v>
       </c>
       <c r="F14" s="2">
-        <v>298055</v>
+        <v>298434</v>
       </c>
       <c r="G14" s="2">
-        <v>303763.5</v>
+        <v>304216.5</v>
       </c>
       <c r="H14" s="2">
-        <v>310429.5</v>
+        <v>310996.5</v>
       </c>
       <c r="I14" s="2">
-        <v>316841</v>
+        <v>317406</v>
       </c>
       <c r="J14" s="3">
-        <v>2004977265.785603</v>
+        <v>1951775178.048384</v>
       </c>
       <c r="K14" s="3">
-        <v>1985510546.239033</v>
+        <v>1942009593.149205</v>
       </c>
       <c r="L14" s="3">
-        <v>1927042941.224735</v>
+        <v>1888468061.496411</v>
       </c>
       <c r="M14" s="3">
-        <v>1920421419.547891</v>
+        <v>1891535265.073523</v>
       </c>
       <c r="N14" s="3">
-        <v>1866866014.13104</v>
+        <v>1858756431.030839</v>
       </c>
       <c r="O14" s="3">
-        <v>2014965149.732611</v>
+        <v>2009279532.181989</v>
       </c>
       <c r="P14" s="4">
-        <v>0.6655172413793103</v>
+        <v>0.6323024054982818</v>
       </c>
       <c r="Q14" s="4">
-        <v>0.7758620689655172</v>
+        <v>0.7594501718213058</v>
       </c>
       <c r="R14" s="4">
-        <v>0.8413793103448276</v>
+        <v>0.8109965635738832</v>
       </c>
       <c r="S14" s="4">
-        <v>0.9448275862068966</v>
+        <v>0.9175257731958762</v>
       </c>
       <c r="T14" s="4">
-        <v>0.8172413793103448</v>
+        <v>0.7353951890034365</v>
       </c>
       <c r="U14" s="5">
-        <v>6854.88092128457</v>
+        <v>6666.672967654659</v>
       </c>
       <c r="V14" s="5">
-        <v>6715.099495698985</v>
+        <v>6562.672343302456</v>
       </c>
       <c r="W14" s="5">
-        <v>6465.393773715371</v>
+        <v>6327.925308431383</v>
       </c>
       <c r="X14" s="5">
-        <v>6322.094061820761</v>
+        <v>6217.727391753973</v>
       </c>
       <c r="Y14" s="5">
-        <v>6013.816387073522</v>
+        <v>5976.776044202552</v>
       </c>
       <c r="Z14" s="5">
-        <v>6359.546743422129</v>
+        <v>6330.313643037591</v>
       </c>
       <c r="AA14" s="5">
-        <v>-139.7814255855847</v>
+        <v>-104.000624352203</v>
       </c>
       <c r="AB14" s="5">
-        <v>-389.4871475691989</v>
+        <v>-338.7476592232761</v>
       </c>
       <c r="AC14" s="5">
-        <v>-532.7868594638094</v>
+        <v>-448.945575900686</v>
       </c>
       <c r="AD14" s="5">
-        <v>-841.0645342110474</v>
+        <v>-689.8969234521073</v>
       </c>
       <c r="AE14" s="5">
-        <v>-495.3341778624408</v>
+        <v>-336.3593246170685</v>
       </c>
       <c r="AF14" s="4">
-        <v>-0.02039151769238767</v>
+        <v>-0.01560007890844395</v>
       </c>
       <c r="AG14" s="4">
-        <v>-0.05681895164069617</v>
+        <v>-0.05081210085852583</v>
       </c>
       <c r="AH14" s="4">
-        <v>-0.07772372205759159</v>
+        <v>-0.0673417727371477</v>
       </c>
       <c r="AI14" s="4">
-        <v>-0.1226957176746166</v>
+        <v>-0.1034844407096833</v>
       </c>
       <c r="AJ14" s="4">
-        <v>-0.07226007038640403</v>
+        <v>-0.05045385100619393</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -1853,106 +1853,106 @@
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2">
-        <v>8030.5</v>
+        <v>8214.5</v>
       </c>
       <c r="E15" s="2">
-        <v>8367</v>
+        <v>8555.5</v>
       </c>
       <c r="F15" s="2">
-        <v>8770.5</v>
+        <v>8956.5</v>
       </c>
       <c r="G15" s="2">
-        <v>9196.5</v>
+        <v>9391.5</v>
       </c>
       <c r="H15" s="2">
-        <v>9608.5</v>
+        <v>9810.5</v>
       </c>
       <c r="I15" s="2">
-        <v>9976</v>
+        <v>10184</v>
       </c>
       <c r="J15" s="3">
-        <v>201697250.5601752</v>
+        <v>198507665.1446237</v>
       </c>
       <c r="K15" s="3">
-        <v>202677596.6644634</v>
+        <v>199246063.7606929</v>
       </c>
       <c r="L15" s="3">
-        <v>210703148.4387549</v>
+        <v>207794878.4881931</v>
       </c>
       <c r="M15" s="3">
-        <v>215256388.7727254</v>
+        <v>213468922.6182336</v>
       </c>
       <c r="N15" s="3">
-        <v>201099860.3730077</v>
+        <v>199582222.339214</v>
       </c>
       <c r="O15" s="3">
-        <v>230255517.9168549</v>
+        <v>231482352.0665199</v>
       </c>
       <c r="P15" s="4">
-        <v>0.7857142857142857</v>
+        <v>0.7536231884057971</v>
       </c>
       <c r="Q15" s="4">
-        <v>0.7142857142857143</v>
+        <v>0.6811594202898551</v>
       </c>
       <c r="R15" s="4">
-        <v>0.8</v>
+        <v>0.7681159420289855</v>
       </c>
       <c r="S15" s="4">
-        <v>0.8857142857142857</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="T15" s="4">
-        <v>0.7714285714285715</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="U15" s="5">
-        <v>25116.40004485091</v>
+        <v>24165.52013447242</v>
       </c>
       <c r="V15" s="5">
-        <v>24223.44886631569</v>
+        <v>23288.65218405621</v>
       </c>
       <c r="W15" s="5">
-        <v>24024.07484621799</v>
+        <v>23200.45536629187</v>
       </c>
       <c r="X15" s="5">
-        <v>23406.33814741754</v>
+        <v>22730.01358869548</v>
       </c>
       <c r="Y15" s="5">
-        <v>20929.37090836319</v>
+        <v>20343.73603172255</v>
       </c>
       <c r="Z15" s="5">
-        <v>23080.94606223485</v>
+        <v>22730.00314871562</v>
       </c>
       <c r="AA15" s="5">
-        <v>-892.9511785352188</v>
+        <v>-876.8679504162101</v>
       </c>
       <c r="AB15" s="5">
-        <v>-1092.325198632923</v>
+        <v>-965.0647681805458</v>
       </c>
       <c r="AC15" s="5">
-        <v>-1710.061897433374</v>
+        <v>-1435.506545776938</v>
       </c>
       <c r="AD15" s="5">
-        <v>-4187.029136487716</v>
+        <v>-3821.784102749869</v>
       </c>
       <c r="AE15" s="5">
-        <v>-2035.453982616062</v>
+        <v>-1435.516985756796</v>
       </c>
       <c r="AF15" s="4">
-        <v>-0.03555251456978936</v>
+        <v>-0.03628591255378555</v>
       </c>
       <c r="AG15" s="4">
-        <v>-0.04349051602468246</v>
+        <v>-0.0399356091989872</v>
       </c>
       <c r="AH15" s="4">
-        <v>-0.0680854698276695</v>
+        <v>-0.05940308910335312</v>
       </c>
       <c r="AI15" s="4">
-        <v>-0.1667049867421623</v>
+        <v>-0.158150293537363</v>
       </c>
       <c r="AJ15" s="4">
-        <v>-0.08104083304061516</v>
+        <v>-0.05940352112301583</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -1984,22 +1984,22 @@
         <v>1399</v>
       </c>
       <c r="J16" s="3">
-        <v>8147937.280079178</v>
+        <v>7923431.352311356</v>
       </c>
       <c r="K16" s="3">
-        <v>7639110.589019537</v>
+        <v>7459874.288742291</v>
       </c>
       <c r="L16" s="3">
-        <v>8351706.445371147</v>
+        <v>8170261.600390278</v>
       </c>
       <c r="M16" s="3">
-        <v>9447440.806501478</v>
+        <v>9294851.839349311</v>
       </c>
       <c r="N16" s="3">
-        <v>9898759.341582319</v>
+        <v>9856477.776209366</v>
       </c>
       <c r="O16" s="3">
-        <v>10213388.14753142</v>
+        <v>10169333.14244699</v>
       </c>
       <c r="P16" s="4">
         <v>1</v>
@@ -2014,55 +2014,55 @@
         <v>1</v>
       </c>
       <c r="T16" s="4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="U16" s="5">
-        <v>8789.57635391497</v>
+        <v>8547.390887067266</v>
       </c>
       <c r="V16" s="5">
-        <v>7434.657507561593</v>
+        <v>7260.218285880575</v>
       </c>
       <c r="W16" s="5">
-        <v>7035.978471247808</v>
+        <v>6883.118450202424</v>
       </c>
       <c r="X16" s="5">
-        <v>7076.734686517961</v>
+        <v>6962.435834718585</v>
       </c>
       <c r="Y16" s="5">
-        <v>7246.52953263713</v>
+        <v>7215.576702935114</v>
       </c>
       <c r="Z16" s="5">
-        <v>7300.491885297658</v>
+        <v>7269.001531413143</v>
       </c>
       <c r="AA16" s="5">
-        <v>-1354.918846353377</v>
+        <v>-1287.17260118669</v>
       </c>
       <c r="AB16" s="5">
-        <v>-1753.597882667163</v>
+        <v>-1664.272436864841</v>
       </c>
       <c r="AC16" s="5">
-        <v>-1712.84166739701</v>
+        <v>-1584.955052348681</v>
       </c>
       <c r="AD16" s="5">
-        <v>-1543.046821277841</v>
+        <v>-1331.814184132152</v>
       </c>
       <c r="AE16" s="5">
-        <v>-1489.084468617312</v>
+        <v>-1278.389355654122</v>
       </c>
       <c r="AF16" s="4">
-        <v>-0.1541506429658447</v>
+        <v>-0.1505924577679327</v>
       </c>
       <c r="AG16" s="4">
-        <v>-0.1995088058921169</v>
+        <v>-0.1947111649454325</v>
       </c>
       <c r="AH16" s="4">
-        <v>-0.194871925383991</v>
+        <v>-0.185431446074008</v>
       </c>
       <c r="AI16" s="4">
-        <v>-0.1755541745297601</v>
+        <v>-0.1558152893355176</v>
       </c>
       <c r="AJ16" s="4">
-        <v>-0.1694148168988894</v>
+        <v>-0.1495648640087825</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -2092,22 +2092,22 @@
         <v>49491.5</v>
       </c>
       <c r="J17" s="3">
-        <v>327800861.8648422</v>
+        <v>318768730.8988877</v>
       </c>
       <c r="K17" s="3">
-        <v>333172102.4992641</v>
+        <v>325354892.0646626</v>
       </c>
       <c r="L17" s="3">
-        <v>336851256.2231716</v>
+        <v>329533000.4431327</v>
       </c>
       <c r="M17" s="3">
-        <v>347499759.7674285</v>
+        <v>341887167.9010631</v>
       </c>
       <c r="N17" s="3">
-        <v>341551083.3078934</v>
+        <v>340092181.8477457</v>
       </c>
       <c r="O17" s="3">
-        <v>369720759.2839804</v>
+        <v>368125984.8864154</v>
       </c>
       <c r="P17" s="4">
         <v>0.8529411764705882</v>
@@ -2116,61 +2116,61 @@
         <v>0.8529411764705882</v>
       </c>
       <c r="R17" s="4">
-        <v>0.9117647058823529</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="S17" s="4">
-        <v>0.9705882352941176</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="T17" s="4">
-        <v>0.9117647058823529</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="U17" s="5">
-        <v>8539.927884037625</v>
+        <v>8304.621159553666</v>
       </c>
       <c r="V17" s="5">
-        <v>8177.507578063794</v>
+        <v>7985.638879908267</v>
       </c>
       <c r="W17" s="5">
-        <v>7819.656577637318</v>
+        <v>7649.770772285595</v>
       </c>
       <c r="X17" s="5">
-        <v>7592.138248398079</v>
+        <v>7469.51493087464</v>
       </c>
       <c r="Y17" s="5">
-        <v>7119.652373374469</v>
+        <v>7089.241486831043</v>
       </c>
       <c r="Z17" s="5">
-        <v>7470.38904223918</v>
+        <v>7438.165844365504</v>
       </c>
       <c r="AA17" s="5">
-        <v>-362.4203059738311</v>
+        <v>-318.9822796453991</v>
       </c>
       <c r="AB17" s="5">
-        <v>-720.2713064003065</v>
+        <v>-654.8503872680712</v>
       </c>
       <c r="AC17" s="5">
-        <v>-947.7896356395458</v>
+        <v>-835.1062286790266</v>
       </c>
       <c r="AD17" s="5">
-        <v>-1420.275510663156</v>
+        <v>-1215.379672722623</v>
       </c>
       <c r="AE17" s="5">
-        <v>-1069.538841798445</v>
+        <v>-866.4553151881619</v>
       </c>
       <c r="AF17" s="4">
-        <v>-0.04243833330855729</v>
+        <v>-0.03841021444770432</v>
       </c>
       <c r="AG17" s="4">
-        <v>-0.0843416146108914</v>
+        <v>-0.07885373392556616</v>
       </c>
       <c r="AH17" s="4">
-        <v>-0.1109833301298836</v>
+        <v>-0.1005592202984862</v>
       </c>
       <c r="AI17" s="4">
-        <v>-0.1663100122095713</v>
+        <v>-0.1463498032447206</v>
       </c>
       <c r="AJ17" s="4">
-        <v>-0.1252397978439104</v>
+        <v>-0.1043341169381807</v>
       </c>
     </row>
     <row r="18" spans="1:36">
@@ -2200,85 +2200,85 @@
         <v>4705</v>
       </c>
       <c r="J18" s="3">
-        <v>74019096.43679315</v>
+        <v>71979595.47515632</v>
       </c>
       <c r="K18" s="3">
-        <v>71817037.20452803</v>
+        <v>70131995.48462999</v>
       </c>
       <c r="L18" s="3">
-        <v>71109103.48013411</v>
+        <v>69564223.95855649</v>
       </c>
       <c r="M18" s="3">
-        <v>69992028.82093537</v>
+        <v>68861562.7396532</v>
       </c>
       <c r="N18" s="3">
-        <v>66348592.49484624</v>
+        <v>66065191.0852181</v>
       </c>
       <c r="O18" s="3">
-        <v>63741552.57575027</v>
+        <v>63466606.16401584</v>
       </c>
       <c r="P18" s="4">
-        <v>0.6190476190476191</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="Q18" s="4">
         <v>0.7301587301587301</v>
       </c>
       <c r="R18" s="4">
-        <v>0.8095238095238095</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="S18" s="4">
-        <v>0.7936507936507936</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="T18" s="4">
-        <v>0.7142857142857143</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="U18" s="5">
-        <v>15537.17389521267</v>
+        <v>15109.06706027631</v>
       </c>
       <c r="V18" s="5">
-        <v>15087.61285809412</v>
+        <v>14733.61249677101</v>
       </c>
       <c r="W18" s="5">
-        <v>14128.57212003459</v>
+        <v>13821.62208594407</v>
       </c>
       <c r="X18" s="5">
-        <v>13784.74225916994</v>
+        <v>13562.09999796222</v>
       </c>
       <c r="Y18" s="5">
-        <v>13015.90828736562</v>
+        <v>12960.31213049889</v>
       </c>
       <c r="Z18" s="5">
-        <v>13547.62010111589</v>
+        <v>13489.1830316718</v>
       </c>
       <c r="AA18" s="5">
-        <v>-449.561037118543</v>
+        <v>-375.4545635053</v>
       </c>
       <c r="AB18" s="5">
-        <v>-1408.601775178073</v>
+        <v>-1287.444974332238</v>
       </c>
       <c r="AC18" s="5">
-        <v>-1752.431636042727</v>
+        <v>-1546.967062314081</v>
       </c>
       <c r="AD18" s="5">
-        <v>-2521.265607847048</v>
+        <v>-2148.754929777413</v>
       </c>
       <c r="AE18" s="5">
-        <v>-1989.553794096775</v>
+        <v>-1619.884028604502</v>
       </c>
       <c r="AF18" s="4">
-        <v>-0.02893454370469928</v>
+        <v>-0.02484961923906071</v>
       </c>
       <c r="AG18" s="4">
-        <v>-0.09066010232479238</v>
+        <v>-0.08521009068237562</v>
       </c>
       <c r="AH18" s="4">
-        <v>-0.1127896004679905</v>
+        <v>-0.102386669947429</v>
       </c>
       <c r="AI18" s="4">
-        <v>-0.1622731151013186</v>
+        <v>-0.1422162547300335</v>
       </c>
       <c r="AJ18" s="4">
-        <v>-0.1280512020728428</v>
+        <v>-0.1072127102316851</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -2287,106 +2287,106 @@
         <v>27</v>
       </c>
       <c r="C19" s="2">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D19" s="2">
-        <v>623976</v>
+        <v>623212</v>
       </c>
       <c r="E19" s="2">
-        <v>630593.5</v>
+        <v>629757</v>
       </c>
       <c r="F19" s="2">
-        <v>632650</v>
+        <v>631759</v>
       </c>
       <c r="G19" s="2">
-        <v>628835</v>
+        <v>627868.5</v>
       </c>
       <c r="H19" s="2">
-        <v>622503</v>
+        <v>621436.5</v>
       </c>
       <c r="I19" s="2">
-        <v>607708.5</v>
+        <v>606630</v>
       </c>
       <c r="J19" s="3">
-        <v>4418611549.323015</v>
+        <v>4292403846.364044</v>
       </c>
       <c r="K19" s="3">
-        <v>4298166271.971799</v>
+        <v>4190381361.75422</v>
       </c>
       <c r="L19" s="3">
-        <v>4268636149.146905</v>
+        <v>4172136493.593214</v>
       </c>
       <c r="M19" s="3">
-        <v>4229144199.524565</v>
+        <v>4154481255.235971</v>
       </c>
       <c r="N19" s="3">
-        <v>4017386956.063173</v>
+        <v>3995029965.938258</v>
       </c>
       <c r="O19" s="3">
-        <v>4053677606.576414</v>
+        <v>4027144399.057446</v>
       </c>
       <c r="P19" s="4">
-        <v>0.7966645285439384</v>
+        <v>0.769576379974326</v>
       </c>
       <c r="Q19" s="4">
-        <v>0.7690827453495831</v>
+        <v>0.7406931964056482</v>
       </c>
       <c r="R19" s="4">
-        <v>0.763951250801796</v>
+        <v>0.6983311938382541</v>
       </c>
       <c r="S19" s="4">
-        <v>0.8537524053880693</v>
+        <v>0.7836970474967908</v>
       </c>
       <c r="T19" s="4">
-        <v>0.7273893521488134</v>
+        <v>0.6367137355584083</v>
       </c>
       <c r="U19" s="5">
-        <v>7081.380612913021</v>
+        <v>6887.550057386642</v>
       </c>
       <c r="V19" s="5">
-        <v>6816.064980009783</v>
+        <v>6653.965516467813</v>
       </c>
       <c r="W19" s="5">
-        <v>6747.231722353442</v>
+        <v>6604.000091163266</v>
       </c>
       <c r="X19" s="5">
-        <v>6725.363886432157</v>
+        <v>6616.801536047709</v>
       </c>
       <c r="Y19" s="5">
-        <v>6453.602562659415</v>
+        <v>6428.701831865779</v>
       </c>
       <c r="Z19" s="5">
-        <v>6670.430982249572</v>
+        <v>6638.551339461362</v>
       </c>
       <c r="AA19" s="5">
-        <v>-265.3156329032381</v>
+        <v>-233.5845409188287</v>
       </c>
       <c r="AB19" s="5">
-        <v>-334.1488905595788</v>
+        <v>-283.549966223376</v>
       </c>
       <c r="AC19" s="5">
-        <v>-356.0167264808642</v>
+        <v>-270.7485213389327</v>
       </c>
       <c r="AD19" s="5">
-        <v>-627.7780502536061</v>
+        <v>-458.8482255208628</v>
       </c>
       <c r="AE19" s="5">
-        <v>-410.9496306634492</v>
+        <v>-248.9987179252803</v>
       </c>
       <c r="AF19" s="4">
-        <v>-0.03746665338386568</v>
+        <v>-0.03391402443141855</v>
       </c>
       <c r="AG19" s="4">
-        <v>-0.04718696943788792</v>
+        <v>-0.04116847991823724</v>
       </c>
       <c r="AH19" s="4">
-        <v>-0.0502750446476018</v>
+        <v>-0.03930984444150287</v>
       </c>
       <c r="AI19" s="4">
-        <v>-0.08865192884969941</v>
+        <v>-0.06661994783308545</v>
       </c>
       <c r="AJ19" s="4">
-        <v>-0.0580324167174513</v>
+        <v>-0.03615200119790618</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -2395,106 +2395,106 @@
         <v>28</v>
       </c>
       <c r="C20" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D20" s="2">
-        <v>395847.5</v>
+        <v>393699.5</v>
       </c>
       <c r="E20" s="2">
-        <v>402536.5</v>
+        <v>400391.5</v>
       </c>
       <c r="F20" s="2">
-        <v>408562</v>
+        <v>406329</v>
       </c>
       <c r="G20" s="2">
-        <v>417534.5</v>
+        <v>415106.5</v>
       </c>
       <c r="H20" s="2">
-        <v>424457.5</v>
+        <v>421935.5</v>
       </c>
       <c r="I20" s="2">
-        <v>432213.5</v>
+        <v>429691.5</v>
       </c>
       <c r="J20" s="3">
-        <v>3348105093.657706</v>
+        <v>3237033382.073129</v>
       </c>
       <c r="K20" s="3">
-        <v>3267047866.20552</v>
+        <v>3172155622.60884</v>
       </c>
       <c r="L20" s="3">
-        <v>3191864714.946555</v>
+        <v>3107785516.775548</v>
       </c>
       <c r="M20" s="3">
-        <v>3213856463.84078</v>
+        <v>3143834205.098871</v>
       </c>
       <c r="N20" s="3">
-        <v>3106514642.796985</v>
+        <v>3072058627.852653</v>
       </c>
       <c r="O20" s="3">
-        <v>3292832964.652287</v>
+        <v>3258884641.731558</v>
       </c>
       <c r="P20" s="4">
-        <v>0.7916666666666666</v>
+        <v>0.7702349869451697</v>
       </c>
       <c r="Q20" s="4">
-        <v>0.9088541666666666</v>
+        <v>0.8929503916449086</v>
       </c>
       <c r="R20" s="4">
-        <v>0.9010416666666666</v>
+        <v>0.8851174934725848</v>
       </c>
       <c r="S20" s="4">
-        <v>0.9609375</v>
+        <v>0.9451697127937336</v>
       </c>
       <c r="T20" s="4">
-        <v>0.90625</v>
+        <v>0.8381201044386423</v>
       </c>
       <c r="U20" s="5">
-        <v>8458.068053120725</v>
+        <v>8222.09167670553</v>
       </c>
       <c r="V20" s="5">
-        <v>8116.1531096075</v>
+        <v>7922.634777733392</v>
       </c>
       <c r="W20" s="5">
-        <v>7812.43658232179</v>
+        <v>7648.446251130359</v>
       </c>
       <c r="X20" s="5">
-        <v>7697.223735621319</v>
+        <v>7573.560532294414</v>
       </c>
       <c r="Y20" s="5">
-        <v>7318.788436526589</v>
+        <v>7280.872616436997</v>
       </c>
       <c r="Z20" s="5">
-        <v>7618.5333513467</v>
+        <v>7584.242745624613</v>
       </c>
       <c r="AA20" s="5">
-        <v>-341.9149435132249</v>
+        <v>-299.4568989721374</v>
       </c>
       <c r="AB20" s="5">
-        <v>-645.6314707989359</v>
+        <v>-573.6454255751705</v>
       </c>
       <c r="AC20" s="5">
-        <v>-760.8443174994063</v>
+        <v>-648.5311444111157</v>
       </c>
       <c r="AD20" s="5">
-        <v>-1139.279616594136</v>
+        <v>-941.2190602685323</v>
       </c>
       <c r="AE20" s="5">
-        <v>-839.5347017740251</v>
+        <v>-637.8489310809164</v>
       </c>
       <c r="AF20" s="4">
-        <v>-0.04042470944497434</v>
+        <v>-0.03642101192091374</v>
       </c>
       <c r="AG20" s="4">
-        <v>-0.0763332083336361</v>
+        <v>-0.06976879462441388</v>
       </c>
       <c r="AH20" s="4">
-        <v>-0.0899548588071104</v>
+        <v>-0.07887666179258324</v>
       </c>
       <c r="AI20" s="4">
-        <v>-0.1346973811795925</v>
+        <v>-0.1144744059392031</v>
       </c>
       <c r="AJ20" s="4">
-        <v>-0.09925844726021882</v>
+        <v>-0.07757745305711461</v>
       </c>
     </row>
     <row r="21" spans="1:36">
@@ -2506,103 +2506,103 @@
         <v>91</v>
       </c>
       <c r="D21" s="2">
-        <v>9661</v>
+        <v>9623</v>
       </c>
       <c r="E21" s="2">
-        <v>9957</v>
+        <v>9921</v>
       </c>
       <c r="F21" s="2">
-        <v>10438</v>
+        <v>10393</v>
       </c>
       <c r="G21" s="2">
-        <v>11107.5</v>
+        <v>11068.5</v>
       </c>
       <c r="H21" s="2">
-        <v>11720</v>
+        <v>11674</v>
       </c>
       <c r="I21" s="2">
-        <v>12328.5</v>
+        <v>12296.5</v>
       </c>
       <c r="J21" s="3">
-        <v>339901531.8306177</v>
+        <v>329090037.0623891</v>
       </c>
       <c r="K21" s="3">
-        <v>338488034.4147617</v>
+        <v>328940402.8034922</v>
       </c>
       <c r="L21" s="3">
-        <v>355429100.6742569</v>
+        <v>345806969.1952009</v>
       </c>
       <c r="M21" s="3">
-        <v>373339390.9494786</v>
+        <v>365560320.9749157</v>
       </c>
       <c r="N21" s="3">
-        <v>374351022.8637371</v>
+        <v>371159577.6591815</v>
       </c>
       <c r="O21" s="3">
-        <v>389598012.0214009</v>
+        <v>386357251.0871485</v>
       </c>
       <c r="P21" s="4">
+        <v>0.6593406593406593</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0.6373626373626373</v>
+      </c>
+      <c r="R21" s="4">
         <v>0.6813186813186813</v>
       </c>
-      <c r="Q21" s="4">
-        <v>0.6813186813186813</v>
-      </c>
-      <c r="R21" s="4">
-        <v>0.7472527472527473</v>
-      </c>
       <c r="S21" s="4">
-        <v>0.7802197802197802</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="T21" s="4">
-        <v>0.7912087912087912</v>
+        <v>0.7252747252747253</v>
       </c>
       <c r="U21" s="5">
-        <v>35182.85186115492</v>
+        <v>34198.27881766488</v>
       </c>
       <c r="V21" s="5">
-        <v>33994.98186348918</v>
+        <v>33155.97246280539</v>
       </c>
       <c r="W21" s="5">
-        <v>34051.45628226259</v>
+        <v>33273.06544743586</v>
       </c>
       <c r="X21" s="5">
-        <v>33611.46891284975</v>
+        <v>33027.08776933783</v>
       </c>
       <c r="Y21" s="5">
-        <v>31941.21355492637</v>
+        <v>31793.69347774383</v>
       </c>
       <c r="Z21" s="5">
-        <v>31601.4123390032</v>
+        <v>31420.09930363506</v>
       </c>
       <c r="AA21" s="5">
-        <v>-1187.869997665737</v>
+        <v>-1042.306354859487</v>
       </c>
       <c r="AB21" s="5">
-        <v>-1131.395578892327</v>
+        <v>-925.2133702290157</v>
       </c>
       <c r="AC21" s="5">
-        <v>-1571.382948305167</v>
+        <v>-1171.191048327048</v>
       </c>
       <c r="AD21" s="5">
-        <v>-3241.638306228542</v>
+        <v>-2404.585339921046</v>
       </c>
       <c r="AE21" s="5">
-        <v>-3581.439522151719</v>
+        <v>-2778.179514029813</v>
       </c>
       <c r="AF21" s="4">
-        <v>-0.03376275471793844</v>
+        <v>-0.03047832788359783</v>
       </c>
       <c r="AG21" s="4">
-        <v>-0.03215758584202466</v>
+        <v>-0.02705438408646177</v>
       </c>
       <c r="AH21" s="4">
-        <v>-0.04466331934962087</v>
+        <v>-0.0342470758417841</v>
       </c>
       <c r="AI21" s="4">
-        <v>-0.09213688301963963</v>
+        <v>-0.07031305150594236</v>
       </c>
       <c r="AJ21" s="4">
-        <v>-0.1017950317468709</v>
+        <v>-0.08123740755615938</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -2634,22 +2634,22 @@
         <v>1516</v>
       </c>
       <c r="J22" s="3">
-        <v>12191123.42769595</v>
+        <v>11855212.70801497</v>
       </c>
       <c r="K22" s="3">
-        <v>12066404.95099171</v>
+        <v>11783291.13088659</v>
       </c>
       <c r="L22" s="3">
-        <v>11841191.3071343</v>
+        <v>11583935.7228815</v>
       </c>
       <c r="M22" s="3">
-        <v>11464802.95282014</v>
+        <v>11279630.85415295</v>
       </c>
       <c r="N22" s="3">
-        <v>11769468.14855022</v>
+        <v>11719196.03668693</v>
       </c>
       <c r="O22" s="3">
-        <v>11639600.73158781</v>
+        <v>11589393.8206192</v>
       </c>
       <c r="P22" s="4">
         <v>1</v>
@@ -2667,52 +2667,52 @@
         <v>1</v>
       </c>
       <c r="U22" s="5">
-        <v>8664.622194524487</v>
+        <v>8425.879678759751</v>
       </c>
       <c r="V22" s="5">
-        <v>8055.009980635324</v>
+        <v>7866.015441179302</v>
       </c>
       <c r="W22" s="5">
-        <v>7800.521282697169</v>
+        <v>7631.051200844205</v>
       </c>
       <c r="X22" s="5">
-        <v>7406.203457894148</v>
+        <v>7286.583239116892</v>
       </c>
       <c r="Y22" s="5">
-        <v>8161.905789563257</v>
+        <v>8127.043021280808</v>
       </c>
       <c r="Z22" s="5">
-        <v>7677.836894187209</v>
+        <v>7644.718879036413</v>
       </c>
       <c r="AA22" s="5">
-        <v>-609.6122138891633</v>
+        <v>-559.8642375804493</v>
       </c>
       <c r="AB22" s="5">
-        <v>-864.1009118273178</v>
+        <v>-794.8284779155465</v>
       </c>
       <c r="AC22" s="5">
-        <v>-1258.418736630339</v>
+        <v>-1139.296439642859</v>
       </c>
       <c r="AD22" s="5">
-        <v>-502.7164049612302</v>
+        <v>-298.8366574789434</v>
       </c>
       <c r="AE22" s="5">
-        <v>-986.7853003372784</v>
+        <v>-781.1607997233377</v>
       </c>
       <c r="AF22" s="4">
-        <v>-0.07035646796860928</v>
+        <v>-0.06644579069788692</v>
       </c>
       <c r="AG22" s="4">
-        <v>-0.09972747713955454</v>
+        <v>-0.09433180964109633</v>
       </c>
       <c r="AH22" s="4">
-        <v>-0.1452364232828967</v>
+        <v>-0.1352139459711057</v>
       </c>
       <c r="AI22" s="4">
-        <v>-0.05801942585320297</v>
+        <v>-0.03546652324412625</v>
       </c>
       <c r="AJ22" s="4">
-        <v>-0.1138867082930478</v>
+        <v>-0.09270970266671563</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -2742,22 +2742,22 @@
         <v>1700.5</v>
       </c>
       <c r="J23" s="3">
-        <v>13790474.13346893</v>
+        <v>13410495.36298157</v>
       </c>
       <c r="K23" s="3">
-        <v>12302188.44795485</v>
+        <v>12013542.44433575</v>
       </c>
       <c r="L23" s="3">
-        <v>13710690.52341176</v>
+        <v>13412819.16827331</v>
       </c>
       <c r="M23" s="3">
-        <v>13972199.44512021</v>
+        <v>13746529.49641751</v>
       </c>
       <c r="N23" s="3">
-        <v>13614954.49012015</v>
+        <v>13556799.56701726</v>
       </c>
       <c r="O23" s="3">
-        <v>13438920.30618789</v>
+        <v>13380952.10857645</v>
       </c>
       <c r="P23" s="4">
         <v>0.8518518518518519</v>
@@ -2772,55 +2772,55 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="T23" s="4">
-        <v>0.7407407407407407</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="U23" s="5">
-        <v>9054.809017379466</v>
+        <v>8805.315405765967</v>
       </c>
       <c r="V23" s="5">
-        <v>7688.867779971783</v>
+        <v>7508.464027709841</v>
       </c>
       <c r="W23" s="5">
-        <v>7531.277409179762</v>
+        <v>7367.656780155625</v>
       </c>
       <c r="X23" s="5">
-        <v>7593.586654956635</v>
+        <v>7470.939943705167</v>
       </c>
       <c r="Y23" s="5">
-        <v>7070.86704238907</v>
+        <v>7040.664537531686</v>
       </c>
       <c r="Z23" s="5">
-        <v>7902.922849860566</v>
+        <v>7868.833936240196</v>
       </c>
       <c r="AA23" s="5">
-        <v>-1365.941237407683</v>
+        <v>-1296.851378056126</v>
       </c>
       <c r="AB23" s="5">
-        <v>-1523.531608199704</v>
+        <v>-1437.658625610342</v>
       </c>
       <c r="AC23" s="5">
-        <v>-1461.222362422831</v>
+        <v>-1334.3754620608</v>
       </c>
       <c r="AD23" s="5">
-        <v>-1983.941974990396</v>
+        <v>-1764.650868234281</v>
       </c>
       <c r="AE23" s="5">
-        <v>-1151.8861675189</v>
+        <v>-936.481469525771</v>
       </c>
       <c r="AF23" s="4">
-        <v>-0.1508525729019735</v>
+        <v>-0.1472805139049206</v>
       </c>
       <c r="AG23" s="4">
-        <v>-0.1682566253220243</v>
+        <v>-0.1632716784533264</v>
       </c>
       <c r="AH23" s="4">
-        <v>-0.1613752824182393</v>
+        <v>-0.1515420402984103</v>
       </c>
       <c r="AI23" s="4">
-        <v>-0.2191036797333319</v>
+        <v>-0.2004074569638628</v>
       </c>
       <c r="AJ23" s="4">
-        <v>-0.1272126408528343</v>
+        <v>-0.1063541084414236</v>
       </c>
     </row>
     <row r="24" spans="1:36">
@@ -2829,106 +2829,106 @@
         <v>27</v>
       </c>
       <c r="C24" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D24" s="2">
-        <v>165938</v>
+        <v>165701.5</v>
       </c>
       <c r="E24" s="2">
-        <v>168138.5</v>
+        <v>167890</v>
       </c>
       <c r="F24" s="2">
-        <v>169669</v>
+        <v>169745</v>
       </c>
       <c r="G24" s="2">
-        <v>170144.5</v>
+        <v>170228.5</v>
       </c>
       <c r="H24" s="2">
-        <v>169609.5</v>
+        <v>169678</v>
       </c>
       <c r="I24" s="2">
-        <v>167799.5</v>
+        <v>167836.5</v>
       </c>
       <c r="J24" s="3">
-        <v>1003259510.614659</v>
+        <v>974674404.6048124</v>
       </c>
       <c r="K24" s="3">
-        <v>967004231.7900785</v>
+        <v>943280044.5390559</v>
       </c>
       <c r="L24" s="3">
-        <v>979985214.641485</v>
+        <v>958623495.6764722</v>
       </c>
       <c r="M24" s="3">
-        <v>977267038.7345985</v>
+        <v>962059455.4724284</v>
       </c>
       <c r="N24" s="3">
-        <v>949665891.7493889</v>
+        <v>946175655.0658728</v>
       </c>
       <c r="O24" s="3">
-        <v>970239794.1149256</v>
+        <v>966665182.910007</v>
       </c>
       <c r="P24" s="4">
-        <v>0.7658610271903323</v>
+        <v>0.7503782148260212</v>
       </c>
       <c r="Q24" s="4">
-        <v>0.756797583081571</v>
+        <v>0.7155824508320726</v>
       </c>
       <c r="R24" s="4">
-        <v>0.7356495468277946</v>
+        <v>0.6928895612708018</v>
       </c>
       <c r="S24" s="4">
-        <v>0.8232628398791541</v>
+        <v>0.7291981845688351</v>
       </c>
       <c r="T24" s="4">
-        <v>0.6918429003021148</v>
+        <v>0.5794251134644478</v>
       </c>
       <c r="U24" s="5">
-        <v>6045.990132547449</v>
+        <v>5882.109725046619</v>
       </c>
       <c r="V24" s="5">
-        <v>5751.236223649423</v>
+        <v>5618.440910947977</v>
       </c>
       <c r="W24" s="5">
-        <v>5775.864858291644</v>
+        <v>5647.432888606275</v>
       </c>
       <c r="X24" s="5">
-        <v>5743.747454279148</v>
+        <v>5651.576883262371</v>
       </c>
       <c r="Y24" s="5">
-        <v>5599.131485850668</v>
+        <v>5576.30131817839</v>
       </c>
       <c r="Z24" s="5">
-        <v>5782.13757558828</v>
+        <v>5759.56471274131</v>
       </c>
       <c r="AA24" s="5">
-        <v>-294.7539088980266</v>
+        <v>-263.6688140986416</v>
       </c>
       <c r="AB24" s="5">
-        <v>-270.1252742558054</v>
+        <v>-234.6768364403442</v>
       </c>
       <c r="AC24" s="5">
-        <v>-302.2426782683015</v>
+        <v>-230.5328417842484</v>
       </c>
       <c r="AD24" s="5">
-        <v>-446.8586466967809</v>
+        <v>-305.8084068682292</v>
       </c>
       <c r="AE24" s="5">
-        <v>-263.8525569591693</v>
+        <v>-122.5450123053088</v>
       </c>
       <c r="AF24" s="4">
-        <v>-0.04875196658216074</v>
+        <v>-0.04482555178729719</v>
       </c>
       <c r="AG24" s="4">
-        <v>-0.04467841798180194</v>
+        <v>-0.03989671179391074</v>
       </c>
       <c r="AH24" s="4">
-        <v>-0.04999060065302374</v>
+        <v>-0.0391922035732547</v>
       </c>
       <c r="AI24" s="4">
-        <v>-0.07390991994697471</v>
+        <v>-0.05198957876730281</v>
       </c>
       <c r="AJ24" s="4">
-        <v>-0.04364091756266175</v>
+        <v>-0.02083351348981122</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -2937,106 +2937,106 @@
         <v>28</v>
       </c>
       <c r="C25" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" s="2">
-        <v>99341</v>
+        <v>98330</v>
       </c>
       <c r="E25" s="2">
-        <v>99365</v>
+        <v>98424.5</v>
       </c>
       <c r="F25" s="2">
-        <v>100475</v>
+        <v>99659</v>
       </c>
       <c r="G25" s="2">
-        <v>102839.5</v>
+        <v>102185.5</v>
       </c>
       <c r="H25" s="2">
-        <v>105875</v>
+        <v>105298</v>
       </c>
       <c r="I25" s="2">
-        <v>108285.5</v>
+        <v>107668.5</v>
       </c>
       <c r="J25" s="3">
-        <v>721844781.2796263</v>
+        <v>695435704.3185866</v>
       </c>
       <c r="K25" s="3">
-        <v>688670449.9059558</v>
+        <v>666155335.5383627</v>
       </c>
       <c r="L25" s="3">
-        <v>670778559.7199548</v>
+        <v>650469995.3136599</v>
       </c>
       <c r="M25" s="3">
-        <v>671403744.4098458</v>
+        <v>658230841.8929814</v>
       </c>
       <c r="N25" s="3">
-        <v>672544006.9054656</v>
+        <v>664810246.7811306</v>
       </c>
       <c r="O25" s="3">
-        <v>715634892.0401572</v>
+        <v>708536438.3600247</v>
       </c>
       <c r="P25" s="4">
-        <v>0.8290598290598291</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="Q25" s="4">
-        <v>0.8888888888888888</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="R25" s="4">
-        <v>0.9145299145299145</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="S25" s="4">
-        <v>0.9401709401709402</v>
+        <v>0.9051724137931034</v>
       </c>
       <c r="T25" s="4">
-        <v>0.8547008547008547</v>
+        <v>0.8362068965517241</v>
       </c>
       <c r="U25" s="5">
-        <v>7266.332946916442</v>
+        <v>7072.467246197361</v>
       </c>
       <c r="V25" s="5">
-        <v>6930.714536365479</v>
+        <v>6768.18612782755</v>
       </c>
       <c r="W25" s="5">
-        <v>6676.074244537993</v>
+        <v>6526.956876084046</v>
       </c>
       <c r="X25" s="5">
-        <v>6528.65624988303</v>
+        <v>6441.528806855977</v>
       </c>
       <c r="Y25" s="5">
-        <v>6352.245637832025</v>
+        <v>6313.607540324892</v>
       </c>
       <c r="Z25" s="5">
-        <v>6608.778571832398</v>
+        <v>6580.721737184271</v>
       </c>
       <c r="AA25" s="5">
-        <v>-335.6184105509628</v>
+        <v>-304.2811183698113</v>
       </c>
       <c r="AB25" s="5">
-        <v>-590.258702378449</v>
+        <v>-545.5103701133157</v>
       </c>
       <c r="AC25" s="5">
-        <v>-737.676697033412</v>
+        <v>-630.9384393413848</v>
       </c>
       <c r="AD25" s="5">
-        <v>-914.087309084417</v>
+        <v>-758.859705872469</v>
       </c>
       <c r="AE25" s="5">
-        <v>-657.5543750840434</v>
+        <v>-491.7455090130907</v>
       </c>
       <c r="AF25" s="4">
-        <v>-0.04618814097878443</v>
+        <v>-0.04302333369354427</v>
       </c>
       <c r="AG25" s="4">
-        <v>-0.08123199235302481</v>
+        <v>-0.07713155128524907</v>
       </c>
       <c r="AH25" s="4">
-        <v>-0.1015198040638166</v>
+        <v>-0.08921051414987047</v>
       </c>
       <c r="AI25" s="4">
-        <v>-0.1257976087473835</v>
+        <v>-0.1072977335144936</v>
       </c>
       <c r="AJ25" s="4">
-        <v>-0.09049329006635798</v>
+        <v>-0.06952955622063661</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -3045,106 +3045,106 @@
         <v>29</v>
       </c>
       <c r="C26" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D26" s="2">
-        <v>5163</v>
+        <v>5409</v>
       </c>
       <c r="E26" s="2">
-        <v>5391</v>
+        <v>5658</v>
       </c>
       <c r="F26" s="2">
-        <v>5501.5</v>
+        <v>5762.5</v>
       </c>
       <c r="G26" s="2">
-        <v>5666</v>
+        <v>5932</v>
       </c>
       <c r="H26" s="2">
-        <v>5877.5</v>
+        <v>6143.5</v>
       </c>
       <c r="I26" s="2">
-        <v>6175.5</v>
+        <v>6443.5</v>
       </c>
       <c r="J26" s="3">
-        <v>126721171.8538385</v>
+        <v>129455871.6700936</v>
       </c>
       <c r="K26" s="3">
-        <v>127554512.9515001</v>
+        <v>131043873.6303796</v>
       </c>
       <c r="L26" s="3">
-        <v>132938941.6701475</v>
+        <v>136530481.411404</v>
       </c>
       <c r="M26" s="3">
-        <v>133294827.5315874</v>
+        <v>137579977.2669635</v>
       </c>
       <c r="N26" s="3">
-        <v>124892253.7530121</v>
+        <v>127747224.0577688</v>
       </c>
       <c r="O26" s="3">
-        <v>140595536.1655614</v>
+        <v>146765186.2548126</v>
       </c>
       <c r="P26" s="4">
-        <v>0.723404255319149</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="Q26" s="4">
-        <v>0.5957446808510638</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="R26" s="4">
-        <v>0.7021276595744681</v>
+        <v>0.6875</v>
       </c>
       <c r="S26" s="4">
-        <v>0.7659574468085106</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="T26" s="4">
-        <v>0.723404255319149</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="U26" s="5">
-        <v>24544.09681461137</v>
+        <v>23933.42053431199</v>
       </c>
       <c r="V26" s="5">
-        <v>23660.64050296792</v>
+        <v>23160.81188235765</v>
       </c>
       <c r="W26" s="5">
-        <v>24164.12645099473</v>
+        <v>23692.92519069917</v>
       </c>
       <c r="X26" s="5">
-        <v>23525.38431549372</v>
+        <v>23192.84849409365</v>
       </c>
       <c r="Y26" s="5">
-        <v>21249.21373934702</v>
+        <v>20793.88362623404</v>
       </c>
       <c r="Z26" s="5">
-        <v>22766.66442645315</v>
+        <v>22777.24625666371</v>
       </c>
       <c r="AA26" s="5">
-        <v>-883.4563116434474</v>
+        <v>-772.6086519543423</v>
       </c>
       <c r="AB26" s="5">
-        <v>-379.9703636166414</v>
+        <v>-240.4953436128199</v>
       </c>
       <c r="AC26" s="5">
-        <v>-1018.712499117653</v>
+        <v>-740.572040218347</v>
       </c>
       <c r="AD26" s="5">
-        <v>-3294.883075264352</v>
+        <v>-3139.536908077956</v>
       </c>
       <c r="AE26" s="5">
-        <v>-1777.432388158217</v>
+        <v>-1156.174277648282</v>
       </c>
       <c r="AF26" s="4">
-        <v>-0.03599465559138104</v>
+        <v>-0.03228158093184785</v>
       </c>
       <c r="AG26" s="4">
-        <v>-0.01548113041138433</v>
+        <v>-0.01004851534982365</v>
       </c>
       <c r="AH26" s="4">
-        <v>-0.04150539768532868</v>
+        <v>-0.0309430087168957</v>
       </c>
       <c r="AI26" s="4">
-        <v>-0.1342434028088934</v>
+        <v>-0.1311779443969148</v>
       </c>
       <c r="AJ26" s="4">
-        <v>-0.07241791790440189</v>
+        <v>-0.04830794144074557</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -3176,22 +3176,22 @@
         <v>523</v>
       </c>
       <c r="J27" s="3">
-        <v>2042952.354265034</v>
+        <v>1986661.430818545</v>
       </c>
       <c r="K27" s="3">
-        <v>1622251.694023166</v>
+        <v>1584188.834693291</v>
       </c>
       <c r="L27" s="3">
-        <v>2029986.425031154</v>
+        <v>1985883.992239447</v>
       </c>
       <c r="M27" s="3">
-        <v>1583421.547339363</v>
+        <v>1557847.144342445</v>
       </c>
       <c r="N27" s="3">
-        <v>3220143.897509024</v>
+        <v>3206389.373329322</v>
       </c>
       <c r="O27" s="3">
-        <v>3956153.506321247</v>
+        <v>3939088.810422274</v>
       </c>
       <c r="P27" s="4">
         <v>1</v>
@@ -3209,52 +3209,52 @@
         <v>0</v>
       </c>
       <c r="U27" s="5">
-        <v>6162.75219989452</v>
+        <v>5992.945492665294</v>
       </c>
       <c r="V27" s="5">
-        <v>5389.54051170487</v>
+        <v>5263.085829545818</v>
       </c>
       <c r="W27" s="5">
-        <v>5030.945291279192</v>
+        <v>4921.645581758233</v>
       </c>
       <c r="X27" s="5">
-        <v>3909.682832936699</v>
+        <v>3846.536158870234</v>
       </c>
       <c r="Y27" s="5">
-        <v>7385.651141075742</v>
+        <v>7354.104067269087</v>
       </c>
       <c r="Z27" s="5">
-        <v>7564.347048415387</v>
+        <v>7531.718566772991</v>
       </c>
       <c r="AA27" s="5">
-        <v>-773.21168818965</v>
+        <v>-729.859663119476</v>
       </c>
       <c r="AB27" s="5">
-        <v>-1131.806908615328</v>
+        <v>-1071.299910907062</v>
       </c>
       <c r="AC27" s="5">
-        <v>-2253.069366957821</v>
+        <v>-2146.40933379506</v>
       </c>
       <c r="AD27" s="5">
-        <v>1222.898941181222</v>
+        <v>1361.158574603793</v>
       </c>
       <c r="AE27" s="5">
-        <v>1401.594848520866</v>
+        <v>1538.773074107697</v>
       </c>
       <c r="AF27" s="4">
-        <v>-0.1254653218415765</v>
+        <v>-0.1217864677749437</v>
       </c>
       <c r="AG27" s="4">
-        <v>-0.1836528343026188</v>
+        <v>-0.1787601626309158</v>
       </c>
       <c r="AH27" s="4">
-        <v>-0.365594671646279</v>
+        <v>-0.3581559913104548</v>
       </c>
       <c r="AI27" s="4">
-        <v>0.1984338979591216</v>
+        <v>0.2271268070550116</v>
       </c>
       <c r="AJ27" s="4">
-        <v>0.2274300187738938</v>
+        <v>0.2567640696867652</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -3284,22 +3284,22 @@
         <v>7752</v>
       </c>
       <c r="J28" s="3">
-        <v>50869442.40684544</v>
+        <v>49467800.37524776</v>
       </c>
       <c r="K28" s="3">
-        <v>52337944.91448169</v>
+        <v>51109940.75074174</v>
       </c>
       <c r="L28" s="3">
-        <v>49826074.59995399</v>
+        <v>48743579.13140161</v>
       </c>
       <c r="M28" s="3">
-        <v>50748613.27423575</v>
+        <v>49928954.42243417</v>
       </c>
       <c r="N28" s="3">
-        <v>49938062.29908679</v>
+        <v>49724756.83596397</v>
       </c>
       <c r="O28" s="3">
-        <v>53271764.48624749</v>
+        <v>53041979.04958358</v>
       </c>
       <c r="P28" s="4">
         <v>0.5</v>
@@ -3308,7 +3308,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="R28" s="4">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="S28" s="4">
         <v>0.8333333333333334</v>
@@ -3317,52 +3317,52 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="U28" s="5">
-        <v>7567.605237555108</v>
+        <v>7359.089612503386</v>
       </c>
       <c r="V28" s="5">
-        <v>7475.781304739565</v>
+        <v>7300.377196220787</v>
       </c>
       <c r="W28" s="5">
-        <v>6926.059855428689</v>
+        <v>6775.587869252379</v>
       </c>
       <c r="X28" s="5">
-        <v>6833.909678728218</v>
+        <v>6723.532779751436</v>
       </c>
       <c r="Y28" s="5">
-        <v>6547.536685339817</v>
+        <v>6519.569534019139</v>
       </c>
       <c r="Z28" s="5">
-        <v>6872.002642704785</v>
+        <v>6842.360558511813</v>
       </c>
       <c r="AA28" s="5">
-        <v>-91.82393281554323</v>
+        <v>-58.7124162825985</v>
       </c>
       <c r="AB28" s="5">
-        <v>-641.5453821264191</v>
+        <v>-583.5017432510067</v>
       </c>
       <c r="AC28" s="5">
-        <v>-733.6955588268902</v>
+        <v>-635.5568327519495</v>
       </c>
       <c r="AD28" s="5">
-        <v>-1020.068552215291</v>
+        <v>-839.5200784842473</v>
       </c>
       <c r="AE28" s="5">
-        <v>-695.6025948503229</v>
+        <v>-516.729053991573</v>
       </c>
       <c r="AF28" s="4">
-        <v>-0.01213381643638811</v>
+        <v>-0.007978217330421367</v>
       </c>
       <c r="AG28" s="4">
-        <v>-0.084775217785235</v>
+        <v>-0.07928993584472921</v>
       </c>
       <c r="AH28" s="4">
-        <v>-0.09695214480610614</v>
+        <v>-0.08636351318131974</v>
       </c>
       <c r="AI28" s="4">
-        <v>-0.1347941019905589</v>
+        <v>-0.1140793389793582</v>
       </c>
       <c r="AJ28" s="4">
-        <v>-0.09191845676599453</v>
+        <v>-0.07021643724974214</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -3371,106 +3371,106 @@
         <v>26</v>
       </c>
       <c r="C29" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" s="2">
-        <v>2651</v>
+        <v>2567.5</v>
       </c>
       <c r="E29" s="2">
-        <v>2732.5</v>
+        <v>2622.5</v>
       </c>
       <c r="F29" s="2">
-        <v>3178.5</v>
+        <v>3086.5</v>
       </c>
       <c r="G29" s="2">
-        <v>3179</v>
+        <v>3084</v>
       </c>
       <c r="H29" s="2">
-        <v>3266</v>
+        <v>3204</v>
       </c>
       <c r="I29" s="2">
-        <v>2911</v>
+        <v>2871</v>
       </c>
       <c r="J29" s="3">
-        <v>28112417.07002977</v>
+        <v>26665360.47118218</v>
       </c>
       <c r="K29" s="3">
-        <v>27111181.21684178</v>
+        <v>25871472.83810258</v>
       </c>
       <c r="L29" s="3">
-        <v>28244801.57608379</v>
+        <v>26933287.36404993</v>
       </c>
       <c r="M29" s="3">
-        <v>28661091.02876421</v>
+        <v>27590106.51136778</v>
       </c>
       <c r="N29" s="3">
-        <v>27255603.74791995</v>
+        <v>26615101.48558945</v>
       </c>
       <c r="O29" s="3">
-        <v>26342561.49595398</v>
+        <v>25743412.04709447</v>
       </c>
       <c r="P29" s="4">
-        <v>0.5490196078431373</v>
+        <v>0.54</v>
       </c>
       <c r="Q29" s="4">
-        <v>0.8823529411764706</v>
+        <v>0.86</v>
       </c>
       <c r="R29" s="4">
-        <v>0.8235294117647058</v>
+        <v>0.82</v>
       </c>
       <c r="S29" s="4">
-        <v>0.803921568627451</v>
+        <v>0.8</v>
       </c>
       <c r="T29" s="4">
-        <v>0.6274509803921569</v>
+        <v>0.6</v>
       </c>
       <c r="U29" s="5">
-        <v>10604.45758960006</v>
+        <v>10385.72949218391</v>
       </c>
       <c r="V29" s="5">
-        <v>9921.749759136974</v>
+        <v>9865.194599848459</v>
       </c>
       <c r="W29" s="5">
-        <v>8886.204680221423</v>
+        <v>8726.158225838306</v>
       </c>
       <c r="X29" s="5">
-        <v>9015.756850822338</v>
+        <v>8946.208337019385</v>
       </c>
       <c r="Y29" s="5">
-        <v>8345.255281053262</v>
+        <v>8306.835669659627</v>
       </c>
       <c r="Z29" s="5">
-        <v>9049.316900018544</v>
+        <v>8966.705693867805</v>
       </c>
       <c r="AA29" s="5">
-        <v>-682.7078304630904</v>
+        <v>-520.5348923354468</v>
       </c>
       <c r="AB29" s="5">
-        <v>-1718.252909378642</v>
+        <v>-1659.5712663456</v>
       </c>
       <c r="AC29" s="5">
-        <v>-1588.700738777727</v>
+        <v>-1439.521155164521</v>
       </c>
       <c r="AD29" s="5">
-        <v>-2259.202308546803</v>
+        <v>-2078.893822524278</v>
       </c>
       <c r="AE29" s="5">
-        <v>-1555.14068958152</v>
+        <v>-1419.023798316101</v>
       </c>
       <c r="AF29" s="4">
-        <v>-0.06437932583488581</v>
+        <v>-0.050120205107132</v>
       </c>
       <c r="AG29" s="4">
-        <v>-0.1620311925301824</v>
+        <v>-0.1597934230421233</v>
       </c>
       <c r="AH29" s="4">
-        <v>-0.1498144271269269</v>
+        <v>-0.1386056854502012</v>
       </c>
       <c r="AI29" s="4">
-        <v>-0.2130427029820396</v>
+        <v>-0.2001683005598029</v>
       </c>
       <c r="AJ29" s="4">
-        <v>-0.1466497155975868</v>
+        <v>-0.1366320776392289</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -3479,106 +3479,106 @@
         <v>27</v>
       </c>
       <c r="C30" s="2">
-        <v>2248</v>
+        <v>2243</v>
       </c>
       <c r="D30" s="2">
-        <v>569523</v>
+        <v>569162</v>
       </c>
       <c r="E30" s="2">
-        <v>579323.5</v>
+        <v>578885</v>
       </c>
       <c r="F30" s="2">
-        <v>587461</v>
+        <v>587092.5</v>
       </c>
       <c r="G30" s="2">
-        <v>591330</v>
+        <v>590842</v>
       </c>
       <c r="H30" s="2">
-        <v>591602.5</v>
+        <v>591161.5</v>
       </c>
       <c r="I30" s="2">
-        <v>587229.5</v>
+        <v>586846</v>
       </c>
       <c r="J30" s="3">
-        <v>3354815750.996948</v>
+        <v>3258331526.169236</v>
       </c>
       <c r="K30" s="3">
-        <v>3273533406.520285</v>
+        <v>3192785014.734811</v>
       </c>
       <c r="L30" s="3">
-        <v>3286783784.059494</v>
+        <v>3211681837.576297</v>
       </c>
       <c r="M30" s="3">
-        <v>3281732319.009542</v>
+        <v>3223462148.23784</v>
       </c>
       <c r="N30" s="3">
-        <v>3200003160.893126</v>
+        <v>3182426369.792869</v>
       </c>
       <c r="O30" s="3">
-        <v>3283965495.712963</v>
+        <v>3266040133.797144</v>
       </c>
       <c r="P30" s="4">
-        <v>0.7931494661921709</v>
+        <v>0.7703967900133749</v>
       </c>
       <c r="Q30" s="4">
-        <v>0.8082740213523132</v>
+        <v>0.7779759251003121</v>
       </c>
       <c r="R30" s="4">
-        <v>0.8136120996441281</v>
+        <v>0.7588051716451182</v>
       </c>
       <c r="S30" s="4">
-        <v>0.8763345195729537</v>
+        <v>0.8082924654480607</v>
       </c>
       <c r="T30" s="4">
-        <v>0.7606761565836299</v>
+        <v>0.6584930896121266</v>
       </c>
       <c r="U30" s="5">
-        <v>5890.571146375033</v>
+        <v>5724.787540575857</v>
       </c>
       <c r="V30" s="5">
-        <v>5650.613873803298</v>
+        <v>5515.404639496292</v>
       </c>
       <c r="W30" s="5">
-        <v>5594.896995816734</v>
+        <v>5470.486912328632</v>
       </c>
       <c r="X30" s="5">
-        <v>5549.747719563598</v>
+        <v>5455.70922215726</v>
       </c>
       <c r="Y30" s="5">
-        <v>5409.04266106571</v>
+        <v>5383.345109234734</v>
       </c>
       <c r="Z30" s="5">
-        <v>5592.303342582351</v>
+        <v>5565.412618978648</v>
       </c>
       <c r="AA30" s="5">
-        <v>-239.9572725717353</v>
+        <v>-209.3829010795653</v>
       </c>
       <c r="AB30" s="5">
-        <v>-295.6741505582995</v>
+        <v>-254.3006282472252</v>
       </c>
       <c r="AC30" s="5">
-        <v>-340.8234268114347</v>
+        <v>-269.0783184185966</v>
       </c>
       <c r="AD30" s="5">
-        <v>-481.5284853093235</v>
+        <v>-341.4424313411228</v>
       </c>
       <c r="AE30" s="5">
-        <v>-298.2678037926826</v>
+        <v>-159.3749215972084</v>
       </c>
       <c r="AF30" s="4">
-        <v>-0.04073582452516533</v>
+        <v>-0.03657478982329243</v>
       </c>
       <c r="AG30" s="4">
-        <v>-0.05019447914490482</v>
+        <v>-0.04442097220985164</v>
       </c>
       <c r="AH30" s="4">
-        <v>-0.0578591478385202</v>
+        <v>-0.04700232393105197</v>
       </c>
       <c r="AI30" s="4">
-        <v>-0.08174563609263064</v>
+        <v>-0.05964281275437111</v>
       </c>
       <c r="AJ30" s="4">
-        <v>-0.05063478504562868</v>
+        <v>-0.02783944739740973</v>
       </c>
     </row>
     <row r="31" spans="1:36">
@@ -3587,106 +3587,106 @@
         <v>28</v>
       </c>
       <c r="C31" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D31" s="2">
-        <v>333815.5</v>
+        <v>333237.5</v>
       </c>
       <c r="E31" s="2">
-        <v>336455.5</v>
+        <v>335886.5</v>
       </c>
       <c r="F31" s="2">
-        <v>340597</v>
+        <v>340032</v>
       </c>
       <c r="G31" s="2">
-        <v>346946</v>
+        <v>346358</v>
       </c>
       <c r="H31" s="2">
-        <v>354759</v>
+        <v>354217</v>
       </c>
       <c r="I31" s="2">
-        <v>362355</v>
+        <v>361801</v>
       </c>
       <c r="J31" s="3">
-        <v>2388733494.729055</v>
+        <v>2318376591.468363</v>
       </c>
       <c r="K31" s="3">
-        <v>2293074428.36571</v>
+        <v>2235120961.770825</v>
       </c>
       <c r="L31" s="3">
-        <v>2272229908.788767</v>
+        <v>2218888520.614648</v>
       </c>
       <c r="M31" s="3">
-        <v>2270992705.510878</v>
+        <v>2230332159.299506</v>
       </c>
       <c r="N31" s="3">
-        <v>2236716405.433822</v>
+        <v>2223063669.610906</v>
       </c>
       <c r="O31" s="3">
-        <v>2378486119.222281</v>
+        <v>2364298827.255079</v>
       </c>
       <c r="P31" s="4">
-        <v>0.841225626740947</v>
+        <v>0.8184357541899442</v>
       </c>
       <c r="Q31" s="4">
-        <v>0.8857938718662952</v>
+        <v>0.8603351955307262</v>
       </c>
       <c r="R31" s="4">
-        <v>0.9192200557103064</v>
+        <v>0.8798882681564246</v>
       </c>
       <c r="S31" s="4">
-        <v>0.9721448467966574</v>
+        <v>0.9245810055865922</v>
       </c>
       <c r="T31" s="4">
-        <v>0.8662952646239555</v>
+        <v>0.7821229050279329</v>
       </c>
       <c r="U31" s="5">
-        <v>7155.849547816249</v>
+        <v>6957.129949265503</v>
       </c>
       <c r="V31" s="5">
-        <v>6815.386963107186</v>
+        <v>6654.393557856076</v>
       </c>
       <c r="W31" s="5">
-        <v>6671.315099043053</v>
+        <v>6525.528540298114</v>
       </c>
       <c r="X31" s="5">
-        <v>6545.666200246948</v>
+        <v>6439.383987953234</v>
       </c>
       <c r="Y31" s="5">
-        <v>6304.889813743475</v>
+        <v>6275.993725910686</v>
       </c>
       <c r="Z31" s="5">
-        <v>6563.966605186298</v>
+        <v>6534.80456730379</v>
       </c>
       <c r="AA31" s="5">
-        <v>-340.4625847090629</v>
+        <v>-302.7363914094267</v>
       </c>
       <c r="AB31" s="5">
-        <v>-484.5344487731954</v>
+        <v>-431.6014089673881</v>
       </c>
       <c r="AC31" s="5">
-        <v>-610.1833475693002</v>
+        <v>-517.7459613122683</v>
       </c>
       <c r="AD31" s="5">
-        <v>-850.9597340727732</v>
+        <v>-681.1362233548161</v>
       </c>
       <c r="AE31" s="5">
-        <v>-591.8829426299508</v>
+        <v>-422.3253819617121</v>
       </c>
       <c r="AF31" s="4">
-        <v>-0.04757822008890078</v>
+        <v>-0.04351455177883923</v>
       </c>
       <c r="AG31" s="4">
-        <v>-0.06771165960595982</v>
+        <v>-0.06203727860695696</v>
       </c>
       <c r="AH31" s="4">
-        <v>-0.08527056689663215</v>
+        <v>-0.07441947542850325</v>
       </c>
       <c r="AI31" s="4">
-        <v>-0.118918058350243</v>
+        <v>-0.09790477227275696</v>
       </c>
       <c r="AJ31" s="4">
-        <v>-0.08271316196279943</v>
+        <v>-0.06070396629666219</v>
       </c>
     </row>
     <row r="32" spans="1:36">
@@ -3716,85 +3716,85 @@
         <v>14785</v>
       </c>
       <c r="J32" s="3">
-        <v>299396579.3616059</v>
+        <v>291147091.8521196</v>
       </c>
       <c r="K32" s="3">
-        <v>300773178.7866767</v>
+        <v>293716143.6567181</v>
       </c>
       <c r="L32" s="3">
-        <v>310567801.5975196</v>
+        <v>303820566.5281953</v>
       </c>
       <c r="M32" s="3">
-        <v>319650272.6881441</v>
+        <v>314487487.7648633</v>
       </c>
       <c r="N32" s="3">
-        <v>318397285.5799204</v>
+        <v>317037283.2624312</v>
       </c>
       <c r="O32" s="3">
-        <v>332230478.1155434</v>
+        <v>330797416.4134751</v>
       </c>
       <c r="P32" s="4">
-        <v>0.7372881355932204</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="Q32" s="4">
-        <v>0.8305084745762712</v>
+        <v>0.8220338983050848</v>
       </c>
       <c r="R32" s="4">
-        <v>0.8728813559322034</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="S32" s="4">
-        <v>0.923728813559322</v>
+        <v>0.9067796610169492</v>
       </c>
       <c r="T32" s="4">
-        <v>0.9067796610169492</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="U32" s="5">
-        <v>26266.31393267587</v>
+        <v>25542.57944923627</v>
       </c>
       <c r="V32" s="5">
-        <v>25275.0570408972</v>
+        <v>24682.02887871581</v>
       </c>
       <c r="W32" s="5">
-        <v>24414.74797354818</v>
+        <v>23884.32581488112</v>
       </c>
       <c r="X32" s="5">
-        <v>23768.47028948538</v>
+        <v>23384.5772959708</v>
       </c>
       <c r="Y32" s="5">
-        <v>22467.43715061358</v>
+        <v>22371.46972885236</v>
       </c>
       <c r="Z32" s="5">
-        <v>22470.7797169796</v>
+        <v>22373.852987046</v>
       </c>
       <c r="AA32" s="5">
-        <v>-991.2568917786703</v>
+        <v>-860.5505705204596</v>
       </c>
       <c r="AB32" s="5">
-        <v>-1851.565959127693</v>
+        <v>-1658.253634355147</v>
       </c>
       <c r="AC32" s="5">
-        <v>-2497.843643190496</v>
+        <v>-2158.002153265465</v>
       </c>
       <c r="AD32" s="5">
-        <v>-3798.876782062292</v>
+        <v>-3171.109720383905</v>
       </c>
       <c r="AE32" s="5">
-        <v>-3795.534215696269</v>
+        <v>-3168.726462190265</v>
       </c>
       <c r="AF32" s="4">
-        <v>-0.03773871333143264</v>
+        <v>-0.03369082485309405</v>
       </c>
       <c r="AG32" s="4">
-        <v>-0.07049203644917623</v>
+        <v>-0.06492115009961263</v>
       </c>
       <c r="AH32" s="4">
-        <v>-0.09509684722389322</v>
+        <v>-0.08448646142235994</v>
       </c>
       <c r="AI32" s="4">
-        <v>-0.1446292308772114</v>
+        <v>-0.1241499405604755</v>
       </c>
       <c r="AJ32" s="4">
-        <v>-0.144501974103589</v>
+        <v>-0.1240566352543933</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -3805,106 +3805,106 @@
         <v>25</v>
       </c>
       <c r="C33" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33" s="2">
-        <v>15116.5</v>
+        <v>16423.5</v>
       </c>
       <c r="E33" s="2">
-        <v>16565</v>
+        <v>17903</v>
       </c>
       <c r="F33" s="2">
-        <v>18833</v>
+        <v>20224</v>
       </c>
       <c r="G33" s="2">
-        <v>20865.5</v>
+        <v>22333.5</v>
       </c>
       <c r="H33" s="2">
-        <v>21979</v>
+        <v>23460</v>
       </c>
       <c r="I33" s="2">
-        <v>22760</v>
+        <v>24343</v>
       </c>
       <c r="J33" s="3">
-        <v>99182489.43158256</v>
+        <v>105868569.1197331</v>
       </c>
       <c r="K33" s="3">
-        <v>102541073.6809471</v>
+        <v>109183946.5477479</v>
       </c>
       <c r="L33" s="3">
-        <v>113890531.3904303</v>
+        <v>120451511.8290367</v>
       </c>
       <c r="M33" s="3">
-        <v>120357692.9788639</v>
+        <v>124617890.7996914</v>
       </c>
       <c r="N33" s="3">
-        <v>123624900.2283613</v>
+        <v>133267572.2102606</v>
       </c>
       <c r="O33" s="3">
-        <v>132059121.2308425</v>
+        <v>142606566.007077</v>
       </c>
       <c r="P33" s="4">
-        <v>0.7647058823529411</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="Q33" s="4">
-        <v>0.7647058823529411</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="R33" s="4">
-        <v>0.9411764705882353</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="S33" s="4">
-        <v>0.8823529411764706</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="T33" s="4">
-        <v>0.9411764705882353</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="U33" s="5">
-        <v>6561.207252444849</v>
+        <v>6446.16367520523</v>
       </c>
       <c r="V33" s="5">
-        <v>6190.224792088566</v>
+        <v>6098.639699924473</v>
       </c>
       <c r="W33" s="5">
-        <v>6047.391886073929</v>
+        <v>5955.869849141453</v>
       </c>
       <c r="X33" s="5">
-        <v>5768.263064813395</v>
+        <v>5579.863917419636</v>
       </c>
       <c r="Y33" s="5">
-        <v>5624.682662011981</v>
+        <v>5680.629676481698</v>
       </c>
       <c r="Z33" s="5">
-        <v>5802.246099773394</v>
+        <v>5858.216571789714</v>
       </c>
       <c r="AA33" s="5">
-        <v>-370.9824603562829</v>
+        <v>-347.5239752807565</v>
       </c>
       <c r="AB33" s="5">
-        <v>-513.8153663709199</v>
+        <v>-490.2938260637775</v>
       </c>
       <c r="AC33" s="5">
-        <v>-792.9441876314531</v>
+        <v>-866.299757785594</v>
       </c>
       <c r="AD33" s="5">
-        <v>-936.5245904328676</v>
+        <v>-765.533998723532</v>
       </c>
       <c r="AE33" s="5">
-        <v>-758.9611526714543</v>
+        <v>-587.9471034155158</v>
       </c>
       <c r="AF33" s="4">
-        <v>-0.05654179880052512</v>
+        <v>-0.05391175166983209</v>
       </c>
       <c r="AG33" s="4">
-        <v>-0.07831110138754738</v>
+        <v>-0.07605978544256675</v>
       </c>
       <c r="AH33" s="4">
-        <v>-0.1208533974195046</v>
+        <v>-0.1343899723051964</v>
       </c>
       <c r="AI33" s="4">
-        <v>-0.1427366267212331</v>
+        <v>-0.1187580764770387</v>
       </c>
       <c r="AJ33" s="4">
-        <v>-0.1156740098994204</v>
+        <v>-0.09120883878220742</v>
       </c>
     </row>
     <row r="34" spans="1:36">
@@ -3913,106 +3913,106 @@
         <v>26</v>
       </c>
       <c r="C34" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D34" s="2">
-        <v>2077</v>
+        <v>2142</v>
       </c>
       <c r="E34" s="2">
-        <v>2189</v>
+        <v>2257.5</v>
       </c>
       <c r="F34" s="2">
-        <v>2474.5</v>
+        <v>2545</v>
       </c>
       <c r="G34" s="2">
-        <v>2494</v>
+        <v>2567.5</v>
       </c>
       <c r="H34" s="2">
-        <v>2528.5</v>
+        <v>2621</v>
       </c>
       <c r="I34" s="2">
-        <v>2290.5</v>
+        <v>2390.5</v>
       </c>
       <c r="J34" s="3">
-        <v>22957463.70184156</v>
+        <v>23707079.11332802</v>
       </c>
       <c r="K34" s="3">
-        <v>22350044.07826633</v>
+        <v>22951315.28589032</v>
       </c>
       <c r="L34" s="3">
-        <v>23894552.27904962</v>
+        <v>24495499.08699616</v>
       </c>
       <c r="M34" s="3">
-        <v>24075437.5982185</v>
+        <v>24798571.59990156</v>
       </c>
       <c r="N34" s="3">
-        <v>22405262.81848756</v>
+        <v>23423856.58602886</v>
       </c>
       <c r="O34" s="3">
-        <v>21970207.7413979</v>
+        <v>23012591.86001635</v>
       </c>
       <c r="P34" s="4">
-        <v>0.6285714285714286</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="Q34" s="4">
-        <v>0.7142857142857143</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="R34" s="4">
-        <v>0.7428571428571429</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="S34" s="4">
-        <v>0.8285714285714286</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="T34" s="4">
-        <v>0.7142857142857143</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="U34" s="5">
-        <v>11053.1842570253</v>
+        <v>11067.73067849114</v>
       </c>
       <c r="V34" s="5">
-        <v>10210.16175343368</v>
+        <v>10166.69558621941</v>
       </c>
       <c r="W34" s="5">
-        <v>9656.315327965092</v>
+        <v>9624.950525342303</v>
       </c>
       <c r="X34" s="5">
-        <v>9653.34306263773</v>
+        <v>9658.645219046373</v>
       </c>
       <c r="Y34" s="5">
-        <v>8861.088716032256</v>
+        <v>8936.992211380717</v>
       </c>
       <c r="Z34" s="5">
-        <v>9591.882882077232</v>
+        <v>9626.685572062896</v>
       </c>
       <c r="AA34" s="5">
-        <v>-843.0225035916228</v>
+        <v>-901.035092271728</v>
       </c>
       <c r="AB34" s="5">
-        <v>-1396.868929060211</v>
+        <v>-1442.780153148835</v>
       </c>
       <c r="AC34" s="5">
-        <v>-1399.841194387573</v>
+        <v>-1409.085459444765</v>
       </c>
       <c r="AD34" s="5">
-        <v>-2192.095540993047</v>
+        <v>-2130.738467110421</v>
       </c>
       <c r="AE34" s="5">
-        <v>-1461.301374948071</v>
+        <v>-1441.045106428242</v>
       </c>
       <c r="AF34" s="4">
-        <v>-0.07626965080725989</v>
+        <v>-0.08141100632515264</v>
       </c>
       <c r="AG34" s="4">
-        <v>-0.1263770599112535</v>
+        <v>-0.1303591671193004</v>
       </c>
       <c r="AH34" s="4">
-        <v>-0.1266459657087365</v>
+        <v>-0.1273147585876082</v>
       </c>
       <c r="AI34" s="4">
-        <v>-0.1983225367477043</v>
+        <v>-0.1925180986967153</v>
       </c>
       <c r="AJ34" s="4">
-        <v>-0.1322063706681883</v>
+        <v>-0.1302024008615197</v>
       </c>
     </row>
     <row r="35" spans="1:36">
@@ -4021,106 +4021,106 @@
         <v>27</v>
       </c>
       <c r="C35" s="2">
-        <v>2230</v>
+        <v>2216</v>
       </c>
       <c r="D35" s="2">
-        <v>599583</v>
+        <v>595860</v>
       </c>
       <c r="E35" s="2">
-        <v>612002.5</v>
+        <v>608244.5</v>
       </c>
       <c r="F35" s="2">
-        <v>619576.5</v>
+        <v>615832.5</v>
       </c>
       <c r="G35" s="2">
-        <v>621743</v>
+        <v>617973</v>
       </c>
       <c r="H35" s="2">
-        <v>623087</v>
+        <v>619295.5</v>
       </c>
       <c r="I35" s="2">
-        <v>619726.5</v>
+        <v>616020</v>
       </c>
       <c r="J35" s="3">
-        <v>3300622443.65459</v>
+        <v>3191306532.33495</v>
       </c>
       <c r="K35" s="3">
-        <v>3247414774.857539</v>
+        <v>3152052602.156439</v>
       </c>
       <c r="L35" s="3">
-        <v>3247973135.698187</v>
+        <v>3157760131.673932</v>
       </c>
       <c r="M35" s="3">
-        <v>3259723982.844705</v>
+        <v>3187610151.547709</v>
       </c>
       <c r="N35" s="3">
-        <v>3162109836.265498</v>
+        <v>3130203728.358105</v>
       </c>
       <c r="O35" s="3">
-        <v>3288108090.885332</v>
+        <v>3253682206.452011</v>
       </c>
       <c r="P35" s="4">
-        <v>0.7291479820627803</v>
+        <v>0.7012635379061372</v>
       </c>
       <c r="Q35" s="4">
-        <v>0.7600896860986547</v>
+        <v>0.7373646209386282</v>
       </c>
       <c r="R35" s="4">
-        <v>0.7309417040358744</v>
+        <v>0.6850180505415162</v>
       </c>
       <c r="S35" s="4">
-        <v>0.8309417040358744</v>
+        <v>0.7378158844765343</v>
       </c>
       <c r="T35" s="4">
-        <v>0.647085201793722</v>
+        <v>0.5406137184115524</v>
       </c>
       <c r="U35" s="5">
-        <v>5504.863286074805</v>
+        <v>5355.799235281695</v>
       </c>
       <c r="V35" s="5">
-        <v>5306.211616549832</v>
+        <v>5182.213077399696</v>
       </c>
       <c r="W35" s="5">
-        <v>5242.247140907034</v>
+        <v>5127.628262025684</v>
       </c>
       <c r="X35" s="5">
-        <v>5242.880069167975</v>
+        <v>5158.170586008951</v>
       </c>
       <c r="Y35" s="5">
-        <v>5074.909019551841</v>
+        <v>5054.459023774765</v>
       </c>
       <c r="Z35" s="5">
-        <v>5305.740662833253</v>
+        <v>5281.780147482242</v>
       </c>
       <c r="AA35" s="5">
-        <v>-198.6516695249729</v>
+        <v>-173.5861578819986</v>
       </c>
       <c r="AB35" s="5">
-        <v>-262.6161451677708</v>
+        <v>-228.1709732560103</v>
       </c>
       <c r="AC35" s="5">
-        <v>-261.9832169068295</v>
+        <v>-197.6286492727431</v>
       </c>
       <c r="AD35" s="5">
-        <v>-429.9542665229637</v>
+        <v>-301.3402115069293</v>
       </c>
       <c r="AE35" s="5">
-        <v>-199.122623241552</v>
+        <v>-74.01908779945279</v>
       </c>
       <c r="AF35" s="4">
-        <v>-0.03608657639645396</v>
+        <v>-0.032410878424734</v>
       </c>
       <c r="AG35" s="4">
-        <v>-0.0477062065886521</v>
+        <v>-0.04260260014096839</v>
       </c>
       <c r="AH35" s="4">
-        <v>-0.04759123038887214</v>
+        <v>-0.03689993604891884</v>
       </c>
       <c r="AI35" s="4">
-        <v>-0.07810444041554732</v>
+        <v>-0.05626428442683773</v>
       </c>
       <c r="AJ35" s="4">
-        <v>-0.03617212869668462</v>
+        <v>-0.01382036266629394</v>
       </c>
     </row>
     <row r="36" spans="1:36">
@@ -4129,106 +4129,106 @@
         <v>28</v>
       </c>
       <c r="C36" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D36" s="2">
-        <v>424773.5</v>
+        <v>422259.5</v>
       </c>
       <c r="E36" s="2">
-        <v>428620.5</v>
+        <v>426085.5</v>
       </c>
       <c r="F36" s="2">
-        <v>432901</v>
+        <v>430407</v>
       </c>
       <c r="G36" s="2">
-        <v>441672</v>
+        <v>439143</v>
       </c>
       <c r="H36" s="2">
-        <v>452036.5</v>
+        <v>449451.5</v>
       </c>
       <c r="I36" s="2">
-        <v>462182</v>
+        <v>459521</v>
       </c>
       <c r="J36" s="3">
-        <v>2823087680.377439</v>
+        <v>2727590236.050763</v>
       </c>
       <c r="K36" s="3">
-        <v>2757247054.883927</v>
+        <v>2674918574.024142</v>
       </c>
       <c r="L36" s="3">
-        <v>2714908231.734787</v>
+        <v>2639968787.076503</v>
       </c>
       <c r="M36" s="3">
-        <v>2743812030.108349</v>
+        <v>2681735624.914314</v>
       </c>
       <c r="N36" s="3">
-        <v>2705086895.777373</v>
+        <v>2676530373.926748</v>
       </c>
       <c r="O36" s="3">
-        <v>2910797545.244069</v>
+        <v>2880906185.746725</v>
       </c>
       <c r="P36" s="4">
-        <v>0.7377450980392157</v>
+        <v>0.7178217821782178</v>
       </c>
       <c r="Q36" s="4">
-        <v>0.8406862745098039</v>
+        <v>0.8168316831683168</v>
       </c>
       <c r="R36" s="4">
-        <v>0.8553921568627451</v>
+        <v>0.8143564356435643</v>
       </c>
       <c r="S36" s="4">
-        <v>0.9313725490196079</v>
+        <v>0.900990099009901</v>
       </c>
       <c r="T36" s="4">
-        <v>0.7671568627450981</v>
+        <v>0.650990099009901</v>
       </c>
       <c r="U36" s="5">
-        <v>6646.101228954818</v>
+        <v>6459.511831115139</v>
       </c>
       <c r="V36" s="5">
-        <v>6432.839901227138</v>
+        <v>6277.891582849315</v>
       </c>
       <c r="W36" s="5">
-        <v>6271.42979973432</v>
+        <v>6133.65671812146</v>
       </c>
       <c r="X36" s="5">
-        <v>6212.329579661716</v>
+        <v>6106.747972560906</v>
       </c>
       <c r="Y36" s="5">
-        <v>5984.222282442619</v>
+        <v>5955.103885350806</v>
       </c>
       <c r="Z36" s="5">
-        <v>6297.946577850434</v>
+        <v>6269.367854236749</v>
       </c>
       <c r="AA36" s="5">
-        <v>-213.2613277276796</v>
+        <v>-181.6202482658246</v>
       </c>
       <c r="AB36" s="5">
-        <v>-374.6714292204979</v>
+        <v>-325.8551129936786</v>
       </c>
       <c r="AC36" s="5">
-        <v>-433.7716492931022</v>
+        <v>-352.7638585542327</v>
       </c>
       <c r="AD36" s="5">
-        <v>-661.878946512199</v>
+        <v>-504.4079457643329</v>
       </c>
       <c r="AE36" s="5">
-        <v>-348.1546511043844</v>
+        <v>-190.1439768783903</v>
       </c>
       <c r="AF36" s="4">
-        <v>-0.03208818529554924</v>
+        <v>-0.02811671423697515</v>
       </c>
       <c r="AG36" s="4">
-        <v>-0.05637461969254709</v>
+        <v>-0.05044578003929823</v>
       </c>
       <c r="AH36" s="4">
-        <v>-0.06526708431754025</v>
+        <v>-0.05461153532608876</v>
       </c>
       <c r="AI36" s="4">
-        <v>-0.09958905585557676</v>
+        <v>-0.07808762627148158</v>
       </c>
       <c r="AJ36" s="4">
-        <v>-0.05238479510176464</v>
+        <v>-0.02943627658710624</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -4237,106 +4237,106 @@
         <v>29</v>
       </c>
       <c r="C37" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="2">
-        <v>14136</v>
+        <v>14316.5</v>
       </c>
       <c r="E37" s="2">
-        <v>14905.5</v>
+        <v>15075.5</v>
       </c>
       <c r="F37" s="2">
-        <v>15606</v>
+        <v>15769</v>
       </c>
       <c r="G37" s="2">
-        <v>16558</v>
+        <v>16722</v>
       </c>
       <c r="H37" s="2">
-        <v>17398</v>
+        <v>17571</v>
       </c>
       <c r="I37" s="2">
-        <v>18082</v>
+        <v>18270.5</v>
       </c>
       <c r="J37" s="3">
-        <v>373725225.9996595</v>
+        <v>368288944.1066452</v>
       </c>
       <c r="K37" s="3">
-        <v>378596196.8653607</v>
+        <v>374581002.2880154</v>
       </c>
       <c r="L37" s="3">
-        <v>392872788.9205937</v>
+        <v>388921140.4175079</v>
       </c>
       <c r="M37" s="3">
-        <v>407041224.8414814</v>
+        <v>404935569.5196617</v>
       </c>
       <c r="N37" s="3">
-        <v>398521576.4022686</v>
+        <v>398422266.8556387</v>
       </c>
       <c r="O37" s="3">
-        <v>424367700.6216994</v>
+        <v>427348706.050714</v>
       </c>
       <c r="P37" s="4">
-        <v>0.7692307692307693</v>
+        <v>0.7372881355932204</v>
       </c>
       <c r="Q37" s="4">
-        <v>0.8632478632478633</v>
+        <v>0.8220338983050848</v>
       </c>
       <c r="R37" s="4">
-        <v>0.8461538461538461</v>
+        <v>0.788135593220339</v>
       </c>
       <c r="S37" s="4">
-        <v>0.905982905982906</v>
+        <v>0.8389830508474576</v>
       </c>
       <c r="T37" s="4">
-        <v>0.8547008547008547</v>
+        <v>0.788135593220339</v>
       </c>
       <c r="U37" s="5">
-        <v>26437.83432368842</v>
+        <v>25724.78916681069</v>
       </c>
       <c r="V37" s="5">
-        <v>25399.7649770461</v>
+        <v>24847.00356790921</v>
       </c>
       <c r="W37" s="5">
-        <v>25174.47064722502</v>
+        <v>24663.652762858</v>
       </c>
       <c r="X37" s="5">
-        <v>24582.75304031172</v>
+        <v>24215.73792128105</v>
       </c>
       <c r="Y37" s="5">
-        <v>22906.17176700015</v>
+        <v>22674.99099969488</v>
       </c>
       <c r="Z37" s="5">
-        <v>23469.06872147436</v>
+        <v>23390.09365100649</v>
       </c>
       <c r="AA37" s="5">
-        <v>-1038.069346642314</v>
+        <v>-877.7855989014715</v>
       </c>
       <c r="AB37" s="5">
-        <v>-1263.363676463396</v>
+        <v>-1061.136403952682</v>
       </c>
       <c r="AC37" s="5">
-        <v>-1855.081283376701</v>
+        <v>-1509.051245529638</v>
       </c>
       <c r="AD37" s="5">
-        <v>-3531.662556688269</v>
+        <v>-3049.798167115809</v>
       </c>
       <c r="AE37" s="5">
-        <v>-2968.765602214058</v>
+        <v>-2334.6955158042</v>
       </c>
       <c r="AF37" s="4">
-        <v>-0.03926453785634776</v>
+        <v>-0.03412216882360164</v>
       </c>
       <c r="AG37" s="4">
-        <v>-0.04778620143373147</v>
+        <v>-0.04124956659787615</v>
       </c>
       <c r="AH37" s="4">
-        <v>-0.07016767185482131</v>
+        <v>-0.05866136494819429</v>
       </c>
       <c r="AI37" s="4">
-        <v>-0.1335836556598694</v>
+        <v>-0.1185548362452884</v>
       </c>
       <c r="AJ37" s="4">
-        <v>-0.1122923143350676</v>
+        <v>-0.09075664335536526</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -4368,22 +4368,22 @@
         <v>14555.5</v>
       </c>
       <c r="J38" s="3">
-        <v>92709328.60793868</v>
+        <v>90154842.34762533</v>
       </c>
       <c r="K38" s="3">
-        <v>91396934.05990966</v>
+        <v>89252489.60833585</v>
       </c>
       <c r="L38" s="3">
-        <v>89264730.93582545</v>
+        <v>87325411.66342852</v>
       </c>
       <c r="M38" s="3">
-        <v>90623185.24907349</v>
+        <v>89159498.04315002</v>
       </c>
       <c r="N38" s="3">
-        <v>89228130.59971608</v>
+        <v>88847001.52011412</v>
       </c>
       <c r="O38" s="3">
-        <v>95805908.35436969</v>
+        <v>95392653.74006318</v>
       </c>
       <c r="P38" s="4">
         <v>0.7857142857142857</v>
@@ -4395,58 +4395,58 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="S38" s="4">
-        <v>0.9285714285714286</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="T38" s="4">
-        <v>0.7857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="U38" s="5">
-        <v>7536.424713078785</v>
+        <v>7328.768227258898</v>
       </c>
       <c r="V38" s="5">
-        <v>7184.163972638709</v>
+        <v>7015.602075800649</v>
       </c>
       <c r="W38" s="5">
-        <v>6905.293643987426</v>
+        <v>6755.272813756364</v>
       </c>
       <c r="X38" s="5">
-        <v>6688.304752874534</v>
+        <v>6580.279570696337</v>
       </c>
       <c r="Y38" s="5">
-        <v>6320.167913282057</v>
+        <v>6293.171945042791</v>
       </c>
       <c r="Z38" s="5">
-        <v>6582.110429347647</v>
+        <v>6553.718782595113</v>
       </c>
       <c r="AA38" s="5">
-        <v>-352.260740440076</v>
+        <v>-313.1661514582493</v>
       </c>
       <c r="AB38" s="5">
-        <v>-631.1310690913597</v>
+        <v>-573.4954135025346</v>
       </c>
       <c r="AC38" s="5">
-        <v>-848.1199602042516</v>
+        <v>-748.4886565625611</v>
       </c>
       <c r="AD38" s="5">
-        <v>-1216.256799796728</v>
+        <v>-1035.596282216107</v>
       </c>
       <c r="AE38" s="5">
-        <v>-954.3142837311379</v>
+        <v>-775.0494446637849</v>
       </c>
       <c r="AF38" s="4">
-        <v>-0.04674109459738374</v>
+        <v>-0.04273107591169922</v>
       </c>
       <c r="AG38" s="4">
-        <v>-0.08374409525992987</v>
+        <v>-0.07825263341927691</v>
       </c>
       <c r="AH38" s="4">
-        <v>-0.1125361152659584</v>
+        <v>-0.1021302125203801</v>
       </c>
       <c r="AI38" s="4">
-        <v>-0.161383792196056</v>
+        <v>-0.1413056396522776</v>
       </c>
       <c r="AJ38" s="4">
-        <v>-0.1266269245780445</v>
+        <v>-0.1057543942761127</v>
       </c>
     </row>
     <row r="39" spans="1:36">
@@ -4476,22 +4476,22 @@
         <v>924.5</v>
       </c>
       <c r="J39" s="3">
-        <v>7216827.632595572</v>
+        <v>7017977.233101507</v>
       </c>
       <c r="K39" s="3">
-        <v>7238594.066811394</v>
+        <v>7068755.077753031</v>
       </c>
       <c r="L39" s="3">
-        <v>7388724.04037565</v>
+        <v>7228200.451947152</v>
       </c>
       <c r="M39" s="3">
-        <v>7315155.955488237</v>
+        <v>7197006.277213796</v>
       </c>
       <c r="N39" s="3">
-        <v>7197557.031952464</v>
+        <v>7166813.38341323</v>
       </c>
       <c r="O39" s="3">
-        <v>6410678.887015175</v>
+        <v>6383026.702756379</v>
       </c>
       <c r="P39" s="4">
         <v>0.7272727272727273</v>
@@ -4503,58 +4503,58 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="S39" s="4">
-        <v>0.9090909090909091</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="T39" s="4">
         <v>0.8181818181818182</v>
       </c>
       <c r="U39" s="5">
-        <v>8937.247842223618</v>
+        <v>8690.993477525086</v>
       </c>
       <c r="V39" s="5">
-        <v>7348.826463767913</v>
+        <v>7176.401094165513</v>
       </c>
       <c r="W39" s="5">
-        <v>7359.286892804432</v>
+        <v>7199.402840584812</v>
       </c>
       <c r="X39" s="5">
-        <v>7275.142670798843</v>
+        <v>7157.639261276774</v>
       </c>
       <c r="Y39" s="5">
-        <v>6793.352554933897</v>
+        <v>6764.33542559059</v>
       </c>
       <c r="Z39" s="5">
-        <v>6934.211884278177</v>
+        <v>6904.301463230264</v>
       </c>
       <c r="AA39" s="5">
-        <v>-1588.421378455705</v>
+        <v>-1514.592383359573</v>
       </c>
       <c r="AB39" s="5">
-        <v>-1577.960949419186</v>
+        <v>-1491.590636940274</v>
       </c>
       <c r="AC39" s="5">
-        <v>-1662.105171424775</v>
+        <v>-1533.354216248312</v>
       </c>
       <c r="AD39" s="5">
-        <v>-2143.895287289721</v>
+        <v>-1926.658051934496</v>
       </c>
       <c r="AE39" s="5">
-        <v>-2003.035957945441</v>
+        <v>-1786.692014294822</v>
       </c>
       <c r="AF39" s="4">
-        <v>-0.1777304833095577</v>
+        <v>-0.1742714900518921</v>
       </c>
       <c r="AG39" s="4">
-        <v>-0.1765600526332258</v>
+        <v>-0.1716248712874457</v>
       </c>
       <c r="AH39" s="4">
-        <v>-0.1859750563895336</v>
+        <v>-0.1764302573938833</v>
       </c>
       <c r="AI39" s="4">
-        <v>-0.2398831637141118</v>
+        <v>-0.2216844434317935</v>
       </c>
       <c r="AJ39" s="4">
-        <v>-0.2241222346416522</v>
+        <v>-0.2055797209968238</v>
       </c>
     </row>
     <row r="40" spans="1:36">
@@ -4563,106 +4563,106 @@
         <v>27</v>
       </c>
       <c r="C40" s="2">
-        <v>1385</v>
+        <v>1375</v>
       </c>
       <c r="D40" s="2">
-        <v>306176.5</v>
+        <v>304565</v>
       </c>
       <c r="E40" s="2">
-        <v>313346</v>
+        <v>311610.5</v>
       </c>
       <c r="F40" s="2">
-        <v>317919.5</v>
+        <v>316448.5</v>
       </c>
       <c r="G40" s="2">
-        <v>319302.5</v>
+        <v>317900.5</v>
       </c>
       <c r="H40" s="2">
-        <v>317965.5</v>
+        <v>316654.5</v>
       </c>
       <c r="I40" s="2">
-        <v>313337.5</v>
+        <v>311795.5</v>
       </c>
       <c r="J40" s="3">
-        <v>1724611638.2436</v>
+        <v>1669181504.688158</v>
       </c>
       <c r="K40" s="3">
-        <v>1693712791.663914</v>
+        <v>1646166579.074479</v>
       </c>
       <c r="L40" s="3">
-        <v>1704137379.276387</v>
+        <v>1659219030.339589</v>
       </c>
       <c r="M40" s="3">
-        <v>1706337481.722838</v>
+        <v>1669943989.735278</v>
       </c>
       <c r="N40" s="3">
-        <v>1646488548.473665</v>
+        <v>1630950185.663055</v>
       </c>
       <c r="O40" s="3">
-        <v>1717159813.888014</v>
+        <v>1699360336.749332</v>
       </c>
       <c r="P40" s="4">
-        <v>0.7068592057761733</v>
+        <v>0.6843636363636364</v>
       </c>
       <c r="Q40" s="4">
-        <v>0.7068592057761733</v>
+        <v>0.6821818181818182</v>
       </c>
       <c r="R40" s="4">
-        <v>0.6628158844765343</v>
+        <v>0.6210909090909091</v>
       </c>
       <c r="S40" s="4">
-        <v>0.7783393501805054</v>
+        <v>0.7069090909090909</v>
       </c>
       <c r="T40" s="4">
-        <v>0.5718411552346571</v>
+        <v>0.4836363636363636</v>
       </c>
       <c r="U40" s="5">
-        <v>5632.736798035121</v>
+        <v>5480.542756679717</v>
       </c>
       <c r="V40" s="5">
-        <v>5405.247846354873</v>
+        <v>5282.769929365279</v>
       </c>
       <c r="W40" s="5">
-        <v>5360.2795024413</v>
+        <v>5243.251367409196</v>
       </c>
       <c r="X40" s="5">
-        <v>5343.952777453474</v>
+        <v>5253.039833958354</v>
       </c>
       <c r="Y40" s="5">
-        <v>5178.198730597077</v>
+        <v>5150.56689755887</v>
       </c>
       <c r="Z40" s="5">
-        <v>5480.224403041494</v>
+        <v>5450.24009887677</v>
       </c>
       <c r="AA40" s="5">
-        <v>-227.4889516802477</v>
+        <v>-197.7728273144376</v>
       </c>
       <c r="AB40" s="5">
-        <v>-272.4572955938211</v>
+        <v>-237.291389270521</v>
       </c>
       <c r="AC40" s="5">
-        <v>-288.7840205816465</v>
+        <v>-227.5029227213627</v>
       </c>
       <c r="AD40" s="5">
-        <v>-454.538067438044</v>
+        <v>-329.9758591208474</v>
       </c>
       <c r="AE40" s="5">
-        <v>-152.5123949936269</v>
+        <v>-30.30265780294667</v>
       </c>
       <c r="AF40" s="4">
-        <v>-0.04038693087161527</v>
+        <v>-0.03608635788369519</v>
       </c>
       <c r="AG40" s="4">
-        <v>-0.04837032252045981</v>
+        <v>-0.04329706012808843</v>
       </c>
       <c r="AH40" s="4">
-        <v>-0.05126886466315694</v>
+        <v>-0.04151102049958111</v>
       </c>
       <c r="AI40" s="4">
-        <v>-0.08069577609175727</v>
+        <v>-0.06020860957952945</v>
       </c>
       <c r="AJ40" s="4">
-        <v>-0.02707607340126883</v>
+        <v>-0.005529134457716522</v>
       </c>
     </row>
     <row r="41" spans="1:36">
@@ -4671,106 +4671,106 @@
         <v>28</v>
       </c>
       <c r="C41" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D41" s="2">
-        <v>248121.5</v>
+        <v>247961.5</v>
       </c>
       <c r="E41" s="2">
-        <v>248135.5</v>
+        <v>248088.5</v>
       </c>
       <c r="F41" s="2">
-        <v>248511.5</v>
+        <v>248548.5</v>
       </c>
       <c r="G41" s="2">
-        <v>251544</v>
+        <v>251733</v>
       </c>
       <c r="H41" s="2">
-        <v>256089</v>
+        <v>256415</v>
       </c>
       <c r="I41" s="2">
-        <v>261798.5</v>
+        <v>262211.5</v>
       </c>
       <c r="J41" s="3">
-        <v>1639315838.701528</v>
+        <v>1593519143.637344</v>
       </c>
       <c r="K41" s="3">
-        <v>1602183455.958172</v>
+        <v>1564354746.444847</v>
       </c>
       <c r="L41" s="3">
-        <v>1549014354.848327</v>
+        <v>1516077492.389451</v>
       </c>
       <c r="M41" s="3">
-        <v>1554891555.997676</v>
+        <v>1528494884.483949</v>
       </c>
       <c r="N41" s="3">
-        <v>1517341011.135984</v>
+        <v>1512440820.786377</v>
       </c>
       <c r="O41" s="3">
-        <v>1641895925.214912</v>
+        <v>1641830083.468248</v>
       </c>
       <c r="P41" s="4">
-        <v>0.6588235294117647</v>
+        <v>0.609375</v>
       </c>
       <c r="Q41" s="4">
-        <v>0.8117647058823529</v>
+        <v>0.78125</v>
       </c>
       <c r="R41" s="4">
-        <v>0.8117647058823529</v>
+        <v>0.765625</v>
       </c>
       <c r="S41" s="4">
-        <v>0.9098039215686274</v>
+        <v>0.87109375</v>
       </c>
       <c r="T41" s="4">
-        <v>0.7294117647058823</v>
+        <v>0.62890625</v>
       </c>
       <c r="U41" s="5">
-        <v>6606.907658955502</v>
+        <v>6426.478076787503</v>
       </c>
       <c r="V41" s="5">
-        <v>6456.889304263889</v>
+        <v>6305.631846880637</v>
       </c>
       <c r="W41" s="5">
-        <v>6233.169711857708</v>
+        <v>6099.724972749587</v>
       </c>
       <c r="X41" s="5">
-        <v>6181.389959600212</v>
+        <v>6071.889201987619</v>
       </c>
       <c r="Y41" s="5">
-        <v>5925.053442888932</v>
+        <v>5898.410080480383</v>
       </c>
       <c r="Z41" s="5">
-        <v>6271.601728867476</v>
+        <v>6261.472450553266</v>
       </c>
       <c r="AA41" s="5">
-        <v>-150.0183546916123</v>
+        <v>-120.846229906866</v>
       </c>
       <c r="AB41" s="5">
-        <v>-373.7379470977939</v>
+        <v>-326.7531040379154</v>
       </c>
       <c r="AC41" s="5">
-        <v>-425.5176993552896</v>
+        <v>-354.5888747998833</v>
       </c>
       <c r="AD41" s="5">
-        <v>-681.8542160665693</v>
+        <v>-528.0679963071198</v>
       </c>
       <c r="AE41" s="5">
-        <v>-335.3059300880259</v>
+        <v>-165.0056262342368</v>
       </c>
       <c r="AF41" s="4">
-        <v>-0.02270628899864613</v>
+        <v>-0.01880442576212371</v>
       </c>
       <c r="AG41" s="4">
-        <v>-0.05656775701885308</v>
+        <v>-0.05084481735309276</v>
       </c>
       <c r="AH41" s="4">
-        <v>-0.06440497148140256</v>
+        <v>-0.05517623658916093</v>
       </c>
       <c r="AI41" s="4">
-        <v>-0.1032032308098528</v>
+        <v>-0.08217066797668016</v>
       </c>
       <c r="AJ41" s="4">
-        <v>-0.05075081224020539</v>
+        <v>-0.02567590276705967</v>
       </c>
     </row>
     <row r="42" spans="1:36">
@@ -4800,85 +4800,85 @@
         <v>6473.5</v>
       </c>
       <c r="J42" s="3">
-        <v>142143369.861376</v>
+        <v>138226792.2013105</v>
       </c>
       <c r="K42" s="3">
-        <v>145122726.0853913</v>
+        <v>141717714.4408312</v>
       </c>
       <c r="L42" s="3">
-        <v>148428510.8310005</v>
+        <v>145203829.945168</v>
       </c>
       <c r="M42" s="3">
-        <v>153874465.0545701</v>
+        <v>151389183.9954275</v>
       </c>
       <c r="N42" s="3">
-        <v>153466789.9171565</v>
+        <v>152811271.7975067</v>
       </c>
       <c r="O42" s="3">
-        <v>167841058.7512484</v>
+        <v>167117083.6521084</v>
       </c>
       <c r="P42" s="4">
         <v>0.5510204081632653</v>
       </c>
       <c r="Q42" s="4">
-        <v>0.673469387755102</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="R42" s="4">
-        <v>0.7755102040816326</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="S42" s="4">
-        <v>0.8571428571428571</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="T42" s="4">
-        <v>0.6938775510204082</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="U42" s="5">
-        <v>27983.73262356058</v>
+        <v>27212.67687790344</v>
       </c>
       <c r="V42" s="5">
-        <v>27495.77985702753</v>
+        <v>26850.6469194451</v>
       </c>
       <c r="W42" s="5">
-        <v>26763.1645926795</v>
+        <v>26181.72195188748</v>
       </c>
       <c r="X42" s="5">
-        <v>26332.58578840936</v>
+        <v>25907.27885606699</v>
       </c>
       <c r="Y42" s="5">
-        <v>24850.9092247035</v>
+        <v>24744.76103918819</v>
       </c>
       <c r="Z42" s="5">
-        <v>25927.40538367937</v>
+        <v>25815.5686494336</v>
       </c>
       <c r="AA42" s="5">
-        <v>-487.952766533057</v>
+        <v>-362.0299584583372</v>
       </c>
       <c r="AB42" s="5">
-        <v>-1220.568030881084</v>
+        <v>-1030.954926015955</v>
       </c>
       <c r="AC42" s="5">
-        <v>-1651.146835151227</v>
+        <v>-1305.398021836449</v>
       </c>
       <c r="AD42" s="5">
-        <v>-3132.823398857083</v>
+        <v>-2467.915838715246</v>
       </c>
       <c r="AE42" s="5">
-        <v>-2056.327239881215</v>
+        <v>-1397.108228469835</v>
       </c>
       <c r="AF42" s="4">
-        <v>-0.01743701503645123</v>
+        <v>-0.01330372458698847</v>
       </c>
       <c r="AG42" s="4">
-        <v>-0.0436170559267508</v>
+        <v>-0.03788509784030414</v>
       </c>
       <c r="AH42" s="4">
-        <v>-0.0590038097262644</v>
+        <v>-0.04797021725181416</v>
       </c>
       <c r="AI42" s="4">
-        <v>-0.1119515913405862</v>
+        <v>-0.0906899328496118</v>
       </c>
       <c r="AJ42" s="4">
-        <v>-0.07348295052497444</v>
+        <v>-0.0513403453375173</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -4910,22 +4910,22 @@
         <v>335</v>
       </c>
       <c r="J43" s="3">
-        <v>5770775.00808075</v>
+        <v>5611768.728013271</v>
       </c>
       <c r="K43" s="3">
-        <v>3196077.964344149</v>
+        <v>3121088.450440514</v>
       </c>
       <c r="L43" s="3">
-        <v>3181659.05141007</v>
+        <v>3112535.976127049</v>
       </c>
       <c r="M43" s="3">
-        <v>2849466.326808227</v>
+        <v>2803443.585555027</v>
       </c>
       <c r="N43" s="3">
-        <v>2830548.927820537</v>
+        <v>2818458.519780185</v>
       </c>
       <c r="O43" s="3">
-        <v>2572592.06445765</v>
+        <v>2561495.300598024</v>
       </c>
       <c r="P43" s="4">
         <v>1</v>
@@ -4943,52 +4943,52 @@
         <v>0</v>
       </c>
       <c r="U43" s="5">
-        <v>7142.048277327661</v>
+        <v>6945.258326749097</v>
       </c>
       <c r="V43" s="5">
-        <v>5344.611980508609</v>
+        <v>5219.211455586144</v>
       </c>
       <c r="W43" s="5">
-        <v>5924.877190707764</v>
+        <v>5796.156380124859</v>
       </c>
       <c r="X43" s="5">
-        <v>5396.716528045885</v>
+        <v>5309.552245369369</v>
       </c>
       <c r="Y43" s="5">
-        <v>6166.773263225571</v>
+        <v>6140.432504967723</v>
       </c>
       <c r="Z43" s="5">
-        <v>7679.379296888508</v>
+        <v>7646.254628650818</v>
       </c>
       <c r="AA43" s="5">
-        <v>-1797.436296819052</v>
+        <v>-1726.046871162953</v>
       </c>
       <c r="AB43" s="5">
-        <v>-1217.171086619896</v>
+        <v>-1149.101946624239</v>
       </c>
       <c r="AC43" s="5">
-        <v>-1745.331749281776</v>
+        <v>-1635.706081379728</v>
       </c>
       <c r="AD43" s="5">
-        <v>-975.2750141020897</v>
+        <v>-804.8258217813745</v>
       </c>
       <c r="AE43" s="5">
-        <v>537.3310195608474</v>
+        <v>700.9963019017205</v>
       </c>
       <c r="AF43" s="4">
-        <v>-0.251669580913502</v>
+        <v>-0.2485216229488864</v>
       </c>
       <c r="AG43" s="4">
-        <v>-0.1704232510558337</v>
+        <v>-0.165451289579621</v>
       </c>
       <c r="AH43" s="4">
-        <v>-0.24437411811151</v>
+        <v>-0.2355140736925421</v>
       </c>
       <c r="AI43" s="4">
-        <v>-0.1365539655056782</v>
+        <v>-0.1158813371536741</v>
       </c>
       <c r="AJ43" s="4">
-        <v>0.07523486242267463</v>
+        <v>0.1009316383815257</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -5018,25 +5018,25 @@
         <v>11165.5</v>
       </c>
       <c r="J44" s="3">
-        <v>61008038.83101175</v>
+        <v>59327040.82032033</v>
       </c>
       <c r="K44" s="3">
-        <v>61458303.24731763</v>
+        <v>60016308.29685832</v>
       </c>
       <c r="L44" s="3">
-        <v>68183151.09826508</v>
+        <v>66701839.30141801</v>
       </c>
       <c r="M44" s="3">
-        <v>70768273.5361824</v>
+        <v>69625270.05119662</v>
       </c>
       <c r="N44" s="3">
-        <v>69544891.65665458</v>
+        <v>69247837.57326218</v>
       </c>
       <c r="O44" s="3">
-        <v>68115603.0135482</v>
+        <v>67821789.32569608</v>
       </c>
       <c r="P44" s="4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="Q44" s="4">
         <v>0.8</v>
@@ -5045,58 +5045,58 @@
         <v>0.8</v>
       </c>
       <c r="S44" s="4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="T44" s="4">
         <v>0.9</v>
       </c>
       <c r="U44" s="5">
-        <v>7618.38646740906</v>
+        <v>7408.471630909132</v>
       </c>
       <c r="V44" s="5">
-        <v>7002.598216523401</v>
+        <v>6838.296393420876</v>
       </c>
       <c r="W44" s="5">
-        <v>7022.674950897629</v>
+        <v>6870.103955239263</v>
       </c>
       <c r="X44" s="5">
-        <v>6871.373292181998</v>
+        <v>6760.391305097254</v>
       </c>
       <c r="Y44" s="5">
-        <v>6485.581614907636</v>
+        <v>6457.879098504353</v>
       </c>
       <c r="Z44" s="5">
-        <v>6100.542117553911</v>
+        <v>6074.227694746862</v>
       </c>
       <c r="AA44" s="5">
-        <v>-615.7882508856592</v>
+        <v>-570.1752374882562</v>
       </c>
       <c r="AB44" s="5">
-        <v>-595.711516511431</v>
+        <v>-538.3676756698687</v>
       </c>
       <c r="AC44" s="5">
-        <v>-747.0131752270618</v>
+        <v>-648.0803258118776</v>
       </c>
       <c r="AD44" s="5">
-        <v>-1132.804852501424</v>
+        <v>-950.5925324047785</v>
       </c>
       <c r="AE44" s="5">
-        <v>-1517.844349855149</v>
+        <v>-1334.24393616227</v>
       </c>
       <c r="AF44" s="4">
-        <v>-0.08082922197764053</v>
+        <v>-0.07696259983090292</v>
       </c>
       <c r="AG44" s="4">
-        <v>-0.07819392190982233</v>
+        <v>-0.07266919581951659</v>
       </c>
       <c r="AH44" s="4">
-        <v>-0.09805398799637344</v>
+        <v>-0.08747827596558511</v>
       </c>
       <c r="AI44" s="4">
-        <v>-0.1486935399441188</v>
+        <v>-0.1283115573310397</v>
       </c>
       <c r="AJ44" s="4">
-        <v>-0.1992343597096818</v>
+        <v>-0.1800970568066463</v>
       </c>
     </row>
     <row r="45" spans="1:36">
@@ -5126,85 +5126,85 @@
         <v>2998.5</v>
       </c>
       <c r="J45" s="3">
-        <v>31571722.43421312</v>
+        <v>30701804.24600484</v>
       </c>
       <c r="K45" s="3">
-        <v>30132302.32625545</v>
+        <v>29425308.71425609</v>
       </c>
       <c r="L45" s="3">
-        <v>29885147.67639822</v>
+        <v>29235878.44946318</v>
       </c>
       <c r="M45" s="3">
-        <v>30557443.76102921</v>
+        <v>30063899.64915745</v>
       </c>
       <c r="N45" s="3">
-        <v>29885813.80099219</v>
+        <v>29758159.52166827</v>
       </c>
       <c r="O45" s="3">
-        <v>28446637.00505443</v>
+        <v>28323933.67489696</v>
       </c>
       <c r="P45" s="4">
         <v>0.5833333333333334</v>
       </c>
       <c r="Q45" s="4">
-        <v>0.8541666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="R45" s="4">
         <v>0.7083333333333334</v>
       </c>
       <c r="S45" s="4">
-        <v>0.7291666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="T45" s="4">
-        <v>0.5833333333333334</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="U45" s="5">
-        <v>10409.40403370034</v>
+        <v>10122.58629937515</v>
       </c>
       <c r="V45" s="5">
-        <v>9753.132327643776</v>
+        <v>9524.294777231296</v>
       </c>
       <c r="W45" s="5">
-        <v>9177.075902471433</v>
+        <v>8977.699508510112</v>
       </c>
       <c r="X45" s="5">
-        <v>9016.654989976159</v>
+        <v>8871.023797331793</v>
       </c>
       <c r="Y45" s="5">
-        <v>8876.095574990257</v>
+        <v>8838.182216117693</v>
       </c>
       <c r="Z45" s="5">
-        <v>9486.955812924607</v>
+        <v>9446.034242086698</v>
       </c>
       <c r="AA45" s="5">
-        <v>-656.2717060565592</v>
+        <v>-598.2915221438561</v>
       </c>
       <c r="AB45" s="5">
-        <v>-1232.328131228902</v>
+        <v>-1144.886790865041</v>
       </c>
       <c r="AC45" s="5">
-        <v>-1392.749043724176</v>
+        <v>-1251.56250204336</v>
       </c>
       <c r="AD45" s="5">
-        <v>-1533.308458710078</v>
+        <v>-1284.404083257459</v>
       </c>
       <c r="AE45" s="5">
-        <v>-922.4482207757283</v>
+        <v>-676.5520572884543</v>
       </c>
       <c r="AF45" s="4">
-        <v>-0.06304604028548477</v>
+        <v>-0.05910461066464678</v>
       </c>
       <c r="AG45" s="4">
-        <v>-0.1183860408568302</v>
+        <v>-0.1131022010586081</v>
       </c>
       <c r="AH45" s="4">
-        <v>-0.1337971933085857</v>
+        <v>-0.1236405860151191</v>
       </c>
       <c r="AI45" s="4">
-        <v>-0.1473003116937347</v>
+        <v>-0.1268849724044084</v>
       </c>
       <c r="AJ45" s="4">
-        <v>-0.08861681396834165</v>
+        <v>-0.06683588929542805</v>
       </c>
     </row>
     <row r="46" spans="1:36">
@@ -5213,106 +5213,106 @@
         <v>27</v>
       </c>
       <c r="C46" s="2">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="D46" s="2">
-        <v>419706.5</v>
+        <v>418541</v>
       </c>
       <c r="E46" s="2">
-        <v>427682.5</v>
+        <v>426511.5</v>
       </c>
       <c r="F46" s="2">
-        <v>432999</v>
+        <v>431837</v>
       </c>
       <c r="G46" s="2">
-        <v>435591</v>
+        <v>434444</v>
       </c>
       <c r="H46" s="2">
-        <v>434669.5</v>
+        <v>433568</v>
       </c>
       <c r="I46" s="2">
-        <v>430460</v>
+        <v>429376.5</v>
       </c>
       <c r="J46" s="3">
-        <v>2501770847.528655</v>
+        <v>2426759164.703558</v>
       </c>
       <c r="K46" s="3">
-        <v>2442322700.567127</v>
+        <v>2378635279.481172</v>
       </c>
       <c r="L46" s="3">
-        <v>2463667862.225366</v>
+        <v>2403928722.621387</v>
       </c>
       <c r="M46" s="3">
-        <v>2468792085.232192</v>
+        <v>2421482154.466076</v>
       </c>
       <c r="N46" s="3">
-        <v>2396756477.591951</v>
+        <v>2380174173.17321</v>
       </c>
       <c r="O46" s="3">
-        <v>2441753972.608764</v>
+        <v>2424903733.56231</v>
       </c>
       <c r="P46" s="4">
-        <v>0.7575757575757576</v>
+        <v>0.7322515212981744</v>
       </c>
       <c r="Q46" s="4">
-        <v>0.7286195286195286</v>
+        <v>0.7025016903313049</v>
       </c>
       <c r="R46" s="4">
-        <v>0.725925925925926</v>
+        <v>0.6741041244083841</v>
       </c>
       <c r="S46" s="4">
-        <v>0.7966329966329966</v>
+        <v>0.7281947261663286</v>
       </c>
       <c r="T46" s="4">
-        <v>0.6868686868686869</v>
+        <v>0.5875591615956728</v>
       </c>
       <c r="U46" s="5">
-        <v>5960.762693760174</v>
+        <v>5798.139643914355</v>
       </c>
       <c r="V46" s="5">
-        <v>5710.597699384771</v>
+        <v>5576.954617826651</v>
       </c>
       <c r="W46" s="5">
-        <v>5689.777256357094</v>
+        <v>5566.750238218094</v>
       </c>
       <c r="X46" s="5">
-        <v>5667.683871411926</v>
+        <v>5573.749791609681</v>
       </c>
       <c r="Y46" s="5">
-        <v>5513.974358890953</v>
+        <v>5489.736726818423</v>
       </c>
       <c r="Z46" s="5">
-        <v>5672.429430397166</v>
+        <v>5647.499883114959</v>
       </c>
       <c r="AA46" s="5">
-        <v>-250.1649943754037</v>
+        <v>-221.1850260877036</v>
       </c>
       <c r="AB46" s="5">
-        <v>-270.9854374030801</v>
+        <v>-231.3894056962608</v>
       </c>
       <c r="AC46" s="5">
-        <v>-293.0788223482487</v>
+        <v>-224.3898523046737</v>
       </c>
       <c r="AD46" s="5">
-        <v>-446.7883348692212</v>
+        <v>-308.4029170959311</v>
       </c>
       <c r="AE46" s="5">
-        <v>-288.3332633630089</v>
+        <v>-150.6397607993958</v>
       </c>
       <c r="AF46" s="4">
-        <v>-0.04196862167274007</v>
+        <v>-0.03814758520344641</v>
       </c>
       <c r="AG46" s="4">
-        <v>-0.04546153761275418</v>
+        <v>-0.0399075255007223</v>
       </c>
       <c r="AH46" s="4">
-        <v>-0.04916800708322921</v>
+        <v>-0.0387003187376127</v>
       </c>
       <c r="AI46" s="4">
-        <v>-0.07495489383211429</v>
+        <v>-0.05318997748176457</v>
       </c>
       <c r="AJ46" s="4">
-        <v>-0.04837187423428901</v>
+        <v>-0.02598070589029455</v>
       </c>
     </row>
     <row r="47" spans="1:36">
@@ -5321,106 +5321,106 @@
         <v>28</v>
       </c>
       <c r="C47" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D47" s="2">
-        <v>281450.5</v>
+        <v>279426.5</v>
       </c>
       <c r="E47" s="2">
-        <v>284596.5</v>
+        <v>282605.5</v>
       </c>
       <c r="F47" s="2">
-        <v>287054</v>
+        <v>284976</v>
       </c>
       <c r="G47" s="2">
-        <v>293204</v>
+        <v>290999</v>
       </c>
       <c r="H47" s="2">
-        <v>300071</v>
+        <v>297807</v>
       </c>
       <c r="I47" s="2">
-        <v>306416</v>
+        <v>304046</v>
       </c>
       <c r="J47" s="3">
-        <v>1994511799.397098</v>
+        <v>1926175491.542294</v>
       </c>
       <c r="K47" s="3">
-        <v>1942310739.923358</v>
+        <v>1883870404.247473</v>
       </c>
       <c r="L47" s="3">
-        <v>1903676745.825562</v>
+        <v>1851633695.688981</v>
       </c>
       <c r="M47" s="3">
-        <v>1903783721.507982</v>
+        <v>1859182264.603377</v>
       </c>
       <c r="N47" s="3">
-        <v>1881462750.121282</v>
+        <v>1863882588.339443</v>
       </c>
       <c r="O47" s="3">
-        <v>2012511553.314598</v>
+        <v>1991864294.372537</v>
       </c>
       <c r="P47" s="4">
-        <v>0.7174603174603175</v>
+        <v>0.6996805111821086</v>
       </c>
       <c r="Q47" s="4">
-        <v>0.8444444444444444</v>
+        <v>0.8083067092651757</v>
       </c>
       <c r="R47" s="4">
-        <v>0.8634920634920635</v>
+        <v>0.8178913738019169</v>
       </c>
       <c r="S47" s="4">
-        <v>0.946031746031746</v>
+        <v>0.8913738019169329</v>
       </c>
       <c r="T47" s="4">
-        <v>0.780952380952381</v>
+        <v>0.7060702875399361</v>
       </c>
       <c r="U47" s="5">
-        <v>7086.545589356201</v>
+        <v>6893.317174792993</v>
       </c>
       <c r="V47" s="5">
-        <v>6824.787866060748</v>
+        <v>6666.07834683852</v>
       </c>
       <c r="W47" s="5">
-        <v>6631.772230401115</v>
+        <v>6497.507494276643</v>
       </c>
       <c r="X47" s="5">
-        <v>6493.034615857838</v>
+        <v>6388.964445250247</v>
       </c>
       <c r="Y47" s="5">
-        <v>6270.058586538792</v>
+        <v>6258.69300701274</v>
       </c>
       <c r="Z47" s="5">
-        <v>6567.906223286637</v>
+        <v>6551.193879783116</v>
       </c>
       <c r="AA47" s="5">
-        <v>-261.7577232954527</v>
+        <v>-227.238827954473</v>
       </c>
       <c r="AB47" s="5">
-        <v>-454.7733589550862</v>
+        <v>-395.8096805163495</v>
       </c>
       <c r="AC47" s="5">
-        <v>-593.5109734983635</v>
+        <v>-504.3527295427457</v>
       </c>
       <c r="AD47" s="5">
-        <v>-816.4870028174091</v>
+        <v>-634.6241677802527</v>
       </c>
       <c r="AE47" s="5">
-        <v>-518.6393660695639</v>
+        <v>-342.1232950098765</v>
       </c>
       <c r="AF47" s="4">
-        <v>-0.03693728065315849</v>
+        <v>-0.03296509099935574</v>
       </c>
       <c r="AG47" s="4">
-        <v>-0.06417419506030464</v>
+        <v>-0.05741933389685294</v>
       </c>
       <c r="AH47" s="4">
-        <v>-0.08375180347245648</v>
+        <v>-0.07316546109136368</v>
       </c>
       <c r="AI47" s="4">
-        <v>-0.1152165032344885</v>
+        <v>-0.09206368308437951</v>
       </c>
       <c r="AJ47" s="4">
-        <v>-0.07318648550692264</v>
+        <v>-0.04963115526744211</v>
       </c>
     </row>
     <row r="48" spans="1:36">
@@ -5432,103 +5432,103 @@
         <v>83</v>
       </c>
       <c r="D48" s="2">
-        <v>9863</v>
+        <v>9944</v>
       </c>
       <c r="E48" s="2">
-        <v>10424</v>
+        <v>10507.5</v>
       </c>
       <c r="F48" s="2">
-        <v>10856</v>
+        <v>10954</v>
       </c>
       <c r="G48" s="2">
-        <v>11230.5</v>
+        <v>11326</v>
       </c>
       <c r="H48" s="2">
-        <v>11705</v>
+        <v>11808</v>
       </c>
       <c r="I48" s="2">
-        <v>12081</v>
+        <v>12176.5</v>
       </c>
       <c r="J48" s="3">
-        <v>238874969.0566797</v>
+        <v>234119681.0978134</v>
       </c>
       <c r="K48" s="3">
-        <v>238121282.2214235</v>
+        <v>234537067.5140249</v>
       </c>
       <c r="L48" s="3">
-        <v>244477985.7170519</v>
+        <v>241370955.1777737</v>
       </c>
       <c r="M48" s="3">
-        <v>251790537.9510006</v>
+        <v>249855674.1852646</v>
       </c>
       <c r="N48" s="3">
-        <v>236350604.7631447</v>
+        <v>236270692.8743476</v>
       </c>
       <c r="O48" s="3">
-        <v>263366013.6292766</v>
+        <v>264371363.4005492</v>
       </c>
       <c r="P48" s="4">
-        <v>0.8554216867469879</v>
+        <v>0.8313253012048193</v>
       </c>
       <c r="Q48" s="4">
-        <v>0.7590361445783133</v>
+        <v>0.7469879518072289</v>
       </c>
       <c r="R48" s="4">
-        <v>0.8313253012048193</v>
+        <v>0.8192771084337349</v>
       </c>
       <c r="S48" s="4">
-        <v>0.963855421686747</v>
+        <v>0.9397590361445783</v>
       </c>
       <c r="T48" s="4">
-        <v>0.8433734939759037</v>
+        <v>0.7469879518072289</v>
       </c>
       <c r="U48" s="5">
-        <v>24219.30133394299</v>
+        <v>23543.81346518638</v>
       </c>
       <c r="V48" s="5">
-        <v>22843.56122615344</v>
+        <v>22320.92005843683</v>
       </c>
       <c r="W48" s="5">
-        <v>22520.07974549114</v>
+        <v>22034.96030470821</v>
       </c>
       <c r="X48" s="5">
-        <v>22420.24290556971</v>
+        <v>22060.36325139189</v>
       </c>
       <c r="Y48" s="5">
-        <v>20192.27721171676</v>
+        <v>20009.37439654028</v>
       </c>
       <c r="Z48" s="5">
-        <v>21800.01768307894</v>
+        <v>21711.60542032186</v>
       </c>
       <c r="AA48" s="5">
-        <v>-1375.740107789548</v>
+        <v>-1222.893406749557</v>
       </c>
       <c r="AB48" s="5">
-        <v>-1699.221588451848</v>
+        <v>-1508.853160478175</v>
       </c>
       <c r="AC48" s="5">
-        <v>-1799.058428373286</v>
+        <v>-1483.450213794495</v>
       </c>
       <c r="AD48" s="5">
-        <v>-4027.024122226234</v>
+        <v>-3534.439068646105</v>
       </c>
       <c r="AE48" s="5">
-        <v>-2419.283650864058</v>
+        <v>-1832.208044864521</v>
       </c>
       <c r="AF48" s="4">
-        <v>-0.05680345972084133</v>
+        <v>-0.05194117803208975</v>
       </c>
       <c r="AG48" s="4">
-        <v>-0.07015981035218444</v>
+        <v>-0.06408703342426991</v>
       </c>
       <c r="AH48" s="4">
-        <v>-0.0742820118370604</v>
+        <v>-0.06300806859466646</v>
       </c>
       <c r="AI48" s="4">
-        <v>-0.16627333987469</v>
+        <v>-0.1501217750417699</v>
       </c>
       <c r="AJ48" s="4">
-        <v>-0.09989072837016433</v>
+        <v>-0.07782120970223272</v>
       </c>
     </row>
     <row r="49" spans="1:36">
@@ -5560,22 +5560,22 @@
         <v>1305</v>
       </c>
       <c r="J49" s="3">
-        <v>3899953.325731036</v>
+        <v>3792495.129926669</v>
       </c>
       <c r="K49" s="3">
-        <v>5525340.844419202</v>
+        <v>5395699.881746405</v>
       </c>
       <c r="L49" s="3">
-        <v>5691806.199926345</v>
+        <v>5568148.968872782</v>
       </c>
       <c r="M49" s="3">
-        <v>6329069.800006609</v>
+        <v>6226846.748960618</v>
       </c>
       <c r="N49" s="3">
-        <v>6390228.106175392</v>
+        <v>6362932.882794788</v>
       </c>
       <c r="O49" s="3">
-        <v>7183076.508321907</v>
+        <v>7152092.620553722</v>
       </c>
       <c r="P49" s="4">
         <v>1</v>
@@ -5593,52 +5593,52 @@
         <v>1</v>
       </c>
       <c r="U49" s="5">
-        <v>7421.414511381609</v>
+        <v>7216.926983685384</v>
       </c>
       <c r="V49" s="5">
-        <v>5890.555271235823</v>
+        <v>5752.345289708321</v>
       </c>
       <c r="W49" s="5">
-        <v>5491.371152847414</v>
+        <v>5372.06846972772</v>
       </c>
       <c r="X49" s="5">
-        <v>5091.769750608696</v>
+        <v>5009.530771488832</v>
       </c>
       <c r="Y49" s="5">
-        <v>5031.675674153852</v>
+        <v>5010.183372279361</v>
       </c>
       <c r="Z49" s="5">
-        <v>5504.273186453569</v>
+        <v>5480.530743719327</v>
       </c>
       <c r="AA49" s="5">
-        <v>-1530.859240145786</v>
+        <v>-1464.581693977063</v>
       </c>
       <c r="AB49" s="5">
-        <v>-1930.043358534195</v>
+        <v>-1844.858513957663</v>
       </c>
       <c r="AC49" s="5">
-        <v>-2329.644760772913</v>
+        <v>-2207.396212196551</v>
       </c>
       <c r="AD49" s="5">
-        <v>-2389.738837227757</v>
+        <v>-2206.743611406023</v>
       </c>
       <c r="AE49" s="5">
-        <v>-1917.14132492804</v>
+        <v>-1736.396239966057</v>
       </c>
       <c r="AF49" s="4">
-        <v>-0.2062759380705705</v>
+        <v>-0.2029370253139463</v>
       </c>
       <c r="AG49" s="4">
-        <v>-0.2600640828745312</v>
+        <v>-0.2556293721868267</v>
       </c>
       <c r="AH49" s="4">
-        <v>-0.3139084546753358</v>
+        <v>-0.3058637308076694</v>
       </c>
       <c r="AI49" s="4">
-        <v>-0.3220058431667996</v>
+        <v>-0.3057733043987555</v>
       </c>
       <c r="AJ49" s="4">
-        <v>-0.2583255957456465</v>
+        <v>-0.2406004998930101</v>
       </c>
     </row>
     <row r="50" spans="1:36">
@@ -5668,22 +5668,22 @@
         <v>16161.5</v>
       </c>
       <c r="J50" s="3">
-        <v>103099330.7236923</v>
+        <v>100258561.3239383</v>
       </c>
       <c r="K50" s="3">
-        <v>103042277.1310299</v>
+        <v>100624598.2258894</v>
       </c>
       <c r="L50" s="3">
-        <v>103230904.0458505</v>
+        <v>100988162.9360722</v>
       </c>
       <c r="M50" s="3">
-        <v>99555715.14147921</v>
+        <v>97947755.47719853</v>
       </c>
       <c r="N50" s="3">
-        <v>103094016.8979388</v>
+        <v>102653661.0649891</v>
       </c>
       <c r="O50" s="3">
-        <v>107428994.7717548</v>
+        <v>106965604.4802549</v>
       </c>
       <c r="P50" s="4">
         <v>1</v>
@@ -5701,52 +5701,52 @@
         <v>1</v>
       </c>
       <c r="U50" s="5">
-        <v>7589.482919775647</v>
+        <v>7380.364483340445</v>
       </c>
       <c r="V50" s="5">
-        <v>7106.608995553636</v>
+        <v>6939.866769605115</v>
       </c>
       <c r="W50" s="5">
-        <v>7017.497980751878</v>
+        <v>6865.039457263328</v>
       </c>
       <c r="X50" s="5">
-        <v>6495.65883544705</v>
+        <v>6390.745145806187</v>
       </c>
       <c r="Y50" s="5">
-        <v>6562.109219817242</v>
+        <v>6534.079823365848</v>
       </c>
       <c r="Z50" s="5">
-        <v>6647.216828373283</v>
+        <v>6618.544348003276</v>
       </c>
       <c r="AA50" s="5">
-        <v>-482.8739242220108</v>
+        <v>-440.4977137353299</v>
       </c>
       <c r="AB50" s="5">
-        <v>-571.9849390237696</v>
+        <v>-515.3250260771174</v>
       </c>
       <c r="AC50" s="5">
-        <v>-1093.824084328598</v>
+        <v>-989.6193375342582</v>
       </c>
       <c r="AD50" s="5">
-        <v>-1027.373699958405</v>
+        <v>-846.2846599745972</v>
       </c>
       <c r="AE50" s="5">
-        <v>-942.2660914023645</v>
+        <v>-761.8201353371687</v>
       </c>
       <c r="AF50" s="4">
-        <v>-0.06362408734906078</v>
+        <v>-0.05968508936511974</v>
       </c>
       <c r="AG50" s="4">
-        <v>-0.07536546890874063</v>
+        <v>-0.06982379084940193</v>
       </c>
       <c r="AH50" s="4">
-        <v>-0.1441236637450568</v>
+        <v>-0.1340881388403116</v>
       </c>
       <c r="AI50" s="4">
-        <v>-0.1353680759042772</v>
+        <v>-0.1146670549787751</v>
       </c>
       <c r="AJ50" s="4">
-        <v>-0.1241541882843079</v>
+        <v>-0.1032225626602603</v>
       </c>
     </row>
     <row r="51" spans="1:36">
@@ -5776,22 +5776,22 @@
         <v>1254.5</v>
       </c>
       <c r="J51" s="3">
-        <v>13170208.89630591</v>
+        <v>12807320.73633071</v>
       </c>
       <c r="K51" s="3">
-        <v>12004626.15617188</v>
+        <v>11722961.85070462</v>
       </c>
       <c r="L51" s="3">
-        <v>12989231.17297022</v>
+        <v>12707033.86969857</v>
       </c>
       <c r="M51" s="3">
-        <v>13444676.55531795</v>
+        <v>13227526.81590289</v>
       </c>
       <c r="N51" s="3">
-        <v>13618761.2029804</v>
+        <v>13560590.01988238</v>
       </c>
       <c r="O51" s="3">
-        <v>13076699.75962096</v>
+        <v>13020293.98456609</v>
       </c>
       <c r="P51" s="4">
         <v>0.7619047619047619</v>
@@ -5800,61 +5800,61 @@
         <v>0.7619047619047619</v>
       </c>
       <c r="R51" s="4">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="S51" s="4">
         <v>0.6666666666666666</v>
       </c>
       <c r="T51" s="4">
-        <v>0.6666666666666666</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="U51" s="5">
-        <v>11251.78034712166</v>
+        <v>10941.75201736926</v>
       </c>
       <c r="V51" s="5">
-        <v>9983.057094529628</v>
+        <v>9748.824823870789</v>
       </c>
       <c r="W51" s="5">
-        <v>9603.867780384639</v>
+        <v>9395.219127318718</v>
       </c>
       <c r="X51" s="5">
-        <v>9724.901667499418</v>
+        <v>9567.831331575326</v>
       </c>
       <c r="Y51" s="5">
-        <v>9668.982039744697</v>
+        <v>9627.681945248409</v>
       </c>
       <c r="Z51" s="5">
-        <v>10423.83400527777</v>
+        <v>10378.87125114873</v>
       </c>
       <c r="AA51" s="5">
-        <v>-1268.723252592037</v>
+        <v>-1192.927193498466</v>
       </c>
       <c r="AB51" s="5">
-        <v>-1647.912566737026</v>
+        <v>-1546.532890050537</v>
       </c>
       <c r="AC51" s="5">
-        <v>-1526.878679622247</v>
+        <v>-1373.92068579393</v>
       </c>
       <c r="AD51" s="5">
-        <v>-1582.798307376968</v>
+        <v>-1314.070072120847</v>
       </c>
       <c r="AE51" s="5">
-        <v>-827.9463418438954</v>
+        <v>-562.8807662205218</v>
       </c>
       <c r="AF51" s="4">
-        <v>-0.112757556000157</v>
+        <v>-0.1090252449155107</v>
       </c>
       <c r="AG51" s="4">
-        <v>-0.1464579396236242</v>
+        <v>-0.1413423451377371</v>
       </c>
       <c r="AH51" s="4">
-        <v>-0.1357010741871476</v>
+        <v>-0.1255667907308563</v>
       </c>
       <c r="AI51" s="4">
-        <v>-0.1406709212717494</v>
+        <v>-0.1200968610908796</v>
       </c>
       <c r="AJ51" s="4">
-        <v>-0.07358358555725752</v>
+        <v>-0.05144338542191307</v>
       </c>
     </row>
     <row r="52" spans="1:36">
@@ -5863,106 +5863,106 @@
         <v>27</v>
       </c>
       <c r="C52" s="2">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="D52" s="2">
-        <v>375655.5</v>
+        <v>374680.5</v>
       </c>
       <c r="E52" s="2">
-        <v>381277.5</v>
+        <v>380215.5</v>
       </c>
       <c r="F52" s="2">
-        <v>385329.5</v>
+        <v>384295.5</v>
       </c>
       <c r="G52" s="2">
-        <v>387232.5</v>
+        <v>386140.5</v>
       </c>
       <c r="H52" s="2">
-        <v>386038.5</v>
+        <v>385044</v>
       </c>
       <c r="I52" s="2">
-        <v>380674.5</v>
+        <v>379720</v>
       </c>
       <c r="J52" s="3">
-        <v>2221591990.585816</v>
+        <v>2154710927.98215</v>
       </c>
       <c r="K52" s="3">
-        <v>2131165499.619051</v>
+        <v>2075408935.91835</v>
       </c>
       <c r="L52" s="3">
-        <v>2142953933.122732</v>
+        <v>2090577665.112632</v>
       </c>
       <c r="M52" s="3">
-        <v>2155493209.511151</v>
+        <v>2114203032.091277</v>
       </c>
       <c r="N52" s="3">
-        <v>2096841936.497905</v>
+        <v>2080930781.871649</v>
       </c>
       <c r="O52" s="3">
-        <v>2155623904.253345</v>
+        <v>2139571070.97024</v>
       </c>
       <c r="P52" s="4">
-        <v>0.7744890768146582</v>
+        <v>0.7581329561527581</v>
       </c>
       <c r="Q52" s="4">
-        <v>0.7949260042283298</v>
+        <v>0.7743988684582744</v>
       </c>
       <c r="R52" s="4">
-        <v>0.780831571529246</v>
+        <v>0.7397454031117398</v>
       </c>
       <c r="S52" s="4">
-        <v>0.8421423537702607</v>
+        <v>0.7694483734087695</v>
       </c>
       <c r="T52" s="4">
-        <v>0.6821705426356589</v>
+        <v>0.5678925035360679</v>
       </c>
       <c r="U52" s="5">
-        <v>5913.907797398989</v>
+        <v>5750.795485706222</v>
       </c>
       <c r="V52" s="5">
-        <v>5589.539114212222</v>
+        <v>5458.50691494258</v>
       </c>
       <c r="W52" s="5">
-        <v>5561.35445929453</v>
+        <v>5440.026399249097</v>
       </c>
       <c r="X52" s="5">
-        <v>5566.405736892309</v>
+        <v>5475.217005445626</v>
       </c>
       <c r="Y52" s="5">
-        <v>5431.691234159042</v>
+        <v>5404.397372434446</v>
       </c>
       <c r="Z52" s="5">
-        <v>5662.643293032092</v>
+        <v>5634.601998762878</v>
       </c>
       <c r="AA52" s="5">
-        <v>-324.3686831867672</v>
+        <v>-292.2885707636424</v>
       </c>
       <c r="AB52" s="5">
-        <v>-352.5533381044588</v>
+        <v>-310.769086457125</v>
       </c>
       <c r="AC52" s="5">
-        <v>-347.5020605066802</v>
+        <v>-275.5784802605958</v>
       </c>
       <c r="AD52" s="5">
-        <v>-482.2165632399465</v>
+        <v>-346.3981132717763</v>
       </c>
       <c r="AE52" s="5">
-        <v>-251.2645043668972</v>
+        <v>-116.1934869433444</v>
       </c>
       <c r="AF52" s="4">
-        <v>-0.05484845119320736</v>
+        <v>-0.0508257634078858</v>
       </c>
       <c r="AG52" s="4">
-        <v>-0.05961427708756573</v>
+        <v>-0.0540393215563918</v>
       </c>
       <c r="AH52" s="4">
-        <v>-0.05876014175593269</v>
+        <v>-0.04792006270185656</v>
       </c>
       <c r="AI52" s="4">
-        <v>-0.08153941180010138</v>
+        <v>-0.06023481692798138</v>
       </c>
       <c r="AJ52" s="4">
-        <v>-0.0424870513668486</v>
+        <v>-0.02020476771120572</v>
       </c>
     </row>
     <row r="53" spans="1:36">
@@ -5971,106 +5971,106 @@
         <v>28</v>
       </c>
       <c r="C53" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D53" s="2">
-        <v>230577.5</v>
+        <v>231464.5</v>
       </c>
       <c r="E53" s="2">
-        <v>232100</v>
+        <v>232865</v>
       </c>
       <c r="F53" s="2">
-        <v>234046.5</v>
+        <v>234774.5</v>
       </c>
       <c r="G53" s="2">
-        <v>237994</v>
+        <v>238688</v>
       </c>
       <c r="H53" s="2">
-        <v>241732</v>
+        <v>242455</v>
       </c>
       <c r="I53" s="2">
-        <v>245895</v>
+        <v>246615</v>
       </c>
       <c r="J53" s="3">
-        <v>1654774541.566314</v>
+        <v>1616618451.6297</v>
       </c>
       <c r="K53" s="3">
-        <v>1583259771.801464</v>
+        <v>1552596952.265785</v>
       </c>
       <c r="L53" s="3">
-        <v>1549312238.716968</v>
+        <v>1521353224.428473</v>
       </c>
       <c r="M53" s="3">
-        <v>1545586065.701422</v>
+        <v>1520506896.080137</v>
       </c>
       <c r="N53" s="3">
-        <v>1529321719.200654</v>
+        <v>1527965867.725702</v>
       </c>
       <c r="O53" s="3">
-        <v>1625284761.711287</v>
+        <v>1623942362.158465</v>
       </c>
       <c r="P53" s="4">
-        <v>0.8414096916299559</v>
+        <v>0.8070175438596491</v>
       </c>
       <c r="Q53" s="4">
-        <v>0.9251101321585903</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="R53" s="4">
-        <v>0.933920704845815</v>
+        <v>0.9078947368421053</v>
       </c>
       <c r="S53" s="4">
-        <v>0.9779735682819384</v>
+        <v>0.9517543859649122</v>
       </c>
       <c r="T53" s="4">
-        <v>0.8854625550660793</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="U53" s="5">
-        <v>7176.652282058369</v>
+        <v>6984.304079587583</v>
       </c>
       <c r="V53" s="5">
-        <v>6821.455285659045</v>
+        <v>6667.369300950269</v>
       </c>
       <c r="W53" s="5">
-        <v>6619.677024509951</v>
+        <v>6480.061609878725</v>
       </c>
       <c r="X53" s="5">
-        <v>6494.222819488818</v>
+        <v>6370.269540488577</v>
       </c>
       <c r="Y53" s="5">
-        <v>6326.51746231634</v>
+        <v>6302.059630552895</v>
       </c>
       <c r="Z53" s="5">
-        <v>6609.66982537785</v>
+        <v>6584.929392609795</v>
       </c>
       <c r="AA53" s="5">
-        <v>-355.1969963993233</v>
+        <v>-316.9347786373137</v>
       </c>
       <c r="AB53" s="5">
-        <v>-556.9752575484181</v>
+        <v>-504.2424697088582</v>
       </c>
       <c r="AC53" s="5">
-        <v>-682.4294625695511</v>
+        <v>-614.034539099006</v>
       </c>
       <c r="AD53" s="5">
-        <v>-850.1348197420284</v>
+        <v>-682.2444490346879</v>
       </c>
       <c r="AE53" s="5">
-        <v>-566.9824566805182</v>
+        <v>-399.3746869777879</v>
       </c>
       <c r="AF53" s="4">
-        <v>-0.04949341035893795</v>
+        <v>-0.04537814720346889</v>
       </c>
       <c r="AG53" s="4">
-        <v>-0.07760934146703136</v>
+        <v>-0.0721965229409991</v>
       </c>
       <c r="AH53" s="4">
-        <v>-0.09509022253671462</v>
+        <v>-0.08791635245286522</v>
       </c>
       <c r="AI53" s="4">
-        <v>-0.118458410179265</v>
+        <v>-0.09768252373613351</v>
       </c>
       <c r="AJ53" s="4">
-        <v>-0.07900375194406095</v>
+        <v>-0.05718174386836983</v>
       </c>
     </row>
     <row r="54" spans="1:36">
@@ -6079,106 +6079,106 @@
         <v>29</v>
       </c>
       <c r="C54" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D54" s="2">
-        <v>5913.5</v>
+        <v>6130</v>
       </c>
       <c r="E54" s="2">
-        <v>6173.5</v>
+        <v>6389.5</v>
       </c>
       <c r="F54" s="2">
-        <v>6513.5</v>
+        <v>6738</v>
       </c>
       <c r="G54" s="2">
-        <v>6919.5</v>
+        <v>7166.5</v>
       </c>
       <c r="H54" s="2">
-        <v>7264.5</v>
+        <v>7521</v>
       </c>
       <c r="I54" s="2">
-        <v>7741.5</v>
+        <v>8009</v>
       </c>
       <c r="J54" s="3">
-        <v>157364042.4672837</v>
+        <v>158720596.8427591</v>
       </c>
       <c r="K54" s="3">
-        <v>155826246.4928138</v>
+        <v>157567311.888059</v>
       </c>
       <c r="L54" s="3">
-        <v>159627345.7964188</v>
+        <v>161610081.5459834</v>
       </c>
       <c r="M54" s="3">
-        <v>165173644.6525526</v>
+        <v>167640403.552845</v>
       </c>
       <c r="N54" s="3">
-        <v>163489220.6317705</v>
+        <v>166585679.984856</v>
       </c>
       <c r="O54" s="3">
-        <v>181532441.570793</v>
+        <v>187239635.5530641</v>
       </c>
       <c r="P54" s="4">
-        <v>0.76</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="Q54" s="4">
-        <v>0.82</v>
+        <v>0.8269230769230769</v>
       </c>
       <c r="R54" s="4">
-        <v>0.82</v>
+        <v>0.7884615384615384</v>
       </c>
       <c r="S54" s="4">
-        <v>0.92</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="T54" s="4">
-        <v>0.84</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="U54" s="5">
-        <v>26610.98206938086</v>
+        <v>25892.43015379431</v>
       </c>
       <c r="V54" s="5">
-        <v>25241.15112866507</v>
+        <v>24660.35087065639</v>
       </c>
       <c r="W54" s="5">
-        <v>24507.15372632515</v>
+        <v>23984.87407924954</v>
       </c>
       <c r="X54" s="5">
-        <v>23870.74855879075</v>
+        <v>23392.22822198354</v>
       </c>
       <c r="Y54" s="5">
-        <v>22505.22687477053</v>
+        <v>22149.40566212684</v>
       </c>
       <c r="Z54" s="5">
-        <v>23449.25939040147</v>
+        <v>23378.65345899165</v>
       </c>
       <c r="AA54" s="5">
-        <v>-1369.83094071579</v>
+        <v>-1232.079283137915</v>
       </c>
       <c r="AB54" s="5">
-        <v>-2103.828343055709</v>
+        <v>-1907.556074544766</v>
       </c>
       <c r="AC54" s="5">
-        <v>-2740.233510590104</v>
+        <v>-2500.20193181077</v>
       </c>
       <c r="AD54" s="5">
-        <v>-4105.75519461033</v>
+        <v>-3743.024491667464</v>
       </c>
       <c r="AE54" s="5">
-        <v>-3161.722678979389</v>
+        <v>-2513.776694802655</v>
       </c>
       <c r="AF54" s="4">
-        <v>-0.05147615135526873</v>
+        <v>-0.04758453632276627</v>
       </c>
       <c r="AG54" s="4">
-        <v>-0.07905865095735864</v>
+        <v>-0.07367234605691231</v>
       </c>
       <c r="AH54" s="4">
-        <v>-0.1029737836599076</v>
+        <v>-0.09656111523561983</v>
       </c>
       <c r="AI54" s="4">
-        <v>-0.1542879997403214</v>
+        <v>-0.1445605711566998</v>
       </c>
       <c r="AJ54" s="4">
-        <v>-0.1188127018663221</v>
+        <v>-0.09708539058989341</v>
       </c>
     </row>
   </sheetData>

--- a/output/Region & Phase.xlsx
+++ b/output/Region & Phase.xlsx
@@ -684,22 +684,22 @@
         <v>273</v>
       </c>
       <c r="J4" s="3">
-        <v>322557.5754834538</v>
+        <v>323315.5258490204</v>
       </c>
       <c r="K4" s="3">
-        <v>915046.3866064235</v>
+        <v>916756.0103166301</v>
       </c>
       <c r="L4" s="3">
-        <v>919692.1767338422</v>
+        <v>921162.6518470399</v>
       </c>
       <c r="M4" s="3">
-        <v>1247867.355417162</v>
+        <v>1248539.152637826</v>
       </c>
       <c r="N4" s="3">
-        <v>1397851.399660299</v>
+        <v>1397830.599462841</v>
       </c>
       <c r="O4" s="3">
-        <v>1465635.20030174</v>
+        <v>1465669.173181497</v>
       </c>
       <c r="P4" s="4">
         <v>0</v>
@@ -717,52 +717,52 @@
         <v>1</v>
       </c>
       <c r="U4" s="5">
-        <v>6085.991990253846</v>
+        <v>6100.292940547554</v>
       </c>
       <c r="V4" s="5">
-        <v>6828.704377659878</v>
+        <v>6841.462763556941</v>
       </c>
       <c r="W4" s="5">
-        <v>4891.979663477884</v>
+        <v>4899.801339611915</v>
       </c>
       <c r="X4" s="5">
-        <v>5052.094556344787</v>
+        <v>5054.814383149093</v>
       </c>
       <c r="Y4" s="5">
-        <v>4939.404239082329</v>
+        <v>4939.33074015138</v>
       </c>
       <c r="Z4" s="5">
-        <v>5368.627107332382</v>
+        <v>5368.751550115375</v>
       </c>
       <c r="AA4" s="5">
-        <v>742.7123874060317</v>
+        <v>741.1698230093871</v>
       </c>
       <c r="AB4" s="5">
-        <v>-1194.012326775962</v>
+        <v>-1200.491600935639</v>
       </c>
       <c r="AC4" s="5">
-        <v>-1033.897433909059</v>
+        <v>-1045.478557398461</v>
       </c>
       <c r="AD4" s="5">
-        <v>-1146.587751171517</v>
+        <v>-1160.962200396174</v>
       </c>
       <c r="AE4" s="5">
-        <v>-717.3648829214635</v>
+        <v>-731.5413904321795</v>
       </c>
       <c r="AF4" s="4">
-        <v>0.1220363728042062</v>
+        <v>0.121497414998379</v>
       </c>
       <c r="AG4" s="4">
-        <v>-0.1961902560318945</v>
+        <v>-0.1967924512208564</v>
       </c>
       <c r="AH4" s="4">
-        <v>-0.169881497636663</v>
+        <v>-0.1713816971721722</v>
       </c>
       <c r="AI4" s="4">
-        <v>-0.1883978409777193</v>
+        <v>-0.1903125328096076</v>
       </c>
       <c r="AJ4" s="4">
-        <v>-0.1178714799609097</v>
+        <v>-0.1199190592257882</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -792,22 +792,22 @@
         <v>13663</v>
       </c>
       <c r="J5" s="3">
-        <v>92069886.46657638</v>
+        <v>92286233.59158319</v>
       </c>
       <c r="K5" s="3">
-        <v>88631242.62698194</v>
+        <v>88796836.49859114</v>
       </c>
       <c r="L5" s="3">
-        <v>87349610.03193651</v>
+        <v>87489271.35661545</v>
       </c>
       <c r="M5" s="3">
-        <v>84721697.94278601</v>
+        <v>84767308.40046869</v>
       </c>
       <c r="N5" s="3">
-        <v>87403468.5534341</v>
+        <v>87402167.979278</v>
       </c>
       <c r="O5" s="3">
-        <v>86230944.27993132</v>
+        <v>86232943.08120246</v>
       </c>
       <c r="P5" s="4">
         <v>0.8888888888888888</v>
@@ -825,52 +825,52 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="U5" s="5">
-        <v>6974.991398983059</v>
+        <v>6991.381332695696</v>
       </c>
       <c r="V5" s="5">
-        <v>6615.752976560569</v>
+        <v>6628.113495453545</v>
       </c>
       <c r="W5" s="5">
-        <v>6431.514194451019</v>
+        <v>6441.797397681807</v>
       </c>
       <c r="X5" s="5">
-        <v>6187.226900079311</v>
+        <v>6190.557832503373</v>
       </c>
       <c r="Y5" s="5">
-        <v>6250.918544854933</v>
+        <v>6250.825530432898</v>
       </c>
       <c r="Z5" s="5">
-        <v>6311.274557559198</v>
+        <v>6311.420850560086</v>
       </c>
       <c r="AA5" s="5">
-        <v>-359.2384224224907</v>
+        <v>-363.2678372421515</v>
       </c>
       <c r="AB5" s="5">
-        <v>-543.4772045320406</v>
+        <v>-549.5839350138895</v>
       </c>
       <c r="AC5" s="5">
-        <v>-787.7644989037481</v>
+        <v>-800.8235001923231</v>
       </c>
       <c r="AD5" s="5">
-        <v>-724.072854128126</v>
+        <v>-740.5558022627984</v>
       </c>
       <c r="AE5" s="5">
-        <v>-663.7168414238613</v>
+        <v>-679.9604821356097</v>
       </c>
       <c r="AF5" s="4">
-        <v>-0.0515037799867204</v>
+        <v>-0.05195937969272302</v>
       </c>
       <c r="AG5" s="4">
-        <v>-0.07791797486822405</v>
+        <v>-0.07860877684410106</v>
       </c>
       <c r="AH5" s="4">
-        <v>-0.1129412860664749</v>
+        <v>-0.1145443885956005</v>
       </c>
       <c r="AI5" s="4">
-        <v>-0.1038098562004958</v>
+        <v>-0.1059241038390419</v>
       </c>
       <c r="AJ5" s="4">
-        <v>-0.09515665374449489</v>
+        <v>-0.09725695821449842</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -900,22 +900,22 @@
         <v>1472</v>
       </c>
       <c r="J6" s="3">
-        <v>17734952.34865083</v>
+        <v>17776626.1912069</v>
       </c>
       <c r="K6" s="3">
-        <v>16534570.61158363</v>
+        <v>16565462.91865069</v>
       </c>
       <c r="L6" s="3">
-        <v>16360643.72858944</v>
+        <v>16386802.39346384</v>
       </c>
       <c r="M6" s="3">
-        <v>17274161.94452785</v>
+        <v>17283461.59799923</v>
       </c>
       <c r="N6" s="3">
-        <v>16368804.13103281</v>
+        <v>16368560.56125267</v>
       </c>
       <c r="O6" s="3">
-        <v>15176428.76965225</v>
+        <v>15176780.55363617</v>
       </c>
       <c r="P6" s="4">
         <v>0.7857142857142857</v>
@@ -933,52 +933,52 @@
         <v>0.6785714285714286</v>
       </c>
       <c r="U6" s="5">
-        <v>11119.09238159927</v>
+        <v>11145.22018257486</v>
       </c>
       <c r="V6" s="5">
-        <v>10438.49154771694</v>
+        <v>10457.99426682493</v>
       </c>
       <c r="W6" s="5">
-        <v>9735.580915554563</v>
+        <v>9751.146916669941</v>
       </c>
       <c r="X6" s="5">
-        <v>10176.23678617252</v>
+        <v>10181.71522709822</v>
       </c>
       <c r="Y6" s="5">
-        <v>9941.575542686189</v>
+        <v>9941.427610842802</v>
       </c>
       <c r="Z6" s="5">
-        <v>10310.0738924268</v>
+        <v>10310.31287611153</v>
       </c>
       <c r="AA6" s="5">
-        <v>-680.6008338823285</v>
+        <v>-687.2259157499302</v>
       </c>
       <c r="AB6" s="5">
-        <v>-1383.511466044705</v>
+        <v>-1394.073265904919</v>
       </c>
       <c r="AC6" s="5">
-        <v>-942.8555954267504</v>
+        <v>-963.504955476641</v>
       </c>
       <c r="AD6" s="5">
-        <v>-1177.516838913079</v>
+        <v>-1203.792571732058</v>
       </c>
       <c r="AE6" s="5">
-        <v>-809.0184891724712</v>
+        <v>-834.907306463334</v>
       </c>
       <c r="AF6" s="4">
-        <v>-0.06121010695159246</v>
+        <v>-0.06166104433041009</v>
       </c>
       <c r="AG6" s="4">
-        <v>-0.1244266544933331</v>
+        <v>-0.1250826132699021</v>
       </c>
       <c r="AH6" s="4">
-        <v>-0.08479609333825311</v>
+        <v>-0.08645006017763968</v>
       </c>
       <c r="AI6" s="4">
-        <v>-0.1059004456930068</v>
+        <v>-0.1080097613158099</v>
       </c>
       <c r="AJ6" s="4">
-        <v>-0.07275939990491465</v>
+        <v>-0.07491169243732665</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -1008,85 +1008,85 @@
         <v>328784.5</v>
       </c>
       <c r="J7" s="3">
-        <v>1775594326.011404</v>
+        <v>1779766642.741155</v>
       </c>
       <c r="K7" s="3">
-        <v>1744375652.804222</v>
+        <v>1747634750.94306</v>
       </c>
       <c r="L7" s="3">
-        <v>1758206045.230269</v>
+        <v>1761017201.287464</v>
       </c>
       <c r="M7" s="3">
-        <v>1768720053.220398</v>
+        <v>1769672254.759068</v>
       </c>
       <c r="N7" s="3">
-        <v>1748539573.604146</v>
+        <v>1748513555.124352</v>
       </c>
       <c r="O7" s="3">
-        <v>1833736366.753502</v>
+        <v>1833778872.081624</v>
       </c>
       <c r="P7" s="4">
-        <v>0.7296511627906976</v>
+        <v>0.7311046511627907</v>
       </c>
       <c r="Q7" s="4">
-        <v>0.7114825581395349</v>
+        <v>0.7136627906976745</v>
       </c>
       <c r="R7" s="4">
-        <v>0.6722383720930233</v>
+        <v>0.6809593023255814</v>
       </c>
       <c r="S7" s="4">
-        <v>0.7361918604651163</v>
+        <v>0.7456395348837209</v>
       </c>
       <c r="T7" s="4">
-        <v>0.4876453488372093</v>
+        <v>0.5</v>
       </c>
       <c r="U7" s="5">
-        <v>5550.579571049126</v>
+        <v>5563.622401646657</v>
       </c>
       <c r="V7" s="5">
-        <v>5337.19151864317</v>
+        <v>5347.163241716163</v>
       </c>
       <c r="W7" s="5">
-        <v>5300.383298906793</v>
+        <v>5308.857962417705</v>
       </c>
       <c r="X7" s="5">
-        <v>5312.763925220244</v>
+        <v>5315.624085014876</v>
       </c>
       <c r="Y7" s="5">
-        <v>5268.335784716135</v>
+        <v>5268.257391244099</v>
       </c>
       <c r="Z7" s="5">
-        <v>5577.319997607863</v>
+        <v>5577.44927781457</v>
       </c>
       <c r="AA7" s="5">
-        <v>-213.3880524059559</v>
+        <v>-216.459159930494</v>
       </c>
       <c r="AB7" s="5">
-        <v>-250.1962721423324</v>
+        <v>-254.7644392289521</v>
       </c>
       <c r="AC7" s="5">
-        <v>-237.8156458288813</v>
+        <v>-247.9983166317807</v>
       </c>
       <c r="AD7" s="5">
-        <v>-282.2437863329906</v>
+        <v>-295.3650104025573</v>
       </c>
       <c r="AE7" s="5">
-        <v>26.74042655873745</v>
+        <v>13.82687616791281</v>
       </c>
       <c r="AF7" s="4">
-        <v>-0.03844428310134518</v>
+        <v>-0.03890615579274914</v>
       </c>
       <c r="AG7" s="4">
-        <v>-0.04507570226491542</v>
+        <v>-0.04579110889221205</v>
       </c>
       <c r="AH7" s="4">
-        <v>-0.04284519171102186</v>
+        <v>-0.0445749726937581</v>
       </c>
       <c r="AI7" s="4">
-        <v>-0.05084942621219701</v>
+        <v>-0.05308861548820043</v>
       </c>
       <c r="AJ7" s="4">
-        <v>0.004817591787749764</v>
+        <v>0.002485229077340056</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -1116,85 +1116,85 @@
         <v>224378</v>
       </c>
       <c r="J8" s="3">
-        <v>1384903263.03937</v>
+        <v>1388157528.368349</v>
       </c>
       <c r="K8" s="3">
-        <v>1354773081.204236</v>
+        <v>1357304266.743546</v>
       </c>
       <c r="L8" s="3">
-        <v>1312364225.849891</v>
+        <v>1314462535.46085</v>
       </c>
       <c r="M8" s="3">
-        <v>1322363932.871264</v>
+        <v>1323075835.791836</v>
       </c>
       <c r="N8" s="3">
-        <v>1331148423.161703</v>
+        <v>1331128615.512582</v>
       </c>
       <c r="O8" s="3">
-        <v>1425494149.348557</v>
+        <v>1425527191.773659</v>
       </c>
       <c r="P8" s="4">
         <v>0.704225352112676</v>
       </c>
       <c r="Q8" s="4">
-        <v>0.8215962441314554</v>
+        <v>0.8262910798122066</v>
       </c>
       <c r="R8" s="4">
         <v>0.8685446009389671</v>
       </c>
       <c r="S8" s="4">
-        <v>0.8779342723004695</v>
+        <v>0.8826291079812206</v>
       </c>
       <c r="T8" s="4">
         <v>0.6948356807511737</v>
       </c>
       <c r="U8" s="5">
-        <v>6689.88531257168</v>
+        <v>6705.605299958936</v>
       </c>
       <c r="V8" s="5">
-        <v>6489.464619089579</v>
+        <v>6501.589187572371</v>
       </c>
       <c r="W8" s="5">
-        <v>6260.65244345696</v>
+        <v>6270.662459681281</v>
       </c>
       <c r="X8" s="5">
-        <v>6194.714078655262</v>
+        <v>6198.049041848889</v>
       </c>
       <c r="Y8" s="5">
-        <v>6080.135671762735</v>
+        <v>6080.045198610458</v>
       </c>
       <c r="Z8" s="5">
-        <v>6353.092323438827</v>
+        <v>6353.239585760007</v>
       </c>
       <c r="AA8" s="5">
-        <v>-200.4206934821004</v>
+        <v>-204.0161123865655</v>
       </c>
       <c r="AB8" s="5">
-        <v>-429.2328691147195</v>
+        <v>-434.9428402776557</v>
       </c>
       <c r="AC8" s="5">
-        <v>-495.1712339164178</v>
+        <v>-507.5562581100476</v>
       </c>
       <c r="AD8" s="5">
-        <v>-609.7496408089446</v>
+        <v>-625.5601013484784</v>
       </c>
       <c r="AE8" s="5">
-        <v>-336.7929891328522</v>
+        <v>-352.3657141989297</v>
       </c>
       <c r="AF8" s="4">
-        <v>-0.02995876373328377</v>
+        <v>-0.03042471235039956</v>
       </c>
       <c r="AG8" s="4">
-        <v>-0.06416146900277975</v>
+        <v>-0.06486257702646459</v>
       </c>
       <c r="AH8" s="4">
-        <v>-0.07401789579051354</v>
+        <v>-0.0756913411102732</v>
       </c>
       <c r="AI8" s="4">
-        <v>-0.09114500657628599</v>
+        <v>-0.09328913250416171</v>
       </c>
       <c r="AJ8" s="4">
-        <v>-0.0503436117955488</v>
+        <v>-0.05254793541174985</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -1224,22 +1224,22 @@
         <v>6330.5</v>
       </c>
       <c r="J9" s="3">
-        <v>133320665.5392022</v>
+        <v>133633944.3299159</v>
       </c>
       <c r="K9" s="3">
-        <v>133895398.7549466</v>
+        <v>134145561.7540575</v>
       </c>
       <c r="L9" s="3">
-        <v>138005771.7357634</v>
+        <v>138226426.0567948</v>
       </c>
       <c r="M9" s="3">
-        <v>140378089.8814233</v>
+        <v>140453663.3069279</v>
       </c>
       <c r="N9" s="3">
-        <v>130231007.6951155</v>
+        <v>130229069.8420104</v>
       </c>
       <c r="O9" s="3">
-        <v>150555376.88673</v>
+        <v>150558866.7044656</v>
       </c>
       <c r="P9" s="4">
         <v>0.673469387755102</v>
@@ -1248,7 +1248,7 @@
         <v>0.6326530612244898</v>
       </c>
       <c r="R9" s="4">
-        <v>0.6122448979591837</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="S9" s="4">
         <v>0.8571428571428571</v>
@@ -1257,52 +1257,52 @@
         <v>0.7346938775510204</v>
       </c>
       <c r="U9" s="5">
-        <v>24950.06372961582</v>
+        <v>25008.6917432237</v>
       </c>
       <c r="V9" s="5">
-        <v>24460.24821975642</v>
+        <v>24505.94843881211</v>
       </c>
       <c r="W9" s="5">
-        <v>24477.78853064267</v>
+        <v>24516.92551557197</v>
       </c>
       <c r="X9" s="5">
-        <v>24148.99189427546</v>
+        <v>24161.99265558712</v>
       </c>
       <c r="Y9" s="5">
-        <v>21410.76986356193</v>
+        <v>21410.45126872345</v>
       </c>
       <c r="Z9" s="5">
-        <v>23782.54117158677</v>
+        <v>23783.09244206075</v>
       </c>
       <c r="AA9" s="5">
-        <v>-489.815509859407</v>
+        <v>-502.7433044115969</v>
       </c>
       <c r="AB9" s="5">
-        <v>-472.2751989731551</v>
+        <v>-491.7662276517294</v>
       </c>
       <c r="AC9" s="5">
-        <v>-801.0718353403608</v>
+        <v>-846.699087636578</v>
       </c>
       <c r="AD9" s="5">
-        <v>-3539.293866053889</v>
+        <v>-3598.240474500253</v>
       </c>
       <c r="AE9" s="5">
-        <v>-1167.522558029053</v>
+        <v>-1225.599301162951</v>
       </c>
       <c r="AF9" s="4">
-        <v>-0.01963183401724122</v>
+        <v>-0.02010274306123272</v>
       </c>
       <c r="AG9" s="4">
-        <v>-0.01892881734055707</v>
+        <v>-0.01966381259367467</v>
       </c>
       <c r="AH9" s="4">
-        <v>-0.03210700557808532</v>
+        <v>-0.03385619273211271</v>
       </c>
       <c r="AI9" s="4">
-        <v>-0.1418551032337738</v>
+        <v>-0.1438795963997287</v>
       </c>
       <c r="AJ9" s="4">
-        <v>-0.04679437177722312</v>
+        <v>-0.04900693381912058</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -1334,22 +1334,22 @@
         <v>3188</v>
       </c>
       <c r="J10" s="3">
-        <v>14544414.31270846</v>
+        <v>14578590.98373765</v>
       </c>
       <c r="K10" s="3">
-        <v>15000140.2496929</v>
+        <v>15028165.70916977</v>
       </c>
       <c r="L10" s="3">
-        <v>15319676.51156145</v>
+        <v>15344170.7973914</v>
       </c>
       <c r="M10" s="3">
-        <v>16240442.93405976</v>
+        <v>16249186.07841567</v>
       </c>
       <c r="N10" s="3">
-        <v>15970181.33968487</v>
+        <v>15969943.70145996</v>
       </c>
       <c r="O10" s="3">
-        <v>18897889.9148447</v>
+        <v>18898327.9609162</v>
       </c>
       <c r="P10" s="4">
         <v>0.6666666666666666</v>
@@ -1367,52 +1367,52 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="U10" s="5">
-        <v>6010.088558970439</v>
+        <v>6024.211150304813</v>
       </c>
       <c r="V10" s="5">
-        <v>6110.036761585701</v>
+        <v>6121.452427360396</v>
       </c>
       <c r="W10" s="5">
-        <v>5853.907723179766</v>
+        <v>5863.267404429271</v>
       </c>
       <c r="X10" s="5">
-        <v>5798.087445219478</v>
+        <v>5801.20888197632</v>
       </c>
       <c r="Y10" s="5">
-        <v>5355.526941544224</v>
+        <v>5355.447250657263</v>
       </c>
       <c r="Z10" s="5">
-        <v>5927.819923100596</v>
+        <v>5927.957327765433</v>
       </c>
       <c r="AA10" s="5">
-        <v>99.94820261526183</v>
+        <v>97.24127705558294</v>
       </c>
       <c r="AB10" s="5">
-        <v>-156.1808357906739</v>
+        <v>-160.9437458755419</v>
       </c>
       <c r="AC10" s="5">
-        <v>-212.0011137509618</v>
+        <v>-223.0022683284924</v>
       </c>
       <c r="AD10" s="5">
-        <v>-654.5616174262159</v>
+        <v>-668.7638996475498</v>
       </c>
       <c r="AE10" s="5">
-        <v>-82.26863586984382</v>
+        <v>-96.25382253938005</v>
       </c>
       <c r="AF10" s="4">
-        <v>0.016630071526331</v>
+        <v>0.0161417444756502</v>
       </c>
       <c r="AG10" s="4">
-        <v>-0.02598644500130765</v>
+        <v>-0.02671615284723183</v>
       </c>
       <c r="AH10" s="4">
-        <v>-0.03527420797061909</v>
+        <v>-0.03701767132070211</v>
       </c>
       <c r="AI10" s="4">
-        <v>-0.1089104779411679</v>
+        <v>-0.1110126924441737</v>
       </c>
       <c r="AJ10" s="4">
-        <v>-0.01368842323413899</v>
+        <v>-0.01597783014868426</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -1442,22 +1442,22 @@
         <v>10175</v>
       </c>
       <c r="J11" s="3">
-        <v>55090145.91277821</v>
+        <v>55219597.51896394</v>
       </c>
       <c r="K11" s="3">
-        <v>55970337.31409291</v>
+        <v>56074909.29770054</v>
       </c>
       <c r="L11" s="3">
-        <v>56115175.12731407</v>
+        <v>56204896.41731188</v>
       </c>
       <c r="M11" s="3">
-        <v>55787278.3497325</v>
+        <v>55817311.78107522</v>
       </c>
       <c r="N11" s="3">
-        <v>57342248.34668504</v>
+        <v>57341395.08711211</v>
       </c>
       <c r="O11" s="3">
-        <v>61708938.74796946</v>
+        <v>61710369.13825729</v>
       </c>
       <c r="P11" s="4">
         <v>0.8571428571428571</v>
@@ -1475,52 +1475,52 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="U11" s="5">
-        <v>6688.132319142675</v>
+        <v>6703.848187321105</v>
       </c>
       <c r="V11" s="5">
-        <v>6359.542928541406</v>
+        <v>6371.424758288892</v>
       </c>
       <c r="W11" s="5">
-        <v>6052.764008986524</v>
+        <v>6062.441637073873</v>
       </c>
       <c r="X11" s="5">
-        <v>5874.200100003422</v>
+        <v>5877.362512485544</v>
       </c>
       <c r="Y11" s="5">
-        <v>5825.688138442044</v>
+        <v>5825.601451499757</v>
       </c>
       <c r="Z11" s="5">
-        <v>6064.760564911004</v>
+        <v>6064.901143809071</v>
       </c>
       <c r="AA11" s="5">
-        <v>-328.5893906012689</v>
+        <v>-332.4234290322129</v>
       </c>
       <c r="AB11" s="5">
-        <v>-635.3683101561501</v>
+        <v>-641.4065502472322</v>
       </c>
       <c r="AC11" s="5">
-        <v>-813.9322191392521</v>
+        <v>-826.4856748355605</v>
       </c>
       <c r="AD11" s="5">
-        <v>-862.4441807006306</v>
+        <v>-878.246735821348</v>
       </c>
       <c r="AE11" s="5">
-        <v>-623.3717542316708</v>
+        <v>-638.9470435120338</v>
       </c>
       <c r="AF11" s="4">
-        <v>-0.04913021676631379</v>
+        <v>-0.04958695658725099</v>
       </c>
       <c r="AG11" s="4">
-        <v>-0.09499936302659684</v>
+        <v>-0.09567736803173965</v>
       </c>
       <c r="AH11" s="4">
-        <v>-0.1216979838765491</v>
+        <v>-0.123285261202466</v>
       </c>
       <c r="AI11" s="4">
-        <v>-0.1289514231397838</v>
+        <v>-0.131006358032147</v>
       </c>
       <c r="AJ11" s="4">
-        <v>-0.09320565510455969</v>
+        <v>-0.09531048819399957</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -1550,22 +1550,22 @@
         <v>2225.5</v>
       </c>
       <c r="J12" s="3">
-        <v>21995221.83075159</v>
+        <v>22046906.51495828</v>
       </c>
       <c r="K12" s="3">
-        <v>20737059.99504276</v>
+        <v>20775804.0084244</v>
       </c>
       <c r="L12" s="3">
-        <v>21100221.42410459</v>
+        <v>21133958.09303799</v>
       </c>
       <c r="M12" s="3">
-        <v>21573449.90389765</v>
+        <v>21585064.10601828</v>
       </c>
       <c r="N12" s="3">
-        <v>20333107.44965221</v>
+        <v>20332804.89056044</v>
       </c>
       <c r="O12" s="3">
-        <v>19733184.93535759</v>
+        <v>19733642.34325752</v>
       </c>
       <c r="P12" s="4">
         <v>0.6206896551724138</v>
@@ -1583,52 +1583,52 @@
         <v>0.6551724137931034</v>
       </c>
       <c r="U12" s="5">
-        <v>10625.71102934859</v>
+        <v>10650.67947582526</v>
       </c>
       <c r="V12" s="5">
-        <v>9818.683709774035</v>
+        <v>9837.028413079735</v>
       </c>
       <c r="W12" s="5">
-        <v>9150.139385995051</v>
+        <v>9164.76933783087</v>
       </c>
       <c r="X12" s="5">
-        <v>9087.384121271123</v>
+        <v>9092.276371532555</v>
       </c>
       <c r="Y12" s="5">
-        <v>8151.175566106319</v>
+        <v>8151.054275630565</v>
       </c>
       <c r="Z12" s="5">
-        <v>8866.854610360631</v>
+        <v>8867.060140758264</v>
       </c>
       <c r="AA12" s="5">
-        <v>-807.0273195745594</v>
+        <v>-813.6510627455227</v>
       </c>
       <c r="AB12" s="5">
-        <v>-1475.571643353544</v>
+        <v>-1485.910137994388</v>
       </c>
       <c r="AC12" s="5">
-        <v>-1538.326908077472</v>
+        <v>-1558.403104292704</v>
       </c>
       <c r="AD12" s="5">
-        <v>-2474.535463242276</v>
+        <v>-2499.625200194693</v>
       </c>
       <c r="AE12" s="5">
-        <v>-1758.856418987963</v>
+        <v>-1783.619335066995</v>
       </c>
       <c r="AF12" s="4">
-        <v>-0.07595042979669986</v>
+        <v>-0.07639428682389093</v>
       </c>
       <c r="AG12" s="4">
-        <v>-0.138868038033216</v>
+        <v>-0.139513177667874</v>
       </c>
       <c r="AH12" s="4">
-        <v>-0.1447740206588112</v>
+        <v>-0.1463195947103603</v>
       </c>
       <c r="AI12" s="4">
-        <v>-0.2328818708138702</v>
+        <v>-0.2346916181139713</v>
       </c>
       <c r="AJ12" s="4">
-        <v>-0.1655283504444963</v>
+        <v>-0.1674653095246575</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -1658,85 +1658,85 @@
         <v>421926.5</v>
       </c>
       <c r="J13" s="3">
-        <v>2240144652.735223</v>
+        <v>2245408576.411232</v>
       </c>
       <c r="K13" s="3">
-        <v>2198685279.096868</v>
+        <v>2202793185.03414</v>
       </c>
       <c r="L13" s="3">
-        <v>2203423643.846349</v>
+        <v>2206946648.297269</v>
       </c>
       <c r="M13" s="3">
-        <v>2220970332.52298</v>
+        <v>2222166005.837203</v>
       </c>
       <c r="N13" s="3">
-        <v>2179738016.417212</v>
+        <v>2179705581.652573</v>
       </c>
       <c r="O13" s="3">
-        <v>2264808235.743494</v>
+        <v>2264860733.15748</v>
       </c>
       <c r="P13" s="4">
-        <v>0.720532319391635</v>
+        <v>0.7230671736375158</v>
       </c>
       <c r="Q13" s="4">
-        <v>0.7484157160963245</v>
+        <v>0.7509505703422054</v>
       </c>
       <c r="R13" s="4">
-        <v>0.7338403041825095</v>
+        <v>0.7401774397972116</v>
       </c>
       <c r="S13" s="4">
-        <v>0.7858048162230672</v>
+        <v>0.7921419518377694</v>
       </c>
       <c r="T13" s="4">
-        <v>0.6108998732572877</v>
+        <v>0.6261089987325729</v>
       </c>
       <c r="U13" s="5">
-        <v>5552.251373685077</v>
+        <v>5565.298132708162</v>
       </c>
       <c r="V13" s="5">
-        <v>5340.043010857378</v>
+        <v>5350.020061505845</v>
       </c>
       <c r="W13" s="5">
-        <v>5256.10196224194</v>
+        <v>5264.505825320735</v>
       </c>
       <c r="X13" s="5">
-        <v>5246.545661084167</v>
+        <v>5249.370171860806</v>
       </c>
       <c r="Y13" s="5">
-        <v>5136.851123979634</v>
+        <v>5136.77468701522</v>
       </c>
       <c r="Z13" s="5">
-        <v>5367.779069917376</v>
+        <v>5367.903493043172</v>
       </c>
       <c r="AA13" s="5">
-        <v>-212.2083628276987</v>
+        <v>-215.2780712023177</v>
       </c>
       <c r="AB13" s="5">
-        <v>-296.1494114431371</v>
+        <v>-300.7923073874272</v>
       </c>
       <c r="AC13" s="5">
-        <v>-305.7057126009095</v>
+        <v>-315.9279608473562</v>
       </c>
       <c r="AD13" s="5">
-        <v>-415.4002497054425</v>
+        <v>-428.5234456929429</v>
       </c>
       <c r="AE13" s="5">
-        <v>-184.4723037677013</v>
+        <v>-197.3946396649908</v>
       </c>
       <c r="AF13" s="4">
-        <v>-0.03822023689947851</v>
+        <v>-0.03868221720901055</v>
       </c>
       <c r="AG13" s="4">
-        <v>-0.05333861734840373</v>
+        <v>-0.05404783359576404</v>
       </c>
       <c r="AH13" s="4">
-        <v>-0.05505977522015726</v>
+        <v>-0.0567674818695868</v>
       </c>
       <c r="AI13" s="4">
-        <v>-0.07481654229025614</v>
+        <v>-0.07699918952669238</v>
       </c>
       <c r="AJ13" s="4">
-        <v>-0.03322477520416467</v>
+        <v>-0.03546883472511031</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -1766,85 +1766,85 @@
         <v>317406</v>
       </c>
       <c r="J14" s="3">
-        <v>1951775178.048384</v>
+        <v>1956361487.042951</v>
       </c>
       <c r="K14" s="3">
-        <v>1942009593.149205</v>
+        <v>1945637939.968006</v>
       </c>
       <c r="L14" s="3">
-        <v>1888468061.496411</v>
+        <v>1891487490.558386</v>
       </c>
       <c r="M14" s="3">
-        <v>1891535265.073523</v>
+        <v>1892553584.952112</v>
       </c>
       <c r="N14" s="3">
-        <v>1858756431.030839</v>
+        <v>1858728772.51091</v>
       </c>
       <c r="O14" s="3">
-        <v>2009279532.181989</v>
+        <v>2009326106.535505</v>
       </c>
       <c r="P14" s="4">
-        <v>0.6323024054982818</v>
+        <v>0.6357388316151202</v>
       </c>
       <c r="Q14" s="4">
-        <v>0.7594501718213058</v>
+        <v>0.7628865979381443</v>
       </c>
       <c r="R14" s="4">
-        <v>0.8109965635738832</v>
+        <v>0.8144329896907216</v>
       </c>
       <c r="S14" s="4">
-        <v>0.9175257731958762</v>
+        <v>0.9209621993127147</v>
       </c>
       <c r="T14" s="4">
-        <v>0.7353951890034365</v>
+        <v>0.738831615120275</v>
       </c>
       <c r="U14" s="5">
-        <v>6666.672967654659</v>
+        <v>6682.338410344614</v>
       </c>
       <c r="V14" s="5">
-        <v>6562.672343302456</v>
+        <v>6574.93368918028</v>
       </c>
       <c r="W14" s="5">
-        <v>6327.925308431383</v>
+        <v>6338.042885724771</v>
       </c>
       <c r="X14" s="5">
-        <v>6217.727391753973</v>
+        <v>6221.074744309108</v>
       </c>
       <c r="Y14" s="5">
-        <v>5976.776044202552</v>
+        <v>5976.687109053992</v>
       </c>
       <c r="Z14" s="5">
-        <v>6330.313643037591</v>
+        <v>6330.460377357407</v>
       </c>
       <c r="AA14" s="5">
-        <v>-104.000624352203</v>
+        <v>-107.4047211643338</v>
       </c>
       <c r="AB14" s="5">
-        <v>-338.7476592232761</v>
+        <v>-344.2955246198435</v>
       </c>
       <c r="AC14" s="5">
-        <v>-448.945575900686</v>
+        <v>-461.2636660355065</v>
       </c>
       <c r="AD14" s="5">
-        <v>-689.8969234521073</v>
+        <v>-705.6513012906225</v>
       </c>
       <c r="AE14" s="5">
-        <v>-336.3593246170685</v>
+        <v>-351.878032987207</v>
       </c>
       <c r="AF14" s="4">
-        <v>-0.01560007890844395</v>
+        <v>-0.0160729245615675</v>
       </c>
       <c r="AG14" s="4">
-        <v>-0.05081210085852583</v>
+        <v>-0.05152320991209536</v>
       </c>
       <c r="AH14" s="4">
-        <v>-0.0673417727371477</v>
+        <v>-0.0690272832219101</v>
       </c>
       <c r="AI14" s="4">
-        <v>-0.1034844407096833</v>
+        <v>-0.1055994560524257</v>
       </c>
       <c r="AJ14" s="4">
-        <v>-0.05045385100619393</v>
+        <v>-0.05265791873732117</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -1874,31 +1874,31 @@
         <v>10184</v>
       </c>
       <c r="J15" s="3">
-        <v>198507665.1446237</v>
+        <v>198974121.2715295</v>
       </c>
       <c r="K15" s="3">
-        <v>199246063.7606929</v>
+        <v>199618324.4457866</v>
       </c>
       <c r="L15" s="3">
-        <v>207794878.4881931</v>
+        <v>208127117.0406097</v>
       </c>
       <c r="M15" s="3">
-        <v>213468922.6182336</v>
+        <v>213583844.9521582</v>
       </c>
       <c r="N15" s="3">
-        <v>199582222.339214</v>
+        <v>199579252.5316689</v>
       </c>
       <c r="O15" s="3">
-        <v>231482352.0665199</v>
+        <v>231487717.7414921</v>
       </c>
       <c r="P15" s="4">
-        <v>0.7536231884057971</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="Q15" s="4">
         <v>0.6811594202898551</v>
       </c>
       <c r="R15" s="4">
-        <v>0.7681159420289855</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="S15" s="4">
         <v>0.8405797101449275</v>
@@ -1907,52 +1907,52 @@
         <v>0.7101449275362319</v>
       </c>
       <c r="U15" s="5">
-        <v>24165.52013447242</v>
+        <v>24222.3046164136</v>
       </c>
       <c r="V15" s="5">
-        <v>23288.65218405621</v>
+        <v>23332.16345576373</v>
       </c>
       <c r="W15" s="5">
-        <v>23200.45536629187</v>
+        <v>23237.55005198567</v>
       </c>
       <c r="X15" s="5">
-        <v>22730.01358869548</v>
+        <v>22742.25043413281</v>
       </c>
       <c r="Y15" s="5">
-        <v>20343.73603172255</v>
+        <v>20343.43331447621</v>
       </c>
       <c r="Z15" s="5">
-        <v>22730.00314871562</v>
+        <v>22730.53002174903</v>
       </c>
       <c r="AA15" s="5">
-        <v>-876.8679504162101</v>
+        <v>-890.1411606498696</v>
       </c>
       <c r="AB15" s="5">
-        <v>-965.0647681805458</v>
+        <v>-984.7545644279235</v>
       </c>
       <c r="AC15" s="5">
-        <v>-1435.506545776938</v>
+        <v>-1480.05418228079</v>
       </c>
       <c r="AD15" s="5">
-        <v>-3821.784102749869</v>
+        <v>-3878.871301937383</v>
       </c>
       <c r="AE15" s="5">
-        <v>-1435.516985756796</v>
+        <v>-1491.77459466457</v>
       </c>
       <c r="AF15" s="4">
-        <v>-0.03628591255378555</v>
+        <v>-0.03674882199469531</v>
       </c>
       <c r="AG15" s="4">
-        <v>-0.0399356091989872</v>
+        <v>-0.04065486666205287</v>
       </c>
       <c r="AH15" s="4">
-        <v>-0.05940308910335312</v>
+        <v>-0.06110294646686387</v>
       </c>
       <c r="AI15" s="4">
-        <v>-0.158150293537363</v>
+        <v>-0.1601363438930979</v>
       </c>
       <c r="AJ15" s="4">
-        <v>-0.05940352112301583</v>
+        <v>-0.0615868150569665</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -1984,22 +1984,22 @@
         <v>1399</v>
       </c>
       <c r="J16" s="3">
-        <v>7923431.352311356</v>
+        <v>7942049.943677641</v>
       </c>
       <c r="K16" s="3">
-        <v>7459874.288742291</v>
+        <v>7473811.918731184</v>
       </c>
       <c r="L16" s="3">
-        <v>8170261.600390278</v>
+        <v>8183324.84769804</v>
       </c>
       <c r="M16" s="3">
-        <v>9294851.839349311</v>
+        <v>9299855.781158548</v>
       </c>
       <c r="N16" s="3">
-        <v>9856477.776209366</v>
+        <v>9856331.110631008</v>
       </c>
       <c r="O16" s="3">
-        <v>10169333.14244699</v>
+        <v>10169568.86381339</v>
       </c>
       <c r="P16" s="4">
         <v>1</v>
@@ -2017,52 +2017,52 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="U16" s="5">
-        <v>8547.390887067266</v>
+        <v>8567.47566739767</v>
       </c>
       <c r="V16" s="5">
-        <v>7260.218285880575</v>
+        <v>7273.782889276091</v>
       </c>
       <c r="W16" s="5">
-        <v>6883.118450202424</v>
+        <v>6894.123713309216</v>
       </c>
       <c r="X16" s="5">
-        <v>6962.435834718585</v>
+        <v>6966.18410573674</v>
       </c>
       <c r="Y16" s="5">
-        <v>7215.576702935114</v>
+        <v>7215.469334283314</v>
       </c>
       <c r="Z16" s="5">
-        <v>7269.001531413143</v>
+        <v>7269.170024169683</v>
       </c>
       <c r="AA16" s="5">
-        <v>-1287.17260118669</v>
+        <v>-1293.692778121579</v>
       </c>
       <c r="AB16" s="5">
-        <v>-1664.272436864841</v>
+        <v>-1673.351954088454</v>
       </c>
       <c r="AC16" s="5">
-        <v>-1584.955052348681</v>
+        <v>-1601.29156166093</v>
       </c>
       <c r="AD16" s="5">
-        <v>-1331.814184132152</v>
+        <v>-1352.006333114356</v>
       </c>
       <c r="AE16" s="5">
-        <v>-1278.389355654122</v>
+        <v>-1298.305643227987</v>
       </c>
       <c r="AF16" s="4">
-        <v>-0.1505924577679327</v>
+        <v>-0.1510004613196096</v>
       </c>
       <c r="AG16" s="4">
-        <v>-0.1947111649454325</v>
+        <v>-0.1953144682343435</v>
       </c>
       <c r="AH16" s="4">
-        <v>-0.185431446074008</v>
+        <v>-0.18690354356703</v>
       </c>
       <c r="AI16" s="4">
-        <v>-0.1558152893355176</v>
+        <v>-0.1578068483181372</v>
       </c>
       <c r="AJ16" s="4">
-        <v>-0.1495648640087825</v>
+        <v>-0.1515388772177676</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -2092,22 +2092,22 @@
         <v>49491.5</v>
       </c>
       <c r="J17" s="3">
-        <v>318768730.8988877</v>
+        <v>319517778.1837139</v>
       </c>
       <c r="K17" s="3">
-        <v>325354892.0646626</v>
+        <v>325962767.7372482</v>
       </c>
       <c r="L17" s="3">
-        <v>329533000.4431327</v>
+        <v>330059883.3376355</v>
       </c>
       <c r="M17" s="3">
-        <v>341887167.9010631</v>
+        <v>342071225.0031096</v>
       </c>
       <c r="N17" s="3">
-        <v>340092181.8477457</v>
+        <v>340087121.2350523</v>
       </c>
       <c r="O17" s="3">
-        <v>368125984.8864154</v>
+        <v>368134517.9100609</v>
       </c>
       <c r="P17" s="4">
         <v>0.8529411764705882</v>
@@ -2125,52 +2125,52 @@
         <v>0.8235294117647058</v>
       </c>
       <c r="U17" s="5">
-        <v>8304.621159553666</v>
+        <v>8324.135476135261</v>
       </c>
       <c r="V17" s="5">
-        <v>7985.638879908267</v>
+        <v>8000.55882032885</v>
       </c>
       <c r="W17" s="5">
-        <v>7649.770772285595</v>
+        <v>7662.001818527897</v>
       </c>
       <c r="X17" s="5">
-        <v>7469.51493087464</v>
+        <v>7473.536191105931</v>
       </c>
       <c r="Y17" s="5">
-        <v>7089.241486831043</v>
+        <v>7089.135998062501</v>
       </c>
       <c r="Z17" s="5">
-        <v>7438.165844365504</v>
+        <v>7438.338258288008</v>
       </c>
       <c r="AA17" s="5">
-        <v>-318.9822796453991</v>
+        <v>-323.5766558064115</v>
       </c>
       <c r="AB17" s="5">
-        <v>-654.8503872680712</v>
+        <v>-662.1336576073645</v>
       </c>
       <c r="AC17" s="5">
-        <v>-835.1062286790266</v>
+        <v>-850.5992850293305</v>
       </c>
       <c r="AD17" s="5">
-        <v>-1215.379672722623</v>
+        <v>-1234.99947807276</v>
       </c>
       <c r="AE17" s="5">
-        <v>-866.4553151881619</v>
+        <v>-885.7972178472537</v>
       </c>
       <c r="AF17" s="4">
-        <v>-0.03841021444770432</v>
+        <v>-0.03887210350361114</v>
       </c>
       <c r="AG17" s="4">
-        <v>-0.07885373392556616</v>
+        <v>-0.07954383485295946</v>
       </c>
       <c r="AH17" s="4">
-        <v>-0.1005592202984862</v>
+        <v>-0.1021846998367508</v>
       </c>
       <c r="AI17" s="4">
-        <v>-0.1463498032447206</v>
+        <v>-0.1483636927358307</v>
       </c>
       <c r="AJ17" s="4">
-        <v>-0.1043341169381807</v>
+        <v>-0.106413118862226</v>
       </c>
     </row>
     <row r="18" spans="1:36">
@@ -2200,22 +2200,22 @@
         <v>4705</v>
       </c>
       <c r="J18" s="3">
-        <v>71979595.47515632</v>
+        <v>72148734.14945953</v>
       </c>
       <c r="K18" s="3">
-        <v>70131995.48462999</v>
+        <v>70263026.35265984</v>
       </c>
       <c r="L18" s="3">
-        <v>69564223.95855649</v>
+        <v>69675448.62990604</v>
       </c>
       <c r="M18" s="3">
-        <v>68861562.7396532</v>
+        <v>68898634.7940332</v>
       </c>
       <c r="N18" s="3">
-        <v>66065191.0852181</v>
+        <v>66064208.02720491</v>
       </c>
       <c r="O18" s="3">
-        <v>63466606.16401584</v>
+        <v>63468077.29638176</v>
       </c>
       <c r="P18" s="4">
         <v>0.6031746031746031</v>
@@ -2224,7 +2224,7 @@
         <v>0.7301587301587301</v>
       </c>
       <c r="R18" s="4">
-        <v>0.7777777777777778</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="S18" s="4">
         <v>0.746031746031746</v>
@@ -2233,52 +2233,52 @@
         <v>0.6507936507936508</v>
       </c>
       <c r="U18" s="5">
-        <v>15109.06706027631</v>
+        <v>15144.57056033995</v>
       </c>
       <c r="V18" s="5">
-        <v>14733.61249677101</v>
+        <v>14761.13999005459</v>
       </c>
       <c r="W18" s="5">
-        <v>13821.62208594407</v>
+        <v>13843.72116628374</v>
       </c>
       <c r="X18" s="5">
-        <v>13562.09999796222</v>
+        <v>13569.40123959295</v>
       </c>
       <c r="Y18" s="5">
-        <v>12960.31213049889</v>
+        <v>12960.11927949091</v>
       </c>
       <c r="Z18" s="5">
-        <v>13489.1830316718</v>
+        <v>13489.49570592599</v>
       </c>
       <c r="AA18" s="5">
-        <v>-375.4545635053</v>
+        <v>-383.4305702853635</v>
       </c>
       <c r="AB18" s="5">
-        <v>-1287.444974332238</v>
+        <v>-1300.849394056215</v>
       </c>
       <c r="AC18" s="5">
-        <v>-1546.967062314081</v>
+        <v>-1575.169320747002</v>
       </c>
       <c r="AD18" s="5">
-        <v>-2148.754929777413</v>
+        <v>-2184.451280849042</v>
       </c>
       <c r="AE18" s="5">
-        <v>-1619.884028604502</v>
+        <v>-1655.074854413964</v>
       </c>
       <c r="AF18" s="4">
-        <v>-0.02484961923906071</v>
+        <v>-0.02531802197742583</v>
       </c>
       <c r="AG18" s="4">
-        <v>-0.08521009068237562</v>
+        <v>-0.08589542957809793</v>
       </c>
       <c r="AH18" s="4">
-        <v>-0.102386669947429</v>
+        <v>-0.1040088468980426</v>
       </c>
       <c r="AI18" s="4">
-        <v>-0.1422162547300335</v>
+        <v>-0.1442398958851697</v>
       </c>
       <c r="AJ18" s="4">
-        <v>-0.1072127102316851</v>
+        <v>-0.1092850304219397</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -2308,85 +2308,85 @@
         <v>606630</v>
       </c>
       <c r="J19" s="3">
-        <v>4292403846.364044</v>
+        <v>4302490197.799547</v>
       </c>
       <c r="K19" s="3">
-        <v>4190381361.75422</v>
+        <v>4198210446.088875</v>
       </c>
       <c r="L19" s="3">
-        <v>4172136493.593214</v>
+        <v>4178807228.691202</v>
       </c>
       <c r="M19" s="3">
-        <v>4154481255.235971</v>
+        <v>4156717846.287461</v>
       </c>
       <c r="N19" s="3">
-        <v>3995029965.938258</v>
+        <v>3994970519.410413</v>
       </c>
       <c r="O19" s="3">
-        <v>4027144399.057446</v>
+        <v>4027237746.769351</v>
       </c>
       <c r="P19" s="4">
-        <v>0.769576379974326</v>
+        <v>0.7734274711168164</v>
       </c>
       <c r="Q19" s="4">
-        <v>0.7406931964056482</v>
+        <v>0.7445442875481386</v>
       </c>
       <c r="R19" s="4">
-        <v>0.6983311938382541</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="S19" s="4">
-        <v>0.7836970474967908</v>
+        <v>0.7933247753530167</v>
       </c>
       <c r="T19" s="4">
-        <v>0.6367137355584083</v>
+        <v>0.6463414634146342</v>
       </c>
       <c r="U19" s="5">
-        <v>6887.550057386642</v>
+        <v>6903.734520194648</v>
       </c>
       <c r="V19" s="5">
-        <v>6653.965516467813</v>
+        <v>6666.397429625831</v>
       </c>
       <c r="W19" s="5">
-        <v>6604.000091163266</v>
+        <v>6614.559078210523</v>
       </c>
       <c r="X19" s="5">
-        <v>6616.801536047709</v>
+        <v>6620.363732672464</v>
       </c>
       <c r="Y19" s="5">
-        <v>6428.701831865779</v>
+        <v>6428.606172006977</v>
       </c>
       <c r="Z19" s="5">
-        <v>6638.551339461362</v>
+        <v>6638.705218616538</v>
       </c>
       <c r="AA19" s="5">
-        <v>-233.5845409188287</v>
+        <v>-237.3370905688171</v>
       </c>
       <c r="AB19" s="5">
-        <v>-283.549966223376</v>
+        <v>-289.1754419841254</v>
       </c>
       <c r="AC19" s="5">
-        <v>-270.7485213389327</v>
+        <v>-283.3707875221844</v>
       </c>
       <c r="AD19" s="5">
-        <v>-458.8482255208628</v>
+        <v>-475.1283481876717</v>
       </c>
       <c r="AE19" s="5">
-        <v>-248.9987179252803</v>
+        <v>-265.0293015781099</v>
       </c>
       <c r="AF19" s="4">
-        <v>-0.03391402443141855</v>
+        <v>-0.03437807318264685</v>
       </c>
       <c r="AG19" s="4">
-        <v>-0.04116847991823724</v>
+        <v>-0.04188681374381298</v>
       </c>
       <c r="AH19" s="4">
-        <v>-0.03930984444150287</v>
+        <v>-0.04104601454376244</v>
       </c>
       <c r="AI19" s="4">
-        <v>-0.06661994783308545</v>
+        <v>-0.06882193207137921</v>
       </c>
       <c r="AJ19" s="4">
-        <v>-0.03615200119790618</v>
+        <v>-0.03838926609979743</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -2416,85 +2416,85 @@
         <v>429691.5</v>
       </c>
       <c r="J20" s="3">
-        <v>3237033382.073129</v>
+        <v>3244639809.023779</v>
       </c>
       <c r="K20" s="3">
-        <v>3172155622.60884</v>
+        <v>3178082308.451501</v>
       </c>
       <c r="L20" s="3">
-        <v>3107785516.775548</v>
+        <v>3112754485.062096</v>
       </c>
       <c r="M20" s="3">
-        <v>3143834205.098871</v>
+        <v>3145526707.969503</v>
       </c>
       <c r="N20" s="3">
-        <v>3072058627.852653</v>
+        <v>3072012915.249669</v>
       </c>
       <c r="O20" s="3">
-        <v>3258884641.731558</v>
+        <v>3258960181.46754</v>
       </c>
       <c r="P20" s="4">
         <v>0.7702349869451697</v>
       </c>
       <c r="Q20" s="4">
-        <v>0.8929503916449086</v>
+        <v>0.8955613577023499</v>
       </c>
       <c r="R20" s="4">
-        <v>0.8851174934725848</v>
+        <v>0.8877284595300261</v>
       </c>
       <c r="S20" s="4">
         <v>0.9451697127937336</v>
       </c>
       <c r="T20" s="4">
-        <v>0.8381201044386423</v>
+        <v>0.8433420365535248</v>
       </c>
       <c r="U20" s="5">
-        <v>8222.09167670553</v>
+        <v>8241.412064337848</v>
       </c>
       <c r="V20" s="5">
-        <v>7922.634777733392</v>
+        <v>7937.437004660441</v>
       </c>
       <c r="W20" s="5">
-        <v>7648.446251130359</v>
+        <v>7660.675179625614</v>
       </c>
       <c r="X20" s="5">
-        <v>7573.560532294414</v>
+        <v>7577.637806128074</v>
       </c>
       <c r="Y20" s="5">
-        <v>7280.872616436997</v>
+        <v>7280.764276174127</v>
       </c>
       <c r="Z20" s="5">
-        <v>7584.242745624613</v>
+        <v>7584.418545555451</v>
       </c>
       <c r="AA20" s="5">
-        <v>-299.4568989721374</v>
+        <v>-303.9750596774074</v>
       </c>
       <c r="AB20" s="5">
-        <v>-573.6454255751705</v>
+        <v>-580.7368847122343</v>
       </c>
       <c r="AC20" s="5">
-        <v>-648.5311444111157</v>
+        <v>-663.7742582097744</v>
       </c>
       <c r="AD20" s="5">
-        <v>-941.2190602685323</v>
+        <v>-960.6477881637211</v>
       </c>
       <c r="AE20" s="5">
-        <v>-637.8489310809164</v>
+        <v>-656.9935187823976</v>
       </c>
       <c r="AF20" s="4">
-        <v>-0.03642101192091374</v>
+        <v>-0.03688385646833081</v>
       </c>
       <c r="AG20" s="4">
-        <v>-0.06976879462441388</v>
+        <v>-0.07046570177278144</v>
       </c>
       <c r="AH20" s="4">
-        <v>-0.07887666179258324</v>
+        <v>-0.08054132629553268</v>
       </c>
       <c r="AI20" s="4">
-        <v>-0.1144744059392031</v>
+        <v>-0.11656349429737</v>
       </c>
       <c r="AJ20" s="4">
-        <v>-0.07757745305711461</v>
+        <v>-0.07971856201989136</v>
       </c>
     </row>
     <row r="21" spans="1:36">
@@ -2524,31 +2524,31 @@
         <v>12296.5</v>
       </c>
       <c r="J21" s="3">
-        <v>329090037.0623891</v>
+        <v>329863337.4988208</v>
       </c>
       <c r="K21" s="3">
-        <v>328940402.8034922</v>
+        <v>329554977.4525034</v>
       </c>
       <c r="L21" s="3">
-        <v>345806969.1952009</v>
+        <v>346359872.1719097</v>
       </c>
       <c r="M21" s="3">
-        <v>365560320.9749157</v>
+        <v>365757122.667459</v>
       </c>
       <c r="N21" s="3">
-        <v>371159577.6591815</v>
+        <v>371154054.759891</v>
       </c>
       <c r="O21" s="3">
-        <v>386357251.0871485</v>
+        <v>386366206.7047752</v>
       </c>
       <c r="P21" s="4">
         <v>0.6593406593406593</v>
       </c>
       <c r="Q21" s="4">
-        <v>0.6373626373626373</v>
+        <v>0.6483516483516484</v>
       </c>
       <c r="R21" s="4">
-        <v>0.6813186813186813</v>
+        <v>0.7032967032967034</v>
       </c>
       <c r="S21" s="4">
         <v>0.7692307692307693</v>
@@ -2557,52 +2557,52 @@
         <v>0.7252747252747253</v>
       </c>
       <c r="U21" s="5">
-        <v>34198.27881766488</v>
+        <v>34278.63841825011</v>
       </c>
       <c r="V21" s="5">
-        <v>33155.97246280539</v>
+        <v>33217.91930778182</v>
       </c>
       <c r="W21" s="5">
-        <v>33273.06544743586</v>
+        <v>33326.26500258921</v>
       </c>
       <c r="X21" s="5">
-        <v>33027.08776933783</v>
+        <v>33044.86810927036</v>
       </c>
       <c r="Y21" s="5">
-        <v>31793.69347774383</v>
+        <v>31793.22038374944</v>
       </c>
       <c r="Z21" s="5">
-        <v>31420.09930363506</v>
+        <v>31420.82760987071</v>
       </c>
       <c r="AA21" s="5">
-        <v>-1042.306354859487</v>
+        <v>-1060.719110468286</v>
       </c>
       <c r="AB21" s="5">
-        <v>-925.2133702290157</v>
+        <v>-952.3734156608916</v>
       </c>
       <c r="AC21" s="5">
-        <v>-1171.191048327048</v>
+        <v>-1233.770308979743</v>
       </c>
       <c r="AD21" s="5">
-        <v>-2404.585339921046</v>
+        <v>-2485.418034500664</v>
       </c>
       <c r="AE21" s="5">
-        <v>-2778.179514029813</v>
+        <v>-2857.810808379392</v>
       </c>
       <c r="AF21" s="4">
-        <v>-0.03047832788359783</v>
+        <v>-0.03094402693379894</v>
       </c>
       <c r="AG21" s="4">
-        <v>-0.02705438408646177</v>
+        <v>-0.02778329185776074</v>
       </c>
       <c r="AH21" s="4">
-        <v>-0.0342470758417841</v>
+        <v>-0.03599239543665411</v>
       </c>
       <c r="AI21" s="4">
-        <v>-0.07031305150594236</v>
+        <v>-0.07250632315598093</v>
       </c>
       <c r="AJ21" s="4">
-        <v>-0.08123740755615938</v>
+        <v>-0.08337002110497715</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -2634,22 +2634,22 @@
         <v>1516</v>
       </c>
       <c r="J22" s="3">
-        <v>11855212.70801497</v>
+        <v>11883070.25497365</v>
       </c>
       <c r="K22" s="3">
-        <v>11783291.13088659</v>
+        <v>11805306.40158379</v>
       </c>
       <c r="L22" s="3">
-        <v>11583935.7228815</v>
+        <v>11602457.01687997</v>
       </c>
       <c r="M22" s="3">
-        <v>11279630.85415295</v>
+        <v>11285703.31419851</v>
       </c>
       <c r="N22" s="3">
-        <v>11719196.03668693</v>
+        <v>11719021.65363614</v>
       </c>
       <c r="O22" s="3">
-        <v>11589393.8206192</v>
+        <v>11589662.45846486</v>
       </c>
       <c r="P22" s="4">
         <v>1</v>
@@ -2667,52 +2667,52 @@
         <v>1</v>
       </c>
       <c r="U22" s="5">
-        <v>8425.879678759751</v>
+        <v>8445.678930329534</v>
       </c>
       <c r="V22" s="5">
-        <v>7866.015441179302</v>
+        <v>7880.711883567283</v>
       </c>
       <c r="W22" s="5">
-        <v>7631.051200844205</v>
+        <v>7643.252316785227</v>
       </c>
       <c r="X22" s="5">
-        <v>7286.583239116892</v>
+        <v>7290.506016924102</v>
       </c>
       <c r="Y22" s="5">
-        <v>8127.043021280808</v>
+        <v>8126.922089900237</v>
       </c>
       <c r="Z22" s="5">
-        <v>7644.718879036413</v>
+        <v>7644.896080781568</v>
       </c>
       <c r="AA22" s="5">
-        <v>-559.8642375804493</v>
+        <v>-564.9670467622509</v>
       </c>
       <c r="AB22" s="5">
-        <v>-794.8284779155465</v>
+        <v>-802.4266135443067</v>
       </c>
       <c r="AC22" s="5">
-        <v>-1139.296439642859</v>
+        <v>-1155.172913405431</v>
       </c>
       <c r="AD22" s="5">
-        <v>-298.8366574789434</v>
+        <v>-318.756840429297</v>
       </c>
       <c r="AE22" s="5">
-        <v>-781.1607997233377</v>
+        <v>-800.7828495479653</v>
       </c>
       <c r="AF22" s="4">
-        <v>-0.06644579069788692</v>
+        <v>-0.06689421317371902</v>
       </c>
       <c r="AG22" s="4">
-        <v>-0.09433180964109633</v>
+        <v>-0.09501031476139687</v>
       </c>
       <c r="AH22" s="4">
-        <v>-0.1352139459711057</v>
+        <v>-0.1367767970976324</v>
       </c>
       <c r="AI22" s="4">
-        <v>-0.03546652324412625</v>
+        <v>-0.03774200310700893</v>
       </c>
       <c r="AJ22" s="4">
-        <v>-0.09270970266671563</v>
+        <v>-0.09481568695114018</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -2742,22 +2742,22 @@
         <v>1700.5</v>
       </c>
       <c r="J23" s="3">
-        <v>13410495.36298157</v>
+        <v>13442007.5351808</v>
       </c>
       <c r="K23" s="3">
-        <v>12013542.44433575</v>
+        <v>12035987.90426765</v>
       </c>
       <c r="L23" s="3">
-        <v>13412819.16827331</v>
+        <v>13434264.6228327</v>
       </c>
       <c r="M23" s="3">
-        <v>13746529.49641751</v>
+        <v>13753930.02682595</v>
       </c>
       <c r="N23" s="3">
-        <v>13556799.56701726</v>
+        <v>13556597.84020426</v>
       </c>
       <c r="O23" s="3">
-        <v>13380952.10857645</v>
+        <v>13381262.27407802</v>
       </c>
       <c r="P23" s="4">
         <v>0.8518518518518519</v>
@@ -2775,52 +2775,52 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="U23" s="5">
-        <v>8805.315405765967</v>
+        <v>8826.006260788443</v>
       </c>
       <c r="V23" s="5">
-        <v>7508.464027709841</v>
+        <v>7522.492440167279</v>
       </c>
       <c r="W23" s="5">
-        <v>7367.656780155625</v>
+        <v>7379.436760688108</v>
       </c>
       <c r="X23" s="5">
-        <v>7470.939943705167</v>
+        <v>7474.961971101057</v>
       </c>
       <c r="Y23" s="5">
-        <v>7040.664537531686</v>
+        <v>7040.559771594007</v>
       </c>
       <c r="Z23" s="5">
-        <v>7868.833936240196</v>
+        <v>7869.016332889164</v>
       </c>
       <c r="AA23" s="5">
-        <v>-1296.851378056126</v>
+        <v>-1303.513820621164</v>
       </c>
       <c r="AB23" s="5">
-        <v>-1437.658625610342</v>
+        <v>-1446.569500100335</v>
       </c>
       <c r="AC23" s="5">
-        <v>-1334.3754620608</v>
+        <v>-1351.044289687386</v>
       </c>
       <c r="AD23" s="5">
-        <v>-1764.650868234281</v>
+        <v>-1785.446489194436</v>
       </c>
       <c r="AE23" s="5">
-        <v>-936.481469525771</v>
+        <v>-956.9899278992789</v>
       </c>
       <c r="AF23" s="4">
-        <v>-0.1472805139049206</v>
+        <v>-0.1476901083123319</v>
       </c>
       <c r="AG23" s="4">
-        <v>-0.1632716784533264</v>
+        <v>-0.1638985354595829</v>
       </c>
       <c r="AH23" s="4">
-        <v>-0.1515420402984103</v>
+        <v>-0.1530753831084065</v>
       </c>
       <c r="AI23" s="4">
-        <v>-0.2004074569638628</v>
+        <v>-0.2022938163013425</v>
       </c>
       <c r="AJ23" s="4">
-        <v>-0.1063541084414236</v>
+        <v>-0.1084284216011636</v>
       </c>
     </row>
     <row r="24" spans="1:36">
@@ -2850,85 +2850,85 @@
         <v>167836.5</v>
       </c>
       <c r="J24" s="3">
-        <v>974674404.6048124</v>
+        <v>976964708.3441408</v>
       </c>
       <c r="K24" s="3">
-        <v>943280044.5390559</v>
+        <v>945042418.5051343</v>
       </c>
       <c r="L24" s="3">
-        <v>958623495.6764722</v>
+        <v>960156217.198933</v>
       </c>
       <c r="M24" s="3">
-        <v>962059455.4724284</v>
+        <v>962577386.2168254</v>
       </c>
       <c r="N24" s="3">
-        <v>946175655.0658728</v>
+        <v>946161575.8579843</v>
       </c>
       <c r="O24" s="3">
-        <v>966665182.910007</v>
+        <v>966687589.8500261</v>
       </c>
       <c r="P24" s="4">
         <v>0.7503782148260212</v>
       </c>
       <c r="Q24" s="4">
-        <v>0.7155824508320726</v>
+        <v>0.7261724659606656</v>
       </c>
       <c r="R24" s="4">
-        <v>0.6928895612708018</v>
+        <v>0.6959152798789713</v>
       </c>
       <c r="S24" s="4">
-        <v>0.7291981845688351</v>
+        <v>0.7413010590015129</v>
       </c>
       <c r="T24" s="4">
-        <v>0.5794251134644478</v>
+        <v>0.5975794251134644</v>
       </c>
       <c r="U24" s="5">
-        <v>5882.109725046619</v>
+        <v>5895.931589901967</v>
       </c>
       <c r="V24" s="5">
-        <v>5618.440910947977</v>
+        <v>5628.938105337628</v>
       </c>
       <c r="W24" s="5">
-        <v>5647.432888606275</v>
+        <v>5656.462441891856</v>
       </c>
       <c r="X24" s="5">
-        <v>5651.576883262371</v>
+        <v>5654.619445138889</v>
       </c>
       <c r="Y24" s="5">
-        <v>5576.30131817839</v>
+        <v>5576.218342142082</v>
       </c>
       <c r="Z24" s="5">
-        <v>5759.56471274131</v>
+        <v>5759.698217312838</v>
       </c>
       <c r="AA24" s="5">
-        <v>-263.6688140986416</v>
+        <v>-266.9934845643384</v>
       </c>
       <c r="AB24" s="5">
-        <v>-234.6768364403442</v>
+        <v>-239.469148010111</v>
       </c>
       <c r="AC24" s="5">
-        <v>-230.5328417842484</v>
+        <v>-241.3121447630774</v>
       </c>
       <c r="AD24" s="5">
-        <v>-305.8084068682292</v>
+        <v>-319.7132477598843</v>
       </c>
       <c r="AE24" s="5">
-        <v>-122.5450123053088</v>
+        <v>-136.2333725891285</v>
       </c>
       <c r="AF24" s="4">
-        <v>-0.04482555178729719</v>
+        <v>-0.04528435930661434</v>
       </c>
       <c r="AG24" s="4">
-        <v>-0.03989671179391074</v>
+        <v>-0.04061599839798902</v>
       </c>
       <c r="AH24" s="4">
-        <v>-0.0391922035732547</v>
+        <v>-0.04092858627742146</v>
       </c>
       <c r="AI24" s="4">
-        <v>-0.05198957876730281</v>
+        <v>-0.05422607825156267</v>
       </c>
       <c r="AJ24" s="4">
-        <v>-0.02083351348981122</v>
+        <v>-0.02310633536224493</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -2958,22 +2958,22 @@
         <v>107668.5</v>
       </c>
       <c r="J25" s="3">
-        <v>695435704.3185866</v>
+        <v>697069848.9996599</v>
       </c>
       <c r="K25" s="3">
-        <v>666155335.5383627</v>
+        <v>667399944.5253893</v>
       </c>
       <c r="L25" s="3">
-        <v>650469995.3136599</v>
+        <v>651510017.1429069</v>
       </c>
       <c r="M25" s="3">
-        <v>658230841.8929814</v>
+        <v>658585204.5968533</v>
       </c>
       <c r="N25" s="3">
-        <v>664810246.7811306</v>
+        <v>664800354.3244581</v>
       </c>
       <c r="O25" s="3">
-        <v>708536438.3600247</v>
+        <v>708552861.971589</v>
       </c>
       <c r="P25" s="4">
         <v>0.7758620689655172</v>
@@ -2982,61 +2982,61 @@
         <v>0.8793103448275862</v>
       </c>
       <c r="R25" s="4">
-        <v>0.896551724137931</v>
+        <v>0.9051724137931034</v>
       </c>
       <c r="S25" s="4">
-        <v>0.9051724137931034</v>
+        <v>0.9137931034482759</v>
       </c>
       <c r="T25" s="4">
-        <v>0.8362068965517241</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="U25" s="5">
-        <v>7072.467246197361</v>
+        <v>7089.086230038238</v>
       </c>
       <c r="V25" s="5">
-        <v>6768.18612782755</v>
+        <v>6780.831444664584</v>
       </c>
       <c r="W25" s="5">
-        <v>6526.956876084046</v>
+        <v>6537.39268046947</v>
       </c>
       <c r="X25" s="5">
-        <v>6441.528806855977</v>
+        <v>6444.996644307199</v>
       </c>
       <c r="Y25" s="5">
-        <v>6313.607540324892</v>
+        <v>6313.513593083042</v>
       </c>
       <c r="Z25" s="5">
-        <v>6580.721737184271</v>
+        <v>6580.874275870742</v>
       </c>
       <c r="AA25" s="5">
-        <v>-304.2811183698113</v>
+        <v>-308.2547853736542</v>
       </c>
       <c r="AB25" s="5">
-        <v>-545.5103701133157</v>
+        <v>-551.6935495687676</v>
       </c>
       <c r="AC25" s="5">
-        <v>-630.9384393413848</v>
+        <v>-644.0895857310388</v>
       </c>
       <c r="AD25" s="5">
-        <v>-758.859705872469</v>
+        <v>-775.5726369551958</v>
       </c>
       <c r="AE25" s="5">
-        <v>-491.7455090130907</v>
+        <v>-508.2119541674956</v>
       </c>
       <c r="AF25" s="4">
-        <v>-0.04302333369354427</v>
+        <v>-0.04348300688846207</v>
       </c>
       <c r="AG25" s="4">
-        <v>-0.07713155128524907</v>
+        <v>-0.07782294243101506</v>
       </c>
       <c r="AH25" s="4">
-        <v>-0.08921051414987047</v>
+        <v>-0.0908565031980948</v>
       </c>
       <c r="AI25" s="4">
-        <v>-0.1072977335144936</v>
+        <v>-0.1094037527247024</v>
       </c>
       <c r="AJ25" s="4">
-        <v>-0.06952955622063661</v>
+        <v>-0.07168934580229447</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -3066,22 +3066,22 @@
         <v>6443.5</v>
       </c>
       <c r="J26" s="3">
-        <v>129455871.6700936</v>
+        <v>129760068.913361</v>
       </c>
       <c r="K26" s="3">
-        <v>131043873.6303796</v>
+        <v>131288708.9925154</v>
       </c>
       <c r="L26" s="3">
-        <v>136530481.411404</v>
+        <v>136748776.923954</v>
       </c>
       <c r="M26" s="3">
-        <v>137579977.2669635</v>
+        <v>137654044.3109852</v>
       </c>
       <c r="N26" s="3">
-        <v>127747224.0577688</v>
+        <v>127745323.1636639</v>
       </c>
       <c r="O26" s="3">
-        <v>146765186.2548126</v>
+        <v>146768588.2173365</v>
       </c>
       <c r="P26" s="4">
         <v>0.7291666666666666</v>
@@ -3099,52 +3099,52 @@
         <v>0.7083333333333334</v>
       </c>
       <c r="U26" s="5">
-        <v>23933.42053431199</v>
+        <v>23989.65962532095</v>
       </c>
       <c r="V26" s="5">
-        <v>23160.81188235765</v>
+        <v>23204.08430408544</v>
       </c>
       <c r="W26" s="5">
-        <v>23692.92519069917</v>
+        <v>23730.80727530656</v>
       </c>
       <c r="X26" s="5">
-        <v>23192.84849409365</v>
+        <v>23205.33450960641</v>
       </c>
       <c r="Y26" s="5">
-        <v>20793.88362623404</v>
+        <v>20793.57421073718</v>
       </c>
       <c r="Z26" s="5">
-        <v>22777.24625666371</v>
+        <v>22777.77422477481</v>
       </c>
       <c r="AA26" s="5">
-        <v>-772.6086519543423</v>
+        <v>-785.5753212355085</v>
       </c>
       <c r="AB26" s="5">
-        <v>-240.4953436128199</v>
+        <v>-258.8523500143892</v>
       </c>
       <c r="AC26" s="5">
-        <v>-740.572040218347</v>
+        <v>-784.3251157145387</v>
       </c>
       <c r="AD26" s="5">
-        <v>-3139.536908077956</v>
+        <v>-3196.085414583762</v>
       </c>
       <c r="AE26" s="5">
-        <v>-1156.174277648282</v>
+        <v>-1211.88540054614</v>
       </c>
       <c r="AF26" s="4">
-        <v>-0.03228158093184785</v>
+        <v>-0.03274641380932053</v>
       </c>
       <c r="AG26" s="4">
-        <v>-0.01004851534982365</v>
+        <v>-0.01079016351449902</v>
       </c>
       <c r="AH26" s="4">
-        <v>-0.0309430087168957</v>
+        <v>-0.03269429945920066</v>
       </c>
       <c r="AI26" s="4">
-        <v>-0.1311779443969148</v>
+        <v>-0.1332276265900126</v>
       </c>
       <c r="AJ26" s="4">
-        <v>-0.04830794144074557</v>
+        <v>-0.05051699021469236</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -3176,22 +3176,22 @@
         <v>523</v>
       </c>
       <c r="J27" s="3">
-        <v>1986661.430818545</v>
+        <v>1991329.716024648</v>
       </c>
       <c r="K27" s="3">
-        <v>1584188.834693291</v>
+        <v>1587148.648351789</v>
       </c>
       <c r="L27" s="3">
-        <v>1985883.992239447</v>
+        <v>1989059.177439626</v>
       </c>
       <c r="M27" s="3">
-        <v>1557847.144342445</v>
+        <v>1558685.821127477</v>
       </c>
       <c r="N27" s="3">
-        <v>3206389.373329322</v>
+        <v>3206341.66186864</v>
       </c>
       <c r="O27" s="3">
-        <v>3939088.810422274</v>
+        <v>3939180.117038328</v>
       </c>
       <c r="P27" s="4">
         <v>1</v>
@@ -3209,52 +3209,52 @@
         <v>0</v>
       </c>
       <c r="U27" s="5">
-        <v>5992.945492665294</v>
+        <v>6007.027800979332</v>
       </c>
       <c r="V27" s="5">
-        <v>5263.085829545818</v>
+        <v>5272.919097514247</v>
       </c>
       <c r="W27" s="5">
-        <v>4921.645581758233</v>
+        <v>4929.514690061032</v>
       </c>
       <c r="X27" s="5">
-        <v>3846.536158870234</v>
+        <v>3848.606965746857</v>
       </c>
       <c r="Y27" s="5">
-        <v>7354.104067269087</v>
+        <v>7353.994637313394</v>
       </c>
       <c r="Z27" s="5">
-        <v>7531.718566772991</v>
+        <v>7531.893149212865</v>
       </c>
       <c r="AA27" s="5">
-        <v>-729.859663119476</v>
+        <v>-734.1087034650845</v>
       </c>
       <c r="AB27" s="5">
-        <v>-1071.299910907062</v>
+        <v>-1077.5131109183</v>
       </c>
       <c r="AC27" s="5">
-        <v>-2146.40933379506</v>
+        <v>-2158.420835232475</v>
       </c>
       <c r="AD27" s="5">
-        <v>1361.158574603793</v>
+        <v>1346.966836334062</v>
       </c>
       <c r="AE27" s="5">
-        <v>1538.773074107697</v>
+        <v>1524.865348233533</v>
       </c>
       <c r="AF27" s="4">
-        <v>-0.1217864677749437</v>
+        <v>-0.1222083079664459</v>
       </c>
       <c r="AG27" s="4">
-        <v>-0.1787601626309158</v>
+        <v>-0.1793754160323068</v>
       </c>
       <c r="AH27" s="4">
-        <v>-0.3581559913104548</v>
+        <v>-0.359315939054017</v>
       </c>
       <c r="AI27" s="4">
-        <v>0.2271268070550116</v>
+        <v>0.2242318299433315</v>
       </c>
       <c r="AJ27" s="4">
-        <v>0.2567640696867652</v>
+        <v>0.2538468937974505</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -3284,22 +3284,22 @@
         <v>7752</v>
       </c>
       <c r="J28" s="3">
-        <v>49467800.37524776</v>
+        <v>49584040.51415008</v>
       </c>
       <c r="K28" s="3">
-        <v>51109940.75074174</v>
+        <v>51205431.82946046</v>
       </c>
       <c r="L28" s="3">
-        <v>48743579.13140161</v>
+        <v>48821514.14254355</v>
       </c>
       <c r="M28" s="3">
-        <v>49928954.42243417</v>
+        <v>49955833.98833194</v>
       </c>
       <c r="N28" s="3">
-        <v>49724756.83596397</v>
+        <v>49724016.92558365</v>
       </c>
       <c r="O28" s="3">
-        <v>53041979.04958358</v>
+        <v>53043208.54296362</v>
       </c>
       <c r="P28" s="4">
         <v>0.5</v>
@@ -3317,52 +3317,52 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="U28" s="5">
-        <v>7359.089612503386</v>
+        <v>7376.382105645654</v>
       </c>
       <c r="V28" s="5">
-        <v>7300.377196220787</v>
+        <v>7314.016830375725</v>
       </c>
       <c r="W28" s="5">
-        <v>6775.587869252379</v>
+        <v>6786.421204134494</v>
       </c>
       <c r="X28" s="5">
-        <v>6723.532779751436</v>
+        <v>6727.152435810927</v>
       </c>
       <c r="Y28" s="5">
-        <v>6519.569534019139</v>
+        <v>6519.472522037976</v>
       </c>
       <c r="Z28" s="5">
-        <v>6842.360558511813</v>
+        <v>6842.519161889012</v>
       </c>
       <c r="AA28" s="5">
-        <v>-58.7124162825985</v>
+        <v>-62.36527526992813</v>
       </c>
       <c r="AB28" s="5">
-        <v>-583.5017432510067</v>
+        <v>-589.9609015111591</v>
       </c>
       <c r="AC28" s="5">
-        <v>-635.5568327519495</v>
+        <v>-649.2296698347263</v>
       </c>
       <c r="AD28" s="5">
-        <v>-839.5200784842473</v>
+        <v>-856.9095836076776</v>
       </c>
       <c r="AE28" s="5">
-        <v>-516.729053991573</v>
+        <v>-533.8629437566415</v>
       </c>
       <c r="AF28" s="4">
-        <v>-0.007978217330421367</v>
+        <v>-0.008454724060755425</v>
       </c>
       <c r="AG28" s="4">
-        <v>-0.07928993584472921</v>
+        <v>-0.07997970997999426</v>
       </c>
       <c r="AH28" s="4">
-        <v>-0.08636351318131974</v>
+        <v>-0.0880146473618586</v>
       </c>
       <c r="AI28" s="4">
-        <v>-0.1140793389793582</v>
+        <v>-0.1161693593600345</v>
       </c>
       <c r="AJ28" s="4">
-        <v>-0.07021643724974214</v>
+        <v>-0.07237463245674858</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -3392,22 +3392,22 @@
         <v>2871</v>
       </c>
       <c r="J29" s="3">
-        <v>26665360.47118218</v>
+        <v>26728019.11340071</v>
       </c>
       <c r="K29" s="3">
-        <v>25871472.83810258</v>
+        <v>25919809.71372922</v>
       </c>
       <c r="L29" s="3">
-        <v>26933287.36404993</v>
+        <v>26976350.39077491</v>
       </c>
       <c r="M29" s="3">
-        <v>27590106.51136778</v>
+        <v>27604959.81832519</v>
       </c>
       <c r="N29" s="3">
-        <v>26615101.48558945</v>
+        <v>26614705.44966861</v>
       </c>
       <c r="O29" s="3">
-        <v>25743412.04709447</v>
+        <v>25744008.76982726</v>
       </c>
       <c r="P29" s="4">
         <v>0.54</v>
@@ -3422,55 +3422,55 @@
         <v>0.8</v>
       </c>
       <c r="T29" s="4">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="U29" s="5">
-        <v>10385.72949218391</v>
+        <v>10410.13402664098</v>
       </c>
       <c r="V29" s="5">
-        <v>9865.194599848459</v>
+        <v>9883.626201612666</v>
       </c>
       <c r="W29" s="5">
-        <v>8726.158225838306</v>
+        <v>8740.110283743692</v>
       </c>
       <c r="X29" s="5">
-        <v>8946.208337019385</v>
+        <v>8951.024584411542</v>
       </c>
       <c r="Y29" s="5">
-        <v>8306.835669659627</v>
+        <v>8306.712062942761</v>
       </c>
       <c r="Z29" s="5">
-        <v>8966.705693867805</v>
+        <v>8966.913538776475</v>
       </c>
       <c r="AA29" s="5">
-        <v>-520.5348923354468</v>
+        <v>-526.5078250283095</v>
       </c>
       <c r="AB29" s="5">
-        <v>-1659.5712663456</v>
+        <v>-1670.023742897283</v>
       </c>
       <c r="AC29" s="5">
-        <v>-1439.521155164521</v>
+        <v>-1459.109442229434</v>
       </c>
       <c r="AD29" s="5">
-        <v>-2078.893822524278</v>
+        <v>-2103.421963698214</v>
       </c>
       <c r="AE29" s="5">
-        <v>-1419.023798316101</v>
+        <v>-1443.220487864501</v>
       </c>
       <c r="AF29" s="4">
-        <v>-0.050120205107132</v>
+        <v>-0.05057646939807914</v>
       </c>
       <c r="AG29" s="4">
-        <v>-0.1597934230421233</v>
+        <v>-0.1604228858748082</v>
       </c>
       <c r="AH29" s="4">
-        <v>-0.1386056854502012</v>
+        <v>-0.1401624069868237</v>
       </c>
       <c r="AI29" s="4">
-        <v>-0.2001683005598029</v>
+        <v>-0.2020552241032888</v>
       </c>
       <c r="AJ29" s="4">
-        <v>-0.1366320776392289</v>
+        <v>-0.1386361101760168</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -3482,103 +3482,103 @@
         <v>2243</v>
       </c>
       <c r="D30" s="2">
-        <v>569162</v>
+        <v>568994</v>
       </c>
       <c r="E30" s="2">
-        <v>578885</v>
+        <v>578716</v>
       </c>
       <c r="F30" s="2">
-        <v>587092.5</v>
+        <v>586926.5</v>
       </c>
       <c r="G30" s="2">
-        <v>590842</v>
+        <v>590681</v>
       </c>
       <c r="H30" s="2">
-        <v>591161.5</v>
+        <v>590989.5</v>
       </c>
       <c r="I30" s="2">
-        <v>586846</v>
+        <v>586668</v>
       </c>
       <c r="J30" s="3">
-        <v>3258331526.169236</v>
+        <v>3265193975.446888</v>
       </c>
       <c r="K30" s="3">
-        <v>3192785014.734811</v>
+        <v>3197985410.709594</v>
       </c>
       <c r="L30" s="3">
-        <v>3211681837.576297</v>
+        <v>3216057809.629626</v>
       </c>
       <c r="M30" s="3">
-        <v>3223462148.23784</v>
+        <v>3224975077.121954</v>
       </c>
       <c r="N30" s="3">
-        <v>3182426369.792869</v>
+        <v>3181848366.984917</v>
       </c>
       <c r="O30" s="3">
-        <v>3266040133.797144</v>
+        <v>3265392244.220932</v>
       </c>
       <c r="P30" s="4">
-        <v>0.7703967900133749</v>
+        <v>0.7721801159161836</v>
       </c>
       <c r="Q30" s="4">
-        <v>0.7779759251003121</v>
+        <v>0.7784217565760143</v>
       </c>
       <c r="R30" s="4">
-        <v>0.7588051716451182</v>
+        <v>0.7690592955862684</v>
       </c>
       <c r="S30" s="4">
-        <v>0.8082924654480607</v>
+        <v>0.814088274632189</v>
       </c>
       <c r="T30" s="4">
-        <v>0.6584930896121266</v>
+        <v>0.664288898796255</v>
       </c>
       <c r="U30" s="5">
-        <v>5724.787540575857</v>
+        <v>5738.538500312637</v>
       </c>
       <c r="V30" s="5">
-        <v>5515.404639496292</v>
+        <v>5526.001373229</v>
       </c>
       <c r="W30" s="5">
-        <v>5470.486912328632</v>
+        <v>5479.489867350727</v>
       </c>
       <c r="X30" s="5">
-        <v>5455.70922215726</v>
+        <v>5459.757596946497</v>
       </c>
       <c r="Y30" s="5">
-        <v>5383.345109234734</v>
+        <v>5383.933838054511</v>
       </c>
       <c r="Z30" s="5">
-        <v>5565.412618978648</v>
+        <v>5565.996857201914</v>
       </c>
       <c r="AA30" s="5">
-        <v>-209.3829010795653</v>
+        <v>-212.5371270836367</v>
       </c>
       <c r="AB30" s="5">
-        <v>-254.3006282472252</v>
+        <v>-259.0486329619098</v>
       </c>
       <c r="AC30" s="5">
-        <v>-269.0783184185966</v>
+        <v>-278.7809033661397</v>
       </c>
       <c r="AD30" s="5">
-        <v>-341.4424313411228</v>
+        <v>-354.6046622581252</v>
       </c>
       <c r="AE30" s="5">
-        <v>-159.3749215972084</v>
+        <v>-172.5416431107224</v>
       </c>
       <c r="AF30" s="4">
-        <v>-0.03657478982329243</v>
+        <v>-0.0370368042441569</v>
       </c>
       <c r="AG30" s="4">
-        <v>-0.04442097220985164</v>
+        <v>-0.04514191774574605</v>
       </c>
       <c r="AH30" s="4">
-        <v>-0.04700232393105197</v>
+        <v>-0.04858047102950547</v>
       </c>
       <c r="AI30" s="4">
-        <v>-0.05964281275437111</v>
+        <v>-0.06179354939220261</v>
       </c>
       <c r="AJ30" s="4">
-        <v>-0.02783944739740973</v>
+        <v>-0.03006717530976266</v>
       </c>
     </row>
     <row r="31" spans="1:36">
@@ -3608,22 +3608,22 @@
         <v>361801</v>
       </c>
       <c r="J31" s="3">
-        <v>2318376591.468363</v>
+        <v>2323824345.663533</v>
       </c>
       <c r="K31" s="3">
-        <v>2235120961.770825</v>
+        <v>2239296942.18816</v>
       </c>
       <c r="L31" s="3">
-        <v>2218888520.614648</v>
+        <v>2222436251.508817</v>
       </c>
       <c r="M31" s="3">
-        <v>2230332159.299506</v>
+        <v>2231532872.611918</v>
       </c>
       <c r="N31" s="3">
-        <v>2223063669.610906</v>
+        <v>2223030590.15532</v>
       </c>
       <c r="O31" s="3">
-        <v>2364298827.255079</v>
+        <v>2364353630.82404</v>
       </c>
       <c r="P31" s="4">
         <v>0.8184357541899442</v>
@@ -3632,61 +3632,61 @@
         <v>0.8603351955307262</v>
       </c>
       <c r="R31" s="4">
-        <v>0.8798882681564246</v>
+        <v>0.88268156424581</v>
       </c>
       <c r="S31" s="4">
-        <v>0.9245810055865922</v>
+        <v>0.9329608938547486</v>
       </c>
       <c r="T31" s="4">
-        <v>0.7821229050279329</v>
+        <v>0.7905027932960894</v>
       </c>
       <c r="U31" s="5">
-        <v>6957.129949265503</v>
+        <v>6973.477911890268</v>
       </c>
       <c r="V31" s="5">
-        <v>6654.393557856076</v>
+        <v>6666.82627074372</v>
       </c>
       <c r="W31" s="5">
-        <v>6525.528540298114</v>
+        <v>6535.962060949607</v>
       </c>
       <c r="X31" s="5">
-        <v>6439.383987953234</v>
+        <v>6442.850670727739</v>
       </c>
       <c r="Y31" s="5">
-        <v>6275.993725910686</v>
+        <v>6275.900338366932</v>
       </c>
       <c r="Z31" s="5">
-        <v>6534.80456730379</v>
+        <v>6534.956041647314</v>
       </c>
       <c r="AA31" s="5">
-        <v>-302.7363914094267</v>
+        <v>-306.6516411465482</v>
       </c>
       <c r="AB31" s="5">
-        <v>-431.6014089673881</v>
+        <v>-437.515850940661</v>
       </c>
       <c r="AC31" s="5">
-        <v>-517.7459613122683</v>
+        <v>-530.6272411625287</v>
       </c>
       <c r="AD31" s="5">
-        <v>-681.1362233548161</v>
+        <v>-697.5775735233356</v>
       </c>
       <c r="AE31" s="5">
-        <v>-422.3253819617121</v>
+        <v>-438.5218702429538</v>
       </c>
       <c r="AF31" s="4">
-        <v>-0.04351455177883923</v>
+        <v>-0.043973989022563</v>
       </c>
       <c r="AG31" s="4">
-        <v>-0.06203727860695696</v>
+        <v>-0.0627399780236868</v>
       </c>
       <c r="AH31" s="4">
-        <v>-0.07441947542850325</v>
+        <v>-0.07609219500900288</v>
       </c>
       <c r="AI31" s="4">
-        <v>-0.09790477227275696</v>
+        <v>-0.1000329508944048</v>
       </c>
       <c r="AJ31" s="4">
-        <v>-0.06070396629666219</v>
+        <v>-0.06288424166300766</v>
       </c>
     </row>
     <row r="32" spans="1:36">
@@ -3716,22 +3716,22 @@
         <v>14785</v>
       </c>
       <c r="J32" s="3">
-        <v>291147091.8521196</v>
+        <v>291831233.4177678</v>
       </c>
       <c r="K32" s="3">
-        <v>293716143.6567181</v>
+        <v>294264907.1845739</v>
       </c>
       <c r="L32" s="3">
-        <v>303820566.5281953</v>
+        <v>304306338.3910635</v>
       </c>
       <c r="M32" s="3">
-        <v>314487487.7648633</v>
+        <v>314656794.0771863</v>
       </c>
       <c r="N32" s="3">
-        <v>317037283.2624312</v>
+        <v>317032565.7094103</v>
       </c>
       <c r="O32" s="3">
-        <v>330797416.4134751</v>
+        <v>330805084.1747635</v>
       </c>
       <c r="P32" s="4">
         <v>0.711864406779661</v>
@@ -3743,58 +3743,58 @@
         <v>0.847457627118644</v>
       </c>
       <c r="S32" s="4">
-        <v>0.9067796610169492</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="T32" s="4">
         <v>0.864406779661017</v>
       </c>
       <c r="U32" s="5">
-        <v>25542.57944923627</v>
+        <v>25602.59976468551</v>
       </c>
       <c r="V32" s="5">
-        <v>24682.02887871581</v>
+        <v>24728.14346088857</v>
       </c>
       <c r="W32" s="5">
-        <v>23884.32581488112</v>
+        <v>23922.51392563685</v>
       </c>
       <c r="X32" s="5">
-        <v>23384.5772959708</v>
+        <v>23397.16652988708</v>
       </c>
       <c r="Y32" s="5">
-        <v>22371.46972885236</v>
+        <v>22371.136838684</v>
       </c>
       <c r="Z32" s="5">
-        <v>22373.852987046</v>
+        <v>22374.3716046509</v>
       </c>
       <c r="AA32" s="5">
-        <v>-860.5505705204596</v>
+        <v>-874.4563037969456</v>
       </c>
       <c r="AB32" s="5">
-        <v>-1658.253634355147</v>
+        <v>-1680.085839048668</v>
       </c>
       <c r="AC32" s="5">
-        <v>-2158.002153265465</v>
+        <v>-2205.433234798438</v>
       </c>
       <c r="AD32" s="5">
-        <v>-3171.109720383905</v>
+        <v>-3231.462926001517</v>
       </c>
       <c r="AE32" s="5">
-        <v>-3168.726462190265</v>
+        <v>-3228.228160034618</v>
       </c>
       <c r="AF32" s="4">
-        <v>-0.03369082485309405</v>
+        <v>-0.03415498081578072</v>
       </c>
       <c r="AG32" s="4">
-        <v>-0.06492115009961263</v>
+        <v>-0.0656216889882435</v>
       </c>
       <c r="AH32" s="4">
-        <v>-0.08448646142235994</v>
+        <v>-0.08614098783204283</v>
       </c>
       <c r="AI32" s="4">
-        <v>-0.1241499405604755</v>
+        <v>-0.1262162028740057</v>
       </c>
       <c r="AJ32" s="4">
-        <v>-0.1240566352543933</v>
+        <v>-0.1260898576591982</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -3826,22 +3826,22 @@
         <v>24343</v>
       </c>
       <c r="J33" s="3">
-        <v>105868569.1197331</v>
+        <v>106117340.5849391</v>
       </c>
       <c r="K33" s="3">
-        <v>109183946.5477479</v>
+        <v>109387939.9917132</v>
       </c>
       <c r="L33" s="3">
-        <v>120451511.8290367</v>
+        <v>120644099.0391625</v>
       </c>
       <c r="M33" s="3">
-        <v>124617890.7996914</v>
+        <v>124684979.6231315</v>
       </c>
       <c r="N33" s="3">
-        <v>133267572.2102606</v>
+        <v>133265589.1727092</v>
       </c>
       <c r="O33" s="3">
-        <v>142606566.007077</v>
+        <v>142609871.5743276</v>
       </c>
       <c r="P33" s="4">
         <v>0.7777777777777778</v>
@@ -3859,52 +3859,52 @@
         <v>0.9444444444444444</v>
       </c>
       <c r="U33" s="5">
-        <v>6446.16367520523</v>
+        <v>6461.310962032398</v>
       </c>
       <c r="V33" s="5">
-        <v>6098.639699924473</v>
+        <v>6110.034072038946</v>
       </c>
       <c r="W33" s="5">
-        <v>5955.869849141453</v>
+        <v>5965.392555338334</v>
       </c>
       <c r="X33" s="5">
-        <v>5579.863917419636</v>
+        <v>5582.867872171022</v>
       </c>
       <c r="Y33" s="5">
-        <v>5680.629676481698</v>
+        <v>5680.545148026821</v>
       </c>
       <c r="Z33" s="5">
-        <v>5858.216571789714</v>
+        <v>5858.35236307471</v>
       </c>
       <c r="AA33" s="5">
-        <v>-347.5239752807565</v>
+        <v>-351.2768899934526</v>
       </c>
       <c r="AB33" s="5">
-        <v>-490.2938260637775</v>
+        <v>-495.9184066940643</v>
       </c>
       <c r="AC33" s="5">
-        <v>-866.299757785594</v>
+        <v>-878.4430898613764</v>
       </c>
       <c r="AD33" s="5">
-        <v>-765.533998723532</v>
+        <v>-780.7658140055773</v>
       </c>
       <c r="AE33" s="5">
-        <v>-587.9471034155158</v>
+        <v>-602.958598957689</v>
       </c>
       <c r="AF33" s="4">
-        <v>-0.05391175166983209</v>
+        <v>-0.05436619473317517</v>
       </c>
       <c r="AG33" s="4">
-        <v>-0.07605978544256675</v>
+        <v>-0.07675197952987445</v>
       </c>
       <c r="AH33" s="4">
-        <v>-0.1343899723051964</v>
+        <v>-0.1359543125262405</v>
       </c>
       <c r="AI33" s="4">
-        <v>-0.1187580764770387</v>
+        <v>-0.1208370590106977</v>
       </c>
       <c r="AJ33" s="4">
-        <v>-0.09120883878220742</v>
+        <v>-0.09331830684218134</v>
       </c>
     </row>
     <row r="34" spans="1:36">
@@ -3934,22 +3934,22 @@
         <v>2390.5</v>
       </c>
       <c r="J34" s="3">
-        <v>23707079.11332802</v>
+        <v>23762786.34405583</v>
       </c>
       <c r="K34" s="3">
-        <v>22951315.28589032</v>
+        <v>22994196.29538614</v>
       </c>
       <c r="L34" s="3">
-        <v>24495499.08699616</v>
+        <v>24534664.38893524</v>
       </c>
       <c r="M34" s="3">
-        <v>24798571.59990156</v>
+        <v>24811922.06652362</v>
       </c>
       <c r="N34" s="3">
-        <v>23423856.58602886</v>
+        <v>23423508.03621709</v>
       </c>
       <c r="O34" s="3">
-        <v>23012591.86001635</v>
+        <v>23013125.28335115</v>
       </c>
       <c r="P34" s="4">
         <v>0.6486486486486487</v>
@@ -3958,7 +3958,7 @@
         <v>0.7297297297297297</v>
       </c>
       <c r="R34" s="4">
-        <v>0.7027027027027027</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="S34" s="4">
         <v>0.7567567567567568</v>
@@ -3967,52 +3967,52 @@
         <v>0.7297297297297297</v>
       </c>
       <c r="U34" s="5">
-        <v>11067.73067849114</v>
+        <v>11093.73778900832</v>
       </c>
       <c r="V34" s="5">
-        <v>10166.69558621941</v>
+        <v>10185.69049629508</v>
       </c>
       <c r="W34" s="5">
-        <v>9624.950525342303</v>
+        <v>9640.339642017776</v>
       </c>
       <c r="X34" s="5">
-        <v>9658.645219046373</v>
+        <v>9663.845011304233</v>
       </c>
       <c r="Y34" s="5">
-        <v>8936.992211380717</v>
+        <v>8936.859227858487</v>
       </c>
       <c r="Z34" s="5">
-        <v>9626.685572062896</v>
+        <v>9626.908715060094</v>
       </c>
       <c r="AA34" s="5">
-        <v>-901.035092271728</v>
+        <v>-908.0472927132432</v>
       </c>
       <c r="AB34" s="5">
-        <v>-1442.780153148835</v>
+        <v>-1453.398146990547</v>
       </c>
       <c r="AC34" s="5">
-        <v>-1409.085459444765</v>
+        <v>-1429.89277770409</v>
       </c>
       <c r="AD34" s="5">
-        <v>-2130.738467110421</v>
+        <v>-2156.878561149835</v>
       </c>
       <c r="AE34" s="5">
-        <v>-1441.045106428242</v>
+        <v>-1466.829073948229</v>
       </c>
       <c r="AF34" s="4">
-        <v>-0.08141100632515264</v>
+        <v>-0.08185224042458772</v>
       </c>
       <c r="AG34" s="4">
-        <v>-0.1303591671193004</v>
+        <v>-0.1310106813981644</v>
       </c>
       <c r="AH34" s="4">
-        <v>-0.1273147585876082</v>
+        <v>-0.1288918852148127</v>
       </c>
       <c r="AI34" s="4">
-        <v>-0.1925180986967153</v>
+        <v>-0.1944230702195675</v>
       </c>
       <c r="AJ34" s="4">
-        <v>-0.1302024008615197</v>
+        <v>-0.1322213578368117</v>
       </c>
     </row>
     <row r="35" spans="1:36">
@@ -4021,106 +4021,106 @@
         <v>27</v>
       </c>
       <c r="C35" s="2">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="D35" s="2">
-        <v>595860</v>
+        <v>596352</v>
       </c>
       <c r="E35" s="2">
-        <v>608244.5</v>
+        <v>608734.5</v>
       </c>
       <c r="F35" s="2">
-        <v>615832.5</v>
+        <v>616325.5</v>
       </c>
       <c r="G35" s="2">
-        <v>617973</v>
+        <v>618445.5</v>
       </c>
       <c r="H35" s="2">
-        <v>619295.5</v>
+        <v>619762.5</v>
       </c>
       <c r="I35" s="2">
-        <v>616020</v>
+        <v>616494</v>
       </c>
       <c r="J35" s="3">
-        <v>3191306532.33495</v>
+        <v>3200897263.163402</v>
       </c>
       <c r="K35" s="3">
-        <v>3152052602.156439</v>
+        <v>3160429051.099882</v>
       </c>
       <c r="L35" s="3">
-        <v>3157760131.673932</v>
+        <v>3165638870.812081</v>
       </c>
       <c r="M35" s="3">
-        <v>3187610151.547709</v>
+        <v>3192335666.619686</v>
       </c>
       <c r="N35" s="3">
-        <v>3130203728.358105</v>
+        <v>3132280986.18851</v>
       </c>
       <c r="O35" s="3">
-        <v>3253682206.452011</v>
+        <v>3256368899.085527</v>
       </c>
       <c r="P35" s="4">
-        <v>0.7012635379061372</v>
+        <v>0.7041046459179071</v>
       </c>
       <c r="Q35" s="4">
-        <v>0.7373646209386282</v>
+        <v>0.7401894451962111</v>
       </c>
       <c r="R35" s="4">
-        <v>0.6850180505415162</v>
+        <v>0.6932792061344158</v>
       </c>
       <c r="S35" s="4">
-        <v>0.7378158844765343</v>
+        <v>0.7487595850248083</v>
       </c>
       <c r="T35" s="4">
-        <v>0.5406137184115524</v>
+        <v>0.5489400090211998</v>
       </c>
       <c r="U35" s="5">
-        <v>5355.799235281695</v>
+        <v>5367.462946654663</v>
       </c>
       <c r="V35" s="5">
-        <v>5182.213077399696</v>
+        <v>5191.802092866236</v>
       </c>
       <c r="W35" s="5">
-        <v>5127.628262025684</v>
+        <v>5136.310067995047</v>
       </c>
       <c r="X35" s="5">
-        <v>5158.170586008951</v>
+        <v>5161.870636328806</v>
       </c>
       <c r="Y35" s="5">
-        <v>5054.459023774765</v>
+        <v>5054.002115630601</v>
       </c>
       <c r="Z35" s="5">
-        <v>5281.780147482242</v>
+        <v>5282.077196348265</v>
       </c>
       <c r="AA35" s="5">
-        <v>-173.5861578819986</v>
+        <v>-175.6608537884267</v>
       </c>
       <c r="AB35" s="5">
-        <v>-228.1709732560103</v>
+        <v>-231.1528786596164</v>
       </c>
       <c r="AC35" s="5">
-        <v>-197.6286492727431</v>
+        <v>-205.5923103258574</v>
       </c>
       <c r="AD35" s="5">
-        <v>-301.3402115069293</v>
+        <v>-313.4608310240619</v>
       </c>
       <c r="AE35" s="5">
-        <v>-74.01908779945279</v>
+        <v>-85.38575030639822</v>
       </c>
       <c r="AF35" s="4">
-        <v>-0.032410878424734</v>
+        <v>-0.03272698023894316</v>
       </c>
       <c r="AG35" s="4">
-        <v>-0.04260260014096839</v>
+        <v>-0.04306557510633313</v>
       </c>
       <c r="AH35" s="4">
-        <v>-0.03689993604891884</v>
+        <v>-0.03830344286847764</v>
       </c>
       <c r="AI35" s="4">
-        <v>-0.05626428442683773</v>
+        <v>-0.05840018536493674</v>
       </c>
       <c r="AJ35" s="4">
-        <v>-0.01382036266629394</v>
+        <v>-0.01590802789977641</v>
       </c>
     </row>
     <row r="36" spans="1:36">
@@ -4150,85 +4150,85 @@
         <v>459521</v>
       </c>
       <c r="J36" s="3">
-        <v>2727590236.050763</v>
+        <v>2733999566.271678</v>
       </c>
       <c r="K36" s="3">
-        <v>2674918574.024142</v>
+        <v>2679916248.769338</v>
       </c>
       <c r="L36" s="3">
-        <v>2639968787.076503</v>
+        <v>2644189773.727497</v>
       </c>
       <c r="M36" s="3">
-        <v>2681735624.914314</v>
+        <v>2683179354.114818</v>
       </c>
       <c r="N36" s="3">
-        <v>2676530373.926748</v>
+        <v>2676490546.831897</v>
       </c>
       <c r="O36" s="3">
-        <v>2880906185.746725</v>
+        <v>2880972964.082438</v>
       </c>
       <c r="P36" s="4">
         <v>0.7178217821782178</v>
       </c>
       <c r="Q36" s="4">
+        <v>0.8193069306930693</v>
+      </c>
+      <c r="R36" s="4">
         <v>0.8168316831683168</v>
       </c>
-      <c r="R36" s="4">
-        <v>0.8143564356435643</v>
-      </c>
       <c r="S36" s="4">
-        <v>0.900990099009901</v>
+        <v>0.9034653465346535</v>
       </c>
       <c r="T36" s="4">
-        <v>0.650990099009901</v>
+        <v>0.6584158415841584</v>
       </c>
       <c r="U36" s="5">
-        <v>6459.511831115139</v>
+        <v>6474.69048362838</v>
       </c>
       <c r="V36" s="5">
-        <v>6277.891582849315</v>
+        <v>6289.620859591179</v>
       </c>
       <c r="W36" s="5">
-        <v>6133.65671812146</v>
+        <v>6143.463683740034</v>
       </c>
       <c r="X36" s="5">
-        <v>6106.747972560906</v>
+        <v>6110.035578649365</v>
       </c>
       <c r="Y36" s="5">
-        <v>5955.103885350806</v>
+        <v>5955.01527268659</v>
       </c>
       <c r="Z36" s="5">
-        <v>6269.367854236749</v>
+        <v>6269.513175855812</v>
       </c>
       <c r="AA36" s="5">
-        <v>-181.6202482658246</v>
+        <v>-185.0696240372008</v>
       </c>
       <c r="AB36" s="5">
-        <v>-325.8551129936786</v>
+        <v>-331.2267998883462</v>
       </c>
       <c r="AC36" s="5">
-        <v>-352.7638585542327</v>
+        <v>-364.6549049790156</v>
       </c>
       <c r="AD36" s="5">
-        <v>-504.4079457643329</v>
+        <v>-519.6752109417903</v>
       </c>
       <c r="AE36" s="5">
-        <v>-190.1439768783903</v>
+        <v>-205.1773077725684</v>
       </c>
       <c r="AF36" s="4">
-        <v>-0.02811671423697515</v>
+        <v>-0.02858354766226434</v>
       </c>
       <c r="AG36" s="4">
-        <v>-0.05044578003929823</v>
+        <v>-0.05115716353173516</v>
       </c>
       <c r="AH36" s="4">
-        <v>-0.05461153532608876</v>
+        <v>-0.05632005203971768</v>
       </c>
       <c r="AI36" s="4">
-        <v>-0.07808762627148158</v>
+        <v>-0.08026255652773184</v>
       </c>
       <c r="AJ36" s="4">
-        <v>-0.02943627658710624</v>
+        <v>-0.0316891298960732</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -4258,28 +4258,28 @@
         <v>18270.5</v>
       </c>
       <c r="J37" s="3">
-        <v>368288944.1066452</v>
+        <v>369154354.6907907</v>
       </c>
       <c r="K37" s="3">
-        <v>374581002.2880154</v>
+        <v>375280849.3911545</v>
       </c>
       <c r="L37" s="3">
-        <v>388921140.4175079</v>
+        <v>389542977.6718069</v>
       </c>
       <c r="M37" s="3">
-        <v>404935569.5196617</v>
+        <v>405153569.1243234</v>
       </c>
       <c r="N37" s="3">
-        <v>398422266.8556387</v>
+        <v>398416338.2842437</v>
       </c>
       <c r="O37" s="3">
-        <v>427348706.050714</v>
+        <v>427358611.8350472</v>
       </c>
       <c r="P37" s="4">
         <v>0.7372881355932204</v>
       </c>
       <c r="Q37" s="4">
-        <v>0.8220338983050848</v>
+        <v>0.8389830508474576</v>
       </c>
       <c r="R37" s="4">
         <v>0.788135593220339</v>
@@ -4288,55 +4288,55 @@
         <v>0.8389830508474576</v>
       </c>
       <c r="T37" s="4">
-        <v>0.788135593220339</v>
+        <v>0.7966101694915254</v>
       </c>
       <c r="U37" s="5">
-        <v>25724.78916681069</v>
+        <v>25785.23764123848</v>
       </c>
       <c r="V37" s="5">
-        <v>24847.00356790921</v>
+        <v>24893.42637996448</v>
       </c>
       <c r="W37" s="5">
-        <v>24663.652762858</v>
+        <v>24703.0869219232</v>
       </c>
       <c r="X37" s="5">
-        <v>24215.73792128105</v>
+        <v>24228.77461573516</v>
       </c>
       <c r="Y37" s="5">
-        <v>22674.99099969488</v>
+        <v>22674.65359309338</v>
       </c>
       <c r="Z37" s="5">
-        <v>23390.09365100649</v>
+        <v>23390.63582469266</v>
       </c>
       <c r="AA37" s="5">
-        <v>-877.7855989014715</v>
+        <v>-891.8112612740006</v>
       </c>
       <c r="AB37" s="5">
-        <v>-1061.136403952682</v>
+        <v>-1082.150719315283</v>
       </c>
       <c r="AC37" s="5">
-        <v>-1509.051245529638</v>
+        <v>-1556.463025503315</v>
       </c>
       <c r="AD37" s="5">
-        <v>-3049.798167115809</v>
+        <v>-3110.584048145105</v>
       </c>
       <c r="AE37" s="5">
-        <v>-2334.6955158042</v>
+        <v>-2394.601816545823</v>
       </c>
       <c r="AF37" s="4">
-        <v>-0.03412216882360164</v>
+        <v>-0.03458611759496533</v>
       </c>
       <c r="AG37" s="4">
-        <v>-0.04124956659787615</v>
+        <v>-0.0419678396752331</v>
       </c>
       <c r="AH37" s="4">
-        <v>-0.05866136494819429</v>
+        <v>-0.06036256276397678</v>
       </c>
       <c r="AI37" s="4">
-        <v>-0.1185548362452884</v>
+        <v>-0.1206342982532893</v>
       </c>
       <c r="AJ37" s="4">
-        <v>-0.09075664335536526</v>
+        <v>-0.09286716104241455</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -4368,22 +4368,22 @@
         <v>14555.5</v>
       </c>
       <c r="J38" s="3">
-        <v>90154842.34762533</v>
+        <v>90366689.47480121</v>
       </c>
       <c r="K38" s="3">
-        <v>89252489.60833585</v>
+        <v>89419244.18456587</v>
       </c>
       <c r="L38" s="3">
-        <v>87325411.66342852</v>
+        <v>87465034.29788089</v>
       </c>
       <c r="M38" s="3">
-        <v>89159498.04315002</v>
+        <v>89207497.61836214</v>
       </c>
       <c r="N38" s="3">
-        <v>88847001.52011412</v>
+        <v>88845679.46601336</v>
       </c>
       <c r="O38" s="3">
-        <v>95392653.74006318</v>
+        <v>95394864.90635787</v>
       </c>
       <c r="P38" s="4">
         <v>0.7857142857142857</v>
@@ -4401,52 +4401,52 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="U38" s="5">
-        <v>7328.768227258898</v>
+        <v>7345.989470780085</v>
       </c>
       <c r="V38" s="5">
-        <v>7015.602075800649</v>
+        <v>7028.709651357167</v>
       </c>
       <c r="W38" s="5">
-        <v>6755.272813756364</v>
+        <v>6766.073667353669</v>
       </c>
       <c r="X38" s="5">
-        <v>6580.279570696337</v>
+        <v>6583.822105491874</v>
       </c>
       <c r="Y38" s="5">
-        <v>6293.171945042791</v>
+        <v>6293.078301885065</v>
       </c>
       <c r="Z38" s="5">
-        <v>6553.718782595113</v>
+        <v>6553.870695363118</v>
       </c>
       <c r="AA38" s="5">
-        <v>-313.1661514582493</v>
+        <v>-317.2798194229181</v>
       </c>
       <c r="AB38" s="5">
-        <v>-573.4954135025346</v>
+        <v>-579.9158034264156</v>
       </c>
       <c r="AC38" s="5">
-        <v>-748.4886565625611</v>
+        <v>-762.1673652882109</v>
       </c>
       <c r="AD38" s="5">
-        <v>-1035.596282216107</v>
+        <v>-1052.91116889502</v>
       </c>
       <c r="AE38" s="5">
-        <v>-775.0494446637849</v>
+        <v>-792.1187754169669</v>
       </c>
       <c r="AF38" s="4">
-        <v>-0.04273107591169922</v>
+        <v>-0.04319088948942174</v>
       </c>
       <c r="AG38" s="4">
-        <v>-0.07825263341927691</v>
+        <v>-0.0789431846769082</v>
       </c>
       <c r="AH38" s="4">
-        <v>-0.1021302125203801</v>
+        <v>-0.1037528529437539</v>
       </c>
       <c r="AI38" s="4">
-        <v>-0.1413056396522776</v>
+        <v>-0.1433314290856462</v>
       </c>
       <c r="AJ38" s="4">
-        <v>-0.1057543942761127</v>
+        <v>-0.107830099480506</v>
       </c>
     </row>
     <row r="39" spans="1:36">
@@ -4476,22 +4476,22 @@
         <v>924.5</v>
       </c>
       <c r="J39" s="3">
-        <v>7017977.233101507</v>
+        <v>7034468.175536806</v>
       </c>
       <c r="K39" s="3">
-        <v>7068755.077753031</v>
+        <v>7081961.961534508</v>
       </c>
       <c r="L39" s="3">
-        <v>7228200.451947152</v>
+        <v>7239757.45889652</v>
       </c>
       <c r="M39" s="3">
-        <v>7197006.277213796</v>
+        <v>7200880.830701504</v>
       </c>
       <c r="N39" s="3">
-        <v>7166813.38341323</v>
+        <v>7166706.740365508</v>
       </c>
       <c r="O39" s="3">
-        <v>6383026.702756379</v>
+        <v>6383174.658945349</v>
       </c>
       <c r="P39" s="4">
         <v>0.7272727272727273</v>
@@ -4509,52 +4509,52 @@
         <v>0.8181818181818182</v>
       </c>
       <c r="U39" s="5">
-        <v>8690.993477525086</v>
+        <v>8711.415697259203</v>
       </c>
       <c r="V39" s="5">
-        <v>7176.401094165513</v>
+        <v>7189.809098004576</v>
       </c>
       <c r="W39" s="5">
-        <v>7199.402840584812</v>
+        <v>7210.913803681792</v>
       </c>
       <c r="X39" s="5">
-        <v>7157.639261276774</v>
+        <v>7161.492621284439</v>
       </c>
       <c r="Y39" s="5">
-        <v>6764.33542559059</v>
+        <v>6764.234771463433</v>
       </c>
       <c r="Z39" s="5">
-        <v>6904.301463230264</v>
+        <v>6904.461502374634</v>
       </c>
       <c r="AA39" s="5">
-        <v>-1514.592383359573</v>
+        <v>-1521.606599254626</v>
       </c>
       <c r="AB39" s="5">
-        <v>-1491.590636940274</v>
+        <v>-1500.501893577411</v>
       </c>
       <c r="AC39" s="5">
-        <v>-1533.354216248312</v>
+        <v>-1549.923075974763</v>
       </c>
       <c r="AD39" s="5">
-        <v>-1926.658051934496</v>
+        <v>-1947.180925795769</v>
       </c>
       <c r="AE39" s="5">
-        <v>-1786.692014294822</v>
+        <v>-1806.954194884569</v>
       </c>
       <c r="AF39" s="4">
-        <v>-0.1742714900518921</v>
+        <v>-0.1746681196413754</v>
       </c>
       <c r="AG39" s="4">
-        <v>-0.1716248712874457</v>
+        <v>-0.1722454702798192</v>
       </c>
       <c r="AH39" s="4">
-        <v>-0.1764302573938833</v>
+        <v>-0.1779186219367769</v>
       </c>
       <c r="AI39" s="4">
-        <v>-0.2216844434317935</v>
+        <v>-0.2235206071509587</v>
       </c>
       <c r="AJ39" s="4">
-        <v>-0.2055797209968238</v>
+        <v>-0.207423713628208</v>
       </c>
     </row>
     <row r="40" spans="1:36">
@@ -4563,106 +4563,106 @@
         <v>27</v>
       </c>
       <c r="C40" s="2">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D40" s="2">
-        <v>304565</v>
+        <v>304612</v>
       </c>
       <c r="E40" s="2">
-        <v>311610.5</v>
+        <v>311661.5</v>
       </c>
       <c r="F40" s="2">
-        <v>316448.5</v>
+        <v>316497.5</v>
       </c>
       <c r="G40" s="2">
-        <v>317900.5</v>
+        <v>317949.5</v>
       </c>
       <c r="H40" s="2">
-        <v>316654.5</v>
+        <v>316696.5</v>
       </c>
       <c r="I40" s="2">
-        <v>311795.5</v>
+        <v>311835.5</v>
       </c>
       <c r="J40" s="3">
-        <v>1669181504.688158</v>
+        <v>1673406898.63086</v>
       </c>
       <c r="K40" s="3">
-        <v>1646166579.074479</v>
+        <v>1649573875.886329</v>
       </c>
       <c r="L40" s="3">
-        <v>1659219030.339589</v>
+        <v>1662226614.563568</v>
       </c>
       <c r="M40" s="3">
-        <v>1669943989.735278</v>
+        <v>1671244936.241044</v>
       </c>
       <c r="N40" s="3">
-        <v>1630950185.663055</v>
+        <v>1631300806.425597</v>
       </c>
       <c r="O40" s="3">
-        <v>1699360336.749332</v>
+        <v>1699786085.971488</v>
       </c>
       <c r="P40" s="4">
-        <v>0.6843636363636364</v>
+        <v>0.6867732558139535</v>
       </c>
       <c r="Q40" s="4">
-        <v>0.6821818181818182</v>
+        <v>0.6838662790697675</v>
       </c>
       <c r="R40" s="4">
-        <v>0.6210909090909091</v>
+        <v>0.6286337209302325</v>
       </c>
       <c r="S40" s="4">
-        <v>0.7069090909090909</v>
+        <v>0.7129360465116279</v>
       </c>
       <c r="T40" s="4">
-        <v>0.4836363636363636</v>
+        <v>0.4927325581395349</v>
       </c>
       <c r="U40" s="5">
-        <v>5480.542756679717</v>
+        <v>5493.568535155739</v>
       </c>
       <c r="V40" s="5">
-        <v>5282.769929365279</v>
+        <v>5292.838146150004</v>
       </c>
       <c r="W40" s="5">
-        <v>5243.251367409196</v>
+        <v>5251.942320440344</v>
       </c>
       <c r="X40" s="5">
-        <v>5253.039833958354</v>
+        <v>5256.321951256548</v>
       </c>
       <c r="Y40" s="5">
-        <v>5150.56689755887</v>
+        <v>5150.990953248921</v>
       </c>
       <c r="Z40" s="5">
-        <v>5450.24009887677</v>
+        <v>5450.90628222729</v>
       </c>
       <c r="AA40" s="5">
-        <v>-197.7728273144376</v>
+        <v>-200.7303890057356</v>
       </c>
       <c r="AB40" s="5">
-        <v>-237.291389270521</v>
+        <v>-241.6262147153957</v>
       </c>
       <c r="AC40" s="5">
-        <v>-227.5029227213627</v>
+        <v>-237.2465838991911</v>
       </c>
       <c r="AD40" s="5">
-        <v>-329.9758591208474</v>
+        <v>-342.5775819068185</v>
       </c>
       <c r="AE40" s="5">
-        <v>-30.30265780294667</v>
+        <v>-42.66225292844956</v>
       </c>
       <c r="AF40" s="4">
-        <v>-0.03608635788369519</v>
+        <v>-0.03653916169811555</v>
       </c>
       <c r="AG40" s="4">
-        <v>-0.04329706012808843</v>
+        <v>-0.04398347143011405</v>
       </c>
       <c r="AH40" s="4">
-        <v>-0.04151102049958111</v>
+        <v>-0.04318624267285409</v>
       </c>
       <c r="AI40" s="4">
-        <v>-0.06020860957952945</v>
+        <v>-0.06235975390395432</v>
       </c>
       <c r="AJ40" s="4">
-        <v>-0.005529134457716522</v>
+        <v>-0.007765854317723586</v>
       </c>
     </row>
     <row r="41" spans="1:36">
@@ -4692,85 +4692,85 @@
         <v>262211.5</v>
       </c>
       <c r="J41" s="3">
-        <v>1593519143.637344</v>
+        <v>1597263617.521262</v>
       </c>
       <c r="K41" s="3">
-        <v>1564354746.444847</v>
+        <v>1567277503.154061</v>
       </c>
       <c r="L41" s="3">
-        <v>1516077492.389451</v>
+        <v>1518501514.555384</v>
       </c>
       <c r="M41" s="3">
-        <v>1528494884.483949</v>
+        <v>1529317759.295712</v>
       </c>
       <c r="N41" s="3">
-        <v>1512440820.786377</v>
+        <v>1512418315.484508</v>
       </c>
       <c r="O41" s="3">
-        <v>1641830083.468248</v>
+        <v>1641868140.479976</v>
       </c>
       <c r="P41" s="4">
-        <v>0.609375</v>
+        <v>0.61328125</v>
       </c>
       <c r="Q41" s="4">
         <v>0.78125</v>
       </c>
       <c r="R41" s="4">
-        <v>0.765625</v>
+        <v>0.7734375</v>
       </c>
       <c r="S41" s="4">
         <v>0.87109375</v>
       </c>
       <c r="T41" s="4">
-        <v>0.62890625</v>
+        <v>0.63671875</v>
       </c>
       <c r="U41" s="5">
-        <v>6426.478076787503</v>
+        <v>6441.57910611632</v>
       </c>
       <c r="V41" s="5">
-        <v>6305.631846880637</v>
+        <v>6317.412952047601</v>
       </c>
       <c r="W41" s="5">
-        <v>6099.724972749587</v>
+        <v>6109.477685664506</v>
       </c>
       <c r="X41" s="5">
-        <v>6071.889201987619</v>
+        <v>6075.158041638213</v>
       </c>
       <c r="Y41" s="5">
-        <v>5898.410080480383</v>
+        <v>5898.32231142682</v>
       </c>
       <c r="Z41" s="5">
-        <v>6261.472450553266</v>
+        <v>6261.617589159806</v>
       </c>
       <c r="AA41" s="5">
-        <v>-120.846229906866</v>
+        <v>-124.1661540687192</v>
       </c>
       <c r="AB41" s="5">
-        <v>-326.7531040379154</v>
+        <v>-332.1014204518142</v>
       </c>
       <c r="AC41" s="5">
-        <v>-354.5888747998833</v>
+        <v>-366.4210644781069</v>
       </c>
       <c r="AD41" s="5">
-        <v>-528.0679963071198</v>
+        <v>-543.2567946894997</v>
       </c>
       <c r="AE41" s="5">
-        <v>-165.0056262342368</v>
+        <v>-179.9615169565141</v>
       </c>
       <c r="AF41" s="4">
-        <v>-0.01880442576212371</v>
+        <v>-0.01927573224255252</v>
       </c>
       <c r="AG41" s="4">
-        <v>-0.05084481735309276</v>
+        <v>-0.05155590189624182</v>
       </c>
       <c r="AH41" s="4">
-        <v>-0.05517623658916093</v>
+        <v>-0.05688373276828784</v>
       </c>
       <c r="AI41" s="4">
-        <v>-0.08217066797668016</v>
+        <v>-0.08433596572208113</v>
       </c>
       <c r="AJ41" s="4">
-        <v>-0.02567590276705967</v>
+        <v>-0.02793748458132561</v>
       </c>
     </row>
     <row r="42" spans="1:36">
@@ -4800,28 +4800,28 @@
         <v>6473.5</v>
       </c>
       <c r="J42" s="3">
-        <v>138226792.2013105</v>
+        <v>138551599.4780364</v>
       </c>
       <c r="K42" s="3">
-        <v>141717714.4408312</v>
+        <v>141982492.2360454</v>
       </c>
       <c r="L42" s="3">
-        <v>145203829.945168</v>
+        <v>145435993.0793958</v>
       </c>
       <c r="M42" s="3">
-        <v>151389183.9954275</v>
+        <v>151470685.3125387</v>
       </c>
       <c r="N42" s="3">
-        <v>152811271.7975067</v>
+        <v>152808997.9473478</v>
       </c>
       <c r="O42" s="3">
-        <v>167117083.6521084</v>
+        <v>167120957.3640574</v>
       </c>
       <c r="P42" s="4">
         <v>0.5510204081632653</v>
       </c>
       <c r="Q42" s="4">
-        <v>0.6530612244897959</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="R42" s="4">
         <v>0.7346938775510204</v>
@@ -4830,55 +4830,55 @@
         <v>0.7551020408163265</v>
       </c>
       <c r="T42" s="4">
-        <v>0.6326530612244898</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="U42" s="5">
-        <v>27212.67687790344</v>
+        <v>27276.62161197684</v>
       </c>
       <c r="V42" s="5">
-        <v>26850.6469194451</v>
+        <v>26900.81323153569</v>
       </c>
       <c r="W42" s="5">
-        <v>26181.72195188748</v>
+        <v>26223.58331759752</v>
       </c>
       <c r="X42" s="5">
-        <v>25907.27885606699</v>
+        <v>25921.2262021971</v>
       </c>
       <c r="Y42" s="5">
-        <v>24744.76103918819</v>
+        <v>24744.39283415881</v>
       </c>
       <c r="Z42" s="5">
-        <v>25815.5686494336</v>
+        <v>25816.16704472966</v>
       </c>
       <c r="AA42" s="5">
-        <v>-362.0299584583372</v>
+        <v>-375.8083804411508</v>
       </c>
       <c r="AB42" s="5">
-        <v>-1030.954926015955</v>
+        <v>-1053.038294379327</v>
       </c>
       <c r="AC42" s="5">
-        <v>-1305.398021836449</v>
+        <v>-1355.395409779747</v>
       </c>
       <c r="AD42" s="5">
-        <v>-2467.915838715246</v>
+        <v>-2532.228777818029</v>
       </c>
       <c r="AE42" s="5">
-        <v>-1397.108228469835</v>
+        <v>-1460.454567247187</v>
       </c>
       <c r="AF42" s="4">
-        <v>-0.01330372458698847</v>
+        <v>-0.01377767326860369</v>
       </c>
       <c r="AG42" s="4">
-        <v>-0.03788509784030414</v>
+        <v>-0.03860589149782945</v>
       </c>
       <c r="AH42" s="4">
-        <v>-0.04797021725181416</v>
+        <v>-0.04969073623049447</v>
       </c>
       <c r="AI42" s="4">
-        <v>-0.0906899328496118</v>
+        <v>-0.09283513236500507</v>
       </c>
       <c r="AJ42" s="4">
-        <v>-0.0513403453375173</v>
+        <v>-0.05354235535554441</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -4910,22 +4910,22 @@
         <v>335</v>
       </c>
       <c r="J43" s="3">
-        <v>5611768.728013271</v>
+        <v>5624955.341759661</v>
       </c>
       <c r="K43" s="3">
-        <v>3121088.450440514</v>
+        <v>3126919.725110986</v>
       </c>
       <c r="L43" s="3">
-        <v>3112535.976127049</v>
+        <v>3117512.539816089</v>
       </c>
       <c r="M43" s="3">
-        <v>2803443.585555027</v>
+        <v>2804952.836999811</v>
       </c>
       <c r="N43" s="3">
-        <v>2818458.519780185</v>
+        <v>2818416.580777402</v>
       </c>
       <c r="O43" s="3">
-        <v>2561495.300598024</v>
+        <v>2561554.675108016</v>
       </c>
       <c r="P43" s="4">
         <v>1</v>
@@ -4943,52 +4943,52 @@
         <v>0</v>
       </c>
       <c r="U43" s="5">
-        <v>6945.258326749097</v>
+        <v>6961.578393266907</v>
       </c>
       <c r="V43" s="5">
-        <v>5219.211455586144</v>
+        <v>5228.962751021716</v>
       </c>
       <c r="W43" s="5">
-        <v>5796.156380124859</v>
+        <v>5805.423724052306</v>
       </c>
       <c r="X43" s="5">
-        <v>5309.552245369369</v>
+        <v>5312.410676136005</v>
       </c>
       <c r="Y43" s="5">
-        <v>6140.432504967723</v>
+        <v>6140.34113459129</v>
       </c>
       <c r="Z43" s="5">
-        <v>7646.254628650818</v>
+        <v>7646.431865994077</v>
       </c>
       <c r="AA43" s="5">
-        <v>-1726.046871162953</v>
+        <v>-1732.615642245191</v>
       </c>
       <c r="AB43" s="5">
-        <v>-1149.101946624239</v>
+        <v>-1156.154669214601</v>
       </c>
       <c r="AC43" s="5">
-        <v>-1635.706081379728</v>
+        <v>-1649.167717130902</v>
       </c>
       <c r="AD43" s="5">
-        <v>-804.8258217813745</v>
+        <v>-821.2372586756173</v>
       </c>
       <c r="AE43" s="5">
-        <v>700.9963019017205</v>
+        <v>684.8534727271699</v>
       </c>
       <c r="AF43" s="4">
-        <v>-0.2485216229488864</v>
+        <v>-0.248882587305336</v>
       </c>
       <c r="AG43" s="4">
-        <v>-0.165451289579621</v>
+        <v>-0.1660765136729351</v>
       </c>
       <c r="AH43" s="4">
-        <v>-0.2355140736925421</v>
+        <v>-0.2368956612951371</v>
       </c>
       <c r="AI43" s="4">
-        <v>-0.1158813371536741</v>
+        <v>-0.1179671063490286</v>
       </c>
       <c r="AJ43" s="4">
-        <v>0.1009316383815257</v>
+        <v>0.09837617764809581</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -5018,22 +5018,22 @@
         <v>11165.5</v>
       </c>
       <c r="J44" s="3">
-        <v>59327040.82032033</v>
+        <v>59466448.34224986</v>
       </c>
       <c r="K44" s="3">
-        <v>60016308.29685832</v>
+        <v>60128439.55617502</v>
       </c>
       <c r="L44" s="3">
-        <v>66701839.30141801</v>
+        <v>66808487.37038993</v>
       </c>
       <c r="M44" s="3">
-        <v>69625270.05119662</v>
+        <v>69662753.25219974</v>
       </c>
       <c r="N44" s="3">
-        <v>69247837.57326218</v>
+        <v>69246807.15708528</v>
       </c>
       <c r="O44" s="3">
-        <v>67821789.32569608</v>
+        <v>67823361.40959062</v>
       </c>
       <c r="P44" s="4">
         <v>0.9</v>
@@ -5045,58 +5045,58 @@
         <v>0.8</v>
       </c>
       <c r="S44" s="4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="T44" s="4">
         <v>0.9</v>
       </c>
       <c r="U44" s="5">
-        <v>7408.471630909132</v>
+        <v>7425.880162618614</v>
       </c>
       <c r="V44" s="5">
-        <v>6838.296393420876</v>
+        <v>6851.072700526978</v>
       </c>
       <c r="W44" s="5">
-        <v>6870.103955239263</v>
+        <v>6881.0884097631</v>
       </c>
       <c r="X44" s="5">
-        <v>6760.391305097254</v>
+        <v>6764.030804175138</v>
       </c>
       <c r="Y44" s="5">
-        <v>6457.879098504353</v>
+        <v>6457.783004484313</v>
       </c>
       <c r="Z44" s="5">
-        <v>6074.227694746862</v>
+        <v>6074.368493089482</v>
       </c>
       <c r="AA44" s="5">
-        <v>-570.1752374882562</v>
+        <v>-574.8074620916359</v>
       </c>
       <c r="AB44" s="5">
-        <v>-538.3676756698687</v>
+        <v>-544.7917528555145</v>
       </c>
       <c r="AC44" s="5">
-        <v>-648.0803258118776</v>
+        <v>-661.8493584434764</v>
       </c>
       <c r="AD44" s="5">
-        <v>-950.5925324047785</v>
+        <v>-968.097158134301</v>
       </c>
       <c r="AE44" s="5">
-        <v>-1334.24393616227</v>
+        <v>-1351.511669529132</v>
       </c>
       <c r="AF44" s="4">
-        <v>-0.07696259983090292</v>
+        <v>-0.07740597067337263</v>
       </c>
       <c r="AG44" s="4">
-        <v>-0.07266919581951659</v>
+        <v>-0.07336393005612452</v>
       </c>
       <c r="AH44" s="4">
-        <v>-0.08747827596558511</v>
+        <v>-0.08912739553422666</v>
       </c>
       <c r="AI44" s="4">
-        <v>-0.1283115573310397</v>
+        <v>-0.1303680017632978</v>
       </c>
       <c r="AJ44" s="4">
-        <v>-0.1800970568066463</v>
+        <v>-0.18200019929389</v>
       </c>
     </row>
     <row r="45" spans="1:36">
@@ -5126,22 +5126,22 @@
         <v>2998.5</v>
       </c>
       <c r="J45" s="3">
-        <v>30701804.24600484</v>
+        <v>30773947.7810526</v>
       </c>
       <c r="K45" s="3">
-        <v>29425308.71425609</v>
+        <v>29480285.38668972</v>
       </c>
       <c r="L45" s="3">
-        <v>29235878.44946318</v>
+        <v>29282623.03722851</v>
       </c>
       <c r="M45" s="3">
-        <v>30063899.64915745</v>
+        <v>30080084.73817267</v>
       </c>
       <c r="N45" s="3">
-        <v>29758159.52166827</v>
+        <v>29757716.71666469</v>
       </c>
       <c r="O45" s="3">
-        <v>28323933.67489696</v>
+        <v>28324590.21316295</v>
       </c>
       <c r="P45" s="4">
         <v>0.5833333333333334</v>
@@ -5159,52 +5159,52 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="U45" s="5">
-        <v>10122.58629937515</v>
+        <v>10146.37249622572</v>
       </c>
       <c r="V45" s="5">
-        <v>9524.294777231296</v>
+        <v>9542.089460006382</v>
       </c>
       <c r="W45" s="5">
-        <v>8977.699508510112</v>
+        <v>8992.053750108555</v>
       </c>
       <c r="X45" s="5">
-        <v>8871.023797331793</v>
+        <v>8875.799568655257</v>
       </c>
       <c r="Y45" s="5">
-        <v>8838.182216117693</v>
+        <v>8838.050702900116</v>
       </c>
       <c r="Z45" s="5">
-        <v>9446.034242086698</v>
+        <v>9446.253197653145</v>
       </c>
       <c r="AA45" s="5">
-        <v>-598.2915221438561</v>
+        <v>-604.2830362193345</v>
       </c>
       <c r="AB45" s="5">
-        <v>-1144.886790865041</v>
+        <v>-1154.318746117162</v>
       </c>
       <c r="AC45" s="5">
-        <v>-1251.56250204336</v>
+        <v>-1270.57292757046</v>
       </c>
       <c r="AD45" s="5">
-        <v>-1284.404083257459</v>
+        <v>-1308.3217933256</v>
       </c>
       <c r="AE45" s="5">
-        <v>-676.5520572884543</v>
+        <v>-700.119298572572</v>
       </c>
       <c r="AF45" s="4">
-        <v>-0.05910461066464678</v>
+        <v>-0.05955655939540139</v>
       </c>
       <c r="AG45" s="4">
-        <v>-0.1131022010586081</v>
+        <v>-0.1137666438470054</v>
       </c>
       <c r="AH45" s="4">
-        <v>-0.1236405860151191</v>
+        <v>-0.1252243526485048</v>
       </c>
       <c r="AI45" s="4">
-        <v>-0.1268849724044084</v>
+        <v>-0.1289447823655473</v>
       </c>
       <c r="AJ45" s="4">
-        <v>-0.06683588929542805</v>
+        <v>-0.06900193136345079</v>
       </c>
     </row>
     <row r="46" spans="1:36">
@@ -5234,85 +5234,85 @@
         <v>429376.5</v>
       </c>
       <c r="J46" s="3">
-        <v>2426759164.703558</v>
+        <v>2432461597.806467</v>
       </c>
       <c r="K46" s="3">
-        <v>2378635279.481172</v>
+        <v>2383079394.371143</v>
       </c>
       <c r="L46" s="3">
-        <v>2403928722.621387</v>
+        <v>2407772310.128094</v>
       </c>
       <c r="M46" s="3">
-        <v>2421482154.466076</v>
+        <v>2422785774.577777</v>
       </c>
       <c r="N46" s="3">
-        <v>2380174173.17321</v>
+        <v>2380138755.894373</v>
       </c>
       <c r="O46" s="3">
-        <v>2424903733.56231</v>
+        <v>2424959941.93049</v>
       </c>
       <c r="P46" s="4">
-        <v>0.7322515212981744</v>
+        <v>0.7349560513860717</v>
       </c>
       <c r="Q46" s="4">
-        <v>0.7025016903313049</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="R46" s="4">
-        <v>0.6741041244083841</v>
+        <v>0.6815415821501014</v>
       </c>
       <c r="S46" s="4">
-        <v>0.7281947261663286</v>
+        <v>0.7349560513860717</v>
       </c>
       <c r="T46" s="4">
-        <v>0.5875591615956728</v>
+        <v>0.5997295469912103</v>
       </c>
       <c r="U46" s="5">
-        <v>5798.139643914355</v>
+        <v>5811.764194682161</v>
       </c>
       <c r="V46" s="5">
-        <v>5576.954617826651</v>
+        <v>5587.3743014459</v>
       </c>
       <c r="W46" s="5">
-        <v>5566.750238218094</v>
+        <v>5575.65078983064</v>
       </c>
       <c r="X46" s="5">
-        <v>5573.749791609681</v>
+        <v>5576.750454783072</v>
       </c>
       <c r="Y46" s="5">
-        <v>5489.736726818423</v>
+        <v>5489.655038873656</v>
       </c>
       <c r="Z46" s="5">
-        <v>5647.499883114959</v>
+        <v>5647.630790065339</v>
       </c>
       <c r="AA46" s="5">
-        <v>-221.1850260877036</v>
+        <v>-224.3898932362617</v>
       </c>
       <c r="AB46" s="5">
-        <v>-231.3894056962608</v>
+        <v>-236.1134048515214</v>
       </c>
       <c r="AC46" s="5">
-        <v>-224.3898523046737</v>
+        <v>-235.0137398990892</v>
       </c>
       <c r="AD46" s="5">
-        <v>-308.4029170959311</v>
+        <v>-322.1091558085054</v>
       </c>
       <c r="AE46" s="5">
-        <v>-150.6397607993958</v>
+        <v>-164.1334046168222</v>
       </c>
       <c r="AF46" s="4">
-        <v>-0.03814758520344641</v>
+        <v>-0.0386096004104195</v>
       </c>
       <c r="AG46" s="4">
-        <v>-0.0399075255007223</v>
+        <v>-0.04062680400343288</v>
       </c>
       <c r="AH46" s="4">
-        <v>-0.0387003187376127</v>
+        <v>-0.04043759038161421</v>
       </c>
       <c r="AI46" s="4">
-        <v>-0.05318997748176457</v>
+        <v>-0.05542364504451835</v>
       </c>
       <c r="AJ46" s="4">
-        <v>-0.02598070589029455</v>
+        <v>-0.02824158020158596</v>
       </c>
     </row>
     <row r="47" spans="1:36">
@@ -5342,85 +5342,85 @@
         <v>304046</v>
       </c>
       <c r="J47" s="3">
-        <v>1926175491.542294</v>
+        <v>1930701646.030438</v>
       </c>
       <c r="K47" s="3">
-        <v>1883870404.247473</v>
+        <v>1887390126.916398</v>
       </c>
       <c r="L47" s="3">
-        <v>1851633695.688981</v>
+        <v>1854594231.112844</v>
       </c>
       <c r="M47" s="3">
-        <v>1859182264.603377</v>
+        <v>1860183167.041161</v>
       </c>
       <c r="N47" s="3">
-        <v>1863882588.339443</v>
+        <v>1863854853.541677</v>
       </c>
       <c r="O47" s="3">
-        <v>1991864294.372537</v>
+        <v>1991910465.047309</v>
       </c>
       <c r="P47" s="4">
         <v>0.6996805111821086</v>
       </c>
       <c r="Q47" s="4">
-        <v>0.8083067092651757</v>
+        <v>0.8115015974440895</v>
       </c>
       <c r="R47" s="4">
-        <v>0.8178913738019169</v>
+        <v>0.8210862619808307</v>
       </c>
       <c r="S47" s="4">
         <v>0.8913738019169329</v>
       </c>
       <c r="T47" s="4">
-        <v>0.7060702875399361</v>
+        <v>0.7124600638977636</v>
       </c>
       <c r="U47" s="5">
-        <v>6893.317174792993</v>
+        <v>6909.51518925527</v>
       </c>
       <c r="V47" s="5">
-        <v>6666.07834683852</v>
+        <v>6678.532890960714</v>
       </c>
       <c r="W47" s="5">
-        <v>6497.507494276643</v>
+        <v>6507.896212708592</v>
       </c>
       <c r="X47" s="5">
-        <v>6388.964445250247</v>
+        <v>6392.403984347578</v>
       </c>
       <c r="Y47" s="5">
-        <v>6258.69300701274</v>
+        <v>6258.599876905771</v>
       </c>
       <c r="Z47" s="5">
-        <v>6551.193879783116</v>
+        <v>6551.345734024817</v>
       </c>
       <c r="AA47" s="5">
-        <v>-227.238827954473</v>
+        <v>-230.9822982945561</v>
       </c>
       <c r="AB47" s="5">
-        <v>-395.8096805163495</v>
+        <v>-401.6189765466788</v>
       </c>
       <c r="AC47" s="5">
-        <v>-504.3527295427457</v>
+        <v>-517.1112049076928</v>
       </c>
       <c r="AD47" s="5">
-        <v>-634.6241677802527</v>
+        <v>-650.9153123494998</v>
       </c>
       <c r="AE47" s="5">
-        <v>-342.1232950098765</v>
+        <v>-358.1694552304534</v>
       </c>
       <c r="AF47" s="4">
-        <v>-0.03296509099935574</v>
+        <v>-0.03342959556030034</v>
       </c>
       <c r="AG47" s="4">
-        <v>-0.05741933389685294</v>
+        <v>-0.0581254929681928</v>
       </c>
       <c r="AH47" s="4">
-        <v>-0.07316546109136368</v>
+        <v>-0.07484044694073955</v>
       </c>
       <c r="AI47" s="4">
-        <v>-0.09206368308437951</v>
+        <v>-0.09420564171589263</v>
       </c>
       <c r="AJ47" s="4">
-        <v>-0.04963115526744211</v>
+        <v>-0.0518371326236361</v>
       </c>
     </row>
     <row r="48" spans="1:36">
@@ -5450,22 +5450,22 @@
         <v>12176.5</v>
       </c>
       <c r="J48" s="3">
-        <v>234119681.0978134</v>
+        <v>234669818.8448758</v>
       </c>
       <c r="K48" s="3">
-        <v>234537067.5140249</v>
+        <v>234975264.0223258</v>
       </c>
       <c r="L48" s="3">
-        <v>241370955.1777737</v>
+        <v>241756877.7631959</v>
       </c>
       <c r="M48" s="3">
-        <v>249855674.1852646</v>
+        <v>249990185.5552077</v>
       </c>
       <c r="N48" s="3">
-        <v>236270692.8743476</v>
+        <v>236267177.1379349</v>
       </c>
       <c r="O48" s="3">
-        <v>264371363.4005492</v>
+        <v>264377491.4305926</v>
       </c>
       <c r="P48" s="4">
         <v>0.8313253012048193</v>
@@ -5474,61 +5474,61 @@
         <v>0.7469879518072289</v>
       </c>
       <c r="R48" s="4">
-        <v>0.8192771084337349</v>
+        <v>0.8313253012048193</v>
       </c>
       <c r="S48" s="4">
         <v>0.9397590361445783</v>
       </c>
       <c r="T48" s="4">
-        <v>0.7469879518072289</v>
+        <v>0.7590361445783133</v>
       </c>
       <c r="U48" s="5">
-        <v>23543.81346518638</v>
+        <v>23599.13705197866</v>
       </c>
       <c r="V48" s="5">
-        <v>22320.92005843683</v>
+        <v>22362.62327121826</v>
       </c>
       <c r="W48" s="5">
-        <v>22034.96030470821</v>
+        <v>22070.19150659083</v>
       </c>
       <c r="X48" s="5">
-        <v>22060.36325139189</v>
+        <v>22072.23958636833</v>
       </c>
       <c r="Y48" s="5">
-        <v>20009.37439654028</v>
+        <v>20009.07665463541</v>
       </c>
       <c r="Z48" s="5">
-        <v>21711.60542032186</v>
+        <v>21712.10868727406</v>
       </c>
       <c r="AA48" s="5">
-        <v>-1222.893406749557</v>
+        <v>-1236.513780760401</v>
       </c>
       <c r="AB48" s="5">
-        <v>-1508.853160478175</v>
+        <v>-1528.945545387829</v>
       </c>
       <c r="AC48" s="5">
-        <v>-1483.450213794495</v>
+        <v>-1526.897465610327</v>
       </c>
       <c r="AD48" s="5">
-        <v>-3534.439068646105</v>
+        <v>-3590.060397343252</v>
       </c>
       <c r="AE48" s="5">
-        <v>-1832.208044864521</v>
+        <v>-1887.028364704598</v>
       </c>
       <c r="AF48" s="4">
-        <v>-0.05194117803208975</v>
+        <v>-0.05239656763876144</v>
       </c>
       <c r="AG48" s="4">
-        <v>-0.06408703342426991</v>
+        <v>-0.06478819721332296</v>
       </c>
       <c r="AH48" s="4">
-        <v>-0.06300806859466646</v>
+        <v>-0.06470141099851379</v>
       </c>
       <c r="AI48" s="4">
-        <v>-0.1501217750417699</v>
+        <v>-0.1521267658828332</v>
       </c>
       <c r="AJ48" s="4">
-        <v>-0.07782120970223272</v>
+        <v>-0.07996175286190732</v>
       </c>
     </row>
     <row r="49" spans="1:36">
@@ -5560,22 +5560,22 @@
         <v>1305</v>
       </c>
       <c r="J49" s="3">
-        <v>3792495.129926669</v>
+        <v>3801406.7887703</v>
       </c>
       <c r="K49" s="3">
-        <v>5395699.881746405</v>
+        <v>5405780.918714599</v>
       </c>
       <c r="L49" s="3">
-        <v>5568148.968872782</v>
+        <v>5577051.756884291</v>
       </c>
       <c r="M49" s="3">
-        <v>6226846.748960618</v>
+        <v>6230199.010978924</v>
       </c>
       <c r="N49" s="3">
-        <v>6362932.882794788</v>
+        <v>6362838.201585892</v>
       </c>
       <c r="O49" s="3">
-        <v>7152092.620553722</v>
+        <v>7152258.403405116</v>
       </c>
       <c r="P49" s="4">
         <v>1</v>
@@ -5593,52 +5593,52 @@
         <v>1</v>
       </c>
       <c r="U49" s="5">
-        <v>7216.926983685384</v>
+        <v>7233.885421066223</v>
       </c>
       <c r="V49" s="5">
-        <v>5752.345289708321</v>
+        <v>5763.092663874839</v>
       </c>
       <c r="W49" s="5">
-        <v>5372.06846972772</v>
+        <v>5380.657749044179</v>
       </c>
       <c r="X49" s="5">
-        <v>5009.530771488832</v>
+        <v>5012.227683812489</v>
       </c>
       <c r="Y49" s="5">
-        <v>5010.183372279361</v>
+        <v>5010.108820146372</v>
       </c>
       <c r="Z49" s="5">
-        <v>5480.530743719327</v>
+        <v>5480.657780387062</v>
       </c>
       <c r="AA49" s="5">
-        <v>-1464.581693977063</v>
+        <v>-1470.792757191384</v>
       </c>
       <c r="AB49" s="5">
-        <v>-1844.858513957663</v>
+        <v>-1853.227672022044</v>
       </c>
       <c r="AC49" s="5">
-        <v>-2207.396212196551</v>
+        <v>-2221.657737253734</v>
       </c>
       <c r="AD49" s="5">
-        <v>-2206.743611406023</v>
+        <v>-2223.776600919851</v>
       </c>
       <c r="AE49" s="5">
-        <v>-1736.396239966057</v>
+        <v>-1753.227640679161</v>
       </c>
       <c r="AF49" s="4">
-        <v>-0.2029370253139463</v>
+        <v>-0.2033198857294867</v>
       </c>
       <c r="AG49" s="4">
-        <v>-0.2556293721868267</v>
+        <v>-0.2561870370002199</v>
       </c>
       <c r="AH49" s="4">
-        <v>-0.3058637308076694</v>
+        <v>-0.3071181817151698</v>
       </c>
       <c r="AI49" s="4">
-        <v>-0.3057733043987555</v>
+        <v>-0.3074110898195679</v>
       </c>
       <c r="AJ49" s="4">
-        <v>-0.2406004998930101</v>
+        <v>-0.2423632029854224</v>
       </c>
     </row>
     <row r="50" spans="1:36">
@@ -5668,22 +5668,22 @@
         <v>16161.5</v>
       </c>
       <c r="J50" s="3">
-        <v>100258561.3239383</v>
+        <v>100494150.3132613</v>
       </c>
       <c r="K50" s="3">
-        <v>100624598.2258894</v>
+        <v>100812599.8414086</v>
       </c>
       <c r="L50" s="3">
-        <v>100988162.9360722</v>
+        <v>101149630.6358981</v>
       </c>
       <c r="M50" s="3">
-        <v>97947755.47719853</v>
+        <v>98000486.26594314</v>
       </c>
       <c r="N50" s="3">
-        <v>102653661.0649891</v>
+        <v>102652133.5661287</v>
       </c>
       <c r="O50" s="3">
-        <v>106965604.4802549</v>
+        <v>106968083.9032508</v>
       </c>
       <c r="P50" s="4">
         <v>1</v>
@@ -5701,52 +5701,52 @@
         <v>1</v>
       </c>
       <c r="U50" s="5">
-        <v>7380.364483340445</v>
+        <v>7397.706968475935</v>
       </c>
       <c r="V50" s="5">
-        <v>6939.866769605115</v>
+        <v>6952.832845367672</v>
       </c>
       <c r="W50" s="5">
-        <v>6865.039457263328</v>
+        <v>6876.015814275386</v>
       </c>
       <c r="X50" s="5">
-        <v>6390.745145806187</v>
+        <v>6394.185643554832</v>
       </c>
       <c r="Y50" s="5">
-        <v>6534.079823365848</v>
+        <v>6533.982595469828</v>
       </c>
       <c r="Z50" s="5">
-        <v>6618.544348003276</v>
+        <v>6618.697763403818</v>
       </c>
       <c r="AA50" s="5">
-        <v>-440.4977137353299</v>
+        <v>-444.8741231082631</v>
       </c>
       <c r="AB50" s="5">
-        <v>-515.3250260771174</v>
+        <v>-521.6911542005491</v>
       </c>
       <c r="AC50" s="5">
-        <v>-989.6193375342582</v>
+        <v>-1003.521324921103</v>
       </c>
       <c r="AD50" s="5">
-        <v>-846.2846599745972</v>
+        <v>-863.7243730061073</v>
       </c>
       <c r="AE50" s="5">
-        <v>-761.8201353371687</v>
+        <v>-779.0092050721178</v>
       </c>
       <c r="AF50" s="4">
-        <v>-0.05968508936511974</v>
+        <v>-0.06013675926932738</v>
       </c>
       <c r="AG50" s="4">
-        <v>-0.06982379084940193</v>
+        <v>-0.07052065679590269</v>
       </c>
       <c r="AH50" s="4">
-        <v>-0.1340881388403116</v>
+        <v>-0.1356530245382032</v>
       </c>
       <c r="AI50" s="4">
-        <v>-0.1146670549787751</v>
+        <v>-0.1167556888488178</v>
       </c>
       <c r="AJ50" s="4">
-        <v>-0.1032225626602603</v>
+        <v>-0.1053041447020993</v>
       </c>
     </row>
     <row r="51" spans="1:36">
@@ -5776,22 +5776,22 @@
         <v>1254.5</v>
       </c>
       <c r="J51" s="3">
-        <v>12807320.73633071</v>
+        <v>12837415.56023768</v>
       </c>
       <c r="K51" s="3">
-        <v>11722961.85070462</v>
+        <v>11744864.40540258</v>
       </c>
       <c r="L51" s="3">
-        <v>12707033.86969857</v>
+        <v>12727350.86003582</v>
       </c>
       <c r="M51" s="3">
-        <v>13227526.81590289</v>
+        <v>13234647.93796173</v>
       </c>
       <c r="N51" s="3">
-        <v>13560590.01988238</v>
+        <v>13560388.23666699</v>
       </c>
       <c r="O51" s="3">
-        <v>13020293.98456609</v>
+        <v>13020595.79014626</v>
       </c>
       <c r="P51" s="4">
         <v>0.7619047619047619</v>
@@ -5809,52 +5809,52 @@
         <v>0.6190476190476191</v>
       </c>
       <c r="U51" s="5">
-        <v>10941.75201736926</v>
+        <v>10967.46310144184</v>
       </c>
       <c r="V51" s="5">
-        <v>9748.824823870789</v>
+        <v>9767.039006571789</v>
       </c>
       <c r="W51" s="5">
-        <v>9395.219127318718</v>
+        <v>9410.24093163462</v>
       </c>
       <c r="X51" s="5">
-        <v>9567.831331575326</v>
+        <v>9572.982233607039</v>
       </c>
       <c r="Y51" s="5">
-        <v>9627.681945248409</v>
+        <v>9627.538684179613</v>
       </c>
       <c r="Z51" s="5">
-        <v>10378.87125114873</v>
+        <v>10379.1118295307</v>
       </c>
       <c r="AA51" s="5">
-        <v>-1192.927193498466</v>
+        <v>-1200.424094870054</v>
       </c>
       <c r="AB51" s="5">
-        <v>-1546.532890050537</v>
+        <v>-1557.222169807223</v>
       </c>
       <c r="AC51" s="5">
-        <v>-1373.92068579393</v>
+        <v>-1394.480867834804</v>
       </c>
       <c r="AD51" s="5">
-        <v>-1314.070072120847</v>
+        <v>-1339.924417262229</v>
       </c>
       <c r="AE51" s="5">
-        <v>-562.8807662205218</v>
+        <v>-588.3512719111459</v>
       </c>
       <c r="AF51" s="4">
-        <v>-0.1090252449155107</v>
+        <v>-0.1094532148197735</v>
       </c>
       <c r="AG51" s="4">
-        <v>-0.1413423451377371</v>
+        <v>-0.1419856310802178</v>
       </c>
       <c r="AH51" s="4">
-        <v>-0.1255667907308563</v>
+        <v>-0.1271470763053196</v>
       </c>
       <c r="AI51" s="4">
-        <v>-0.1200968610908796</v>
+        <v>-0.12217268522983</v>
       </c>
       <c r="AJ51" s="4">
-        <v>-0.05144338542191307</v>
+        <v>-0.05364515626533528</v>
       </c>
     </row>
     <row r="52" spans="1:36">
@@ -5884,85 +5884,85 @@
         <v>379720</v>
       </c>
       <c r="J52" s="3">
-        <v>2154710927.98215</v>
+        <v>2159774098.280068</v>
       </c>
       <c r="K52" s="3">
-        <v>2075408935.91835</v>
+        <v>2079286518.9318</v>
       </c>
       <c r="L52" s="3">
-        <v>2090577665.112632</v>
+        <v>2093920242.669037</v>
       </c>
       <c r="M52" s="3">
-        <v>2114203032.091277</v>
+        <v>2115341226.559393</v>
       </c>
       <c r="N52" s="3">
-        <v>2080930781.871649</v>
+        <v>2080899817.37058</v>
       </c>
       <c r="O52" s="3">
-        <v>2139571070.97024</v>
+        <v>2139620665.433245</v>
       </c>
       <c r="P52" s="4">
-        <v>0.7581329561527581</v>
+        <v>0.7588401697312589</v>
       </c>
       <c r="Q52" s="4">
-        <v>0.7743988684582744</v>
+        <v>0.7786421499292786</v>
       </c>
       <c r="R52" s="4">
-        <v>0.7397454031117398</v>
+        <v>0.7496463932107497</v>
       </c>
       <c r="S52" s="4">
-        <v>0.7694483734087695</v>
+        <v>0.7793493635077794</v>
       </c>
       <c r="T52" s="4">
-        <v>0.5678925035360679</v>
+        <v>0.5834512022630834</v>
       </c>
       <c r="U52" s="5">
-        <v>5750.795485706222</v>
+        <v>5764.308786499612</v>
       </c>
       <c r="V52" s="5">
-        <v>5458.50691494258</v>
+        <v>5468.705297211187</v>
       </c>
       <c r="W52" s="5">
-        <v>5440.026399249097</v>
+        <v>5448.72433496889</v>
       </c>
       <c r="X52" s="5">
-        <v>5475.217005445626</v>
+        <v>5478.164622875334</v>
       </c>
       <c r="Y52" s="5">
-        <v>5404.397372434446</v>
+        <v>5404.316954349582</v>
       </c>
       <c r="Z52" s="5">
-        <v>5634.601998762878</v>
+        <v>5634.732606745089</v>
       </c>
       <c r="AA52" s="5">
-        <v>-292.2885707636424</v>
+        <v>-295.6034892884254</v>
       </c>
       <c r="AB52" s="5">
-        <v>-310.769086457125</v>
+        <v>-315.5844515307226</v>
       </c>
       <c r="AC52" s="5">
-        <v>-275.5784802605958</v>
+        <v>-286.144163624278</v>
       </c>
       <c r="AD52" s="5">
-        <v>-346.3981132717763</v>
+        <v>-359.9918321500299</v>
       </c>
       <c r="AE52" s="5">
-        <v>-116.1934869433444</v>
+        <v>-129.5761797545229</v>
       </c>
       <c r="AF52" s="4">
-        <v>-0.0508257634078858</v>
+        <v>-0.05128168879168093</v>
       </c>
       <c r="AG52" s="4">
-        <v>-0.0540393215563918</v>
+        <v>-0.05474801285278852</v>
       </c>
       <c r="AH52" s="4">
-        <v>-0.04792006270185656</v>
+        <v>-0.04964067232040836</v>
       </c>
       <c r="AI52" s="4">
-        <v>-0.06023481692798138</v>
+        <v>-0.06245186465255892</v>
       </c>
       <c r="AJ52" s="4">
-        <v>-0.02020476771120572</v>
+        <v>-0.02247904901590259</v>
       </c>
     </row>
     <row r="53" spans="1:36">
@@ -5971,106 +5971,106 @@
         <v>28</v>
       </c>
       <c r="C53" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D53" s="2">
-        <v>231464.5</v>
+        <v>230338.5</v>
       </c>
       <c r="E53" s="2">
-        <v>232865</v>
+        <v>231802</v>
       </c>
       <c r="F53" s="2">
-        <v>234774.5</v>
+        <v>233762.5</v>
       </c>
       <c r="G53" s="2">
-        <v>238688</v>
+        <v>237731</v>
       </c>
       <c r="H53" s="2">
-        <v>242455</v>
+        <v>241473</v>
       </c>
       <c r="I53" s="2">
-        <v>246615</v>
+        <v>245647</v>
       </c>
       <c r="J53" s="3">
-        <v>1616618451.6297</v>
+        <v>1611637463.645391</v>
       </c>
       <c r="K53" s="3">
-        <v>1552596952.265785</v>
+        <v>1547492181.633699</v>
       </c>
       <c r="L53" s="3">
-        <v>1521353224.428473</v>
+        <v>1516305049.423098</v>
       </c>
       <c r="M53" s="3">
-        <v>1520506896.080137</v>
+        <v>1517594621.939284</v>
       </c>
       <c r="N53" s="3">
-        <v>1527965867.725702</v>
+        <v>1521248714.786407</v>
       </c>
       <c r="O53" s="3">
-        <v>1623942362.158465</v>
+        <v>1616841211.647889</v>
       </c>
       <c r="P53" s="4">
-        <v>0.8070175438596491</v>
+        <v>0.8061674008810573</v>
       </c>
       <c r="Q53" s="4">
-        <v>0.9122807017543859</v>
+        <v>0.9118942731277533</v>
       </c>
       <c r="R53" s="4">
-        <v>0.9078947368421053</v>
+        <v>0.9118942731277533</v>
       </c>
       <c r="S53" s="4">
-        <v>0.9517543859649122</v>
+        <v>0.9515418502202643</v>
       </c>
       <c r="T53" s="4">
-        <v>0.8333333333333334</v>
+        <v>0.8458149779735683</v>
       </c>
       <c r="U53" s="5">
-        <v>6984.304079587583</v>
+        <v>6996.821910559423</v>
       </c>
       <c r="V53" s="5">
-        <v>6667.369300950269</v>
+        <v>6675.922475361294</v>
       </c>
       <c r="W53" s="5">
-        <v>6480.061609878725</v>
+        <v>6486.519648887644</v>
       </c>
       <c r="X53" s="5">
-        <v>6370.269540488577</v>
+        <v>6383.663140016591</v>
       </c>
       <c r="Y53" s="5">
-        <v>6302.059630552895</v>
+        <v>6299.870854242119</v>
       </c>
       <c r="Z53" s="5">
-        <v>6584.929392609795</v>
+        <v>6581.970110149479</v>
       </c>
       <c r="AA53" s="5">
-        <v>-316.9347786373137</v>
+        <v>-320.8994351981282</v>
       </c>
       <c r="AB53" s="5">
-        <v>-504.2424697088582</v>
+        <v>-510.302261671779</v>
       </c>
       <c r="AC53" s="5">
-        <v>-614.034539099006</v>
+        <v>-613.1587705428319</v>
       </c>
       <c r="AD53" s="5">
-        <v>-682.2444490346879</v>
+        <v>-696.9510563173035</v>
       </c>
       <c r="AE53" s="5">
-        <v>-399.3746869777879</v>
+        <v>-414.8518004099433</v>
       </c>
       <c r="AF53" s="4">
-        <v>-0.04537814720346889</v>
+        <v>-0.04586359911688409</v>
       </c>
       <c r="AG53" s="4">
-        <v>-0.0721965229409991</v>
+        <v>-0.07293343580771205</v>
       </c>
       <c r="AH53" s="4">
-        <v>-0.08791635245286522</v>
+        <v>-0.08763389698649737</v>
       </c>
       <c r="AI53" s="4">
-        <v>-0.09768252373613351</v>
+        <v>-0.09960966067543942</v>
       </c>
       <c r="AJ53" s="4">
-        <v>-0.05718174386836983</v>
+        <v>-0.05929146199703317</v>
       </c>
     </row>
     <row r="54" spans="1:36">
@@ -6100,22 +6100,22 @@
         <v>8009</v>
       </c>
       <c r="J54" s="3">
-        <v>158720596.8427591</v>
+        <v>159093560.7522863</v>
       </c>
       <c r="K54" s="3">
-        <v>157567311.888059</v>
+        <v>157861702.2231287</v>
       </c>
       <c r="L54" s="3">
-        <v>161610081.5459834</v>
+        <v>161868476.2664856</v>
       </c>
       <c r="M54" s="3">
-        <v>167640403.552845</v>
+        <v>167730653.815975</v>
       </c>
       <c r="N54" s="3">
-        <v>166585679.984856</v>
+        <v>166583201.1698416</v>
       </c>
       <c r="O54" s="3">
-        <v>187239635.5530641</v>
+        <v>187243975.6982948</v>
       </c>
       <c r="P54" s="4">
         <v>0.7692307692307693</v>
@@ -6133,52 +6133,52 @@
         <v>0.8076923076923077</v>
       </c>
       <c r="U54" s="5">
-        <v>25892.43015379431</v>
+        <v>25953.27255339091</v>
       </c>
       <c r="V54" s="5">
-        <v>24660.35087065639</v>
+        <v>24706.42495079876</v>
       </c>
       <c r="W54" s="5">
-        <v>23984.87407924954</v>
+        <v>24023.22295436118</v>
       </c>
       <c r="X54" s="5">
-        <v>23392.22822198354</v>
+        <v>23404.82157482384</v>
       </c>
       <c r="Y54" s="5">
-        <v>22149.40566212684</v>
+        <v>22149.07607629858</v>
       </c>
       <c r="Z54" s="5">
-        <v>23378.65345899165</v>
+        <v>23379.19536749841</v>
       </c>
       <c r="AA54" s="5">
-        <v>-1232.079283137915</v>
+        <v>-1246.847602592148</v>
       </c>
       <c r="AB54" s="5">
-        <v>-1907.556074544766</v>
+        <v>-1930.049599029731</v>
       </c>
       <c r="AC54" s="5">
-        <v>-2500.20193181077</v>
+        <v>-2548.450978567071</v>
       </c>
       <c r="AD54" s="5">
-        <v>-3743.024491667464</v>
+        <v>-3804.19647709233</v>
       </c>
       <c r="AE54" s="5">
-        <v>-2513.776694802655</v>
+        <v>-2574.077185892496</v>
       </c>
       <c r="AF54" s="4">
-        <v>-0.04758453632276627</v>
+        <v>-0.04804201859426938</v>
       </c>
       <c r="AG54" s="4">
-        <v>-0.07367234605691231</v>
+        <v>-0.07436632875716331</v>
       </c>
       <c r="AH54" s="4">
-        <v>-0.09656111523561983</v>
+        <v>-0.09819382019452128</v>
       </c>
       <c r="AI54" s="4">
-        <v>-0.1445605711566998</v>
+        <v>-0.1465786817160094</v>
       </c>
       <c r="AJ54" s="4">
-        <v>-0.09708539058989341</v>
+        <v>-0.09918121811409797</v>
       </c>
     </row>
   </sheetData>

--- a/output/Region & Phase.xlsx
+++ b/output/Region & Phase.xlsx
@@ -684,22 +684,22 @@
         <v>273</v>
       </c>
       <c r="J4" s="3">
-        <v>323315.5258490204</v>
+        <v>332887.6905007302</v>
       </c>
       <c r="K4" s="3">
-        <v>916756.0103166301</v>
+        <v>946903.8643001711</v>
       </c>
       <c r="L4" s="3">
-        <v>921162.6518470399</v>
+        <v>946989.653231662</v>
       </c>
       <c r="M4" s="3">
-        <v>1248539.152637826</v>
+        <v>1283770.221601213</v>
       </c>
       <c r="N4" s="3">
-        <v>1397830.599462841</v>
+        <v>1437762.925079668</v>
       </c>
       <c r="O4" s="3">
-        <v>1465669.173181497</v>
+        <v>1522455.530921899</v>
       </c>
       <c r="P4" s="4">
         <v>0</v>
@@ -717,52 +717,52 @@
         <v>1</v>
       </c>
       <c r="U4" s="5">
-        <v>6100.292940547554</v>
+        <v>6280.899820768494</v>
       </c>
       <c r="V4" s="5">
-        <v>6841.462763556941</v>
+        <v>7066.44674850874</v>
       </c>
       <c r="W4" s="5">
-        <v>4899.801339611915</v>
+        <v>5037.179006551393</v>
       </c>
       <c r="X4" s="5">
-        <v>5054.814383149093</v>
+        <v>5197.450289883453</v>
       </c>
       <c r="Y4" s="5">
-        <v>4939.33074015138</v>
+        <v>5080.434364239111</v>
       </c>
       <c r="Z4" s="5">
-        <v>5368.751550115375</v>
+        <v>5576.760186527104</v>
       </c>
       <c r="AA4" s="5">
-        <v>741.1698230093871</v>
+        <v>785.5469277402453</v>
       </c>
       <c r="AB4" s="5">
-        <v>-1200.491600935639</v>
+        <v>-1243.720814217101</v>
       </c>
       <c r="AC4" s="5">
-        <v>-1045.478557398461</v>
+        <v>-1083.449530885042</v>
       </c>
       <c r="AD4" s="5">
-        <v>-1160.962200396174</v>
+        <v>-1200.465456529383</v>
       </c>
       <c r="AE4" s="5">
-        <v>-731.5413904321795</v>
+        <v>-704.1396342413909</v>
       </c>
       <c r="AF4" s="4">
-        <v>0.121497414998379</v>
+        <v>0.125069170048334</v>
       </c>
       <c r="AG4" s="4">
-        <v>-0.1967924512208564</v>
+        <v>-0.198016343152712</v>
       </c>
       <c r="AH4" s="4">
-        <v>-0.1713816971721722</v>
+        <v>-0.1724990943658257</v>
       </c>
       <c r="AI4" s="4">
-        <v>-0.1903125328096076</v>
+        <v>-0.1911295341090954</v>
       </c>
       <c r="AJ4" s="4">
-        <v>-0.1199190592257882</v>
+        <v>-0.1121080823344889</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -792,22 +792,22 @@
         <v>13663</v>
       </c>
       <c r="J5" s="3">
-        <v>92286233.59158319</v>
+        <v>95018484.14065611</v>
       </c>
       <c r="K5" s="3">
-        <v>88796836.49859114</v>
+        <v>91716952.68090588</v>
       </c>
       <c r="L5" s="3">
-        <v>87489271.35661545</v>
+        <v>89942242.64017341</v>
       </c>
       <c r="M5" s="3">
-        <v>84767308.40046869</v>
+        <v>87159258.12970866</v>
       </c>
       <c r="N5" s="3">
-        <v>87402167.979278</v>
+        <v>89899016.90554017</v>
       </c>
       <c r="O5" s="3">
-        <v>86232943.08120246</v>
+        <v>89573979.95665735</v>
       </c>
       <c r="P5" s="4">
         <v>0.8888888888888888</v>
@@ -825,52 +825,52 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="U5" s="5">
-        <v>6991.381332695696</v>
+        <v>7198.370010655766</v>
       </c>
       <c r="V5" s="5">
-        <v>6628.113495453545</v>
+        <v>6846.081412324093</v>
       </c>
       <c r="W5" s="5">
-        <v>6441.797397681807</v>
+        <v>6622.408617617598</v>
       </c>
       <c r="X5" s="5">
-        <v>6190.557832503373</v>
+        <v>6365.241957913435</v>
       </c>
       <c r="Y5" s="5">
-        <v>6250.825530432898</v>
+        <v>6429.395094263556</v>
       </c>
       <c r="Z5" s="5">
-        <v>6311.420850560086</v>
+        <v>6555.952569469176</v>
       </c>
       <c r="AA5" s="5">
-        <v>-363.2678372421515</v>
+        <v>-352.2885983316728</v>
       </c>
       <c r="AB5" s="5">
-        <v>-549.5839350138895</v>
+        <v>-575.9613930381684</v>
       </c>
       <c r="AC5" s="5">
-        <v>-800.8235001923231</v>
+        <v>-833.1280527423314</v>
       </c>
       <c r="AD5" s="5">
-        <v>-740.5558022627984</v>
+        <v>-768.9749163922106</v>
       </c>
       <c r="AE5" s="5">
-        <v>-679.9604821356097</v>
+        <v>-642.4174411865906</v>
       </c>
       <c r="AF5" s="4">
-        <v>-0.05195937969272302</v>
+        <v>-0.04894005140193947</v>
       </c>
       <c r="AG5" s="4">
-        <v>-0.07860877684410106</v>
+        <v>-0.08001275180152889</v>
       </c>
       <c r="AH5" s="4">
-        <v>-0.1145443885956005</v>
+        <v>-0.1157384312711142</v>
       </c>
       <c r="AI5" s="4">
-        <v>-0.1059241038390419</v>
+        <v>-0.1068262558404048</v>
       </c>
       <c r="AJ5" s="4">
-        <v>-0.09725695821449842</v>
+        <v>-0.08924484851926451</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -900,22 +900,22 @@
         <v>1472</v>
       </c>
       <c r="J6" s="3">
-        <v>17776626.1912069</v>
+        <v>18302925.67035283</v>
       </c>
       <c r="K6" s="3">
-        <v>16565462.91865069</v>
+        <v>17110224.176413</v>
       </c>
       <c r="L6" s="3">
-        <v>16386802.39346384</v>
+        <v>16846245.64950218</v>
       </c>
       <c r="M6" s="3">
-        <v>17283461.59799923</v>
+        <v>17771163.42633091</v>
       </c>
       <c r="N6" s="3">
-        <v>16368560.56125267</v>
+        <v>16836167.07270112</v>
       </c>
       <c r="O6" s="3">
-        <v>15176780.55363617</v>
+        <v>15764794.61959048</v>
       </c>
       <c r="P6" s="4">
         <v>0.7857142857142857</v>
@@ -933,52 +933,52 @@
         <v>0.6785714285714286</v>
       </c>
       <c r="U6" s="5">
-        <v>11145.22018257486</v>
+        <v>11475.1885080582</v>
       </c>
       <c r="V6" s="5">
-        <v>10457.99426682493</v>
+        <v>10801.90920228094</v>
       </c>
       <c r="W6" s="5">
-        <v>9751.146916669941</v>
+        <v>10024.54367718071</v>
       </c>
       <c r="X6" s="5">
-        <v>10181.71522709822</v>
+        <v>10469.02116425974</v>
       </c>
       <c r="Y6" s="5">
-        <v>9941.427610842802</v>
+        <v>10225.42792147046</v>
       </c>
       <c r="Z6" s="5">
-        <v>10310.31287611153</v>
+        <v>10709.77895352614</v>
       </c>
       <c r="AA6" s="5">
-        <v>-687.2259157499302</v>
+        <v>-673.2793057772633</v>
       </c>
       <c r="AB6" s="5">
-        <v>-1394.073265904919</v>
+        <v>-1450.644830877491</v>
       </c>
       <c r="AC6" s="5">
-        <v>-963.504955476641</v>
+        <v>-1006.167343798459</v>
       </c>
       <c r="AD6" s="5">
-        <v>-1203.792571732058</v>
+        <v>-1249.760586587738</v>
       </c>
       <c r="AE6" s="5">
-        <v>-834.907306463334</v>
+        <v>-765.4095545320561</v>
       </c>
       <c r="AF6" s="4">
-        <v>-0.06166104433041009</v>
+        <v>-0.05867261398838608</v>
       </c>
       <c r="AG6" s="4">
-        <v>-0.1250826132699021</v>
+        <v>-0.1264157734627895</v>
       </c>
       <c r="AH6" s="4">
-        <v>-0.08645006017763968</v>
+        <v>-0.08768198823852869</v>
       </c>
       <c r="AI6" s="4">
-        <v>-0.1080097613158099</v>
+        <v>-0.1089098088201444</v>
       </c>
       <c r="AJ6" s="4">
-        <v>-0.07491169243732665</v>
+        <v>-0.06670126194393788</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -987,106 +987,106 @@
         <v>27</v>
       </c>
       <c r="C7" s="2">
-        <v>1376</v>
+        <v>1390</v>
       </c>
       <c r="D7" s="2">
-        <v>319893.5</v>
+        <v>323953</v>
       </c>
       <c r="E7" s="2">
-        <v>326834</v>
+        <v>330896.5</v>
       </c>
       <c r="F7" s="2">
-        <v>331713</v>
+        <v>335893.5</v>
       </c>
       <c r="G7" s="2">
-        <v>332919</v>
+        <v>337127</v>
       </c>
       <c r="H7" s="2">
-        <v>331896</v>
+        <v>336052.5</v>
       </c>
       <c r="I7" s="2">
-        <v>328784.5</v>
+        <v>332844</v>
       </c>
       <c r="J7" s="3">
-        <v>1779766642.741155</v>
+        <v>1855330315.387599</v>
       </c>
       <c r="K7" s="3">
-        <v>1747634750.94306</v>
+        <v>1827395161.202692</v>
       </c>
       <c r="L7" s="3">
-        <v>1761017201.287464</v>
+        <v>1831155520.936143</v>
       </c>
       <c r="M7" s="3">
-        <v>1769672254.759068</v>
+        <v>1842780201.233594</v>
       </c>
       <c r="N7" s="3">
-        <v>1748513555.124352</v>
+        <v>1822460492.145541</v>
       </c>
       <c r="O7" s="3">
-        <v>1833778872.081624</v>
+        <v>1927835922.957644</v>
       </c>
       <c r="P7" s="4">
-        <v>0.7311046511627907</v>
+        <v>0.7107913669064748</v>
       </c>
       <c r="Q7" s="4">
-        <v>0.7136627906976745</v>
+        <v>0.7223021582733813</v>
       </c>
       <c r="R7" s="4">
-        <v>0.6809593023255814</v>
+        <v>0.6928057553956835</v>
       </c>
       <c r="S7" s="4">
-        <v>0.7456395348837209</v>
+        <v>0.7503597122302158</v>
       </c>
       <c r="T7" s="4">
-        <v>0.5</v>
+        <v>0.4568345323741007</v>
       </c>
       <c r="U7" s="5">
-        <v>5563.622401646657</v>
+        <v>5727.158925484866</v>
       </c>
       <c r="V7" s="5">
-        <v>5347.163241716163</v>
+        <v>5522.558144926561</v>
       </c>
       <c r="W7" s="5">
-        <v>5308.857962417705</v>
+        <v>5451.595582933708</v>
       </c>
       <c r="X7" s="5">
-        <v>5315.624085014876</v>
+        <v>5466.130571664667</v>
       </c>
       <c r="Y7" s="5">
-        <v>5268.257391244099</v>
+        <v>5423.142193989158</v>
       </c>
       <c r="Z7" s="5">
-        <v>5577.44927781457</v>
+        <v>5792.010440199145</v>
       </c>
       <c r="AA7" s="5">
-        <v>-216.459159930494</v>
+        <v>-204.6007805583049</v>
       </c>
       <c r="AB7" s="5">
-        <v>-254.7644392289521</v>
+        <v>-275.5633425511578</v>
       </c>
       <c r="AC7" s="5">
-        <v>-247.9983166317807</v>
+        <v>-261.0283538201993</v>
       </c>
       <c r="AD7" s="5">
-        <v>-295.3650104025573</v>
+        <v>-304.016731495708</v>
       </c>
       <c r="AE7" s="5">
-        <v>13.82687616791281</v>
+        <v>64.85151471427889</v>
       </c>
       <c r="AF7" s="4">
-        <v>-0.03890615579274914</v>
+        <v>-0.03572465566615701</v>
       </c>
       <c r="AG7" s="4">
-        <v>-0.04579110889221205</v>
+        <v>-0.04811519046991142</v>
       </c>
       <c r="AH7" s="4">
-        <v>-0.0445749726937581</v>
+        <v>-0.04557728486609103</v>
       </c>
       <c r="AI7" s="4">
-        <v>-0.05308861548820043</v>
+        <v>-0.05308334122576663</v>
       </c>
       <c r="AJ7" s="4">
-        <v>0.002485229077340056</v>
+        <v>0.01132350534672621</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -1095,106 +1095,106 @@
         <v>28</v>
       </c>
       <c r="C8" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D8" s="2">
-        <v>207014.5</v>
+        <v>206454.5</v>
       </c>
       <c r="E8" s="2">
-        <v>208765</v>
+        <v>208257</v>
       </c>
       <c r="F8" s="2">
-        <v>209621</v>
+        <v>208781</v>
       </c>
       <c r="G8" s="2">
-        <v>213466.5</v>
+        <v>212648.5</v>
       </c>
       <c r="H8" s="2">
-        <v>218934</v>
+        <v>218210</v>
       </c>
       <c r="I8" s="2">
-        <v>224378</v>
+        <v>223711</v>
       </c>
       <c r="J8" s="3">
-        <v>1388157528.368349</v>
+        <v>1425849367.144096</v>
       </c>
       <c r="K8" s="3">
-        <v>1357304266.743546</v>
+        <v>1396764481.568874</v>
       </c>
       <c r="L8" s="3">
-        <v>1314462535.46085</v>
+        <v>1349611549.208781</v>
       </c>
       <c r="M8" s="3">
-        <v>1323075835.791836</v>
+        <v>1353722004.740073</v>
       </c>
       <c r="N8" s="3">
-        <v>1331128615.512582</v>
+        <v>1365855805.927799</v>
       </c>
       <c r="O8" s="3">
-        <v>1425527191.773659</v>
+        <v>1477377860.607134</v>
       </c>
       <c r="P8" s="4">
-        <v>0.704225352112676</v>
+        <v>0.6933962264150944</v>
       </c>
       <c r="Q8" s="4">
-        <v>0.8262910798122066</v>
+        <v>0.8443396226415094</v>
       </c>
       <c r="R8" s="4">
-        <v>0.8685446009389671</v>
+        <v>0.8726415094339622</v>
       </c>
       <c r="S8" s="4">
-        <v>0.8826291079812206</v>
+        <v>0.8962264150943396</v>
       </c>
       <c r="T8" s="4">
-        <v>0.6948356807511737</v>
+        <v>0.6745283018867925</v>
       </c>
       <c r="U8" s="5">
-        <v>6705.605299958936</v>
+        <v>6906.361290958039</v>
       </c>
       <c r="V8" s="5">
-        <v>6501.589187572371</v>
+        <v>6706.926929557583</v>
       </c>
       <c r="W8" s="5">
-        <v>6270.662459681281</v>
+        <v>6464.245066403459</v>
       </c>
       <c r="X8" s="5">
-        <v>6198.049041848889</v>
+        <v>6366.007776871566</v>
       </c>
       <c r="Y8" s="5">
-        <v>6080.045198610458</v>
+        <v>6259.363942659817</v>
       </c>
       <c r="Z8" s="5">
-        <v>6353.239585760007</v>
+        <v>6603.957161727114</v>
       </c>
       <c r="AA8" s="5">
-        <v>-204.0161123865655</v>
+        <v>-199.4343614004556</v>
       </c>
       <c r="AB8" s="5">
-        <v>-434.9428402776557</v>
+        <v>-442.1162245545802</v>
       </c>
       <c r="AC8" s="5">
-        <v>-507.5562581100476</v>
+        <v>-540.3535140864724</v>
       </c>
       <c r="AD8" s="5">
-        <v>-625.5601013484784</v>
+        <v>-646.9973482982223</v>
       </c>
       <c r="AE8" s="5">
-        <v>-352.3657141989297</v>
+        <v>-302.4041292309248</v>
       </c>
       <c r="AF8" s="4">
-        <v>-0.03042471235039956</v>
+        <v>-0.02887690825870337</v>
       </c>
       <c r="AG8" s="4">
-        <v>-0.06486257702646459</v>
+        <v>-0.0640157973104315</v>
       </c>
       <c r="AH8" s="4">
-        <v>-0.0756913411102732</v>
+        <v>-0.07823997200869226</v>
       </c>
       <c r="AI8" s="4">
-        <v>-0.09328913250416171</v>
+        <v>-0.09368136433077801</v>
       </c>
       <c r="AJ8" s="4">
-        <v>-0.05254793541174985</v>
+        <v>-0.04378631764122143</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -1203,106 +1203,106 @@
         <v>29</v>
       </c>
       <c r="C9" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2">
-        <v>5343.5</v>
+        <v>5433.5</v>
       </c>
       <c r="E9" s="2">
-        <v>5474</v>
+        <v>5567</v>
       </c>
       <c r="F9" s="2">
-        <v>5638</v>
+        <v>5772</v>
       </c>
       <c r="G9" s="2">
-        <v>5813</v>
+        <v>5946.5</v>
       </c>
       <c r="H9" s="2">
-        <v>6082.5</v>
+        <v>6214.5</v>
       </c>
       <c r="I9" s="2">
-        <v>6330.5</v>
+        <v>6475.5</v>
       </c>
       <c r="J9" s="3">
-        <v>133633944.3299159</v>
+        <v>142621684.6947223</v>
       </c>
       <c r="K9" s="3">
-        <v>134145561.7540575</v>
+        <v>144116296.7151663</v>
       </c>
       <c r="L9" s="3">
-        <v>138226426.0567948</v>
+        <v>148429358.8714131</v>
       </c>
       <c r="M9" s="3">
-        <v>140453663.3069279</v>
+        <v>151295721.0298204</v>
       </c>
       <c r="N9" s="3">
-        <v>130229069.8420104</v>
+        <v>141235938.173811</v>
       </c>
       <c r="O9" s="3">
-        <v>150558866.7044656</v>
+        <v>163303542.4833674</v>
       </c>
       <c r="P9" s="4">
-        <v>0.673469387755102</v>
+        <v>0.64</v>
       </c>
       <c r="Q9" s="4">
-        <v>0.6326530612244898</v>
+        <v>0.66</v>
       </c>
       <c r="R9" s="4">
-        <v>0.6530612244897959</v>
+        <v>0.66</v>
       </c>
       <c r="S9" s="4">
-        <v>0.8571428571428571</v>
+        <v>0.86</v>
       </c>
       <c r="T9" s="4">
-        <v>0.7346938775510204</v>
+        <v>0.72</v>
       </c>
       <c r="U9" s="5">
-        <v>25008.6917432237</v>
+        <v>26248.58464980626</v>
       </c>
       <c r="V9" s="5">
-        <v>24505.94843881211</v>
+        <v>25887.60494254829</v>
       </c>
       <c r="W9" s="5">
-        <v>24516.92551557197</v>
+        <v>25715.41213988447</v>
       </c>
       <c r="X9" s="5">
-        <v>24161.99265558712</v>
+        <v>25442.818637824</v>
       </c>
       <c r="Y9" s="5">
-        <v>21410.45126872345</v>
+        <v>22726.83855077819</v>
       </c>
       <c r="Z9" s="5">
-        <v>23783.09244206075</v>
+        <v>25218.67693357539</v>
       </c>
       <c r="AA9" s="5">
-        <v>-502.7433044115969</v>
+        <v>-360.9797072579677</v>
       </c>
       <c r="AB9" s="5">
-        <v>-491.7662276517294</v>
+        <v>-533.1725099217911</v>
       </c>
       <c r="AC9" s="5">
-        <v>-846.699087636578</v>
+        <v>-805.7660119822613</v>
       </c>
       <c r="AD9" s="5">
-        <v>-3598.240474500253</v>
+        <v>-3521.746099028067</v>
       </c>
       <c r="AE9" s="5">
-        <v>-1225.599301162951</v>
+        <v>-1029.907716230871</v>
       </c>
       <c r="AF9" s="4">
-        <v>-0.02010274306123272</v>
+        <v>-0.01375234939612757</v>
       </c>
       <c r="AG9" s="4">
-        <v>-0.01966381259367467</v>
+        <v>-0.02031242891893326</v>
       </c>
       <c r="AH9" s="4">
-        <v>-0.03385619273211271</v>
+        <v>-0.03069750322664389</v>
       </c>
       <c r="AI9" s="4">
-        <v>-0.1438795963997287</v>
+        <v>-0.134168990290837</v>
       </c>
       <c r="AJ9" s="4">
-        <v>-0.04900693381912058</v>
+        <v>-0.03923669523409801</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -1334,22 +1334,22 @@
         <v>3188</v>
       </c>
       <c r="J10" s="3">
-        <v>14578590.98373765</v>
+        <v>15010208.58985111</v>
       </c>
       <c r="K10" s="3">
-        <v>15028165.70916977</v>
+        <v>15522372.39049169</v>
       </c>
       <c r="L10" s="3">
-        <v>15344170.7973914</v>
+        <v>15774381.37924194</v>
       </c>
       <c r="M10" s="3">
-        <v>16249186.07841567</v>
+        <v>16707702.89314117</v>
       </c>
       <c r="N10" s="3">
-        <v>15969943.70145996</v>
+        <v>16426162.78280942</v>
       </c>
       <c r="O10" s="3">
-        <v>18898327.9609162</v>
+        <v>19630530.85630392</v>
       </c>
       <c r="P10" s="4">
         <v>0.6666666666666666</v>
@@ -1367,52 +1367,52 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="U10" s="5">
-        <v>6024.211150304813</v>
+        <v>6202.565532996326</v>
       </c>
       <c r="V10" s="5">
-        <v>6121.452427360396</v>
+        <v>6322.758611198246</v>
       </c>
       <c r="W10" s="5">
-        <v>5863.267404429271</v>
+        <v>6027.658150264403</v>
       </c>
       <c r="X10" s="5">
-        <v>5801.20888197632</v>
+        <v>5964.906423827623</v>
       </c>
       <c r="Y10" s="5">
-        <v>5355.447250657263</v>
+        <v>5508.438223611476</v>
       </c>
       <c r="Z10" s="5">
-        <v>5927.957327765433</v>
+        <v>6157.632012642385</v>
       </c>
       <c r="AA10" s="5">
-        <v>97.24127705558294</v>
+        <v>120.1930782019208</v>
       </c>
       <c r="AB10" s="5">
-        <v>-160.9437458755419</v>
+        <v>-174.9073827319226</v>
       </c>
       <c r="AC10" s="5">
-        <v>-223.0022683284924</v>
+        <v>-237.6591091687023</v>
       </c>
       <c r="AD10" s="5">
-        <v>-668.7638996475498</v>
+        <v>-694.1273093848495</v>
       </c>
       <c r="AE10" s="5">
-        <v>-96.25382253938005</v>
+        <v>-44.93352035394037</v>
       </c>
       <c r="AF10" s="4">
-        <v>0.0161417444756502</v>
+        <v>0.01937796183893892</v>
       </c>
       <c r="AG10" s="4">
-        <v>-0.02671615284723183</v>
+        <v>-0.0281991994766444</v>
       </c>
       <c r="AH10" s="4">
-        <v>-0.03701767132070211</v>
+        <v>-0.03831625928084215</v>
       </c>
       <c r="AI10" s="4">
-        <v>-0.1110126924441737</v>
+        <v>-0.1119097098921793</v>
       </c>
       <c r="AJ10" s="4">
-        <v>-0.01597783014868426</v>
+        <v>-0.007244344314445983</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -1442,22 +1442,22 @@
         <v>10175</v>
       </c>
       <c r="J11" s="3">
-        <v>55219597.51896394</v>
+        <v>56854443.47343721</v>
       </c>
       <c r="K11" s="3">
-        <v>56074909.29770054</v>
+        <v>57918953.03302713</v>
       </c>
       <c r="L11" s="3">
-        <v>56204896.41731188</v>
+        <v>57780735.31468989</v>
       </c>
       <c r="M11" s="3">
-        <v>55817311.78107522</v>
+        <v>57474124.15215912</v>
       </c>
       <c r="N11" s="3">
-        <v>57341395.08711211</v>
+        <v>58979487.18555497</v>
       </c>
       <c r="O11" s="3">
-        <v>61710369.13825729</v>
+        <v>64101295.52348692</v>
       </c>
       <c r="P11" s="4">
         <v>0.8571428571428571</v>
@@ -1475,52 +1475,52 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="U11" s="5">
-        <v>6703.848187321105</v>
+        <v>6902.324083214424</v>
       </c>
       <c r="V11" s="5">
-        <v>6371.424758288892</v>
+        <v>6580.951372915252</v>
       </c>
       <c r="W11" s="5">
-        <v>6062.441637073873</v>
+        <v>6232.416709598737</v>
       </c>
       <c r="X11" s="5">
-        <v>5877.362512485544</v>
+        <v>6051.818906197655</v>
       </c>
       <c r="Y11" s="5">
-        <v>5825.601451499757</v>
+        <v>5992.023487306204</v>
       </c>
       <c r="Z11" s="5">
-        <v>6064.901143809071</v>
+        <v>6299.881623929919</v>
       </c>
       <c r="AA11" s="5">
-        <v>-332.4234290322129</v>
+        <v>-321.3727102991716</v>
       </c>
       <c r="AB11" s="5">
-        <v>-641.4065502472322</v>
+        <v>-669.907373615687</v>
       </c>
       <c r="AC11" s="5">
-        <v>-826.4856748355605</v>
+        <v>-850.5051770167693</v>
       </c>
       <c r="AD11" s="5">
-        <v>-878.246735821348</v>
+        <v>-910.3005959082202</v>
       </c>
       <c r="AE11" s="5">
-        <v>-638.9470435120338</v>
+        <v>-602.4424592845053</v>
       </c>
       <c r="AF11" s="4">
-        <v>-0.04958695658725099</v>
+        <v>-0.0465600725820321</v>
       </c>
       <c r="AG11" s="4">
-        <v>-0.09567736803173965</v>
+        <v>-0.09705533462921812</v>
       </c>
       <c r="AH11" s="4">
-        <v>-0.123285261202466</v>
+        <v>-0.1232201164076155</v>
       </c>
       <c r="AI11" s="4">
-        <v>-0.131006358032147</v>
+        <v>-0.1318832012136254</v>
       </c>
       <c r="AJ11" s="4">
-        <v>-0.09531048819399957</v>
+        <v>-0.08728110300551795</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -1550,22 +1550,22 @@
         <v>2225.5</v>
       </c>
       <c r="J12" s="3">
-        <v>22046906.51495828</v>
+        <v>22699633.03858518</v>
       </c>
       <c r="K12" s="3">
-        <v>20775804.0084244</v>
+        <v>21459023.86036769</v>
       </c>
       <c r="L12" s="3">
-        <v>21133958.09303799</v>
+        <v>21726499.2298687</v>
       </c>
       <c r="M12" s="3">
-        <v>21585064.10601828</v>
+        <v>22194147.83438323</v>
       </c>
       <c r="N12" s="3">
-        <v>20332804.89056044</v>
+        <v>20913659.38459234</v>
       </c>
       <c r="O12" s="3">
-        <v>19733642.34325752</v>
+        <v>20498208.92767499</v>
       </c>
       <c r="P12" s="4">
         <v>0.6206896551724138</v>
@@ -1583,52 +1583,52 @@
         <v>0.6551724137931034</v>
       </c>
       <c r="U12" s="5">
-        <v>10650.67947582526</v>
+        <v>10966.00629883342</v>
       </c>
       <c r="V12" s="5">
-        <v>9837.028413079735</v>
+        <v>10160.52266115894</v>
       </c>
       <c r="W12" s="5">
-        <v>9164.76933783087</v>
+        <v>9421.725598381918</v>
       </c>
       <c r="X12" s="5">
-        <v>9092.276371532555</v>
+        <v>9348.840705300436</v>
       </c>
       <c r="Y12" s="5">
-        <v>8151.054275630565</v>
+        <v>8383.908352211804</v>
       </c>
       <c r="Z12" s="5">
-        <v>8867.060140758264</v>
+        <v>9210.608370107837</v>
       </c>
       <c r="AA12" s="5">
-        <v>-813.6510627455227</v>
+        <v>-805.4836376744788</v>
       </c>
       <c r="AB12" s="5">
-        <v>-1485.910137994388</v>
+        <v>-1544.280700451503</v>
       </c>
       <c r="AC12" s="5">
-        <v>-1558.403104292704</v>
+        <v>-1617.165593532985</v>
       </c>
       <c r="AD12" s="5">
-        <v>-2499.625200194693</v>
+        <v>-2582.097946621618</v>
       </c>
       <c r="AE12" s="5">
-        <v>-1783.619335066995</v>
+        <v>-1755.397928725584</v>
       </c>
       <c r="AF12" s="4">
-        <v>-0.07639428682389093</v>
+        <v>-0.07345277904501724</v>
       </c>
       <c r="AG12" s="4">
-        <v>-0.139513177667874</v>
+        <v>-0.1408243492086801</v>
       </c>
       <c r="AH12" s="4">
-        <v>-0.1463195947103603</v>
+        <v>-0.1474707883128812</v>
       </c>
       <c r="AI12" s="4">
-        <v>-0.2346916181139713</v>
+        <v>-0.2354638394559654</v>
       </c>
       <c r="AJ12" s="4">
-        <v>-0.1674653095246575</v>
+        <v>-0.1600763195724524</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -1637,106 +1637,106 @@
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>1578</v>
+        <v>1598</v>
       </c>
       <c r="D13" s="2">
-        <v>403466</v>
+        <v>407977</v>
       </c>
       <c r="E13" s="2">
-        <v>411735.5</v>
+        <v>416383.5</v>
       </c>
       <c r="F13" s="2">
-        <v>419212.5</v>
+        <v>423708</v>
       </c>
       <c r="G13" s="2">
-        <v>423320.5</v>
+        <v>427774</v>
       </c>
       <c r="H13" s="2">
-        <v>424333.5</v>
+        <v>428904</v>
       </c>
       <c r="I13" s="2">
-        <v>421926.5</v>
+        <v>426417.5</v>
       </c>
       <c r="J13" s="3">
-        <v>2245408576.411232</v>
+        <v>2338668828.764657</v>
       </c>
       <c r="K13" s="3">
-        <v>2202793185.03414</v>
+        <v>2299322951.42425</v>
       </c>
       <c r="L13" s="3">
-        <v>2206946648.297269</v>
+        <v>2294659017.601403</v>
       </c>
       <c r="M13" s="3">
-        <v>2222166005.837203</v>
+        <v>2309766753.578516</v>
       </c>
       <c r="N13" s="3">
-        <v>2179705581.652573</v>
+        <v>2269176444.468121</v>
       </c>
       <c r="O13" s="3">
-        <v>2264860733.15748</v>
+        <v>2376711071.615579</v>
       </c>
       <c r="P13" s="4">
-        <v>0.7230671736375158</v>
+        <v>0.7090112640801002</v>
       </c>
       <c r="Q13" s="4">
-        <v>0.7509505703422054</v>
+        <v>0.7565707133917396</v>
       </c>
       <c r="R13" s="4">
-        <v>0.7401774397972116</v>
+        <v>0.7434292866082604</v>
       </c>
       <c r="S13" s="4">
-        <v>0.7921419518377694</v>
+        <v>0.7934918648310388</v>
       </c>
       <c r="T13" s="4">
-        <v>0.6261089987325729</v>
+        <v>0.5826032540675845</v>
       </c>
       <c r="U13" s="5">
-        <v>5565.298132708162</v>
+        <v>5732.354590490779</v>
       </c>
       <c r="V13" s="5">
-        <v>5350.020061505845</v>
+        <v>5522.127921553687</v>
       </c>
       <c r="W13" s="5">
-        <v>5264.505825320735</v>
+        <v>5415.661298822309</v>
       </c>
       <c r="X13" s="5">
-        <v>5249.370171860806</v>
+        <v>5399.502432542689</v>
       </c>
       <c r="Y13" s="5">
-        <v>5136.77468701522</v>
+        <v>5290.639500839629</v>
       </c>
       <c r="Z13" s="5">
-        <v>5367.903493043172</v>
+        <v>5573.671511172921</v>
       </c>
       <c r="AA13" s="5">
-        <v>-215.2780712023177</v>
+        <v>-210.2266689370917</v>
       </c>
       <c r="AB13" s="5">
-        <v>-300.7923073874272</v>
+        <v>-316.69329166847</v>
       </c>
       <c r="AC13" s="5">
-        <v>-315.9279608473562</v>
+        <v>-332.8521579480894</v>
       </c>
       <c r="AD13" s="5">
-        <v>-428.5234456929429</v>
+        <v>-441.7150896511494</v>
       </c>
       <c r="AE13" s="5">
-        <v>-197.3946396649908</v>
+        <v>-158.6830793178578</v>
       </c>
       <c r="AF13" s="4">
-        <v>-0.03868221720901055</v>
+        <v>-0.03667370285952476</v>
       </c>
       <c r="AG13" s="4">
-        <v>-0.05404783359576404</v>
+        <v>-0.05524663324104595</v>
       </c>
       <c r="AH13" s="4">
-        <v>-0.0567674818695868</v>
+        <v>-0.05806552136538223</v>
       </c>
       <c r="AI13" s="4">
-        <v>-0.07699918952669238</v>
+        <v>-0.07705648397674081</v>
       </c>
       <c r="AJ13" s="4">
-        <v>-0.03546883472511031</v>
+        <v>-0.02768200689836808</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -1745,106 +1745,106 @@
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D14" s="2">
-        <v>292766</v>
+        <v>295572</v>
       </c>
       <c r="E14" s="2">
-        <v>295917.5</v>
+        <v>298611.5</v>
       </c>
       <c r="F14" s="2">
-        <v>298434</v>
+        <v>300909</v>
       </c>
       <c r="G14" s="2">
-        <v>304216.5</v>
+        <v>306775.5</v>
       </c>
       <c r="H14" s="2">
-        <v>310996.5</v>
+        <v>313553.5</v>
       </c>
       <c r="I14" s="2">
-        <v>317406</v>
+        <v>320084</v>
       </c>
       <c r="J14" s="3">
-        <v>1956361487.042951</v>
+        <v>2034176008.852649</v>
       </c>
       <c r="K14" s="3">
-        <v>1945637939.968006</v>
+        <v>2028466589.401191</v>
       </c>
       <c r="L14" s="3">
-        <v>1891487490.558386</v>
+        <v>1960162703.28705</v>
       </c>
       <c r="M14" s="3">
-        <v>1892553584.952112</v>
+        <v>1961882157.593384</v>
       </c>
       <c r="N14" s="3">
-        <v>1858728772.51091</v>
+        <v>1930077584.298396</v>
       </c>
       <c r="O14" s="3">
-        <v>2009326106.535505</v>
+        <v>2105628825.36044</v>
       </c>
       <c r="P14" s="4">
-        <v>0.6357388316151202</v>
+        <v>0.6177474402730375</v>
       </c>
       <c r="Q14" s="4">
-        <v>0.7628865979381443</v>
+        <v>0.7713310580204779</v>
       </c>
       <c r="R14" s="4">
-        <v>0.8144329896907216</v>
+        <v>0.8122866894197952</v>
       </c>
       <c r="S14" s="4">
-        <v>0.9209621993127147</v>
+        <v>0.9283276450511946</v>
       </c>
       <c r="T14" s="4">
-        <v>0.738831615120275</v>
+        <v>0.7201365187713311</v>
       </c>
       <c r="U14" s="5">
-        <v>6682.338410344614</v>
+        <v>6882.167488302848</v>
       </c>
       <c r="V14" s="5">
-        <v>6574.93368918028</v>
+        <v>6792.995545721418</v>
       </c>
       <c r="W14" s="5">
-        <v>6338.042885724771</v>
+        <v>6514.137839968397</v>
       </c>
       <c r="X14" s="5">
-        <v>6221.074744309108</v>
+        <v>6395.172227226048</v>
       </c>
       <c r="Y14" s="5">
-        <v>5976.687109053992</v>
+        <v>6155.496858744667</v>
       </c>
       <c r="Z14" s="5">
-        <v>6330.460377357407</v>
+        <v>6578.363258895914</v>
       </c>
       <c r="AA14" s="5">
-        <v>-107.4047211643338</v>
+        <v>-89.1719425814299</v>
       </c>
       <c r="AB14" s="5">
-        <v>-344.2955246198435</v>
+        <v>-368.0296483344509</v>
       </c>
       <c r="AC14" s="5">
-        <v>-461.2636660355065</v>
+        <v>-486.9952610768005</v>
       </c>
       <c r="AD14" s="5">
-        <v>-705.6513012906225</v>
+        <v>-726.6706295581807</v>
       </c>
       <c r="AE14" s="5">
-        <v>-351.878032987207</v>
+        <v>-303.8042294069337</v>
       </c>
       <c r="AF14" s="4">
-        <v>-0.0160729245615675</v>
+        <v>-0.01295695618175374</v>
       </c>
       <c r="AG14" s="4">
-        <v>-0.05152320991209536</v>
+        <v>-0.05347583431527436</v>
       </c>
       <c r="AH14" s="4">
-        <v>-0.0690272832219101</v>
+        <v>-0.07076190195959531</v>
       </c>
       <c r="AI14" s="4">
-        <v>-0.1055994560524257</v>
+        <v>-0.1055874665638773</v>
       </c>
       <c r="AJ14" s="4">
-        <v>-0.05265791873732117</v>
+        <v>-0.04414368437317007</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -1853,106 +1853,106 @@
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2">
-        <v>8214.5</v>
+        <v>8368.5</v>
       </c>
       <c r="E15" s="2">
-        <v>8555.5</v>
+        <v>8708.5</v>
       </c>
       <c r="F15" s="2">
-        <v>8956.5</v>
+        <v>9121.5</v>
       </c>
       <c r="G15" s="2">
-        <v>9391.5</v>
+        <v>9564.5</v>
       </c>
       <c r="H15" s="2">
-        <v>9810.5</v>
+        <v>9983.5</v>
       </c>
       <c r="I15" s="2">
-        <v>10184</v>
+        <v>10355</v>
       </c>
       <c r="J15" s="3">
-        <v>198974121.2715295</v>
+        <v>207574757.7736464</v>
       </c>
       <c r="K15" s="3">
-        <v>199618324.4457866</v>
+        <v>208852282.4556141</v>
       </c>
       <c r="L15" s="3">
-        <v>208127117.0406097</v>
+        <v>215633758.3483313</v>
       </c>
       <c r="M15" s="3">
-        <v>213583844.9521582</v>
+        <v>222305584.3145724</v>
       </c>
       <c r="N15" s="3">
-        <v>199579252.5316689</v>
+        <v>207134192.4419975</v>
       </c>
       <c r="O15" s="3">
-        <v>231487717.7414921</v>
+        <v>243643487.4959666</v>
       </c>
       <c r="P15" s="4">
-        <v>0.7826086956521739</v>
+        <v>0.7571428571428571</v>
       </c>
       <c r="Q15" s="4">
-        <v>0.6811594202898551</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="R15" s="4">
-        <v>0.7826086956521739</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="S15" s="4">
-        <v>0.8405797101449275</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="T15" s="4">
-        <v>0.7101449275362319</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="U15" s="5">
-        <v>24222.3046164136</v>
+        <v>24804.29680034013</v>
       </c>
       <c r="V15" s="5">
-        <v>23332.16345576373</v>
+        <v>23982.57822307103</v>
       </c>
       <c r="W15" s="5">
-        <v>23237.55005198567</v>
+        <v>23640.16426556282</v>
       </c>
       <c r="X15" s="5">
-        <v>22742.25043413281</v>
+        <v>23242.7815687775</v>
       </c>
       <c r="Y15" s="5">
-        <v>20343.43331447621</v>
+        <v>20747.65287143763</v>
       </c>
       <c r="Z15" s="5">
-        <v>22730.53002174903</v>
+        <v>23529.06687551585</v>
       </c>
       <c r="AA15" s="5">
-        <v>-890.1411606498696</v>
+        <v>-821.7185772691009</v>
       </c>
       <c r="AB15" s="5">
-        <v>-984.7545644279235</v>
+        <v>-1164.132534777309</v>
       </c>
       <c r="AC15" s="5">
-        <v>-1480.05418228079</v>
+        <v>-1561.515231562629</v>
       </c>
       <c r="AD15" s="5">
-        <v>-3878.871301937383</v>
+        <v>-4056.643928902504</v>
       </c>
       <c r="AE15" s="5">
-        <v>-1491.77459466457</v>
+        <v>-1275.229924824278</v>
       </c>
       <c r="AF15" s="4">
-        <v>-0.03674882199469531</v>
+        <v>-0.03312807389314232</v>
       </c>
       <c r="AG15" s="4">
-        <v>-0.04065486666205287</v>
+        <v>-0.0469326965464042</v>
       </c>
       <c r="AH15" s="4">
-        <v>-0.06110294646686387</v>
+        <v>-0.06295341666534227</v>
       </c>
       <c r="AI15" s="4">
-        <v>-0.1601363438930979</v>
+        <v>-0.1635460163033881</v>
       </c>
       <c r="AJ15" s="4">
-        <v>-0.0615868150569665</v>
+        <v>-0.05141165400047909</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -1984,22 +1984,22 @@
         <v>1399</v>
       </c>
       <c r="J16" s="3">
-        <v>7942049.943677641</v>
+        <v>8177184.367034983</v>
       </c>
       <c r="K16" s="3">
-        <v>7473811.918731184</v>
+        <v>7719590.935056951</v>
       </c>
       <c r="L16" s="3">
-        <v>8183324.84769804</v>
+        <v>8412763.961136395</v>
       </c>
       <c r="M16" s="3">
-        <v>9299855.781158548</v>
+        <v>9562277.555985011</v>
       </c>
       <c r="N16" s="3">
-        <v>9856331.110631008</v>
+        <v>10137900.43916641</v>
       </c>
       <c r="O16" s="3">
-        <v>10169568.86381339</v>
+        <v>10563581.90995845</v>
       </c>
       <c r="P16" s="4">
         <v>1</v>
@@ -2017,52 +2017,52 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="U16" s="5">
-        <v>8567.47566739767</v>
+        <v>8821.126609530726</v>
       </c>
       <c r="V16" s="5">
-        <v>7273.782889276091</v>
+        <v>7512.983878400925</v>
       </c>
       <c r="W16" s="5">
-        <v>6894.123713309216</v>
+        <v>7087.416984950628</v>
       </c>
       <c r="X16" s="5">
-        <v>6966.18410573674</v>
+        <v>7162.754723584278</v>
       </c>
       <c r="Y16" s="5">
-        <v>7215.469334283314</v>
+        <v>7421.59622193734</v>
       </c>
       <c r="Z16" s="5">
-        <v>7269.170024169683</v>
+        <v>7550.809085031056</v>
       </c>
       <c r="AA16" s="5">
-        <v>-1293.692778121579</v>
+        <v>-1308.1427311298</v>
       </c>
       <c r="AB16" s="5">
-        <v>-1673.351954088454</v>
+        <v>-1733.709624580098</v>
       </c>
       <c r="AC16" s="5">
-        <v>-1601.29156166093</v>
+        <v>-1658.371885946448</v>
       </c>
       <c r="AD16" s="5">
-        <v>-1352.006333114356</v>
+        <v>-1399.530387593386</v>
       </c>
       <c r="AE16" s="5">
-        <v>-1298.305643227987</v>
+        <v>-1270.317524499669</v>
       </c>
       <c r="AF16" s="4">
-        <v>-0.1510004613196096</v>
+        <v>-0.1482965599560068</v>
       </c>
       <c r="AG16" s="4">
-        <v>-0.1953144682343435</v>
+        <v>-0.1965406122509253</v>
       </c>
       <c r="AH16" s="4">
-        <v>-0.18690354356703</v>
+        <v>-0.1880000094494361</v>
       </c>
       <c r="AI16" s="4">
-        <v>-0.1578068483181372</v>
+        <v>-0.1586566489229702</v>
       </c>
       <c r="AJ16" s="4">
-        <v>-0.1515388772177676</v>
+        <v>-0.1440085355001212</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -2092,25 +2092,25 @@
         <v>49491.5</v>
       </c>
       <c r="J17" s="3">
-        <v>319517778.1837139</v>
+        <v>328977505.7173407</v>
       </c>
       <c r="K17" s="3">
-        <v>325962767.7372482</v>
+        <v>336682171.6083167</v>
       </c>
       <c r="L17" s="3">
-        <v>330059883.3376355</v>
+        <v>339313902.7519883</v>
       </c>
       <c r="M17" s="3">
-        <v>342071225.0031096</v>
+        <v>351723733.6112803</v>
       </c>
       <c r="N17" s="3">
-        <v>340087121.2350523</v>
+        <v>349802511.4035509</v>
       </c>
       <c r="O17" s="3">
-        <v>368134517.9100609</v>
+        <v>382397640.0478166</v>
       </c>
       <c r="P17" s="4">
-        <v>0.8529411764705882</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="Q17" s="4">
         <v>0.8529411764705882</v>
@@ -2122,55 +2122,55 @@
         <v>0.9411764705882353</v>
       </c>
       <c r="T17" s="4">
-        <v>0.8235294117647058</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="U17" s="5">
-        <v>8324.135476135261</v>
+        <v>8570.582024445823</v>
       </c>
       <c r="V17" s="5">
-        <v>8000.55882032885</v>
+        <v>8263.660099608926</v>
       </c>
       <c r="W17" s="5">
-        <v>7662.001818527897</v>
+        <v>7876.824392130191</v>
       </c>
       <c r="X17" s="5">
-        <v>7473.536191105931</v>
+        <v>7684.423185232577</v>
       </c>
       <c r="Y17" s="5">
-        <v>7089.135998062501</v>
+        <v>7291.653876212679</v>
       </c>
       <c r="Z17" s="5">
-        <v>7438.338258288008</v>
+        <v>7726.531627609117</v>
       </c>
       <c r="AA17" s="5">
-        <v>-323.5766558064115</v>
+        <v>-306.9219248368972</v>
       </c>
       <c r="AB17" s="5">
-        <v>-662.1336576073645</v>
+        <v>-693.7576323156318</v>
       </c>
       <c r="AC17" s="5">
-        <v>-850.5992850293305</v>
+        <v>-886.1588392132462</v>
       </c>
       <c r="AD17" s="5">
-        <v>-1234.99947807276</v>
+        <v>-1278.928148233143</v>
       </c>
       <c r="AE17" s="5">
-        <v>-885.7972178472537</v>
+        <v>-844.0503968367057</v>
       </c>
       <c r="AF17" s="4">
-        <v>-0.03887210350361114</v>
+        <v>-0.03581109473796129</v>
       </c>
       <c r="AG17" s="4">
-        <v>-0.07954383485295946</v>
+        <v>-0.08094638501058982</v>
       </c>
       <c r="AH17" s="4">
-        <v>-0.1021846998367508</v>
+        <v>-0.1033954096332852</v>
       </c>
       <c r="AI17" s="4">
-        <v>-0.1483636927358307</v>
+        <v>-0.1492230217954001</v>
       </c>
       <c r="AJ17" s="4">
-        <v>-0.106413118862226</v>
+        <v>-0.09848227278255151</v>
       </c>
     </row>
     <row r="18" spans="1:36">
@@ -2200,22 +2200,22 @@
         <v>4705</v>
       </c>
       <c r="J18" s="3">
-        <v>72148734.14945953</v>
+        <v>74284788.58383138</v>
       </c>
       <c r="K18" s="3">
-        <v>70263026.35265984</v>
+        <v>72573651.46455856</v>
       </c>
       <c r="L18" s="3">
-        <v>69675448.62990604</v>
+        <v>71628966.72427355</v>
       </c>
       <c r="M18" s="3">
-        <v>68898634.7940332</v>
+        <v>70842804.94583294</v>
       </c>
       <c r="N18" s="3">
-        <v>66064208.02720491</v>
+        <v>67951487.83605579</v>
       </c>
       <c r="O18" s="3">
-        <v>63468077.29638176</v>
+        <v>65927104.89169129</v>
       </c>
       <c r="P18" s="4">
         <v>0.6031746031746031</v>
@@ -2233,52 +2233,52 @@
         <v>0.6507936507936508</v>
       </c>
       <c r="U18" s="5">
-        <v>15144.57056033995</v>
+        <v>15592.94470693354</v>
       </c>
       <c r="V18" s="5">
-        <v>14761.13999005459</v>
+        <v>15246.56543373079</v>
       </c>
       <c r="W18" s="5">
-        <v>13843.72116628374</v>
+        <v>14231.86304873307</v>
       </c>
       <c r="X18" s="5">
-        <v>13569.40123959295</v>
+        <v>13952.30033398975</v>
       </c>
       <c r="Y18" s="5">
-        <v>12960.11927949091</v>
+        <v>13330.35563237975</v>
       </c>
       <c r="Z18" s="5">
-        <v>13489.49570592599</v>
+        <v>14012.13706518412</v>
       </c>
       <c r="AA18" s="5">
-        <v>-383.4305702853635</v>
+        <v>-346.3792732027505</v>
       </c>
       <c r="AB18" s="5">
-        <v>-1300.849394056215</v>
+        <v>-1361.081658200468</v>
       </c>
       <c r="AC18" s="5">
-        <v>-1575.169320747002</v>
+        <v>-1640.644372943794</v>
       </c>
       <c r="AD18" s="5">
-        <v>-2184.451280849042</v>
+        <v>-2262.589074553789</v>
       </c>
       <c r="AE18" s="5">
-        <v>-1655.074854413964</v>
+        <v>-1580.807641749419</v>
       </c>
       <c r="AF18" s="4">
-        <v>-0.02531802197742583</v>
+        <v>-0.02221384605107524</v>
       </c>
       <c r="AG18" s="4">
-        <v>-0.08589542957809793</v>
+        <v>-0.08728830145823907</v>
       </c>
       <c r="AH18" s="4">
-        <v>-0.1040088468980426</v>
+        <v>-0.1052170968203503</v>
       </c>
       <c r="AI18" s="4">
-        <v>-0.1442398958851697</v>
+        <v>-0.1451033859914675</v>
       </c>
       <c r="AJ18" s="4">
-        <v>-0.1092850304219397</v>
+        <v>-0.1013796734010414</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -2287,106 +2287,106 @@
         <v>27</v>
       </c>
       <c r="C19" s="2">
-        <v>1558</v>
+        <v>1566</v>
       </c>
       <c r="D19" s="2">
-        <v>623212</v>
+        <v>627857.5</v>
       </c>
       <c r="E19" s="2">
-        <v>629757</v>
+        <v>634626</v>
       </c>
       <c r="F19" s="2">
-        <v>631759</v>
+        <v>636800</v>
       </c>
       <c r="G19" s="2">
-        <v>627868.5</v>
+        <v>633056.5</v>
       </c>
       <c r="H19" s="2">
-        <v>621436.5</v>
+        <v>626677.5</v>
       </c>
       <c r="I19" s="2">
-        <v>606630</v>
+        <v>611784</v>
       </c>
       <c r="J19" s="3">
-        <v>4302490197.799547</v>
+        <v>4461106343.168345</v>
       </c>
       <c r="K19" s="3">
-        <v>4198210446.088875</v>
+        <v>4366248316.952688</v>
       </c>
       <c r="L19" s="3">
-        <v>4178807228.691202</v>
+        <v>4327654712.585733</v>
       </c>
       <c r="M19" s="3">
-        <v>4156717846.287461</v>
+        <v>4308715100.144487</v>
       </c>
       <c r="N19" s="3">
-        <v>3994970519.410413</v>
+        <v>4140957193.646885</v>
       </c>
       <c r="O19" s="3">
-        <v>4027237746.769351</v>
+        <v>4217128339.310565</v>
       </c>
       <c r="P19" s="4">
-        <v>0.7734274711168164</v>
+        <v>0.756066411238825</v>
       </c>
       <c r="Q19" s="4">
-        <v>0.7445442875481386</v>
+        <v>0.7515964240102171</v>
       </c>
       <c r="R19" s="4">
-        <v>0.7105263157894737</v>
+        <v>0.719029374201788</v>
       </c>
       <c r="S19" s="4">
-        <v>0.7933247753530167</v>
+        <v>0.79757343550447</v>
       </c>
       <c r="T19" s="4">
-        <v>0.6463414634146342</v>
+        <v>0.6085568326947637</v>
       </c>
       <c r="U19" s="5">
-        <v>6903.734520194648</v>
+        <v>7105.284787023083</v>
       </c>
       <c r="V19" s="5">
-        <v>6666.397429625831</v>
+        <v>6880.033778875571</v>
       </c>
       <c r="W19" s="5">
-        <v>6614.559078210523</v>
+        <v>6795.940189362019</v>
       </c>
       <c r="X19" s="5">
-        <v>6620.363732672464</v>
+        <v>6806.209398599473</v>
       </c>
       <c r="Y19" s="5">
-        <v>6428.606172006977</v>
+        <v>6607.796184874812</v>
       </c>
       <c r="Z19" s="5">
-        <v>6638.705218616538</v>
+        <v>6893.16546250076</v>
       </c>
       <c r="AA19" s="5">
-        <v>-237.3370905688171</v>
+        <v>-225.251008147512</v>
       </c>
       <c r="AB19" s="5">
-        <v>-289.1754419841254</v>
+        <v>-309.3445976610647</v>
       </c>
       <c r="AC19" s="5">
-        <v>-283.3707875221844</v>
+        <v>-299.0753884236101</v>
       </c>
       <c r="AD19" s="5">
-        <v>-475.1283481876717</v>
+        <v>-497.4886021482716</v>
       </c>
       <c r="AE19" s="5">
-        <v>-265.0293015781099</v>
+        <v>-212.119324522323</v>
       </c>
       <c r="AF19" s="4">
-        <v>-0.03437807318264685</v>
+        <v>-0.0317018972355485</v>
       </c>
       <c r="AG19" s="4">
-        <v>-0.04188681374381298</v>
+        <v>-0.04353725528722563</v>
       </c>
       <c r="AH19" s="4">
-        <v>-0.04104601454376244</v>
+        <v>-0.04209196357193645</v>
       </c>
       <c r="AI19" s="4">
-        <v>-0.06882193207137921</v>
+        <v>-0.07001670123861503</v>
       </c>
       <c r="AJ19" s="4">
-        <v>-0.03838926609979743</v>
+        <v>-0.02985373998094099</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -2395,106 +2395,106 @@
         <v>28</v>
       </c>
       <c r="C20" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D20" s="2">
-        <v>393699.5</v>
+        <v>396392.5</v>
       </c>
       <c r="E20" s="2">
-        <v>400391.5</v>
+        <v>403104.5</v>
       </c>
       <c r="F20" s="2">
-        <v>406329</v>
+        <v>408944</v>
       </c>
       <c r="G20" s="2">
-        <v>415106.5</v>
+        <v>417733.5</v>
       </c>
       <c r="H20" s="2">
-        <v>421935.5</v>
+        <v>424663.5</v>
       </c>
       <c r="I20" s="2">
-        <v>429691.5</v>
+        <v>432410.5</v>
       </c>
       <c r="J20" s="3">
-        <v>3244639809.023779</v>
+        <v>3369142217.839855</v>
       </c>
       <c r="K20" s="3">
-        <v>3178082308.451501</v>
+        <v>3307541998.739901</v>
       </c>
       <c r="L20" s="3">
-        <v>3112754485.062096</v>
+        <v>3220112045.135754</v>
       </c>
       <c r="M20" s="3">
-        <v>3145526707.969503</v>
+        <v>3257780589.852726</v>
       </c>
       <c r="N20" s="3">
-        <v>3072012915.249669</v>
+        <v>3186527599.509147</v>
       </c>
       <c r="O20" s="3">
-        <v>3258960181.46754</v>
+        <v>3411408156.959742</v>
       </c>
       <c r="P20" s="4">
-        <v>0.7702349869451697</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="Q20" s="4">
-        <v>0.8955613577023499</v>
+        <v>0.8992248062015504</v>
       </c>
       <c r="R20" s="4">
-        <v>0.8877284595300261</v>
+        <v>0.896640826873385</v>
       </c>
       <c r="S20" s="4">
-        <v>0.9451697127937336</v>
+        <v>0.9457364341085271</v>
       </c>
       <c r="T20" s="4">
-        <v>0.8433420365535248</v>
+        <v>0.8217054263565892</v>
       </c>
       <c r="U20" s="5">
-        <v>8241.412064337848</v>
+        <v>8499.510504966303</v>
       </c>
       <c r="V20" s="5">
-        <v>7937.437004660441</v>
+        <v>8205.172601000239</v>
       </c>
       <c r="W20" s="5">
-        <v>7660.675179625614</v>
+        <v>7874.212716498478</v>
       </c>
       <c r="X20" s="5">
-        <v>7577.637806128074</v>
+        <v>7798.705609803201</v>
       </c>
       <c r="Y20" s="5">
-        <v>7280.764276174127</v>
+        <v>7503.653126555841</v>
       </c>
       <c r="Z20" s="5">
-        <v>7584.418545555451</v>
+        <v>7889.281497465352</v>
       </c>
       <c r="AA20" s="5">
-        <v>-303.9750596774074</v>
+        <v>-294.3379039660649</v>
       </c>
       <c r="AB20" s="5">
-        <v>-580.7368847122343</v>
+        <v>-625.2977884678257</v>
       </c>
       <c r="AC20" s="5">
-        <v>-663.7742582097744</v>
+        <v>-700.8048951631026</v>
       </c>
       <c r="AD20" s="5">
-        <v>-960.6477881637211</v>
+        <v>-995.8573784104619</v>
       </c>
       <c r="AE20" s="5">
-        <v>-656.9935187823976</v>
+        <v>-610.2290075009514</v>
       </c>
       <c r="AF20" s="4">
-        <v>-0.03688385646833081</v>
+        <v>-0.03462998296126374</v>
       </c>
       <c r="AG20" s="4">
-        <v>-0.07046570177278144</v>
+        <v>-0.07356868234970249</v>
       </c>
       <c r="AH20" s="4">
-        <v>-0.08054132629553268</v>
+        <v>-0.08245238296412705</v>
       </c>
       <c r="AI20" s="4">
-        <v>-0.11656349429737</v>
+        <v>-0.1171664389176974</v>
       </c>
       <c r="AJ20" s="4">
-        <v>-0.07971856201989136</v>
+        <v>-0.07179578249175544</v>
       </c>
     </row>
     <row r="21" spans="1:36">
@@ -2503,106 +2503,106 @@
         <v>29</v>
       </c>
       <c r="C21" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D21" s="2">
-        <v>9623</v>
+        <v>9816</v>
       </c>
       <c r="E21" s="2">
-        <v>9921</v>
+        <v>10127</v>
       </c>
       <c r="F21" s="2">
-        <v>10393</v>
+        <v>10632</v>
       </c>
       <c r="G21" s="2">
-        <v>11068.5</v>
+        <v>11297.5</v>
       </c>
       <c r="H21" s="2">
-        <v>11674</v>
+        <v>11911</v>
       </c>
       <c r="I21" s="2">
-        <v>12296.5</v>
+        <v>12549.5</v>
       </c>
       <c r="J21" s="3">
-        <v>329863337.4988208</v>
+        <v>346114199.8527505</v>
       </c>
       <c r="K21" s="3">
-        <v>329554977.4525034</v>
+        <v>347470445.4011303</v>
       </c>
       <c r="L21" s="3">
-        <v>346359872.1719097</v>
+        <v>363774241.9169443</v>
       </c>
       <c r="M21" s="3">
-        <v>365757122.667459</v>
+        <v>383923540.9959183</v>
       </c>
       <c r="N21" s="3">
-        <v>371154054.759891</v>
+        <v>390209237.926434</v>
       </c>
       <c r="O21" s="3">
-        <v>386366206.7047752</v>
+        <v>409953419.1504544</v>
       </c>
       <c r="P21" s="4">
-        <v>0.6593406593406593</v>
+        <v>0.6413043478260869</v>
       </c>
       <c r="Q21" s="4">
-        <v>0.6483516483516484</v>
+        <v>0.6630434782608695</v>
       </c>
       <c r="R21" s="4">
-        <v>0.7032967032967034</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="S21" s="4">
-        <v>0.7692307692307693</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="T21" s="4">
-        <v>0.7252747252747253</v>
+        <v>0.7065217391304348</v>
       </c>
       <c r="U21" s="5">
-        <v>34278.63841825011</v>
+        <v>35260.20780895992</v>
       </c>
       <c r="V21" s="5">
-        <v>33217.91930778182</v>
+        <v>34311.29114260199</v>
       </c>
       <c r="W21" s="5">
-        <v>33326.26500258921</v>
+        <v>34215.03404034465</v>
       </c>
       <c r="X21" s="5">
-        <v>33044.86810927036</v>
+        <v>33983.05297596091</v>
       </c>
       <c r="Y21" s="5">
-        <v>31793.22038374944</v>
+        <v>32760.4095312261</v>
       </c>
       <c r="Z21" s="5">
-        <v>31420.82760987071</v>
+        <v>32666.91255830546</v>
       </c>
       <c r="AA21" s="5">
-        <v>-1060.719110468286</v>
+        <v>-948.9166663579308</v>
       </c>
       <c r="AB21" s="5">
-        <v>-952.3734156608916</v>
+        <v>-1045.173768615263</v>
       </c>
       <c r="AC21" s="5">
-        <v>-1233.770308979743</v>
+        <v>-1277.154832999011</v>
       </c>
       <c r="AD21" s="5">
-        <v>-2485.418034500664</v>
+        <v>-2499.798277733818</v>
       </c>
       <c r="AE21" s="5">
-        <v>-2857.810808379392</v>
+        <v>-2593.295250654453</v>
       </c>
       <c r="AF21" s="4">
-        <v>-0.03094402693379894</v>
+        <v>-0.02691182852634244</v>
       </c>
       <c r="AG21" s="4">
-        <v>-0.02778329185776074</v>
+        <v>-0.02964173592731001</v>
       </c>
       <c r="AH21" s="4">
-        <v>-0.03599239543665411</v>
+        <v>-0.03622085382816365</v>
       </c>
       <c r="AI21" s="4">
-        <v>-0.07250632315598093</v>
+        <v>-0.07089573298256624</v>
       </c>
       <c r="AJ21" s="4">
-        <v>-0.08337002110497715</v>
+        <v>-0.07354736151031627</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -2634,22 +2634,22 @@
         <v>1516</v>
       </c>
       <c r="J22" s="3">
-        <v>11883070.25497365</v>
+        <v>12234883.56412343</v>
       </c>
       <c r="K22" s="3">
-        <v>11805306.40158379</v>
+        <v>12193528.18537443</v>
       </c>
       <c r="L22" s="3">
-        <v>11602457.01687997</v>
+        <v>11927759.69045139</v>
       </c>
       <c r="M22" s="3">
-        <v>11285703.31419851</v>
+        <v>11604161.40253544</v>
       </c>
       <c r="N22" s="3">
-        <v>11719021.65363614</v>
+        <v>12053803.1277028</v>
       </c>
       <c r="O22" s="3">
-        <v>11589662.45846486</v>
+        <v>12038696.06748066</v>
       </c>
       <c r="P22" s="4">
         <v>1</v>
@@ -2667,52 +2667,52 @@
         <v>1</v>
       </c>
       <c r="U22" s="5">
-        <v>8445.678930329534</v>
+        <v>8695.723926171591</v>
       </c>
       <c r="V22" s="5">
-        <v>7880.711883567283</v>
+        <v>8139.871952853422</v>
       </c>
       <c r="W22" s="5">
-        <v>7643.252316785227</v>
+        <v>7857.549203195907</v>
       </c>
       <c r="X22" s="5">
-        <v>7290.506016924102</v>
+        <v>7496.228296211525</v>
       </c>
       <c r="Y22" s="5">
-        <v>8126.922089900237</v>
+        <v>8359.086773719004</v>
       </c>
       <c r="Z22" s="5">
-        <v>7644.896080781568</v>
+        <v>7941.092392797267</v>
       </c>
       <c r="AA22" s="5">
-        <v>-564.9670467622509</v>
+        <v>-555.8519733181693</v>
       </c>
       <c r="AB22" s="5">
-        <v>-802.4266135443067</v>
+        <v>-838.1747229756838</v>
       </c>
       <c r="AC22" s="5">
-        <v>-1155.172913405431</v>
+        <v>-1199.495629960066</v>
       </c>
       <c r="AD22" s="5">
-        <v>-318.756840429297</v>
+        <v>-336.6371524525875</v>
       </c>
       <c r="AE22" s="5">
-        <v>-800.7828495479653</v>
+        <v>-754.6315333743241</v>
       </c>
       <c r="AF22" s="4">
-        <v>-0.06689421317371902</v>
+        <v>-0.06392244947487546</v>
       </c>
       <c r="AG22" s="4">
-        <v>-0.09501031476139687</v>
+        <v>-0.09638929778497485</v>
       </c>
       <c r="AH22" s="4">
-        <v>-0.1367767970976324</v>
+        <v>-0.1379408592250652</v>
       </c>
       <c r="AI22" s="4">
-        <v>-0.03774200310700893</v>
+        <v>-0.03871295309173839</v>
       </c>
       <c r="AJ22" s="4">
-        <v>-0.09481568695114018</v>
+        <v>-0.08678191025627013</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -2742,22 +2742,22 @@
         <v>1700.5</v>
       </c>
       <c r="J23" s="3">
-        <v>13442007.5351808</v>
+        <v>13839975.15222731</v>
       </c>
       <c r="K23" s="3">
-        <v>12035987.90426765</v>
+        <v>12431795.73296157</v>
       </c>
       <c r="L23" s="3">
-        <v>13434264.6228327</v>
+        <v>13810926.41032438</v>
       </c>
       <c r="M23" s="3">
-        <v>13753930.02682595</v>
+        <v>14142036.12367436</v>
       </c>
       <c r="N23" s="3">
-        <v>13556597.84020426</v>
+        <v>13943874.0090186</v>
       </c>
       <c r="O23" s="3">
-        <v>13381262.27407802</v>
+        <v>13899710.20244954</v>
       </c>
       <c r="P23" s="4">
         <v>0.8518518518518519</v>
@@ -2775,52 +2775,52 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="U23" s="5">
-        <v>8826.006260788443</v>
+        <v>9087.31132779206</v>
       </c>
       <c r="V23" s="5">
-        <v>7522.492440167279</v>
+        <v>7769.872333100981</v>
       </c>
       <c r="W23" s="5">
-        <v>7379.436760688108</v>
+        <v>7586.336946072165</v>
       </c>
       <c r="X23" s="5">
-        <v>7474.961971101057</v>
+        <v>7685.889197649111</v>
       </c>
       <c r="Y23" s="5">
-        <v>7040.559771594007</v>
+        <v>7241.689955345934</v>
       </c>
       <c r="Z23" s="5">
-        <v>7869.016332889164</v>
+        <v>8173.896032019721</v>
       </c>
       <c r="AA23" s="5">
-        <v>-1303.513820621164</v>
+        <v>-1317.438994691079</v>
       </c>
       <c r="AB23" s="5">
-        <v>-1446.569500100335</v>
+        <v>-1500.974381719895</v>
       </c>
       <c r="AC23" s="5">
-        <v>-1351.044289687386</v>
+        <v>-1401.422130142949</v>
       </c>
       <c r="AD23" s="5">
-        <v>-1785.446489194436</v>
+        <v>-1845.621372446126</v>
       </c>
       <c r="AE23" s="5">
-        <v>-956.9899278992789</v>
+        <v>-913.4152957723391</v>
       </c>
       <c r="AF23" s="4">
-        <v>-0.1476901083123319</v>
+        <v>-0.1449756641067096</v>
       </c>
       <c r="AG23" s="4">
-        <v>-0.1638985354595829</v>
+        <v>-0.1651725496769776</v>
       </c>
       <c r="AH23" s="4">
-        <v>-0.1530753831084065</v>
+        <v>-0.1542174664861462</v>
       </c>
       <c r="AI23" s="4">
-        <v>-0.2022938163013425</v>
+        <v>-0.2030987280915086</v>
       </c>
       <c r="AJ23" s="4">
-        <v>-0.1084284216011636</v>
+        <v>-0.100515461925334</v>
       </c>
     </row>
     <row r="24" spans="1:36">
@@ -2829,106 +2829,106 @@
         <v>27</v>
       </c>
       <c r="C24" s="2">
-        <v>661</v>
+        <v>724</v>
       </c>
       <c r="D24" s="2">
-        <v>165701.5</v>
+        <v>178942.5</v>
       </c>
       <c r="E24" s="2">
-        <v>167890</v>
+        <v>181252</v>
       </c>
       <c r="F24" s="2">
-        <v>169745</v>
+        <v>183200.5</v>
       </c>
       <c r="G24" s="2">
-        <v>170228.5</v>
+        <v>183760</v>
       </c>
       <c r="H24" s="2">
-        <v>169678</v>
+        <v>183037</v>
       </c>
       <c r="I24" s="2">
-        <v>167836.5</v>
+        <v>181002.5</v>
       </c>
       <c r="J24" s="3">
-        <v>976964708.3441408</v>
+        <v>1085061452.38861</v>
       </c>
       <c r="K24" s="3">
-        <v>945042418.5051343</v>
+        <v>1052248510.882897</v>
       </c>
       <c r="L24" s="3">
-        <v>960156217.198933</v>
+        <v>1063825835.781268</v>
       </c>
       <c r="M24" s="3">
-        <v>962577386.2168254</v>
+        <v>1067385948.585287</v>
       </c>
       <c r="N24" s="3">
-        <v>946161575.8579843</v>
+        <v>1049677464.726204</v>
       </c>
       <c r="O24" s="3">
-        <v>966687589.8500261</v>
+        <v>1080911333.807145</v>
       </c>
       <c r="P24" s="4">
-        <v>0.7503782148260212</v>
+        <v>0.7472375690607734</v>
       </c>
       <c r="Q24" s="4">
-        <v>0.7261724659606656</v>
+        <v>0.7430939226519337</v>
       </c>
       <c r="R24" s="4">
-        <v>0.6959152798789713</v>
+        <v>0.7085635359116023</v>
       </c>
       <c r="S24" s="4">
-        <v>0.7413010590015129</v>
+        <v>0.7417127071823204</v>
       </c>
       <c r="T24" s="4">
-        <v>0.5975794251134644</v>
+        <v>0.5607734806629834</v>
       </c>
       <c r="U24" s="5">
-        <v>5895.931589901967</v>
+        <v>6063.743674021597</v>
       </c>
       <c r="V24" s="5">
-        <v>5628.938105337628</v>
+        <v>5805.444965478434</v>
       </c>
       <c r="W24" s="5">
-        <v>5656.462441891856</v>
+        <v>5806.893735449785</v>
       </c>
       <c r="X24" s="5">
-        <v>5654.619445138889</v>
+        <v>5808.587007973916</v>
       </c>
       <c r="Y24" s="5">
-        <v>5576.218342142082</v>
+        <v>5734.78293856545</v>
       </c>
       <c r="Z24" s="5">
-        <v>5759.698217312838</v>
+        <v>5971.803338667395</v>
       </c>
       <c r="AA24" s="5">
-        <v>-266.9934845643384</v>
+        <v>-258.2987085431632</v>
       </c>
       <c r="AB24" s="5">
-        <v>-239.469148010111</v>
+        <v>-256.8499385718123</v>
       </c>
       <c r="AC24" s="5">
-        <v>-241.3121447630774</v>
+        <v>-255.156666047681</v>
       </c>
       <c r="AD24" s="5">
-        <v>-319.7132477598843</v>
+        <v>-328.9607354561476</v>
       </c>
       <c r="AE24" s="5">
-        <v>-136.2333725891285</v>
+        <v>-91.94033535420203</v>
       </c>
       <c r="AF24" s="4">
-        <v>-0.04528435930661434</v>
+        <v>-0.0425972340568701</v>
       </c>
       <c r="AG24" s="4">
-        <v>-0.04061599839798902</v>
+        <v>-0.04235831070370166</v>
       </c>
       <c r="AH24" s="4">
-        <v>-0.04092858627742146</v>
+        <v>-0.04207906530429839</v>
       </c>
       <c r="AI24" s="4">
-        <v>-0.05422607825156267</v>
+        <v>-0.05425043556268505</v>
       </c>
       <c r="AJ24" s="4">
-        <v>-0.02310633536224493</v>
+        <v>-0.01516230571356347</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -2937,106 +2937,106 @@
         <v>28</v>
       </c>
       <c r="C25" s="2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D25" s="2">
-        <v>98330</v>
+        <v>104762</v>
       </c>
       <c r="E25" s="2">
-        <v>98424.5</v>
+        <v>105079</v>
       </c>
       <c r="F25" s="2">
-        <v>99659</v>
+        <v>106318</v>
       </c>
       <c r="G25" s="2">
-        <v>102185.5</v>
+        <v>108948.5</v>
       </c>
       <c r="H25" s="2">
-        <v>105298</v>
+        <v>112140</v>
       </c>
       <c r="I25" s="2">
-        <v>107668.5</v>
+        <v>114840.5</v>
       </c>
       <c r="J25" s="3">
-        <v>697069848.9996599</v>
+        <v>759787249.5980479</v>
       </c>
       <c r="K25" s="3">
-        <v>667399944.5253893</v>
+        <v>734398275.2926383</v>
       </c>
       <c r="L25" s="3">
-        <v>651510017.1429069</v>
+        <v>715255455.8078576</v>
       </c>
       <c r="M25" s="3">
-        <v>658585204.5968533</v>
+        <v>717825719.4032609</v>
       </c>
       <c r="N25" s="3">
-        <v>664800354.3244581</v>
+        <v>717664017.278487</v>
       </c>
       <c r="O25" s="3">
-        <v>708552861.971589</v>
+        <v>781640214.4147704</v>
       </c>
       <c r="P25" s="4">
-        <v>0.7758620689655172</v>
+        <v>0.7622950819672131</v>
       </c>
       <c r="Q25" s="4">
-        <v>0.8793103448275862</v>
+        <v>0.8688524590163934</v>
       </c>
       <c r="R25" s="4">
-        <v>0.9051724137931034</v>
+        <v>0.9098360655737705</v>
       </c>
       <c r="S25" s="4">
-        <v>0.9137931034482759</v>
+        <v>0.9262295081967213</v>
       </c>
       <c r="T25" s="4">
-        <v>0.8448275862068966</v>
+        <v>0.8114754098360656</v>
       </c>
       <c r="U25" s="5">
-        <v>7089.086230038238</v>
+        <v>7252.508062064946</v>
       </c>
       <c r="V25" s="5">
-        <v>6780.831444664584</v>
+        <v>6989.010889831825</v>
       </c>
       <c r="W25" s="5">
-        <v>6537.39268046947</v>
+        <v>6727.510447975485</v>
       </c>
       <c r="X25" s="5">
-        <v>6444.996644307199</v>
+        <v>6588.670054229851</v>
       </c>
       <c r="Y25" s="5">
-        <v>6313.513593083042</v>
+        <v>6399.714796490877</v>
       </c>
       <c r="Z25" s="5">
-        <v>6580.874275870742</v>
+        <v>6806.311487800648</v>
       </c>
       <c r="AA25" s="5">
-        <v>-308.2547853736542</v>
+        <v>-263.4971722331211</v>
       </c>
       <c r="AB25" s="5">
-        <v>-551.6935495687676</v>
+        <v>-524.9976140894605</v>
       </c>
       <c r="AC25" s="5">
-        <v>-644.0895857310388</v>
+        <v>-663.8380078350947</v>
       </c>
       <c r="AD25" s="5">
-        <v>-775.5726369551958</v>
+        <v>-852.7932655740688</v>
       </c>
       <c r="AE25" s="5">
-        <v>-508.2119541674956</v>
+        <v>-446.1965742642979</v>
       </c>
       <c r="AF25" s="4">
-        <v>-0.04348300688846207</v>
+        <v>-0.03633186891737117</v>
       </c>
       <c r="AG25" s="4">
-        <v>-0.07782294243101506</v>
+        <v>-0.0723884219909412</v>
       </c>
       <c r="AH25" s="4">
-        <v>-0.0908565031980948</v>
+        <v>-0.09153219853796146</v>
       </c>
       <c r="AI25" s="4">
-        <v>-0.1094037527247024</v>
+        <v>-0.1175859796743556</v>
       </c>
       <c r="AJ25" s="4">
-        <v>-0.07168934580229447</v>
+        <v>-0.06152307180438432</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -3045,106 +3045,106 @@
         <v>29</v>
       </c>
       <c r="C26" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="2">
-        <v>5409</v>
+        <v>5284</v>
       </c>
       <c r="E26" s="2">
-        <v>5658</v>
+        <v>5558</v>
       </c>
       <c r="F26" s="2">
-        <v>5762.5</v>
+        <v>5671.5</v>
       </c>
       <c r="G26" s="2">
-        <v>5932</v>
+        <v>5836</v>
       </c>
       <c r="H26" s="2">
-        <v>6143.5</v>
+        <v>6039.5</v>
       </c>
       <c r="I26" s="2">
-        <v>6443.5</v>
+        <v>6325.5</v>
       </c>
       <c r="J26" s="3">
-        <v>129760068.913361</v>
+        <v>130480957.6068565</v>
       </c>
       <c r="K26" s="3">
-        <v>131288708.9925154</v>
+        <v>132875579.3247576</v>
       </c>
       <c r="L26" s="3">
-        <v>136748776.923954</v>
+        <v>138007667.1264106</v>
       </c>
       <c r="M26" s="3">
-        <v>137654044.3109852</v>
+        <v>139850401.3695355</v>
       </c>
       <c r="N26" s="3">
-        <v>127745323.1636639</v>
+        <v>129114310.5305712</v>
       </c>
       <c r="O26" s="3">
-        <v>146768588.2173365</v>
+        <v>149600567.9656027</v>
       </c>
       <c r="P26" s="4">
-        <v>0.7291666666666666</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="Q26" s="4">
-        <v>0.6041666666666666</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="R26" s="4">
-        <v>0.6875</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="S26" s="4">
-        <v>0.7291666666666666</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="T26" s="4">
-        <v>0.7083333333333334</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="U26" s="5">
-        <v>23989.65962532095</v>
+        <v>24693.59530788352</v>
       </c>
       <c r="V26" s="5">
-        <v>23204.08430408544</v>
+        <v>23907.08516098553</v>
       </c>
       <c r="W26" s="5">
-        <v>23730.80727530656</v>
+        <v>24333.53912129254</v>
       </c>
       <c r="X26" s="5">
-        <v>23205.33450960641</v>
+        <v>23963.39982342966</v>
       </c>
       <c r="Y26" s="5">
-        <v>20793.57421073718</v>
+        <v>21378.31120632026</v>
       </c>
       <c r="Z26" s="5">
-        <v>22777.77422477481</v>
+        <v>23650.3941136041</v>
       </c>
       <c r="AA26" s="5">
-        <v>-785.5753212355085</v>
+        <v>-786.5101468979847</v>
       </c>
       <c r="AB26" s="5">
-        <v>-258.8523500143892</v>
+        <v>-360.0561865909804</v>
       </c>
       <c r="AC26" s="5">
-        <v>-784.3251157145387</v>
+        <v>-730.1954844538632</v>
       </c>
       <c r="AD26" s="5">
-        <v>-3196.085414583762</v>
+        <v>-3315.284101563262</v>
       </c>
       <c r="AE26" s="5">
-        <v>-1211.88540054614</v>
+        <v>-1043.20119427942</v>
       </c>
       <c r="AF26" s="4">
-        <v>-0.03274641380932053</v>
+        <v>-0.03185077495162836</v>
       </c>
       <c r="AG26" s="4">
-        <v>-0.01079016351449902</v>
+        <v>-0.01458095437710649</v>
       </c>
       <c r="AH26" s="4">
-        <v>-0.03269429945920066</v>
+        <v>-0.02957023776204615</v>
       </c>
       <c r="AI26" s="4">
-        <v>-0.1332276265900126</v>
+        <v>-0.1342568411050636</v>
       </c>
       <c r="AJ26" s="4">
-        <v>-0.05051699021469236</v>
+        <v>-0.04224582047582082</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -3176,22 +3176,22 @@
         <v>523</v>
       </c>
       <c r="J27" s="3">
-        <v>1991329.716024648</v>
+        <v>2050285.548311316</v>
       </c>
       <c r="K27" s="3">
-        <v>1587148.648351789</v>
+        <v>1639342.607444741</v>
       </c>
       <c r="L27" s="3">
-        <v>1989059.177439626</v>
+        <v>2044827.215827659</v>
       </c>
       <c r="M27" s="3">
-        <v>1558685.821127477</v>
+        <v>1602668.556903425</v>
       </c>
       <c r="N27" s="3">
-        <v>3206341.66186864</v>
+        <v>3297938.368457937</v>
       </c>
       <c r="O27" s="3">
-        <v>3939180.117038328</v>
+        <v>4091800.978159705</v>
       </c>
       <c r="P27" s="4">
         <v>1</v>
@@ -3209,52 +3209,52 @@
         <v>0</v>
       </c>
       <c r="U27" s="5">
-        <v>6007.027800979332</v>
+        <v>6184.873448902913</v>
       </c>
       <c r="V27" s="5">
-        <v>5272.919097514247</v>
+        <v>5446.320954965916</v>
       </c>
       <c r="W27" s="5">
-        <v>4929.514690061032</v>
+        <v>5067.725441952068</v>
       </c>
       <c r="X27" s="5">
-        <v>3848.606965746857</v>
+        <v>3957.20631334179</v>
       </c>
       <c r="Y27" s="5">
-        <v>7353.994637313394</v>
+        <v>7564.078826738388</v>
       </c>
       <c r="Z27" s="5">
-        <v>7531.893149212865</v>
+        <v>7823.711239311099</v>
       </c>
       <c r="AA27" s="5">
-        <v>-734.1087034650845</v>
+        <v>-738.5524939369971</v>
       </c>
       <c r="AB27" s="5">
-        <v>-1077.5131109183</v>
+        <v>-1117.148006950845</v>
       </c>
       <c r="AC27" s="5">
-        <v>-2158.420835232475</v>
+        <v>-2227.667135561123</v>
       </c>
       <c r="AD27" s="5">
-        <v>1346.966836334062</v>
+        <v>1379.205377835475</v>
       </c>
       <c r="AE27" s="5">
-        <v>1524.865348233533</v>
+        <v>1638.837790408186</v>
       </c>
       <c r="AF27" s="4">
-        <v>-0.1222083079664459</v>
+        <v>-0.1194127090939917</v>
       </c>
       <c r="AG27" s="4">
-        <v>-0.1793754160323068</v>
+        <v>-0.1806258472675795</v>
       </c>
       <c r="AH27" s="4">
-        <v>-0.359315939054017</v>
+        <v>-0.3601799056949616</v>
       </c>
       <c r="AI27" s="4">
-        <v>0.2242318299433315</v>
+        <v>0.2229965397400526</v>
       </c>
       <c r="AJ27" s="4">
-        <v>0.2538468937974505</v>
+        <v>0.2649751533232887</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -3284,22 +3284,22 @@
         <v>7752</v>
       </c>
       <c r="J28" s="3">
-        <v>49584040.51415008</v>
+        <v>51052038.68297336</v>
       </c>
       <c r="K28" s="3">
-        <v>51205431.82946046</v>
+        <v>52889341.03167618</v>
       </c>
       <c r="L28" s="3">
-        <v>48821514.14254355</v>
+        <v>50190342.23259968</v>
       </c>
       <c r="M28" s="3">
-        <v>49955833.98833194</v>
+        <v>51365479.35559819</v>
       </c>
       <c r="N28" s="3">
-        <v>49724016.92558365</v>
+        <v>51144500.6634644</v>
       </c>
       <c r="O28" s="3">
-        <v>53043208.54296362</v>
+        <v>55098331.67111205</v>
       </c>
       <c r="P28" s="4">
         <v>0.5</v>
@@ -3317,52 +3317,52 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="U28" s="5">
-        <v>7376.382105645654</v>
+        <v>7594.769217937125</v>
       </c>
       <c r="V28" s="5">
-        <v>7314.016830375725</v>
+        <v>7554.540927249847</v>
       </c>
       <c r="W28" s="5">
-        <v>6786.421204134494</v>
+        <v>6976.694777953807</v>
       </c>
       <c r="X28" s="5">
-        <v>6727.152435810927</v>
+        <v>6916.978097979826</v>
       </c>
       <c r="Y28" s="5">
-        <v>6519.472522037976</v>
+        <v>6705.716620357204</v>
       </c>
       <c r="Z28" s="5">
-        <v>6842.519161889012</v>
+        <v>7107.627924550057</v>
       </c>
       <c r="AA28" s="5">
-        <v>-62.36527526992813</v>
+        <v>-40.22829068727788</v>
       </c>
       <c r="AB28" s="5">
-        <v>-589.9609015111591</v>
+        <v>-618.0744399833184</v>
       </c>
       <c r="AC28" s="5">
-        <v>-649.2296698347263</v>
+        <v>-677.7911199572991</v>
       </c>
       <c r="AD28" s="5">
-        <v>-856.9095836076776</v>
+        <v>-889.052597579921</v>
       </c>
       <c r="AE28" s="5">
-        <v>-533.8629437566415</v>
+        <v>-487.1412933870679</v>
       </c>
       <c r="AF28" s="4">
-        <v>-0.008454724060755425</v>
+        <v>-0.005296841751592396</v>
       </c>
       <c r="AG28" s="4">
-        <v>-0.07997970997999426</v>
+        <v>-0.08138159597049588</v>
       </c>
       <c r="AH28" s="4">
-        <v>-0.0880146473618586</v>
+        <v>-0.08924446556671006</v>
       </c>
       <c r="AI28" s="4">
-        <v>-0.1161693593600345</v>
+        <v>-0.117061173561427</v>
       </c>
       <c r="AJ28" s="4">
-        <v>-0.07237463245674858</v>
+        <v>-0.06414168481071825</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -3392,25 +3392,25 @@
         <v>2871</v>
       </c>
       <c r="J29" s="3">
-        <v>26728019.11340071</v>
+        <v>27519335.89008712</v>
       </c>
       <c r="K29" s="3">
-        <v>25919809.71372922</v>
+        <v>26772192.05945365</v>
       </c>
       <c r="L29" s="3">
-        <v>26976350.39077491</v>
+        <v>27732696.98982296</v>
       </c>
       <c r="M29" s="3">
-        <v>27604959.81832519</v>
+        <v>28383911.9569395</v>
       </c>
       <c r="N29" s="3">
-        <v>26614705.44966861</v>
+        <v>27375017.23896592</v>
       </c>
       <c r="O29" s="3">
-        <v>25744008.76982726</v>
+        <v>26741442.92374489</v>
       </c>
       <c r="P29" s="4">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="Q29" s="4">
         <v>0.86</v>
@@ -3422,55 +3422,55 @@
         <v>0.8</v>
       </c>
       <c r="T29" s="4">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="U29" s="5">
-        <v>10410.13402664098</v>
+        <v>10718.33919769703</v>
       </c>
       <c r="V29" s="5">
-        <v>9883.626201612666</v>
+        <v>10208.6528348727</v>
       </c>
       <c r="W29" s="5">
-        <v>8740.110283743692</v>
+        <v>8985.160210537166</v>
       </c>
       <c r="X29" s="5">
-        <v>8951.024584411542</v>
+        <v>9203.603098877917</v>
       </c>
       <c r="Y29" s="5">
-        <v>8306.712062942761</v>
+        <v>8544.012871087989</v>
       </c>
       <c r="Z29" s="5">
-        <v>8966.913538776475</v>
+        <v>9314.33052028732</v>
       </c>
       <c r="AA29" s="5">
-        <v>-526.5078250283095</v>
+        <v>-509.6863628243336</v>
       </c>
       <c r="AB29" s="5">
-        <v>-1670.023742897283</v>
+        <v>-1733.178987159865</v>
       </c>
       <c r="AC29" s="5">
-        <v>-1459.109442229434</v>
+        <v>-1514.736098819114</v>
       </c>
       <c r="AD29" s="5">
-        <v>-2103.421963698214</v>
+        <v>-2174.326326609042</v>
       </c>
       <c r="AE29" s="5">
-        <v>-1443.220487864501</v>
+        <v>-1404.008677409711</v>
       </c>
       <c r="AF29" s="4">
-        <v>-0.05057646939807914</v>
+        <v>-0.04755273680215744</v>
       </c>
       <c r="AG29" s="4">
-        <v>-0.1604228858748082</v>
+        <v>-0.1617021961324251</v>
       </c>
       <c r="AH29" s="4">
-        <v>-0.1401624069868237</v>
+        <v>-0.1413219035972079</v>
       </c>
       <c r="AI29" s="4">
-        <v>-0.2020552241032888</v>
+        <v>-0.2028603766408347</v>
       </c>
       <c r="AJ29" s="4">
-        <v>-0.1386361101760168</v>
+        <v>-0.1309912526104212</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -3479,106 +3479,106 @@
         <v>27</v>
       </c>
       <c r="C30" s="2">
-        <v>2243</v>
+        <v>2260</v>
       </c>
       <c r="D30" s="2">
-        <v>568994</v>
+        <v>572624</v>
       </c>
       <c r="E30" s="2">
-        <v>578716</v>
+        <v>582361.5</v>
       </c>
       <c r="F30" s="2">
-        <v>586926.5</v>
+        <v>590626.5</v>
       </c>
       <c r="G30" s="2">
-        <v>590681</v>
+        <v>594410</v>
       </c>
       <c r="H30" s="2">
-        <v>590989.5</v>
+        <v>594768</v>
       </c>
       <c r="I30" s="2">
-        <v>586668</v>
+        <v>590482.5</v>
       </c>
       <c r="J30" s="3">
-        <v>3265193975.446888</v>
+        <v>3380936257.302352</v>
       </c>
       <c r="K30" s="3">
-        <v>3197985410.709594</v>
+        <v>3321692742.982334</v>
       </c>
       <c r="L30" s="3">
-        <v>3216057809.629626</v>
+        <v>3324186588.713352</v>
       </c>
       <c r="M30" s="3">
-        <v>3224975077.121954</v>
+        <v>3334801324.638939</v>
       </c>
       <c r="N30" s="3">
-        <v>3181848366.984917</v>
+        <v>3292664317.456179</v>
       </c>
       <c r="O30" s="3">
-        <v>3265392244.220932</v>
+        <v>3412449248.633751</v>
       </c>
       <c r="P30" s="4">
-        <v>0.7721801159161836</v>
+        <v>0.7561946902654867</v>
       </c>
       <c r="Q30" s="4">
-        <v>0.7784217565760143</v>
+        <v>0.7876106194690266</v>
       </c>
       <c r="R30" s="4">
-        <v>0.7690592955862684</v>
+        <v>0.7769911504424779</v>
       </c>
       <c r="S30" s="4">
-        <v>0.814088274632189</v>
+        <v>0.8168141592920354</v>
       </c>
       <c r="T30" s="4">
-        <v>0.664288898796255</v>
+        <v>0.6230088495575221</v>
       </c>
       <c r="U30" s="5">
-        <v>5738.538500312637</v>
+        <v>5904.286682539245</v>
       </c>
       <c r="V30" s="5">
-        <v>5526.001373229</v>
+        <v>5703.833002323015</v>
       </c>
       <c r="W30" s="5">
-        <v>5479.489867350727</v>
+        <v>5628.238131396664</v>
       </c>
       <c r="X30" s="5">
-        <v>5459.757596946497</v>
+        <v>5610.271234735181</v>
       </c>
       <c r="Y30" s="5">
-        <v>5383.933838054511</v>
+        <v>5536.048202754989</v>
       </c>
       <c r="Z30" s="5">
-        <v>5565.996857201914</v>
+        <v>5779.086168741243</v>
       </c>
       <c r="AA30" s="5">
-        <v>-212.5371270836367</v>
+        <v>-200.4536802162302</v>
       </c>
       <c r="AB30" s="5">
-        <v>-259.0486329619098</v>
+        <v>-276.0485511425804</v>
       </c>
       <c r="AC30" s="5">
-        <v>-278.7809033661397</v>
+        <v>-294.015447804064</v>
       </c>
       <c r="AD30" s="5">
-        <v>-354.6046622581252</v>
+        <v>-368.238479784256</v>
       </c>
       <c r="AE30" s="5">
-        <v>-172.5416431107224</v>
+        <v>-125.2005137980022</v>
       </c>
       <c r="AF30" s="4">
-        <v>-0.0370368042441569</v>
+        <v>-0.03395053306084073</v>
       </c>
       <c r="AG30" s="4">
-        <v>-0.04514191774574605</v>
+        <v>-0.04675392066563078</v>
       </c>
       <c r="AH30" s="4">
-        <v>-0.04858047102950547</v>
+        <v>-0.04979694645816513</v>
       </c>
       <c r="AI30" s="4">
-        <v>-0.06179354939220261</v>
+        <v>-0.06236798779999086</v>
       </c>
       <c r="AJ30" s="4">
-        <v>-0.03006717530976266</v>
+        <v>-0.02120501942567554</v>
       </c>
     </row>
     <row r="31" spans="1:36">
@@ -3587,106 +3587,106 @@
         <v>28</v>
       </c>
       <c r="C31" s="2">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="D31" s="2">
-        <v>333237.5</v>
+        <v>341693.5</v>
       </c>
       <c r="E31" s="2">
-        <v>335886.5</v>
+        <v>344675.5</v>
       </c>
       <c r="F31" s="2">
-        <v>340032</v>
+        <v>348838</v>
       </c>
       <c r="G31" s="2">
-        <v>346358</v>
+        <v>355140</v>
       </c>
       <c r="H31" s="2">
-        <v>354217</v>
+        <v>363020</v>
       </c>
       <c r="I31" s="2">
-        <v>361801</v>
+        <v>370637</v>
       </c>
       <c r="J31" s="3">
-        <v>2323824345.663533</v>
+        <v>2459255093.436296</v>
       </c>
       <c r="K31" s="3">
-        <v>2239296942.18816</v>
+        <v>2382924097.164383</v>
       </c>
       <c r="L31" s="3">
-        <v>2222436251.508817</v>
+        <v>2350253262.501084</v>
       </c>
       <c r="M31" s="3">
-        <v>2231532872.611918</v>
+        <v>2360637413.68967</v>
       </c>
       <c r="N31" s="3">
-        <v>2223030590.15532</v>
+        <v>2352434899.187944</v>
       </c>
       <c r="O31" s="3">
-        <v>2364353630.82404</v>
+        <v>2523845857.69202</v>
       </c>
       <c r="P31" s="4">
-        <v>0.8184357541899442</v>
+        <v>0.8075880758807588</v>
       </c>
       <c r="Q31" s="4">
-        <v>0.8603351955307262</v>
+        <v>0.8644986449864499</v>
       </c>
       <c r="R31" s="4">
-        <v>0.88268156424581</v>
+        <v>0.8834688346883469</v>
       </c>
       <c r="S31" s="4">
-        <v>0.9329608938547486</v>
+        <v>0.9322493224932249</v>
       </c>
       <c r="T31" s="4">
-        <v>0.7905027932960894</v>
+        <v>0.7533875338753387</v>
       </c>
       <c r="U31" s="5">
-        <v>6973.477911890268</v>
+        <v>7197.254537871794</v>
       </c>
       <c r="V31" s="5">
-        <v>6666.82627074372</v>
+        <v>6913.529093783525</v>
       </c>
       <c r="W31" s="5">
-        <v>6535.962060949607</v>
+        <v>6737.377414447635</v>
       </c>
       <c r="X31" s="5">
-        <v>6442.850670727739</v>
+        <v>6647.061479105902</v>
       </c>
       <c r="Y31" s="5">
-        <v>6275.900338366932</v>
+        <v>6480.17987765948</v>
       </c>
       <c r="Z31" s="5">
-        <v>6534.956041647314</v>
+        <v>6809.481669914284</v>
       </c>
       <c r="AA31" s="5">
-        <v>-306.6516411465482</v>
+        <v>-283.7254440882689</v>
       </c>
       <c r="AB31" s="5">
-        <v>-437.515850940661</v>
+        <v>-459.8771234241594</v>
       </c>
       <c r="AC31" s="5">
-        <v>-530.6272411625287</v>
+        <v>-550.1930587658917</v>
       </c>
       <c r="AD31" s="5">
-        <v>-697.5775735233356</v>
+        <v>-717.0746602123145</v>
       </c>
       <c r="AE31" s="5">
-        <v>-438.5218702429538</v>
+        <v>-387.7728679575102</v>
       </c>
       <c r="AF31" s="4">
-        <v>-0.043973989022563</v>
+        <v>-0.03942134359641059</v>
       </c>
       <c r="AG31" s="4">
-        <v>-0.0627399780236868</v>
+        <v>-0.06389618722032075</v>
       </c>
       <c r="AH31" s="4">
-        <v>-0.07609219500900288</v>
+        <v>-0.07644485211281438</v>
       </c>
       <c r="AI31" s="4">
-        <v>-0.1000329508944048</v>
+        <v>-0.09963169378532932</v>
       </c>
       <c r="AJ31" s="4">
-        <v>-0.06288424166300766</v>
+        <v>-0.05387788717448549</v>
       </c>
     </row>
     <row r="32" spans="1:36">
@@ -3716,85 +3716,85 @@
         <v>14785</v>
       </c>
       <c r="J32" s="3">
-        <v>291831233.4177678</v>
+        <v>300471265.811668</v>
       </c>
       <c r="K32" s="3">
-        <v>294264907.1845739</v>
+        <v>303941915.4118958</v>
       </c>
       <c r="L32" s="3">
-        <v>304306338.3910635</v>
+        <v>312838295.4859549</v>
       </c>
       <c r="M32" s="3">
-        <v>314656794.0771863</v>
+        <v>323535726.8591583</v>
       </c>
       <c r="N32" s="3">
-        <v>317032565.7094103</v>
+        <v>326089348.1620991</v>
       </c>
       <c r="O32" s="3">
-        <v>330805084.1747635</v>
+        <v>343621902.728377</v>
       </c>
       <c r="P32" s="4">
-        <v>0.711864406779661</v>
+        <v>0.7033898305084746</v>
       </c>
       <c r="Q32" s="4">
-        <v>0.8220338983050848</v>
+        <v>0.8305084745762712</v>
       </c>
       <c r="R32" s="4">
         <v>0.847457627118644</v>
       </c>
       <c r="S32" s="4">
-        <v>0.9152542372881356</v>
+        <v>0.923728813559322</v>
       </c>
       <c r="T32" s="4">
         <v>0.864406779661017</v>
       </c>
       <c r="U32" s="5">
-        <v>25602.59976468551</v>
+        <v>26360.59707958662</v>
       </c>
       <c r="V32" s="5">
-        <v>24728.14346088857</v>
+        <v>25541.33742957108</v>
       </c>
       <c r="W32" s="5">
-        <v>23922.51392563685</v>
+        <v>24593.23890459926</v>
       </c>
       <c r="X32" s="5">
-        <v>23397.16652988708</v>
+        <v>24057.38386133459</v>
       </c>
       <c r="Y32" s="5">
-        <v>22371.136838684</v>
+        <v>23010.22108895312</v>
       </c>
       <c r="Z32" s="5">
-        <v>22374.3716046509</v>
+        <v>23241.25145271403</v>
       </c>
       <c r="AA32" s="5">
-        <v>-874.4563037969456</v>
+        <v>-819.2596500155378</v>
       </c>
       <c r="AB32" s="5">
-        <v>-1680.085839048668</v>
+        <v>-1767.358174987352</v>
       </c>
       <c r="AC32" s="5">
-        <v>-2205.433234798438</v>
+        <v>-2303.213218252022</v>
       </c>
       <c r="AD32" s="5">
-        <v>-3231.462926001517</v>
+        <v>-3350.3759906335</v>
       </c>
       <c r="AE32" s="5">
-        <v>-3228.228160034618</v>
+        <v>-3119.345626872582</v>
       </c>
       <c r="AF32" s="4">
-        <v>-0.03415498081578072</v>
+        <v>-0.03107894891538565</v>
       </c>
       <c r="AG32" s="4">
-        <v>-0.0656216889882435</v>
+        <v>-0.06704545309241028</v>
       </c>
       <c r="AH32" s="4">
-        <v>-0.08614098783204283</v>
+        <v>-0.08737333267900849</v>
       </c>
       <c r="AI32" s="4">
-        <v>-0.1262162028740057</v>
+        <v>-0.1270978794796722</v>
       </c>
       <c r="AJ32" s="4">
-        <v>-0.1260898576591982</v>
+        <v>-0.1183336484167945</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -3826,22 +3826,22 @@
         <v>24343</v>
       </c>
       <c r="J33" s="3">
-        <v>106117340.5849391</v>
+        <v>109259078.5321447</v>
       </c>
       <c r="K33" s="3">
-        <v>109387939.9917132</v>
+        <v>112985202.0825192</v>
       </c>
       <c r="L33" s="3">
-        <v>120644099.0391625</v>
+        <v>124026645.3318104</v>
       </c>
       <c r="M33" s="3">
-        <v>124684979.6231315</v>
+        <v>128203319.5218205</v>
       </c>
       <c r="N33" s="3">
-        <v>133265589.1727092</v>
+        <v>137072634.8207355</v>
       </c>
       <c r="O33" s="3">
-        <v>142609871.5743276</v>
+        <v>148135194.2956575</v>
       </c>
       <c r="P33" s="4">
         <v>0.7777777777777778</v>
@@ -3856,55 +3856,55 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="T33" s="4">
-        <v>0.9444444444444444</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="U33" s="5">
-        <v>6461.310962032398</v>
+        <v>6652.606236925425</v>
       </c>
       <c r="V33" s="5">
-        <v>6110.034072038946</v>
+        <v>6310.964759119655</v>
       </c>
       <c r="W33" s="5">
-        <v>5965.392555338334</v>
+        <v>6132.64662439727</v>
       </c>
       <c r="X33" s="5">
-        <v>5582.867872171022</v>
+        <v>5740.404303929993</v>
       </c>
       <c r="Y33" s="5">
-        <v>5680.545148026821</v>
+        <v>5842.823308641754</v>
       </c>
       <c r="Z33" s="5">
-        <v>5858.35236307471</v>
+        <v>6085.330250817793</v>
       </c>
       <c r="AA33" s="5">
-        <v>-351.2768899934526</v>
+        <v>-341.6414778057697</v>
       </c>
       <c r="AB33" s="5">
-        <v>-495.9184066940643</v>
+        <v>-519.959612528155</v>
       </c>
       <c r="AC33" s="5">
-        <v>-878.4430898613764</v>
+        <v>-912.2019329954319</v>
       </c>
       <c r="AD33" s="5">
-        <v>-780.7658140055773</v>
+        <v>-809.782928283671</v>
       </c>
       <c r="AE33" s="5">
-        <v>-602.958598957689</v>
+        <v>-567.275986107632</v>
       </c>
       <c r="AF33" s="4">
-        <v>-0.05436619473317517</v>
+        <v>-0.05135453168857063</v>
       </c>
       <c r="AG33" s="4">
-        <v>-0.07675197952987445</v>
+        <v>-0.07815878379244945</v>
       </c>
       <c r="AH33" s="4">
-        <v>-0.1359543125262405</v>
+        <v>-0.1371194837794903</v>
       </c>
       <c r="AI33" s="4">
-        <v>-0.1208370590106977</v>
+        <v>-0.1217241633495388</v>
       </c>
       <c r="AJ33" s="4">
-        <v>-0.09331830684218134</v>
+        <v>-0.08527124045895806</v>
       </c>
     </row>
     <row r="34" spans="1:36">
@@ -3934,22 +3934,22 @@
         <v>2390.5</v>
       </c>
       <c r="J34" s="3">
-        <v>23762786.34405583</v>
+        <v>24466313.65803618</v>
       </c>
       <c r="K34" s="3">
-        <v>22994196.29538614</v>
+        <v>23750368.78248306</v>
       </c>
       <c r="L34" s="3">
-        <v>24534664.38893524</v>
+        <v>25222552.47240639</v>
       </c>
       <c r="M34" s="3">
-        <v>24811922.06652362</v>
+        <v>25512060.73305484</v>
       </c>
       <c r="N34" s="3">
-        <v>23423508.03621709</v>
+        <v>24092655.75007459</v>
       </c>
       <c r="O34" s="3">
-        <v>23013125.28335115</v>
+        <v>23904753.2093369</v>
       </c>
       <c r="P34" s="4">
         <v>0.6486486486486487</v>
@@ -3967,52 +3967,52 @@
         <v>0.7297297297297297</v>
       </c>
       <c r="U34" s="5">
-        <v>11093.73778900832</v>
+        <v>11422.18191318216</v>
       </c>
       <c r="V34" s="5">
-        <v>10185.69049629508</v>
+        <v>10520.6506234698</v>
       </c>
       <c r="W34" s="5">
-        <v>9640.339642017776</v>
+        <v>9910.629655169505</v>
       </c>
       <c r="X34" s="5">
-        <v>9663.845011304233</v>
+        <v>9936.53777334171</v>
       </c>
       <c r="Y34" s="5">
-        <v>8936.859227858487</v>
+        <v>9192.16167496169</v>
       </c>
       <c r="Z34" s="5">
-        <v>9626.908715060094</v>
+        <v>9999.896761906253</v>
       </c>
       <c r="AA34" s="5">
-        <v>-908.0472927132432</v>
+        <v>-901.5312897123604</v>
       </c>
       <c r="AB34" s="5">
-        <v>-1453.398146990547</v>
+        <v>-1511.552258012651</v>
       </c>
       <c r="AC34" s="5">
-        <v>-1429.89277770409</v>
+        <v>-1485.644139840446</v>
       </c>
       <c r="AD34" s="5">
-        <v>-2156.878561149835</v>
+        <v>-2230.020238220466</v>
       </c>
       <c r="AE34" s="5">
-        <v>-1466.829073948229</v>
+        <v>-1422.285151275903</v>
       </c>
       <c r="AF34" s="4">
-        <v>-0.08185224042458772</v>
+        <v>-0.0789281151854111</v>
       </c>
       <c r="AG34" s="4">
-        <v>-0.1310106813981644</v>
+        <v>-0.1323348086645506</v>
       </c>
       <c r="AH34" s="4">
-        <v>-0.1288918852148127</v>
+        <v>-0.1300665801974217</v>
       </c>
       <c r="AI34" s="4">
-        <v>-0.1944230702195675</v>
+        <v>-0.1952359238515398</v>
       </c>
       <c r="AJ34" s="4">
-        <v>-0.1322213578368117</v>
+        <v>-0.1245195674597396</v>
       </c>
     </row>
     <row r="35" spans="1:36">
@@ -4021,106 +4021,106 @@
         <v>27</v>
       </c>
       <c r="C35" s="2">
-        <v>2217</v>
+        <v>2240</v>
       </c>
       <c r="D35" s="2">
-        <v>596352</v>
+        <v>603125</v>
       </c>
       <c r="E35" s="2">
-        <v>608734.5</v>
+        <v>616022</v>
       </c>
       <c r="F35" s="2">
-        <v>616325.5</v>
+        <v>623954</v>
       </c>
       <c r="G35" s="2">
-        <v>618445.5</v>
+        <v>626394.5</v>
       </c>
       <c r="H35" s="2">
-        <v>619762.5</v>
+        <v>627249.5</v>
       </c>
       <c r="I35" s="2">
-        <v>616494</v>
+        <v>623671</v>
       </c>
       <c r="J35" s="3">
-        <v>3200897263.163402</v>
+        <v>3335100853.701561</v>
       </c>
       <c r="K35" s="3">
-        <v>3160429051.099882</v>
+        <v>3304412025.93912</v>
       </c>
       <c r="L35" s="3">
-        <v>3165638870.812081</v>
+        <v>3297373742.269534</v>
       </c>
       <c r="M35" s="3">
-        <v>3192335666.619686</v>
+        <v>3326776506.186855</v>
       </c>
       <c r="N35" s="3">
-        <v>3132280986.18851</v>
+        <v>3262809448.953132</v>
       </c>
       <c r="O35" s="3">
-        <v>3256368899.085527</v>
+        <v>3424522445.80305</v>
       </c>
       <c r="P35" s="4">
-        <v>0.7041046459179071</v>
+        <v>0.6852678571428571</v>
       </c>
       <c r="Q35" s="4">
-        <v>0.7401894451962111</v>
+        <v>0.7482142857142857</v>
       </c>
       <c r="R35" s="4">
-        <v>0.6932792061344158</v>
+        <v>0.6995535714285714</v>
       </c>
       <c r="S35" s="4">
-        <v>0.7487595850248083</v>
+        <v>0.75</v>
       </c>
       <c r="T35" s="4">
-        <v>0.5489400090211998</v>
+        <v>0.5102678571428572</v>
       </c>
       <c r="U35" s="5">
-        <v>5367.462946654663</v>
+        <v>5529.700897329013</v>
       </c>
       <c r="V35" s="5">
-        <v>5191.802092866236</v>
+        <v>5364.113661426249</v>
       </c>
       <c r="W35" s="5">
-        <v>5136.310067995047</v>
+        <v>5284.642365093474</v>
       </c>
       <c r="X35" s="5">
-        <v>5161.870636328806</v>
+        <v>5310.992523380801</v>
       </c>
       <c r="Y35" s="5">
-        <v>5054.002115630601</v>
+        <v>5201.772897313002</v>
       </c>
       <c r="Z35" s="5">
-        <v>5282.077196348265</v>
+        <v>5490.91178811112</v>
       </c>
       <c r="AA35" s="5">
-        <v>-175.6608537884267</v>
+        <v>-165.5872359027644</v>
       </c>
       <c r="AB35" s="5">
-        <v>-231.1528786596164</v>
+        <v>-245.0585322355391</v>
       </c>
       <c r="AC35" s="5">
-        <v>-205.5923103258574</v>
+        <v>-218.7083739482123</v>
       </c>
       <c r="AD35" s="5">
-        <v>-313.4608310240619</v>
+        <v>-327.9280000160106</v>
       </c>
       <c r="AE35" s="5">
-        <v>-85.38575030639822</v>
+        <v>-38.78910921789338</v>
       </c>
       <c r="AF35" s="4">
-        <v>-0.03272698023894316</v>
+        <v>-0.0299450619440822</v>
       </c>
       <c r="AG35" s="4">
-        <v>-0.04306557510633313</v>
+        <v>-0.04431677893354213</v>
       </c>
       <c r="AH35" s="4">
-        <v>-0.03830344286847764</v>
+        <v>-0.03955157394749031</v>
       </c>
       <c r="AI35" s="4">
-        <v>-0.05840018536493674</v>
+        <v>-0.05930302671061438</v>
       </c>
       <c r="AJ35" s="4">
-        <v>-0.01590802789977641</v>
+        <v>-0.007014684869597443</v>
       </c>
     </row>
     <row r="36" spans="1:36">
@@ -4129,106 +4129,106 @@
         <v>28</v>
       </c>
       <c r="C36" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D36" s="2">
-        <v>422259.5</v>
+        <v>426451.5</v>
       </c>
       <c r="E36" s="2">
-        <v>426085.5</v>
+        <v>429556.5</v>
       </c>
       <c r="F36" s="2">
-        <v>430407</v>
+        <v>434493</v>
       </c>
       <c r="G36" s="2">
-        <v>439143</v>
+        <v>443186</v>
       </c>
       <c r="H36" s="2">
-        <v>449451.5</v>
+        <v>453621.5</v>
       </c>
       <c r="I36" s="2">
-        <v>459521</v>
+        <v>463675</v>
       </c>
       <c r="J36" s="3">
-        <v>2733999566.271678</v>
+        <v>2845865959.661965</v>
       </c>
       <c r="K36" s="3">
-        <v>2679916248.769338</v>
+        <v>2794535614.1524</v>
       </c>
       <c r="L36" s="3">
-        <v>2644189773.727497</v>
+        <v>2746557653.337644</v>
       </c>
       <c r="M36" s="3">
-        <v>2683179354.114818</v>
+        <v>2790487857.72589</v>
       </c>
       <c r="N36" s="3">
-        <v>2676490546.831897</v>
+        <v>2780846534.560504</v>
       </c>
       <c r="O36" s="3">
-        <v>2880972964.082438</v>
+        <v>3020091658.237216</v>
       </c>
       <c r="P36" s="4">
-        <v>0.7178217821782178</v>
+        <v>0.6919315403422983</v>
       </c>
       <c r="Q36" s="4">
-        <v>0.8193069306930693</v>
+        <v>0.8215158924205379</v>
       </c>
       <c r="R36" s="4">
-        <v>0.8168316831683168</v>
+        <v>0.8215158924205379</v>
       </c>
       <c r="S36" s="4">
-        <v>0.9034653465346535</v>
+        <v>0.902200488997555</v>
       </c>
       <c r="T36" s="4">
-        <v>0.6584158415841584</v>
+        <v>0.6063569682151589</v>
       </c>
       <c r="U36" s="5">
-        <v>6474.69048362838</v>
+        <v>6673.363699417085</v>
       </c>
       <c r="V36" s="5">
-        <v>6289.620859591179</v>
+        <v>6505.629909342311</v>
       </c>
       <c r="W36" s="5">
-        <v>6143.463683740034</v>
+        <v>6321.293216087817</v>
       </c>
       <c r="X36" s="5">
-        <v>6110.035578649365</v>
+        <v>6296.426010130937</v>
       </c>
       <c r="Y36" s="5">
-        <v>5955.01527268659</v>
+        <v>6130.323484580215</v>
       </c>
       <c r="Z36" s="5">
-        <v>6269.513175855812</v>
+        <v>6513.380402732983</v>
       </c>
       <c r="AA36" s="5">
-        <v>-185.0696240372008</v>
+        <v>-167.7337900747734</v>
       </c>
       <c r="AB36" s="5">
-        <v>-331.2267998883462</v>
+        <v>-352.0704833292675</v>
       </c>
       <c r="AC36" s="5">
-        <v>-364.6549049790156</v>
+        <v>-376.9376892861474</v>
       </c>
       <c r="AD36" s="5">
-        <v>-519.6752109417903</v>
+        <v>-543.0402148368694</v>
       </c>
       <c r="AE36" s="5">
-        <v>-205.1773077725684</v>
+        <v>-159.9832966841013</v>
       </c>
       <c r="AF36" s="4">
-        <v>-0.02858354766226434</v>
+        <v>-0.02513481920510718</v>
       </c>
       <c r="AG36" s="4">
-        <v>-0.05115716353173516</v>
+        <v>-0.05275757461863206</v>
       </c>
       <c r="AH36" s="4">
-        <v>-0.05632005203971768</v>
+        <v>-0.05648391220143933</v>
       </c>
       <c r="AI36" s="4">
-        <v>-0.08026255652773184</v>
+        <v>-0.08137428728548146</v>
       </c>
       <c r="AJ36" s="4">
-        <v>-0.0316891298960732</v>
+        <v>-0.02397341189392632</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -4237,106 +4237,106 @@
         <v>29</v>
       </c>
       <c r="C37" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="2">
-        <v>14316.5</v>
+        <v>14208.5</v>
       </c>
       <c r="E37" s="2">
-        <v>15075.5</v>
+        <v>14960</v>
       </c>
       <c r="F37" s="2">
-        <v>15769</v>
+        <v>15653.5</v>
       </c>
       <c r="G37" s="2">
-        <v>16722</v>
+        <v>16596.5</v>
       </c>
       <c r="H37" s="2">
-        <v>17571</v>
+        <v>17438.5</v>
       </c>
       <c r="I37" s="2">
-        <v>18270.5</v>
+        <v>18121.5</v>
       </c>
       <c r="J37" s="3">
-        <v>369154354.6907907</v>
+        <v>377003163.712337</v>
       </c>
       <c r="K37" s="3">
-        <v>375280849.3911545</v>
+        <v>384274901.214015</v>
       </c>
       <c r="L37" s="3">
-        <v>389542977.6718069</v>
+        <v>397186799.0997308</v>
       </c>
       <c r="M37" s="3">
-        <v>405153569.1243234</v>
+        <v>413230099.4288107</v>
       </c>
       <c r="N37" s="3">
-        <v>398416338.2842437</v>
+        <v>407910000.9477693</v>
       </c>
       <c r="O37" s="3">
-        <v>427358611.8350472</v>
+        <v>439956870.9909915</v>
       </c>
       <c r="P37" s="4">
-        <v>0.7372881355932204</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="Q37" s="4">
-        <v>0.8389830508474576</v>
+        <v>0.8376068376068376</v>
       </c>
       <c r="R37" s="4">
-        <v>0.788135593220339</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="S37" s="4">
-        <v>0.8389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="T37" s="4">
-        <v>0.7966101694915254</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="U37" s="5">
-        <v>25785.23764123848</v>
+        <v>26533.63576115262</v>
       </c>
       <c r="V37" s="5">
-        <v>24893.42637996448</v>
+        <v>25686.8249474609</v>
       </c>
       <c r="W37" s="5">
-        <v>24703.0869219232</v>
+        <v>25373.67356180604</v>
       </c>
       <c r="X37" s="5">
-        <v>24228.77461573516</v>
+        <v>24898.62919463807</v>
       </c>
       <c r="Y37" s="5">
-        <v>22674.65359309338</v>
+        <v>23391.3467871531</v>
       </c>
       <c r="Z37" s="5">
-        <v>23390.63582469266</v>
+        <v>24278.17073592095</v>
       </c>
       <c r="AA37" s="5">
-        <v>-891.8112612740006</v>
+        <v>-846.8108136917253</v>
       </c>
       <c r="AB37" s="5">
-        <v>-1082.150719315283</v>
+        <v>-1159.962199346584</v>
       </c>
       <c r="AC37" s="5">
-        <v>-1556.463025503315</v>
+        <v>-1635.006566514556</v>
       </c>
       <c r="AD37" s="5">
-        <v>-3110.584048145105</v>
+        <v>-3142.288973999523</v>
       </c>
       <c r="AE37" s="5">
-        <v>-2394.601816545823</v>
+        <v>-2255.465025231671</v>
       </c>
       <c r="AF37" s="4">
-        <v>-0.03458611759496533</v>
+        <v>-0.03191461665165107</v>
       </c>
       <c r="AG37" s="4">
-        <v>-0.0419678396752331</v>
+        <v>-0.0437166700330176</v>
       </c>
       <c r="AH37" s="4">
-        <v>-0.06036256276397678</v>
+        <v>-0.06162014814827366</v>
       </c>
       <c r="AI37" s="4">
-        <v>-0.1206342982532893</v>
+        <v>-0.1184266265763732</v>
       </c>
       <c r="AJ37" s="4">
-        <v>-0.09286716104241455</v>
+        <v>-0.08500399438413386</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -4368,22 +4368,22 @@
         <v>14555.5</v>
       </c>
       <c r="J38" s="3">
-        <v>90366689.47480121</v>
+        <v>93042109.49495409</v>
       </c>
       <c r="K38" s="3">
-        <v>89419244.18456587</v>
+        <v>92359828.46943335</v>
       </c>
       <c r="L38" s="3">
-        <v>87465034.29788089</v>
+        <v>89917326.03744274</v>
       </c>
       <c r="M38" s="3">
-        <v>89207497.61836214</v>
+        <v>91724739.86423297</v>
       </c>
       <c r="N38" s="3">
-        <v>88845679.46601336</v>
+        <v>91383765.70010246</v>
       </c>
       <c r="O38" s="3">
-        <v>95394864.90635787</v>
+        <v>99090874.22707714</v>
       </c>
       <c r="P38" s="4">
         <v>0.7857142857142857</v>
@@ -4401,52 +4401,52 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="U38" s="5">
-        <v>7345.989470780085</v>
+        <v>7563.476770715286</v>
       </c>
       <c r="V38" s="5">
-        <v>7028.709651357167</v>
+        <v>7259.851318144423</v>
       </c>
       <c r="W38" s="5">
-        <v>6766.073667353669</v>
+        <v>6955.776749241336</v>
       </c>
       <c r="X38" s="5">
-        <v>6583.822105491874</v>
+        <v>6769.603296374993</v>
       </c>
       <c r="Y38" s="5">
-        <v>6293.078301885065</v>
+        <v>6472.854915717699</v>
       </c>
       <c r="Z38" s="5">
-        <v>6553.870695363118</v>
+        <v>6807.795969020449</v>
       </c>
       <c r="AA38" s="5">
-        <v>-317.2798194229181</v>
+        <v>-303.6254525708628</v>
       </c>
       <c r="AB38" s="5">
-        <v>-579.9158034264156</v>
+        <v>-607.7000214739501</v>
       </c>
       <c r="AC38" s="5">
-        <v>-762.1673652882109</v>
+        <v>-793.8734743402929</v>
       </c>
       <c r="AD38" s="5">
-        <v>-1052.91116889502</v>
+        <v>-1090.621854997587</v>
       </c>
       <c r="AE38" s="5">
-        <v>-792.1187754169669</v>
+        <v>-755.6808016948371</v>
       </c>
       <c r="AF38" s="4">
-        <v>-0.04319088948942174</v>
+        <v>-0.04014363523220665</v>
       </c>
       <c r="AG38" s="4">
-        <v>-0.0789431846769082</v>
+        <v>-0.08034665007855635</v>
       </c>
       <c r="AH38" s="4">
-        <v>-0.1037528529437539</v>
+        <v>-0.1049614480755806</v>
       </c>
       <c r="AI38" s="4">
-        <v>-0.1433314290856462</v>
+        <v>-0.1441958358648394</v>
       </c>
       <c r="AJ38" s="4">
-        <v>-0.107830099480506</v>
+        <v>-0.09991182952008615</v>
       </c>
     </row>
     <row r="39" spans="1:36">
@@ -4476,22 +4476,22 @@
         <v>924.5</v>
       </c>
       <c r="J39" s="3">
-        <v>7034468.175536806</v>
+        <v>7242732.493919384</v>
       </c>
       <c r="K39" s="3">
-        <v>7081961.961534508</v>
+        <v>7314854.849861023</v>
       </c>
       <c r="L39" s="3">
-        <v>7239757.45889652</v>
+        <v>7442741.400484174</v>
       </c>
       <c r="M39" s="3">
-        <v>7200880.830701504</v>
+        <v>7404074.081475889</v>
       </c>
       <c r="N39" s="3">
-        <v>7166706.740365508</v>
+        <v>7371440.609595845</v>
       </c>
       <c r="O39" s="3">
-        <v>6383174.658945349</v>
+        <v>6630486.430479383</v>
       </c>
       <c r="P39" s="4">
         <v>0.7272727272727273</v>
@@ -4509,52 +4509,52 @@
         <v>0.8181818181818182</v>
       </c>
       <c r="U39" s="5">
-        <v>8711.415697259203</v>
+        <v>8969.328165844438</v>
       </c>
       <c r="V39" s="5">
-        <v>7189.809098004576</v>
+        <v>7426.24857853911</v>
       </c>
       <c r="W39" s="5">
-        <v>7210.913803681792</v>
+        <v>7413.089044306946</v>
       </c>
       <c r="X39" s="5">
-        <v>7161.492621284439</v>
+        <v>7363.574422154042</v>
       </c>
       <c r="Y39" s="5">
-        <v>6764.234771463433</v>
+        <v>6957.471080316985</v>
       </c>
       <c r="Z39" s="5">
-        <v>6904.461502374634</v>
+        <v>7171.970178993383</v>
       </c>
       <c r="AA39" s="5">
-        <v>-1521.606599254626</v>
+        <v>-1543.079587305328</v>
       </c>
       <c r="AB39" s="5">
-        <v>-1500.501893577411</v>
+        <v>-1556.239121537492</v>
       </c>
       <c r="AC39" s="5">
-        <v>-1549.923075974763</v>
+        <v>-1605.753743690396</v>
       </c>
       <c r="AD39" s="5">
-        <v>-1947.180925795769</v>
+        <v>-2011.857085527453</v>
       </c>
       <c r="AE39" s="5">
-        <v>-1806.954194884569</v>
+        <v>-1797.357986851054</v>
       </c>
       <c r="AF39" s="4">
-        <v>-0.1746681196413754</v>
+        <v>-0.1720395952487764</v>
       </c>
       <c r="AG39" s="4">
-        <v>-0.1722454702798192</v>
+        <v>-0.1735067658092513</v>
       </c>
       <c r="AH39" s="4">
-        <v>-0.1779186219367769</v>
+        <v>-0.1790272040446876</v>
       </c>
       <c r="AI39" s="4">
-        <v>-0.2235206071509587</v>
+        <v>-0.224304100410629</v>
       </c>
       <c r="AJ39" s="4">
-        <v>-0.207423713628208</v>
+        <v>-0.2003893662510271</v>
       </c>
     </row>
     <row r="40" spans="1:36">
@@ -4563,106 +4563,106 @@
         <v>27</v>
       </c>
       <c r="C40" s="2">
-        <v>1376</v>
+        <v>1390</v>
       </c>
       <c r="D40" s="2">
-        <v>304612</v>
+        <v>307596.5</v>
       </c>
       <c r="E40" s="2">
-        <v>311661.5</v>
+        <v>314856</v>
       </c>
       <c r="F40" s="2">
-        <v>316497.5</v>
+        <v>319870.5</v>
       </c>
       <c r="G40" s="2">
-        <v>317949.5</v>
+        <v>321376</v>
       </c>
       <c r="H40" s="2">
-        <v>316696.5</v>
+        <v>320079.5</v>
       </c>
       <c r="I40" s="2">
-        <v>311835.5</v>
+        <v>315053.5</v>
       </c>
       <c r="J40" s="3">
-        <v>1673406898.63086</v>
+        <v>1738615185.062241</v>
       </c>
       <c r="K40" s="3">
-        <v>1649573875.886329</v>
+        <v>1718679932.250473</v>
       </c>
       <c r="L40" s="3">
-        <v>1662226614.563568</v>
+        <v>1725292639.548688</v>
       </c>
       <c r="M40" s="3">
-        <v>1671244936.241044</v>
+        <v>1736808189.963161</v>
       </c>
       <c r="N40" s="3">
-        <v>1631300806.425597</v>
+        <v>1695388572.890019</v>
       </c>
       <c r="O40" s="3">
-        <v>1699786085.971488</v>
+        <v>1781129821.624867</v>
       </c>
       <c r="P40" s="4">
-        <v>0.6867732558139535</v>
+        <v>0.6661870503597123</v>
       </c>
       <c r="Q40" s="4">
-        <v>0.6838662790697675</v>
+        <v>0.6928057553956835</v>
       </c>
       <c r="R40" s="4">
-        <v>0.6286337209302325</v>
+        <v>0.6345323741007194</v>
       </c>
       <c r="S40" s="4">
-        <v>0.7129360465116279</v>
+        <v>0.7151079136690648</v>
       </c>
       <c r="T40" s="4">
-        <v>0.4927325581395349</v>
+        <v>0.4546762589928058</v>
       </c>
       <c r="U40" s="5">
-        <v>5493.568535155739</v>
+        <v>5652.259323699202</v>
       </c>
       <c r="V40" s="5">
-        <v>5292.838146150004</v>
+        <v>5458.622139169883</v>
       </c>
       <c r="W40" s="5">
-        <v>5251.942320440344</v>
+        <v>5393.722270571022</v>
       </c>
       <c r="X40" s="5">
-        <v>5256.321951256548</v>
+        <v>5404.287158851814</v>
       </c>
       <c r="Y40" s="5">
-        <v>5150.990953248921</v>
+        <v>5296.773373146418</v>
       </c>
       <c r="Z40" s="5">
-        <v>5450.90628222729</v>
+        <v>5653.420202044626</v>
       </c>
       <c r="AA40" s="5">
-        <v>-200.7303890057356</v>
+        <v>-193.6371845293188</v>
       </c>
       <c r="AB40" s="5">
-        <v>-241.6262147153957</v>
+        <v>-258.5370531281797</v>
       </c>
       <c r="AC40" s="5">
-        <v>-237.2465838991911</v>
+        <v>-247.9721648473878</v>
       </c>
       <c r="AD40" s="5">
-        <v>-342.5775819068185</v>
+        <v>-355.4859505527838</v>
       </c>
       <c r="AE40" s="5">
-        <v>-42.66225292844956</v>
+        <v>1.160878345424862</v>
       </c>
       <c r="AF40" s="4">
-        <v>-0.03653916169811555</v>
+        <v>-0.03425836881146316</v>
       </c>
       <c r="AG40" s="4">
-        <v>-0.04398347143011405</v>
+        <v>-0.04574047974836659</v>
       </c>
       <c r="AH40" s="4">
-        <v>-0.04318624267285409</v>
+        <v>-0.04387133545123667</v>
       </c>
       <c r="AI40" s="4">
-        <v>-0.06235975390395432</v>
+        <v>-0.06289271779556838</v>
       </c>
       <c r="AJ40" s="4">
-        <v>-0.007765854317723586</v>
+        <v>0.0002053830652386512</v>
       </c>
     </row>
     <row r="41" spans="1:36">
@@ -4671,106 +4671,106 @@
         <v>28</v>
       </c>
       <c r="C41" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D41" s="2">
-        <v>247961.5</v>
+        <v>248136.5</v>
       </c>
       <c r="E41" s="2">
-        <v>248088.5</v>
+        <v>248233.5</v>
       </c>
       <c r="F41" s="2">
-        <v>248548.5</v>
+        <v>248767.5</v>
       </c>
       <c r="G41" s="2">
-        <v>251733</v>
+        <v>252041</v>
       </c>
       <c r="H41" s="2">
-        <v>256415</v>
+        <v>256665</v>
       </c>
       <c r="I41" s="2">
-        <v>262211.5</v>
+        <v>262442.5</v>
       </c>
       <c r="J41" s="3">
-        <v>1597263617.521262</v>
+        <v>1643673856.962189</v>
       </c>
       <c r="K41" s="3">
-        <v>1567277503.154061</v>
+        <v>1621105669.284584</v>
       </c>
       <c r="L41" s="3">
-        <v>1518501514.555384</v>
+        <v>1560744981.604409</v>
       </c>
       <c r="M41" s="3">
-        <v>1529317759.295712</v>
+        <v>1581279433.456802</v>
       </c>
       <c r="N41" s="3">
-        <v>1512418315.484508</v>
+        <v>1552646132.234226</v>
       </c>
       <c r="O41" s="3">
-        <v>1641868140.479976</v>
+        <v>1706753312.33214</v>
       </c>
       <c r="P41" s="4">
-        <v>0.61328125</v>
+        <v>0.5907335907335908</v>
       </c>
       <c r="Q41" s="4">
-        <v>0.78125</v>
+        <v>0.7915057915057915</v>
       </c>
       <c r="R41" s="4">
-        <v>0.7734375</v>
+        <v>0.7760617760617761</v>
       </c>
       <c r="S41" s="4">
-        <v>0.87109375</v>
+        <v>0.8687258687258688</v>
       </c>
       <c r="T41" s="4">
-        <v>0.63671875</v>
+        <v>0.5907335907335908</v>
       </c>
       <c r="U41" s="5">
-        <v>6441.57910611632</v>
+        <v>6624.071254983403</v>
       </c>
       <c r="V41" s="5">
-        <v>6317.412952047601</v>
+        <v>6530.56766828242</v>
       </c>
       <c r="W41" s="5">
-        <v>6109.477685664506</v>
+        <v>6273.910304217427</v>
       </c>
       <c r="X41" s="5">
-        <v>6075.158041638213</v>
+        <v>6273.897633546932</v>
       </c>
       <c r="Y41" s="5">
-        <v>5898.32231142682</v>
+        <v>6049.309926301701</v>
       </c>
       <c r="Z41" s="5">
-        <v>6261.617589159806</v>
+        <v>6503.341921876756</v>
       </c>
       <c r="AA41" s="5">
-        <v>-124.1661540687192</v>
+        <v>-93.50358670098376</v>
       </c>
       <c r="AB41" s="5">
-        <v>-332.1014204518142</v>
+        <v>-350.1609507659768</v>
       </c>
       <c r="AC41" s="5">
-        <v>-366.4210644781069</v>
+        <v>-350.1736214364719</v>
       </c>
       <c r="AD41" s="5">
-        <v>-543.2567946894997</v>
+        <v>-574.7613286817023</v>
       </c>
       <c r="AE41" s="5">
-        <v>-179.9615169565141</v>
+        <v>-120.7293331066476</v>
       </c>
       <c r="AF41" s="4">
-        <v>-0.01927573224255252</v>
+        <v>-0.0141157277906151</v>
       </c>
       <c r="AG41" s="4">
-        <v>-0.05155590189624182</v>
+        <v>-0.05286189373378869</v>
       </c>
       <c r="AH41" s="4">
-        <v>-0.05688373276828784</v>
+        <v>-0.05286380655598022</v>
       </c>
       <c r="AI41" s="4">
-        <v>-0.08433596572208113</v>
+        <v>-0.08676859087971001</v>
       </c>
       <c r="AJ41" s="4">
-        <v>-0.02793748458132561</v>
+        <v>-0.01822585060748261</v>
       </c>
     </row>
     <row r="42" spans="1:36">
@@ -4779,106 +4779,106 @@
         <v>29</v>
       </c>
       <c r="C42" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D42" s="2">
-        <v>5079.5</v>
+        <v>5121.5</v>
       </c>
       <c r="E42" s="2">
-        <v>5278</v>
+        <v>5335</v>
       </c>
       <c r="F42" s="2">
-        <v>5546</v>
+        <v>5593</v>
       </c>
       <c r="G42" s="2">
-        <v>5843.5</v>
+        <v>5969.5</v>
       </c>
       <c r="H42" s="2">
-        <v>6175.5</v>
+        <v>6317.5</v>
       </c>
       <c r="I42" s="2">
-        <v>6473.5</v>
+        <v>6628</v>
       </c>
       <c r="J42" s="3">
-        <v>138551599.4780364</v>
+        <v>145469776.5359827</v>
       </c>
       <c r="K42" s="3">
-        <v>141982492.2360454</v>
+        <v>149650343.4287446</v>
       </c>
       <c r="L42" s="3">
-        <v>145435993.0793958</v>
+        <v>152825756.5646768</v>
       </c>
       <c r="M42" s="3">
-        <v>151470685.3125387</v>
+        <v>160074786.6105547</v>
       </c>
       <c r="N42" s="3">
-        <v>152808997.9473478</v>
+        <v>162911747.8831738</v>
       </c>
       <c r="O42" s="3">
-        <v>167120957.3640574</v>
+        <v>179292791.1617683</v>
       </c>
       <c r="P42" s="4">
-        <v>0.5510204081632653</v>
+        <v>0.58</v>
       </c>
       <c r="Q42" s="4">
-        <v>0.673469387755102</v>
+        <v>0.66</v>
       </c>
       <c r="R42" s="4">
-        <v>0.7346938775510204</v>
+        <v>0.76</v>
       </c>
       <c r="S42" s="4">
-        <v>0.7551020408163265</v>
+        <v>0.78</v>
       </c>
       <c r="T42" s="4">
-        <v>0.6530612244897959</v>
+        <v>0.64</v>
       </c>
       <c r="U42" s="5">
-        <v>27276.62161197684</v>
+        <v>28403.7443202153</v>
       </c>
       <c r="V42" s="5">
-        <v>26900.81323153569</v>
+        <v>28050.67355740292</v>
       </c>
       <c r="W42" s="5">
-        <v>26223.58331759752</v>
+        <v>27324.46925883725</v>
       </c>
       <c r="X42" s="5">
-        <v>25921.2262021971</v>
+        <v>26815.44293668728</v>
       </c>
       <c r="Y42" s="5">
-        <v>24744.39283415881</v>
+        <v>25787.37600050238</v>
       </c>
       <c r="Z42" s="5">
-        <v>25816.16704472966</v>
+        <v>27050.81339193849</v>
       </c>
       <c r="AA42" s="5">
-        <v>-375.8083804411508</v>
+        <v>-353.0707628123855</v>
       </c>
       <c r="AB42" s="5">
-        <v>-1053.038294379327</v>
+        <v>-1079.275061378048</v>
       </c>
       <c r="AC42" s="5">
-        <v>-1355.395409779747</v>
+        <v>-1588.301383528018</v>
       </c>
       <c r="AD42" s="5">
-        <v>-2532.228777818029</v>
+        <v>-2616.368319712925</v>
       </c>
       <c r="AE42" s="5">
-        <v>-1460.454567247187</v>
+        <v>-1352.930928276815</v>
       </c>
       <c r="AF42" s="4">
-        <v>-0.01377767326860369</v>
+        <v>-0.01243043025708057</v>
       </c>
       <c r="AG42" s="4">
-        <v>-0.03860589149782945</v>
+        <v>-0.03799763331237682</v>
       </c>
       <c r="AH42" s="4">
-        <v>-0.04969073623049447</v>
+        <v>-0.05591873260165925</v>
       </c>
       <c r="AI42" s="4">
-        <v>-0.09283513236500507</v>
+        <v>-0.09211350060811607</v>
       </c>
       <c r="AJ42" s="4">
-        <v>-0.05354235535554441</v>
+        <v>-0.04763213303937253</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -4910,22 +4910,22 @@
         <v>335</v>
       </c>
       <c r="J43" s="3">
-        <v>5624955.341759661</v>
+        <v>5791489.251779749</v>
       </c>
       <c r="K43" s="3">
-        <v>3126919.725110986</v>
+        <v>3229749.61466725</v>
       </c>
       <c r="L43" s="3">
-        <v>3117512.539816089</v>
+        <v>3204919.471177192</v>
       </c>
       <c r="M43" s="3">
-        <v>2804952.836999811</v>
+        <v>2884102.526963962</v>
       </c>
       <c r="N43" s="3">
-        <v>2818416.580777402</v>
+        <v>2898931.29312575</v>
       </c>
       <c r="O43" s="3">
-        <v>2561554.675108016</v>
+        <v>2660800.373123574</v>
       </c>
       <c r="P43" s="4">
         <v>1</v>
@@ -4943,52 +4943,52 @@
         <v>0</v>
       </c>
       <c r="U43" s="5">
-        <v>6961.578393266907</v>
+        <v>7167.684717549195</v>
       </c>
       <c r="V43" s="5">
-        <v>5228.962751021716</v>
+        <v>5400.919088072324</v>
       </c>
       <c r="W43" s="5">
-        <v>5805.423724052306</v>
+        <v>5968.192683756411</v>
       </c>
       <c r="X43" s="5">
-        <v>5312.410676136005</v>
+        <v>5462.315391977201</v>
       </c>
       <c r="Y43" s="5">
-        <v>6140.34113459129</v>
+        <v>6315.754451254357</v>
       </c>
       <c r="Z43" s="5">
-        <v>7646.431865994077</v>
+        <v>7942.687680965892</v>
       </c>
       <c r="AA43" s="5">
-        <v>-1732.615642245191</v>
+        <v>-1766.76562947687</v>
       </c>
       <c r="AB43" s="5">
-        <v>-1156.154669214601</v>
+        <v>-1199.492033792784</v>
       </c>
       <c r="AC43" s="5">
-        <v>-1649.167717130902</v>
+        <v>-1705.369325571994</v>
       </c>
       <c r="AD43" s="5">
-        <v>-821.2372586756173</v>
+        <v>-851.9302662948376</v>
       </c>
       <c r="AE43" s="5">
-        <v>684.8534727271699</v>
+        <v>775.0029634166967</v>
       </c>
       <c r="AF43" s="4">
-        <v>-0.248882587305336</v>
+        <v>-0.2464904218165682</v>
       </c>
       <c r="AG43" s="4">
-        <v>-0.1660765136729351</v>
+        <v>-0.1673472091840166</v>
       </c>
       <c r="AH43" s="4">
-        <v>-0.2368956612951371</v>
+        <v>-0.2379247124802527</v>
       </c>
       <c r="AI43" s="4">
-        <v>-0.1179671063490286</v>
+        <v>-0.1188571065645495</v>
       </c>
       <c r="AJ43" s="4">
-        <v>0.09837617764809581</v>
+        <v>0.1081245888953788</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -5018,22 +5018,22 @@
         <v>11165.5</v>
       </c>
       <c r="J44" s="3">
-        <v>59466448.34224986</v>
+        <v>61227027.68123966</v>
       </c>
       <c r="K44" s="3">
-        <v>60128439.55617502</v>
+        <v>62105785.10460687</v>
       </c>
       <c r="L44" s="3">
-        <v>66808487.37038993</v>
+        <v>68681623.33867936</v>
       </c>
       <c r="M44" s="3">
-        <v>69662753.25219974</v>
+        <v>71628485.17083633</v>
       </c>
       <c r="N44" s="3">
-        <v>69246807.15708528</v>
+        <v>71225005.41114056</v>
       </c>
       <c r="O44" s="3">
-        <v>67823361.40959062</v>
+        <v>70451131.53304988</v>
       </c>
       <c r="P44" s="4">
         <v>0.9</v>
@@ -5051,52 +5051,52 @@
         <v>0.9</v>
       </c>
       <c r="U44" s="5">
-        <v>7425.880162618614</v>
+        <v>7645.73272742753</v>
       </c>
       <c r="V44" s="5">
-        <v>6851.072700526978</v>
+        <v>7076.372711742366</v>
       </c>
       <c r="W44" s="5">
-        <v>6881.0884097631</v>
+        <v>7074.016205446427</v>
       </c>
       <c r="X44" s="5">
-        <v>6764.030804175138</v>
+        <v>6954.897093973816</v>
       </c>
       <c r="Y44" s="5">
-        <v>6457.783004484313</v>
+        <v>6642.264796338764</v>
       </c>
       <c r="Z44" s="5">
-        <v>6074.368493089482</v>
+        <v>6309.715779235134</v>
       </c>
       <c r="AA44" s="5">
-        <v>-574.8074620916359</v>
+        <v>-569.3600156851644</v>
       </c>
       <c r="AB44" s="5">
-        <v>-544.7917528555145</v>
+        <v>-571.7165219811031</v>
       </c>
       <c r="AC44" s="5">
-        <v>-661.8493584434764</v>
+        <v>-690.8356334537148</v>
       </c>
       <c r="AD44" s="5">
-        <v>-968.097158134301</v>
+        <v>-1003.467931088767</v>
       </c>
       <c r="AE44" s="5">
-        <v>-1351.511669529132</v>
+        <v>-1336.016948192397</v>
       </c>
       <c r="AF44" s="4">
-        <v>-0.07740597067337263</v>
+        <v>-0.07446768491431821</v>
       </c>
       <c r="AG44" s="4">
-        <v>-0.07336393005612452</v>
+        <v>-0.07477589687776887</v>
       </c>
       <c r="AH44" s="4">
-        <v>-0.08912739553422666</v>
+        <v>-0.09035571319089941</v>
       </c>
       <c r="AI44" s="4">
-        <v>-0.1303680017632978</v>
+        <v>-0.1312454890672581</v>
       </c>
       <c r="AJ44" s="4">
-        <v>-0.18200019929389</v>
+        <v>-0.1747402107583103</v>
       </c>
     </row>
     <row r="45" spans="1:36">
@@ -5126,28 +5126,28 @@
         <v>2998.5</v>
       </c>
       <c r="J45" s="3">
-        <v>30773947.7810526</v>
+        <v>31685049.387973</v>
       </c>
       <c r="K45" s="3">
-        <v>29480285.38668972</v>
+        <v>30449755.26660258</v>
       </c>
       <c r="L45" s="3">
-        <v>29282623.03722851</v>
+        <v>30103631.51408266</v>
       </c>
       <c r="M45" s="3">
-        <v>30080084.73817267</v>
+        <v>30928879.53775592</v>
       </c>
       <c r="N45" s="3">
-        <v>29757716.71666469</v>
+        <v>30607816.03055852</v>
       </c>
       <c r="O45" s="3">
-        <v>28324590.21316295</v>
+        <v>29422007.24432254</v>
       </c>
       <c r="P45" s="4">
-        <v>0.5833333333333334</v>
+        <v>0.5625</v>
       </c>
       <c r="Q45" s="4">
-        <v>0.8333333333333334</v>
+        <v>0.8541666666666666</v>
       </c>
       <c r="R45" s="4">
         <v>0.7083333333333334</v>
@@ -5159,52 +5159,52 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="U45" s="5">
-        <v>10146.37249622572</v>
+        <v>10446.76867391131</v>
       </c>
       <c r="V45" s="5">
-        <v>9542.089460006382</v>
+        <v>9855.884533614688</v>
       </c>
       <c r="W45" s="5">
-        <v>8992.053750108555</v>
+        <v>9244.16751545606</v>
       </c>
       <c r="X45" s="5">
-        <v>8875.799568655257</v>
+        <v>9126.255396210066</v>
       </c>
       <c r="Y45" s="5">
-        <v>8838.050702900116</v>
+        <v>9090.530451606332</v>
       </c>
       <c r="Z45" s="5">
-        <v>9446.253197653145</v>
+        <v>9812.241869042035</v>
       </c>
       <c r="AA45" s="5">
-        <v>-604.2830362193345</v>
+        <v>-590.8841402966191</v>
       </c>
       <c r="AB45" s="5">
-        <v>-1154.318746117162</v>
+        <v>-1202.601158455247</v>
       </c>
       <c r="AC45" s="5">
-        <v>-1270.57292757046</v>
+        <v>-1320.51327770124</v>
       </c>
       <c r="AD45" s="5">
-        <v>-1308.3217933256</v>
+        <v>-1356.238222304975</v>
       </c>
       <c r="AE45" s="5">
-        <v>-700.119298572572</v>
+        <v>-634.5268048692724</v>
       </c>
       <c r="AF45" s="4">
-        <v>-0.05955655939540139</v>
+        <v>-0.05656142667083586</v>
       </c>
       <c r="AG45" s="4">
-        <v>-0.1137666438470054</v>
+        <v>-0.1151170468107043</v>
       </c>
       <c r="AH45" s="4">
-        <v>-0.1252243526485048</v>
+        <v>-0.1264039933227349</v>
       </c>
       <c r="AI45" s="4">
-        <v>-0.1289447823655473</v>
+        <v>-0.1298237057447157</v>
       </c>
       <c r="AJ45" s="4">
-        <v>-0.06900193136345079</v>
+        <v>-0.06073905000441671</v>
       </c>
     </row>
     <row r="46" spans="1:36">
@@ -5213,106 +5213,106 @@
         <v>27</v>
       </c>
       <c r="C46" s="2">
-        <v>1479</v>
+        <v>1521</v>
       </c>
       <c r="D46" s="2">
-        <v>418541</v>
+        <v>429343.5</v>
       </c>
       <c r="E46" s="2">
-        <v>426511.5</v>
+        <v>437588.5</v>
       </c>
       <c r="F46" s="2">
-        <v>431837</v>
+        <v>443072</v>
       </c>
       <c r="G46" s="2">
-        <v>434444</v>
+        <v>445904</v>
       </c>
       <c r="H46" s="2">
-        <v>433568</v>
+        <v>444938.5</v>
       </c>
       <c r="I46" s="2">
-        <v>429376.5</v>
+        <v>440437.5</v>
       </c>
       <c r="J46" s="3">
-        <v>2432461597.806467</v>
+        <v>2567270521.146815</v>
       </c>
       <c r="K46" s="3">
-        <v>2383079394.371143</v>
+        <v>2523362715.441294</v>
       </c>
       <c r="L46" s="3">
-        <v>2407772310.128094</v>
+        <v>2537738637.351906</v>
       </c>
       <c r="M46" s="3">
-        <v>2422785774.577777</v>
+        <v>2556376165.257478</v>
       </c>
       <c r="N46" s="3">
-        <v>2380138755.894373</v>
+        <v>2511902070.258837</v>
       </c>
       <c r="O46" s="3">
-        <v>2424959941.93049</v>
+        <v>2584172861.145279</v>
       </c>
       <c r="P46" s="4">
-        <v>0.7349560513860717</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="Q46" s="4">
-        <v>0.7058823529411765</v>
+        <v>0.7140039447731755</v>
       </c>
       <c r="R46" s="4">
-        <v>0.6815415821501014</v>
+        <v>0.6962524654832347</v>
       </c>
       <c r="S46" s="4">
-        <v>0.7349560513860717</v>
+        <v>0.7389875082182774</v>
       </c>
       <c r="T46" s="4">
-        <v>0.5997295469912103</v>
+        <v>0.5548980933596318</v>
       </c>
       <c r="U46" s="5">
-        <v>5811.764194682161</v>
+        <v>5979.52576700664</v>
       </c>
       <c r="V46" s="5">
-        <v>5587.3743014459</v>
+        <v>5766.519722162018</v>
       </c>
       <c r="W46" s="5">
-        <v>5575.65078983064</v>
+        <v>5727.59875900961</v>
       </c>
       <c r="X46" s="5">
-        <v>5576.750454783072</v>
+        <v>5733.019136983472</v>
       </c>
       <c r="Y46" s="5">
-        <v>5489.655038873656</v>
+        <v>5645.503974726478</v>
       </c>
       <c r="Z46" s="5">
-        <v>5647.630790065339</v>
+        <v>5867.286189630263</v>
       </c>
       <c r="AA46" s="5">
-        <v>-224.3898932362617</v>
+        <v>-213.006044844622</v>
       </c>
       <c r="AB46" s="5">
-        <v>-236.1134048515214</v>
+        <v>-251.9270079970302</v>
       </c>
       <c r="AC46" s="5">
-        <v>-235.0137398990892</v>
+        <v>-246.5066300231683</v>
       </c>
       <c r="AD46" s="5">
-        <v>-322.1091558085054</v>
+        <v>-334.0217922801621</v>
       </c>
       <c r="AE46" s="5">
-        <v>-164.1334046168222</v>
+        <v>-112.2395773763774</v>
       </c>
       <c r="AF46" s="4">
-        <v>-0.0386096004104195</v>
+        <v>-0.03562256492311311</v>
       </c>
       <c r="AG46" s="4">
-        <v>-0.04062680400343288</v>
+        <v>-0.0421316033768252</v>
       </c>
       <c r="AH46" s="4">
-        <v>-0.04043759038161421</v>
+        <v>-0.04122511376793847</v>
       </c>
       <c r="AI46" s="4">
-        <v>-0.05542364504451835</v>
+        <v>-0.0558609169515083</v>
       </c>
       <c r="AJ46" s="4">
-        <v>-0.02824158020158596</v>
+        <v>-0.01877064866844191</v>
       </c>
     </row>
     <row r="47" spans="1:36">
@@ -5321,106 +5321,106 @@
         <v>28</v>
       </c>
       <c r="C47" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="D47" s="2">
-        <v>279426.5</v>
+        <v>285825.5</v>
       </c>
       <c r="E47" s="2">
-        <v>282605.5</v>
+        <v>289102.5</v>
       </c>
       <c r="F47" s="2">
-        <v>284976</v>
+        <v>291577</v>
       </c>
       <c r="G47" s="2">
-        <v>290999</v>
+        <v>297795</v>
       </c>
       <c r="H47" s="2">
-        <v>297807</v>
+        <v>304823</v>
       </c>
       <c r="I47" s="2">
-        <v>304046</v>
+        <v>311202</v>
       </c>
       <c r="J47" s="3">
-        <v>1930701646.030438</v>
+        <v>2028867934.263014</v>
       </c>
       <c r="K47" s="3">
-        <v>1887390126.916398</v>
+        <v>1990107775.125562</v>
       </c>
       <c r="L47" s="3">
-        <v>1854594231.112844</v>
+        <v>1947756917.693865</v>
       </c>
       <c r="M47" s="3">
-        <v>1860183167.041161</v>
+        <v>1956760152.706851</v>
       </c>
       <c r="N47" s="3">
-        <v>1863854853.541677</v>
+        <v>1959709109.148306</v>
       </c>
       <c r="O47" s="3">
-        <v>1991910465.047309</v>
+        <v>2109589629.530581</v>
       </c>
       <c r="P47" s="4">
-        <v>0.6996805111821086</v>
+        <v>0.6947040498442367</v>
       </c>
       <c r="Q47" s="4">
-        <v>0.8115015974440895</v>
+        <v>0.8161993769470405</v>
       </c>
       <c r="R47" s="4">
-        <v>0.8210862619808307</v>
+        <v>0.8193146417445483</v>
       </c>
       <c r="S47" s="4">
-        <v>0.8913738019169329</v>
+        <v>0.8909657320872274</v>
       </c>
       <c r="T47" s="4">
-        <v>0.7124600638977636</v>
+        <v>0.67601246105919</v>
       </c>
       <c r="U47" s="5">
-        <v>6909.51518925527</v>
+        <v>7098.2747664677</v>
       </c>
       <c r="V47" s="5">
-        <v>6678.532890960714</v>
+        <v>6883.744606586113</v>
       </c>
       <c r="W47" s="5">
-        <v>6507.896212708592</v>
+        <v>6680.077364448722</v>
       </c>
       <c r="X47" s="5">
-        <v>6392.403984347578</v>
+        <v>6570.829438730842</v>
       </c>
       <c r="Y47" s="5">
-        <v>6258.599876905771</v>
+        <v>6429.006699456097</v>
       </c>
       <c r="Z47" s="5">
-        <v>6551.345734024817</v>
+        <v>6778.843418521026</v>
       </c>
       <c r="AA47" s="5">
-        <v>-230.9822982945561</v>
+        <v>-214.5301598815868</v>
       </c>
       <c r="AB47" s="5">
-        <v>-401.6189765466788</v>
+        <v>-418.1974020189782</v>
       </c>
       <c r="AC47" s="5">
-        <v>-517.1112049076928</v>
+        <v>-527.4453277368575</v>
       </c>
       <c r="AD47" s="5">
-        <v>-650.9153123494998</v>
+        <v>-669.2680670116033</v>
       </c>
       <c r="AE47" s="5">
-        <v>-358.1694552304534</v>
+        <v>-319.4313479466737</v>
       </c>
       <c r="AF47" s="4">
-        <v>-0.03342959556030034</v>
+        <v>-0.03022285934816571</v>
       </c>
       <c r="AG47" s="4">
-        <v>-0.0581254929681928</v>
+        <v>-0.05891535841843509</v>
       </c>
       <c r="AH47" s="4">
-        <v>-0.07484044694073955</v>
+        <v>-0.0743061300231026</v>
       </c>
       <c r="AI47" s="4">
-        <v>-0.09420564171589263</v>
+        <v>-0.09428601864966268</v>
       </c>
       <c r="AJ47" s="4">
-        <v>-0.0518371326236361</v>
+        <v>-0.04500126558296524</v>
       </c>
     </row>
     <row r="48" spans="1:36">
@@ -5429,106 +5429,106 @@
         <v>29</v>
       </c>
       <c r="C48" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D48" s="2">
-        <v>9944</v>
+        <v>10589.5</v>
       </c>
       <c r="E48" s="2">
-        <v>10507.5</v>
+        <v>11186</v>
       </c>
       <c r="F48" s="2">
-        <v>10954</v>
+        <v>11654.5</v>
       </c>
       <c r="G48" s="2">
-        <v>11326</v>
+        <v>12022</v>
       </c>
       <c r="H48" s="2">
-        <v>11808</v>
+        <v>12520.5</v>
       </c>
       <c r="I48" s="2">
-        <v>12176.5</v>
+        <v>12879</v>
       </c>
       <c r="J48" s="3">
-        <v>234669818.8448758</v>
+        <v>258528281.206946</v>
       </c>
       <c r="K48" s="3">
-        <v>234975264.0223258</v>
+        <v>259391461.374732</v>
       </c>
       <c r="L48" s="3">
-        <v>241756877.7631959</v>
+        <v>265722013.2765599</v>
       </c>
       <c r="M48" s="3">
-        <v>249990185.5552077</v>
+        <v>274086221.4095773</v>
       </c>
       <c r="N48" s="3">
-        <v>236267177.1379349</v>
+        <v>257144291.4703047</v>
       </c>
       <c r="O48" s="3">
-        <v>264377491.4305926</v>
+        <v>287923188.8357503</v>
       </c>
       <c r="P48" s="4">
-        <v>0.8313253012048193</v>
+        <v>0.8488372093023255</v>
       </c>
       <c r="Q48" s="4">
-        <v>0.7469879518072289</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="R48" s="4">
-        <v>0.8313253012048193</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="S48" s="4">
-        <v>0.9397590361445783</v>
+        <v>0.9418604651162791</v>
       </c>
       <c r="T48" s="4">
-        <v>0.7590361445783133</v>
+        <v>0.7325581395348837</v>
       </c>
       <c r="U48" s="5">
-        <v>23599.13705197866</v>
+        <v>24413.64381764446</v>
       </c>
       <c r="V48" s="5">
-        <v>22362.62327121826</v>
+        <v>23188.93808105954</v>
       </c>
       <c r="W48" s="5">
-        <v>22070.19150659083</v>
+        <v>22799.94965691878</v>
       </c>
       <c r="X48" s="5">
-        <v>22072.23958636833</v>
+        <v>22798.72079600543</v>
       </c>
       <c r="Y48" s="5">
-        <v>20009.07665463541</v>
+        <v>20537.86122521502</v>
       </c>
       <c r="Z48" s="5">
-        <v>21712.10868727406</v>
+        <v>22356.0205633784</v>
       </c>
       <c r="AA48" s="5">
-        <v>-1236.513780760401</v>
+        <v>-1224.705736584921</v>
       </c>
       <c r="AB48" s="5">
-        <v>-1528.945545387829</v>
+        <v>-1613.694160725678</v>
       </c>
       <c r="AC48" s="5">
-        <v>-1526.897465610327</v>
+        <v>-1614.923021639028</v>
       </c>
       <c r="AD48" s="5">
-        <v>-3590.060397343252</v>
+        <v>-3875.782592429441</v>
       </c>
       <c r="AE48" s="5">
-        <v>-1887.028364704598</v>
+        <v>-2057.623254266065</v>
       </c>
       <c r="AF48" s="4">
-        <v>-0.05239656763876144</v>
+        <v>-0.05016480725829997</v>
       </c>
       <c r="AG48" s="4">
-        <v>-0.06478819721332296</v>
+        <v>-0.06609804635387584</v>
       </c>
       <c r="AH48" s="4">
-        <v>-0.06470141099851379</v>
+        <v>-0.06614838136009327</v>
       </c>
       <c r="AI48" s="4">
-        <v>-0.1521267658828332</v>
+        <v>-0.1587547775079892</v>
       </c>
       <c r="AJ48" s="4">
-        <v>-0.07996175286190732</v>
+        <v>-0.0842816938608304</v>
       </c>
     </row>
     <row r="49" spans="1:36">
@@ -5560,22 +5560,22 @@
         <v>1305</v>
       </c>
       <c r="J49" s="3">
-        <v>3801406.7887703</v>
+        <v>3913952.239826768</v>
       </c>
       <c r="K49" s="3">
-        <v>5405780.918714599</v>
+        <v>5583551.985356565</v>
       </c>
       <c r="L49" s="3">
-        <v>5577051.756884291</v>
+        <v>5733417.761474626</v>
       </c>
       <c r="M49" s="3">
-        <v>6230199.010978924</v>
+        <v>6406001.724532349</v>
       </c>
       <c r="N49" s="3">
-        <v>6362838.201585892</v>
+        <v>6544607.671370398</v>
       </c>
       <c r="O49" s="3">
-        <v>7152258.403405116</v>
+        <v>7429367.80283796</v>
       </c>
       <c r="P49" s="4">
         <v>1</v>
@@ -5593,52 +5593,52 @@
         <v>1</v>
       </c>
       <c r="U49" s="5">
-        <v>7233.885421066223</v>
+        <v>7448.053738966257</v>
       </c>
       <c r="V49" s="5">
-        <v>5763.092663874839</v>
+        <v>5952.614056883332</v>
       </c>
       <c r="W49" s="5">
-        <v>5380.657749044179</v>
+        <v>5531.517377206585</v>
       </c>
       <c r="X49" s="5">
-        <v>5012.227683812489</v>
+        <v>5153.661886188535</v>
       </c>
       <c r="Y49" s="5">
-        <v>5010.108820146372</v>
+        <v>5153.234386905825</v>
       </c>
       <c r="Z49" s="5">
-        <v>5480.657780387062</v>
+        <v>5693.002147768552</v>
       </c>
       <c r="AA49" s="5">
-        <v>-1470.792757191384</v>
+        <v>-1495.439682082925</v>
       </c>
       <c r="AB49" s="5">
-        <v>-1853.227672022044</v>
+        <v>-1916.536361759671</v>
       </c>
       <c r="AC49" s="5">
-        <v>-2221.657737253734</v>
+        <v>-2294.391852777721</v>
       </c>
       <c r="AD49" s="5">
-        <v>-2223.776600919851</v>
+        <v>-2294.819352060432</v>
       </c>
       <c r="AE49" s="5">
-        <v>-1753.227640679161</v>
+        <v>-1755.051591197705</v>
       </c>
       <c r="AF49" s="4">
-        <v>-0.2033198857294867</v>
+        <v>-0.2007826117391149</v>
       </c>
       <c r="AG49" s="4">
-        <v>-0.2561870370002199</v>
+        <v>-0.2573204261044543</v>
       </c>
       <c r="AH49" s="4">
-        <v>-0.3071181817151698</v>
+        <v>-0.3080525373728263</v>
       </c>
       <c r="AI49" s="4">
-        <v>-0.3074110898195679</v>
+        <v>-0.3081099348215683</v>
       </c>
       <c r="AJ49" s="4">
-        <v>-0.2423632029854224</v>
+        <v>-0.2356389538404827</v>
       </c>
     </row>
     <row r="50" spans="1:36">
@@ -5668,22 +5668,22 @@
         <v>16161.5</v>
       </c>
       <c r="J50" s="3">
-        <v>100494150.3132613</v>
+        <v>103469406.6075768</v>
       </c>
       <c r="K50" s="3">
-        <v>100812599.8414086</v>
+        <v>104127858.7603768</v>
       </c>
       <c r="L50" s="3">
-        <v>101149630.6358981</v>
+        <v>103985602.8122007</v>
       </c>
       <c r="M50" s="3">
-        <v>98000486.26594314</v>
+        <v>100765847.5946499</v>
       </c>
       <c r="N50" s="3">
-        <v>102652133.5661287</v>
+        <v>105584633.7019821</v>
       </c>
       <c r="O50" s="3">
-        <v>106968083.9032508</v>
+        <v>111112489.7422232</v>
       </c>
       <c r="P50" s="4">
         <v>1</v>
@@ -5701,52 +5701,52 @@
         <v>1</v>
       </c>
       <c r="U50" s="5">
-        <v>7397.706968475935</v>
+        <v>7616.725430275449</v>
       </c>
       <c r="V50" s="5">
-        <v>6952.832845367672</v>
+        <v>7181.479275863084</v>
       </c>
       <c r="W50" s="5">
-        <v>6876.015814275386</v>
+        <v>7068.80138759394</v>
       </c>
       <c r="X50" s="5">
-        <v>6394.185643554832</v>
+        <v>6574.615704475898</v>
       </c>
       <c r="Y50" s="5">
-        <v>6533.982595469828</v>
+        <v>6720.641208235389</v>
       </c>
       <c r="Z50" s="5">
-        <v>6618.697763403818</v>
+        <v>6875.134717830848</v>
       </c>
       <c r="AA50" s="5">
-        <v>-444.8741231082631</v>
+        <v>-435.2461544123653</v>
       </c>
       <c r="AB50" s="5">
-        <v>-521.6911542005491</v>
+        <v>-547.9240426815086</v>
       </c>
       <c r="AC50" s="5">
-        <v>-1003.521324921103</v>
+        <v>-1042.109725799551</v>
       </c>
       <c r="AD50" s="5">
-        <v>-863.7243730061073</v>
+        <v>-896.08422204006</v>
       </c>
       <c r="AE50" s="5">
-        <v>-779.0092050721178</v>
+        <v>-741.5907124446012</v>
       </c>
       <c r="AF50" s="4">
-        <v>-0.06013675926932738</v>
+        <v>-0.05714347437053735</v>
       </c>
       <c r="AG50" s="4">
-        <v>-0.07052065679590269</v>
+        <v>-0.07193695607085759</v>
       </c>
       <c r="AH50" s="4">
-        <v>-0.1356530245382032</v>
+        <v>-0.1368186020802727</v>
       </c>
       <c r="AI50" s="4">
-        <v>-0.1167556888488178</v>
+        <v>-0.1176469114244616</v>
       </c>
       <c r="AJ50" s="4">
-        <v>-0.1053041447020993</v>
+        <v>-0.09736345615096997</v>
       </c>
     </row>
     <row r="51" spans="1:36">
@@ -5776,22 +5776,22 @@
         <v>1254.5</v>
       </c>
       <c r="J51" s="3">
-        <v>12837415.56023768</v>
+        <v>13217483.46796444</v>
       </c>
       <c r="K51" s="3">
-        <v>11744864.40540258</v>
+        <v>12131098.53222141</v>
       </c>
       <c r="L51" s="3">
-        <v>12727350.86003582</v>
+        <v>13084192.62693293</v>
       </c>
       <c r="M51" s="3">
-        <v>13234647.93796173</v>
+        <v>13608101.01968799</v>
       </c>
       <c r="N51" s="3">
-        <v>13560388.23666699</v>
+        <v>13947772.68708986</v>
       </c>
       <c r="O51" s="3">
-        <v>13020595.79014626</v>
+        <v>13525069.94028986</v>
       </c>
       <c r="P51" s="4">
         <v>0.7619047619047619</v>
@@ -5809,52 +5809,52 @@
         <v>0.6190476190476191</v>
       </c>
       <c r="U51" s="5">
-        <v>10967.46310144184</v>
+        <v>11292.16870394228</v>
       </c>
       <c r="V51" s="5">
-        <v>9767.039006571789</v>
+        <v>10088.23162762696</v>
       </c>
       <c r="W51" s="5">
-        <v>9410.24093163462</v>
+        <v>9674.07957629052</v>
       </c>
       <c r="X51" s="5">
-        <v>9572.982233607039</v>
+        <v>9843.11104498227</v>
       </c>
       <c r="Y51" s="5">
-        <v>9627.538684179613</v>
+        <v>9902.572017813178</v>
       </c>
       <c r="Z51" s="5">
-        <v>10379.1118295307</v>
+        <v>10781.2434757193</v>
       </c>
       <c r="AA51" s="5">
-        <v>-1200.424094870054</v>
+        <v>-1203.937076315329</v>
       </c>
       <c r="AB51" s="5">
-        <v>-1557.222169807223</v>
+        <v>-1618.089127651765</v>
       </c>
       <c r="AC51" s="5">
-        <v>-1394.480867834804</v>
+        <v>-1449.057658960015</v>
       </c>
       <c r="AD51" s="5">
-        <v>-1339.924417262229</v>
+        <v>-1389.596686129107</v>
       </c>
       <c r="AE51" s="5">
-        <v>-588.3512719111459</v>
+        <v>-510.9252282229882</v>
       </c>
       <c r="AF51" s="4">
-        <v>-0.1094532148197735</v>
+        <v>-0.106616993411993</v>
       </c>
       <c r="AG51" s="4">
-        <v>-0.1419856310802178</v>
+        <v>-0.1432930352065023</v>
       </c>
       <c r="AH51" s="4">
-        <v>-0.1271470763053196</v>
+        <v>-0.128324124174139</v>
       </c>
       <c r="AI51" s="4">
-        <v>-0.12217268522983</v>
+        <v>-0.1230584418778632</v>
       </c>
       <c r="AJ51" s="4">
-        <v>-0.05364515626533528</v>
+        <v>-0.04524597901593652</v>
       </c>
     </row>
     <row r="52" spans="1:36">
@@ -5863,106 +5863,106 @@
         <v>27</v>
       </c>
       <c r="C52" s="2">
-        <v>1414</v>
+        <v>1447</v>
       </c>
       <c r="D52" s="2">
-        <v>374680.5</v>
+        <v>383856</v>
       </c>
       <c r="E52" s="2">
-        <v>380215.5</v>
+        <v>389381.5</v>
       </c>
       <c r="F52" s="2">
-        <v>384295.5</v>
+        <v>393458</v>
       </c>
       <c r="G52" s="2">
-        <v>386140.5</v>
+        <v>395360</v>
       </c>
       <c r="H52" s="2">
-        <v>385044</v>
+        <v>394146.5</v>
       </c>
       <c r="I52" s="2">
-        <v>379720</v>
+        <v>388714</v>
       </c>
       <c r="J52" s="3">
-        <v>2159774098.280068</v>
+        <v>2275683195.852791</v>
       </c>
       <c r="K52" s="3">
-        <v>2079286518.9318</v>
+        <v>2200478475.91627</v>
       </c>
       <c r="L52" s="3">
-        <v>2093920242.669037</v>
+        <v>2204660039.793479</v>
       </c>
       <c r="M52" s="3">
-        <v>2115341226.559393</v>
+        <v>2225668779.292613</v>
       </c>
       <c r="N52" s="3">
-        <v>2080899817.37058</v>
+        <v>2191554657.934295</v>
       </c>
       <c r="O52" s="3">
-        <v>2139620665.433245</v>
+        <v>2271013800.185507</v>
       </c>
       <c r="P52" s="4">
-        <v>0.7588401697312589</v>
+        <v>0.7415342087076711</v>
       </c>
       <c r="Q52" s="4">
-        <v>0.7786421499292786</v>
+        <v>0.7829993089149966</v>
       </c>
       <c r="R52" s="4">
-        <v>0.7496463932107497</v>
+        <v>0.7532826537664132</v>
       </c>
       <c r="S52" s="4">
-        <v>0.7793493635077794</v>
+        <v>0.7781617138908086</v>
       </c>
       <c r="T52" s="4">
-        <v>0.5834512022630834</v>
+        <v>0.539737387698687</v>
       </c>
       <c r="U52" s="5">
-        <v>5764.308786499612</v>
+        <v>5928.481503096972</v>
       </c>
       <c r="V52" s="5">
-        <v>5468.705297211187</v>
+        <v>5651.214749330079</v>
       </c>
       <c r="W52" s="5">
-        <v>5448.72433496889</v>
+        <v>5603.291939148471</v>
       </c>
       <c r="X52" s="5">
-        <v>5478.164622875334</v>
+        <v>5629.473844831577</v>
       </c>
       <c r="Y52" s="5">
-        <v>5404.316954349582</v>
+        <v>5560.254011983602</v>
       </c>
       <c r="Z52" s="5">
-        <v>5634.732606745089</v>
+        <v>5842.37717238254</v>
       </c>
       <c r="AA52" s="5">
-        <v>-295.6034892884254</v>
+        <v>-277.2667537668931</v>
       </c>
       <c r="AB52" s="5">
-        <v>-315.5844515307226</v>
+        <v>-325.189563948501</v>
       </c>
       <c r="AC52" s="5">
-        <v>-286.144163624278</v>
+        <v>-299.0076582653946</v>
       </c>
       <c r="AD52" s="5">
-        <v>-359.9918321500299</v>
+        <v>-368.22749111337</v>
       </c>
       <c r="AE52" s="5">
-        <v>-129.5761797545229</v>
+        <v>-86.10433071443185</v>
       </c>
       <c r="AF52" s="4">
-        <v>-0.05128168879168093</v>
+        <v>-0.04676859557072954</v>
       </c>
       <c r="AG52" s="4">
-        <v>-0.05474801285278852</v>
+        <v>-0.05485208375511097</v>
       </c>
       <c r="AH52" s="4">
-        <v>-0.04964067232040836</v>
+        <v>-0.05043579171313872</v>
       </c>
       <c r="AI52" s="4">
-        <v>-0.06245186465255892</v>
+        <v>-0.06211160326991183</v>
       </c>
       <c r="AJ52" s="4">
-        <v>-0.02247904901590259</v>
+        <v>-0.01452384234807036</v>
       </c>
     </row>
     <row r="53" spans="1:36">
@@ -5971,106 +5971,106 @@
         <v>28</v>
       </c>
       <c r="C53" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="D53" s="2">
-        <v>230338.5</v>
+        <v>238742.5</v>
       </c>
       <c r="E53" s="2">
-        <v>231802</v>
+        <v>240107</v>
       </c>
       <c r="F53" s="2">
-        <v>233762.5</v>
+        <v>241983.5</v>
       </c>
       <c r="G53" s="2">
-        <v>237731</v>
+        <v>245953</v>
       </c>
       <c r="H53" s="2">
-        <v>241473</v>
+        <v>249826</v>
       </c>
       <c r="I53" s="2">
-        <v>245647</v>
+        <v>254182</v>
       </c>
       <c r="J53" s="3">
-        <v>1611637463.645391</v>
+        <v>1720134494.969376</v>
       </c>
       <c r="K53" s="3">
-        <v>1547492181.633699</v>
+        <v>1652925415.375235</v>
       </c>
       <c r="L53" s="3">
-        <v>1516305049.423098</v>
+        <v>1616331906.657171</v>
       </c>
       <c r="M53" s="3">
-        <v>1517594621.939284</v>
+        <v>1616452436.320906</v>
       </c>
       <c r="N53" s="3">
-        <v>1521248714.786407</v>
+        <v>1619794492.387602</v>
       </c>
       <c r="O53" s="3">
-        <v>1616841211.647889</v>
+        <v>1734860726.028914</v>
       </c>
       <c r="P53" s="4">
-        <v>0.8061674008810573</v>
+        <v>0.7763713080168776</v>
       </c>
       <c r="Q53" s="4">
-        <v>0.9118942731277533</v>
+        <v>0.9029535864978903</v>
       </c>
       <c r="R53" s="4">
-        <v>0.9118942731277533</v>
+        <v>0.9071729957805907</v>
       </c>
       <c r="S53" s="4">
-        <v>0.9515418502202643</v>
+        <v>0.9535864978902954</v>
       </c>
       <c r="T53" s="4">
-        <v>0.8458149779735683</v>
+        <v>0.810126582278481</v>
       </c>
       <c r="U53" s="5">
-        <v>6996.821910559423</v>
+        <v>7204.97814578207</v>
       </c>
       <c r="V53" s="5">
-        <v>6675.922475361294</v>
+        <v>6884.120060536489</v>
       </c>
       <c r="W53" s="5">
-        <v>6486.519648887644</v>
+        <v>6679.512886858697</v>
       </c>
       <c r="X53" s="5">
-        <v>6383.663140016591</v>
+        <v>6572.200527421524</v>
       </c>
       <c r="Y53" s="5">
-        <v>6299.870854242119</v>
+        <v>6483.690618220689</v>
       </c>
       <c r="Z53" s="5">
-        <v>6581.970110149479</v>
+        <v>6825.269791050955</v>
       </c>
       <c r="AA53" s="5">
-        <v>-320.8994351981282</v>
+        <v>-320.8580852455807</v>
       </c>
       <c r="AB53" s="5">
-        <v>-510.302261671779</v>
+        <v>-525.4652589233729</v>
       </c>
       <c r="AC53" s="5">
-        <v>-613.1587705428319</v>
+        <v>-632.7776183605456</v>
       </c>
       <c r="AD53" s="5">
-        <v>-696.9510563173035</v>
+        <v>-721.2875275613806</v>
       </c>
       <c r="AE53" s="5">
-        <v>-414.8518004099433</v>
+        <v>-379.7083547311149</v>
       </c>
       <c r="AF53" s="4">
-        <v>-0.04586359911688409</v>
+        <v>-0.04453283254348483</v>
       </c>
       <c r="AG53" s="4">
-        <v>-0.07293343580771205</v>
+        <v>-0.07293086089802925</v>
       </c>
       <c r="AH53" s="4">
-        <v>-0.08763389698649737</v>
+        <v>-0.08782505728084489</v>
       </c>
       <c r="AI53" s="4">
-        <v>-0.09960966067543942</v>
+        <v>-0.1001096065757862</v>
       </c>
       <c r="AJ53" s="4">
-        <v>-0.05929146199703317</v>
+        <v>-0.05270083365254941</v>
       </c>
     </row>
     <row r="54" spans="1:36">
@@ -6100,22 +6100,22 @@
         <v>8009</v>
       </c>
       <c r="J54" s="3">
-        <v>159093560.7522863</v>
+        <v>163803726.6329647</v>
       </c>
       <c r="K54" s="3">
-        <v>157861702.2231287</v>
+        <v>163053041.570413</v>
       </c>
       <c r="L54" s="3">
-        <v>161868476.2664856</v>
+        <v>166406846.718521</v>
       </c>
       <c r="M54" s="3">
-        <v>167730653.815975</v>
+        <v>172463649.348698</v>
       </c>
       <c r="N54" s="3">
-        <v>166583201.1698416</v>
+        <v>171342042.9307559</v>
       </c>
       <c r="O54" s="3">
-        <v>187243975.6982948</v>
+        <v>194498616.5021659</v>
       </c>
       <c r="P54" s="4">
         <v>0.7692307692307693</v>
@@ -6130,55 +6130,55 @@
         <v>0.8653846153846154</v>
       </c>
       <c r="T54" s="4">
-        <v>0.8076923076923077</v>
+        <v>0.7884615384615384</v>
       </c>
       <c r="U54" s="5">
-        <v>25953.27255339091</v>
+        <v>26721.65197927647</v>
       </c>
       <c r="V54" s="5">
-        <v>24706.42495079876</v>
+        <v>25518.90469839783</v>
       </c>
       <c r="W54" s="5">
-        <v>24023.22295436118</v>
+        <v>24696.77155216994</v>
       </c>
       <c r="X54" s="5">
-        <v>23404.82157482384</v>
+        <v>24065.25491504891</v>
       </c>
       <c r="Y54" s="5">
-        <v>22149.07607629858</v>
+        <v>22781.81663751574</v>
       </c>
       <c r="Z54" s="5">
-        <v>23379.19536749841</v>
+        <v>24285.00643053638</v>
       </c>
       <c r="AA54" s="5">
-        <v>-1246.847602592148</v>
+        <v>-1202.747280878633</v>
       </c>
       <c r="AB54" s="5">
-        <v>-1930.049599029731</v>
+        <v>-2024.880427106531</v>
       </c>
       <c r="AC54" s="5">
-        <v>-2548.450978567071</v>
+        <v>-2656.39706422756</v>
       </c>
       <c r="AD54" s="5">
-        <v>-3804.19647709233</v>
+        <v>-3939.835341760725</v>
       </c>
       <c r="AE54" s="5">
-        <v>-2574.077185892496</v>
+        <v>-2436.645548740089</v>
       </c>
       <c r="AF54" s="4">
-        <v>-0.04804201859426938</v>
+        <v>-0.0450102142566412</v>
       </c>
       <c r="AG54" s="4">
-        <v>-0.07436632875716331</v>
+        <v>-0.07577676816825896</v>
       </c>
       <c r="AH54" s="4">
-        <v>-0.09819382019452128</v>
+        <v>-0.09940991171832059</v>
       </c>
       <c r="AI54" s="4">
-        <v>-0.1465786817160094</v>
+        <v>-0.1474398119104388</v>
       </c>
       <c r="AJ54" s="4">
-        <v>-0.09918121811409797</v>
+        <v>-0.09118618679076385</v>
       </c>
     </row>
   </sheetData>
